--- a/app/reporte.xlsx
+++ b/app/reporte.xlsx
@@ -461,47 +461,47 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Temas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hechos Violativos</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hipotesis de los Hechos</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion Vulnerable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Arma</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Victimas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Agresor o Sospechoso</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Autor de la noticia</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Fuentes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Temas</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Hechos Violativos</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Hipotesis de los Hechos</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Poblacion Vulnerable</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Arma</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Victimas</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Agresor o PRUEBA</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Indicador de prueba</t>
         </is>
       </c>
     </row>
@@ -527,11 +527,7 @@
           <t>Dato no extraído</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -563,11 +559,7 @@
           <t>Dato no extraído</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,11 +596,6 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La fuente de información para esta noticia es la información no identificada en el texto. No se indica en el texto ninguna otra fuente de información.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen de feminicidio en La Campanera:** La noticia describe el crimen de feminicidio de una niña de siete años en La Campanera, Soyapango.
 * **Confesión del sospechoso:** El fiscal general confirma que el sospechoso confesó haber cometido el crimen.
@@ -617,12 +604,12 @@
 * **Requerimiento fiscal:** El fiscal informó sobre el requerimiento fiscal por los delitos de feminicidio, violación y privación de libertad contra el sospechoso.</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el asesinato de una niña de siete años en la colonia La Campanera, Soyapango, y el arresto del sospechoso, Edwin Mauricio Alvarado Lazo. La teoría de la noticia es que el suspectó confesó haber cometido el crimen.
@@ -630,19 +617,24 @@
 La suposición de la noticia es que el sospechoso confesó por el crimen de feminicidio contra la niña Melissa H. de siete años.</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no indica el tipo de arma, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>El nombre del agresor en la noticia es **Edwin Mauricio Alvarado Lazo**.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -652,7 +644,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La fuente de información para esta noticia es la información no identificada en el texto. No se indica en el texto ninguna otra fuente de información.</t>
         </is>
       </c>
     </row>
@@ -686,12 +678,6 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene información sobre las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * ** feminicidio:** La noticia destaca el delito de feminicidio que ocurrió en San Salvador, donde un hombre asesinó a su expareja.
@@ -700,12 +686,12 @@
 * **Impacto:** La noticia ilustra el impacto negativo de la violencia contra las mujeres en El Salvador.</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el hombre que asesinó a su expareja en San Salvador probablemente cometió el delito debido a una desigualdad de poder, el machismo, el sexismo, la posesión y la persecución que el hombre le daba a la víctima.
@@ -713,19 +699,25 @@
 La suposición de la noticia es que la desigualdad de poder, el machismo, el sexismo, la posesión y la persecución que Ramírez le daba a la víctima derivaron en el cometimiento del delito.</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser afectados por el caso, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser afectados por el caso, por lo que no se puede proporcionar la información requested.</t>
+          <t>La noticia no especifica el tipo de arma que utilizó Ramírez en el asesinato, por lo que no se puede proporcionar la información de la misma.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>La noticia no especifica el tipo de arma que utilizó Ramírez en el asesinato, por lo que no se puede proporcionar la información de la misma.</t>
+          <t>La noticia identifica a la víctima como Briana Flores, pero no indica si todavía estaban juntos o no.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>La noticia identifica a la víctima como Briana Flores, pero no indica si todavía estaban juntos o no.</t>
+          <t>**Nombre del agresor:** Juan Carlos Ramírez
+La noticia no indica si el nombre del agresor se menciona en el texto, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -735,7 +727,8 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene información sobre las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
         </is>
       </c>
     </row>
@@ -776,11 +769,6 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma para determinar las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>**Temas principales tratados en la noticia:**
 * **El Fondo Monetario Internacional (FMI) critica la decisión de la administración de Biden de aumentar los aranceles.**
 * **El ministro de Justicia y Seguridad, Gustavo Villatoro, destaca el reconocimiento de Estados Unidos al trabajo de la Fuerza Armada en San Salvador.**
@@ -789,12 +777,12 @@
 * **Las elecciones en República Dominicana el domingo 19 de mayo.**</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información que respalde una teoría, por lo que no se puede proporcionar la teoría o suposición presentada.
@@ -802,19 +790,24 @@
 La noticia presenta una amplia gama de temas, pero no se conecta entre ellos de manera lógica. No hay una relación clara entre el donativo del FMI, la eliminación de San Salvador de las semifinales de la LNF, el cuadro capitalino que arrasó como huracán 5-0 a La Unión, el rechazo de la imagen de la Virgen María en Trevignano Romano, las elecciones en República Dominicana o los garroberos que enfrentaron a los pumas.</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La texto no menciona ningún tipo de arma, por lo que no se puede especificar la información sobre el tipo de arma que se menciona en la noticia.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>La texto no menciona ningún tipo de arma, por lo que no se puede especificar la información sobre el tipo de arma que se menciona en la noticia.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -824,7 +817,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma para determinar las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -858,47 +851,47 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>No se ha proporcionado ninguna información sobre la noticia por lo que no se puede analizar la información para proporcionar el contenido solicitado.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No se ha proporcionado la información sobre la noticia, por lo que no se puede analizar y proporcionar la información sobre los detalles específicos de la violación a la ley.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No se ha proporcionado la información sobre la noticia o la información que se quiere analizar, por lo que no se puede completar la solicitud.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>La información que no se ha proporcionado me impide analizar la noticia, por lo que no soy capaz de proporcionar la información sobre los grupos en riesgo que se mencionan en la misma.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>La información no se ha proporcionado, por lo que no se puede analizar la información sobre el tipo de arma que se menciona en la noticia.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No se ha proporcionado ninguna información sobre la noticia por lo que no se puede identificar las víctimas.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>La información que usted ha proporcionado no contiene la información sobre el nombre del agresor, por lo que no se puede analizar la información de la noticia de manera completa.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>No se ha proporcionado la información sobre la noticia, por lo que no se puede analizar y proporcionar la información sobre las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado ninguna información sobre la noticia por lo que no se puede analizar la información para proporcionar el contenido solicitado.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado la información sobre la noticia, por lo que no se puede analizar y proporcionar la información sobre los detalles específicos de la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado la información sobre la noticia o la información que se quiere analizar, por lo que no se puede completar la solicitud.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>La información que no se ha proporcionado me impide analizar la noticia, por lo que no soy capaz de proporcionar la información sobre los grupos en riesgo que se mencionan en la misma.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>La información no se ha proporcionado, por lo que no se puede analizar la información sobre el tipo de arma que se menciona en la noticia.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado ninguna información sobre la noticia por lo que no se puede identificar las víctimas.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -931,11 +924,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Secreto de voto:** La noticia destaca la importancia de la secreto de voto como derecho constitucional.
@@ -943,29 +931,34 @@
 * **Derechos constitucionales:** La noticia enfatiza el derecho a lasecreción de voto como un derecho constitucional.</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+          <t>La teoría que se presenta en esta noticia es que los candidatos salvadoreños en el exterior podrían estar promoviendo la divulgación de sus votos.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>La teoría que se presenta en esta noticia es que los candidatos salvadoreños en el exterior podrían estar promoviendo la divulgación de sus votos.</t>
+          <t>La texto no contiene información sobre los grupos en riesgo que se podrían mencionar en la noticia, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo que se podrían mencionar en la noticia, por lo que no se puede proporcionar la información requested.</t>
+          <t>Algo xd</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre armas, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -975,7 +968,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1004,6 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio de una mujer trans:** La noticia describe el homicidio de una mujer trans en Sacacoyo, La Libertad.
@@ -1025,12 +1013,12 @@
 * **Derechos de ciudadanos:** Los dos hombres perderán sus Derechos de ciudadanos por igual período.</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el asesinato de dos mujeres trans en dos casos distintos, en la provincia de La Libertad, Ecuador. En el primero, la víctima, JDMO, fue asfixiada en el cantón Ateos, Sacacoyo, mientras que en el segundo, la víctima, Anahí Miranda Rivas, también fue asfixiada en contra de su agresor, Juan Carlos Hernández Vásquez.
@@ -1039,22 +1027,27 @@
 En conclusión, la noticia presenta una cuenta detallada de los dos asesinatos de mujeres trans, incluyendo la reconstrucción de los hechos, las pruebas forenses y los hallazgos del juicio. No se incluye la opinión del autor sobre la naturaleza de las causas de estos asesinatos o su suposición sobre el comportamiento de los acusados.</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
+          <t>La texto no menciona el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>La texto no menciona el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia identifica a las víctimas como "JDMO" y "Anahí Miranda Rivas".</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>El texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
@@ -1062,7 +1055,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
@@ -1095,11 +1088,6 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de fuentes.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio:** La noticia trata sobre un caso de homicidio, en el que dos hombres fueron condenados por el delito de "homicidio simple" en perjuicio de una mujer trans.
@@ -1108,30 +1096,35 @@
 * **Identidad:** La víctima es identificada por sus iniciales "JDMO", en el proceso penal.</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre los detalles específicos de la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre los detalles específicos de la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información sobre la teoría o suposición que se presenta, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no indica el tipo de arma que se utilizó en el crimen, por lo que no se puede proporcionar la información de la especificación del tipo de arma.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma que se utilizó en el crimen, por lo que no se puede proporcionar la información de la especificación del tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1141,7 +1134,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de fuentes.</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1169,6 @@
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>**Fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la Requested información.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Suicidios y asesinato de bebés:** La noticia destaca el aumento de los suicidios y asesinatos de bebés en El Salvador, y enfatiza la necesidad de tomar medidas para prevenir estos crímenes.
@@ -1191,12 +1178,12 @@
 * **Loss de valores:** La noticia enfatiza la pérdida de valores que se ha detectado en El Salvador, incluyendo los casos de madres que asesinan a sus hijos.</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>La información sobre los detalles específicos de la violación a la ley en esta noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud.</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>La información sobre los detalles específicos de la violación a la ley en esta noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un incremento de suicidios y asesinatos de bebés en El Salvador, y sugiere que podría ser una nueva estrategia de encubrir asesinatos. La teoría se basa en el siguiente razonamiento:
@@ -1207,19 +1194,24 @@
 La suposición es que el incremento de suicidios y asesinatos de bebés en El Salvador podría ser relacionado con la creciente pérdida de valores en la sociedad salvadoreña.</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
+          <t>La texto no indica el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1229,7 +1221,8 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la Requested información.</t>
         </is>
       </c>
     </row>
@@ -1261,47 +1254,47 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>La información que se ha proporcionado no contiene la noticia por lo que no se puede analizar el texto para proporcionar los temas principales tratados.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>La información que usted ha proporcionado no contiene ninguna información sobre los detalles específicos de la violación a la ley de la noticia, por lo que no se puede proporcionar la información que usted solicita.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La información que se ha proporcionado no contiene ninguna teoría o suposición sobre la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>La información que se ha proporcionado no contiene la información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información de la solicitud.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre el tipo de arma que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>La información no contiene ninguna información sobre las víctimas, por lo que no se puede proporcionar la identificación de las víctimas en esta noticia.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>La información que usted ha proporcionado no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>La información que ha proporcionado no contiene ninguna fuente de información, por lo que no se puede analizar la solicitud de análisis.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>La información que se ha proporcionado no contiene la noticia por lo que no se puede analizar el texto para proporcionar los temas principales tratados.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>La información que usted ha proporcionado no contiene ninguna información sobre los detalles específicos de la violación a la ley de la noticia, por lo que no se puede proporcionar la información que usted solicita.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>La información que se ha proporcionado no contiene ninguna teoría o suposición sobre la noticia, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>La información que se ha proporcionado no contiene la información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información de la solicitud.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre el tipo de arma que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>La información no contiene ninguna información sobre las víctimas, por lo que no se puede proporcionar la identificación de las víctimas en esta noticia.</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1326,47 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>La información que se ha proporcionado no contiene la noticia, por lo que no se puede analizar el texto para proporcionar la información sobre los temas principales tratados.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>La información que usted ha proporcionado no contiene la información sobre los detalles específicos sobre la violación a la ley de la noticia, por lo que no se puede proporcionar la información que usted solicita.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La información que usted ha proporcionado no contiene ninguna teoría o suposición, por lo que no se puede analizar la solicitud.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>La información que se ha proporcionado no contiene la información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información que se solicita.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre el tipo de arma, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>La información que se ha proporcionado no contiene información sobre las víctimas de la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>La información no contiene ninguna fuente de información, por lo que no se puede analizar la solicitud.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>La información que se ha proporcionado no contiene la noticia, por lo que no se puede analizar el texto para proporcionar la información sobre los temas principales tratados.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>La información que usted ha proporcionado no contiene la información sobre los detalles específicos sobre la violación a la ley de la noticia, por lo que no se puede proporcionar la información que usted solicita.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>La información que usted ha proporcionado no contiene ninguna teoría o suposición, por lo que no se puede analizar la solicitud.</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>La información que se ha proporcionado no contiene la información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información que se solicita.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre el tipo de arma, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>La información que se ha proporcionado no contiene información sobre las víctimas de la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -1406,11 +1399,6 @@
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si es cierta o no.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Deportación de pandilleros:** La noticia informa sobre la deportación de cuatro hombres ligados a pandillas, incluyendo dos miembros de la Mara Salvatrucha (MS13) y dos miembros del Barrio 18.
@@ -1419,12 +1407,12 @@
 * **Seguridad fronteriza:** La noticia enfatiza la participación de la División de Seguridad Fronteriza en el procedimiento de deportación.</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>La información sobre la violación a la ley en esta noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>La información sobre la violación a la ley en esta noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el deport de cuatro hombres ligados a pandillas, incluyendo dos miembros de la Mara Salvatrucha (MS13) y dos miembros de la Barrio 18. La suposición es que la detención de estos individuos es parte de una operación de lucha contra el crimen organizado en El Salvador.
@@ -1432,19 +1420,24 @@
 La noticia sugiere que la detención de estos individuos es parte de una estrategia de lucha contra el crimen organizado en El Salvador.</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Los grupos en riesgo mencionados en la noticia son la Mara Salvatrucha (MS13), el Barrio 18 Sureños y el Barrio 18 Revolucionarios.</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Los grupos en riesgo mencionados en la noticia son la Mara Salvatrucha (MS13), el Barrio 18 Sureños y el Barrio 18 Revolucionarios.</t>
+          <t>La texto no indica el tipo de arma, por lo que no se puede proporcionar la información de la especificación del tipo de arma.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma, por lo que no se puede proporcionar la información de la especificación del tipo de arma.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar la información de las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar la información de las víctimas en esta noticia.</t>
+          <t>La información sobre el agresor no se encuentra en el texto, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1454,7 +1447,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si es cierta o no.</t>
         </is>
       </c>
     </row>
@@ -1489,11 +1482,6 @@
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>La información de la noticia no incluye citas a fuentes de información, por lo que no se puede analizar el contenido de la misma con precisión.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Homicidio:** La noticia trata sobre un caso de homicidio, en el que un hombre asesinó a su compañera de vida y luego se suicidó.
@@ -1502,12 +1490,12 @@
 * **Seguridad:** La noticia también enfatiza la necesidad de mejorar la seguridad de las mujeres en El Salvador.</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de asesinato y suicidio de una pareja en San Miguel, El Salvador. El hombre, Oscar Napoleón Martínez, asesinó a su compañera de vida, Teresa de Jesús Medina, con un machete después de una discusión. Luego de cometer el crimen, Martínez se suicidó.
@@ -1516,19 +1504,24 @@
 La causa del asesinato podría haber sido una discusión entre Martínez y Medina. El texto indica que "una discusión suscitada entre ambos" precedió el asesinato.</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>La información sobre el grupo en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>La información sobre el grupo en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La noticia no especifica el tipo de arma que usó el asesino, por lo que no se puede proporcionar la información de la misma.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>La noticia no especifica el tipo de arma que usó el asesino, por lo que no se puede proporcionar la información de la misma.</t>
+          <t>La noticia indica que una víctima de la muerte es Teresa de Jesús Medina, pero no identifica a la otra víctima, por lo que no se puede proporcionar la información de identificación de la otra víctima.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>La noticia indica que una víctima de la muerte es Teresa de Jesús Medina, pero no identifica a la otra víctima, por lo que no se puede proporcionar la información de identificación de la otra víctima.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1538,7 +1531,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información de la noticia no incluye citas a fuentes de información, por lo que no se puede analizar el contenido de la misma con precisión.</t>
         </is>
       </c>
     </row>
@@ -1575,39 +1568,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información para la noticia.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Clima:** Previsión de lluvia sobre la franja costera y cordillera volcánica, con énfasis en la cordillera El Bálsamo, Apaneca-Ilamatepec y sus alrededores.
 * **Ocurrencia de lluvias:** Continuación de las lluvias sobre la cordillera El Bálsamo y Apaneca-Ilamatepec, y se espera más lluvia y tormentas en la franja norte.</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+          <t>La información que se deduce de la noticia es que las lluvias se espera que ocurran sobre la cordillera El Bálsamo y Apaneca-Ilamatepec, y también sobre la franja norte del país.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>La información que se deduce de la noticia es que las lluvias se espera que ocurran sobre la cordillera El Bálsamo y Apaneca-Ilamatepec, y también sobre la franja norte del país.</t>
+          <t>La texto no indica los grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados en la noticia.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>La texto no indica los grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados en la noticia.</t>
+          <t>La texto no contiene ninguna información sobre armas, por lo que no se puede determinar el tipo de arma que se menciona en la noticia.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>La texto no contiene ninguna información sobre armas, por lo que no se puede determinar el tipo de arma que se menciona en la noticia.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en la noticia.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en la noticia.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1617,7 +1610,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información para la noticia.</t>
         </is>
       </c>
     </row>
@@ -1650,14 +1643,6 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es cierta o no.
-**Conclusión:**
-La noticia informa sobre la captura de cuatro peligrosos pandilleros deportados de Estados Unidos en el Aeropuerto Internacional de El Salvador. La información no incluye fuentes de información, por lo que no se puede verificar la precisión de la misma.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Detención de peligrosos pandilleros:** La noticia informa sobre la detención de cuatro peligrosos pandilleros deportados de Estados Unidos en el Aeropuerto Internacional de El Salvador.
@@ -1667,12 +1652,12 @@
 * **Seguridad:** La noticia destaca la importancia de la detención de estos criminales para la seguridad pública.</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el arresto de cuatro peligrosos pandilleros salvadoreños deportados de Estados Unidos. Los sospechosos, identificados como Omar Ulises Pineda Amaya, alias Gato o Mouse, Milton Adonay Medina Salmerón, alias Chuchi o Cuche, David Isaac Castro Merino, alias Deybi, y Fredy Edenilson Hernández Guardado, alias Tambor, son miembros de grupos de pandillas y se consideran de alta peligrosidad.
@@ -1682,19 +1667,24 @@
 La noticia indica que la eliminación de estos pandilleros de las calles de El Salvador podría tener un impacto positivo en la reducción de la delincuencia en el país. Sin embargo, es importante destacar que la lucha contra la delincuencia requiere una estrategia integral y una colaboración entre las autoridades y la sociedad.</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>La noticia indica que los grupos en riesgo mencionados son la pandilla 18R, la pandilla MS13 y la pandilla 18S.</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>La noticia indica que los grupos en riesgo mencionados son la pandilla 18R, la pandilla MS13 y la pandilla 18S.</t>
+          <t>La texto no describe el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>La texto no describe el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas en esta noticia.</t>
+          <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1704,7 +1694,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es cierta o no.
+**Conclusión:**
+La noticia informa sobre la captura de cuatro peligrosos pandilleros deportados de Estados Unidos en el Aeropuerto Internacional de El Salvador. La información no incluye fuentes de información, por lo que no se puede verificar la precisión de la misma.</t>
         </is>
       </c>
     </row>
@@ -1739,11 +1732,6 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen de asesinato:** La noticia informa sobre el juicio de tres pandilleros por el asesinato de una mujer en Teotepeque.
@@ -1753,12 +1741,12 @@
 * **Llocalización del crimen:** El crimen se occuró en un predio baldío ubicado en el distrito de Teotepeque, municipio de La Libertad Costa.</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitado.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre el juicio de tres pandilleros por el asesinato de una mujer en Teotepeque, La Libertad Costa. La teoría de la noticia es que los hechos se derivan de un hallazgo realizado en terreno baldío, donde se encontró el cuerpo de la víctima en estado de descomposición. La investigación conducida por la Fiscalía General de la República (FGR) ha encontrado pruebas que respaldan la acusación de los tres sujetos.
@@ -1766,19 +1754,24 @@
 La suposición de la noticia es que los acusados están relacionados con la pandilla 18 y que el asesinato fue premeditado y ejecutado por ellos.</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a la víctima, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>La noticia no identifica a la víctima, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>El texto indica que el nombre del agresor es Rudy Alexander Gamez Sandoval, pero no se menciona si se indica el nombre del otro agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1788,7 +1781,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1816,6 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia se centra en un caso de feminicidio en el Salvador, donde una mujer fue asesinada por su pareja.
@@ -1838,12 +1825,12 @@
 * **Código de justicia:** La FGR presentó un requerimiento fiscal por feminicidio contra el asesino.</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de feminicidio en el cantón Los Lagartos, San Julián, Sonsonate. La víctima, Rosa Elvira Flores, fue asesinada por su pareja, Edwin Antonio Cáceres. La investigación indica que el asesinato se desencadenó cuando la víctima informó a Cáceres que se dirigía desde Santa Isabel Ishuatán hacia el centro de San Julián para retirar una remesa de $2,500.
@@ -1851,22 +1838,28 @@
 Basándose en la información disponible, la suposición de esta noticia es que el asesinato de Rosa Elvira Flores fue premeditado por parte de su pareja, Edwin Antonio Cáceres. El crimen parece haber sido motivado por el asesinato de la víctima por un motivo de posesión o control.</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la texto.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
-        <is>
-          <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la texto.</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia identifica a la víctima como Rosa Elvira Flores.</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>**Nombre del agresor:** Edwin Antonio Cáceres
+La noticia indica que el nombre del agresor es Edwin Antonio Cáceres.</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
@@ -1874,7 +1867,8 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -1907,12 +1901,6 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Captura de pandillero salvadoreño:** La noticia informa sobre la captura de Eduardo Antonio Vásquez Menéndez, alias Piropo, pandillero de la 18, en Guatemala.
@@ -1921,12 +1909,12 @@
 * **Justice:** La noticia enfatiza el compromiso del gobierno de luchar contra la delincuencia y garantizar la justicia para las víctimas.</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta la captura de un pandillero salvadoreño llamado Eduardo Antonio Vásquez Menéndez, alias Piropo, en Guatemala. La noticia implica que las leyes perversas en el pasado impedían la captura de Criminales como Vásquez Menéndez, ya que no se aplicaban las sentencias.
@@ -1934,19 +1922,24 @@
 La noticia sugiere que las leyes perversas en el pasado permitieron a los pandilleros como Vásquez Menéndez escapar de la justicia.</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
+          <t>La texto no describe el tipo de arma que utiliza el pandillero salvadoreño, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>La texto no describe el tipo de arma que utiliza el pandillero salvadoreño, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>El texto no menciona el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1956,7 +1949,8 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1985,6 @@
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre la misma.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia describe un caso de crimen organizado en el que una estructura de pandilleros de la clica Altos Crazy Locos Salvatruchos fue enjuiciada por asesinar a una mujer.
@@ -2005,12 +1993,12 @@
 * **Agrupaciones ilícitas:** La noticia enfatiza el delito de agrupaciones ilícitas, que es el delito en común que la Fiscalía General de la República atribuye a todos los miembros de la Mara Salvatrucha.</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de feminicidio relacionado con una estructura de pandilleros de la clica "Altos Crazy Locos Salvatruchos". La teoría de la noticia es que el crimen se motivó por la divulgación de la víctima de información sobre el asesinato de su pareja. Los pandilleros se entraron en pánico por la posible exposición de sus actos y decidieron asesinar a la mujer para silenciarla.
@@ -2018,19 +2006,24 @@
 La noticia sugiere que el feminicidio es uno de los 31 delitos que el tribunal está conociendo en contra de la estructura de pandilleros. La suposición es que las agrupaciones ilícitas son el delito en común que la Fiscalía General de la República atribuye a todos los miembros de la Mara Salvatrucha.</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de la solicitud.</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de la solicitud.</t>
+          <t>La texto no indica el tipo de arma utilizada en el crimen, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizada en el crimen, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia identifica a las víctimas como Ruth Nohemy S. y su hijo de cuatro meses.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>La noticia identifica a las víctimas como Ruth Nohemy S. y su hijo de cuatro meses.</t>
+          <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2040,7 +2033,8 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre la misma.</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2068,6 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia destaca el crimen organizado relacionado con la clica de pandilleros "Altos Crazy Salvatruchos" y su involucramiento en 31 delitos en tres municipios de San Salvador.
@@ -2088,12 +2076,12 @@
 * **Feminicidio:** Uno de los casos conocidos por el tribunal es el feminicidio de una mujer embarazada, donde la representación fiscal busca una sentencia de 50 años de prisión.</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>La información sobre la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
-        <is>
-          <t>La información sobre la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el juicio de una clica de la Mara Salvatrucha conocida como Altos Crazy Salvatruchos, que ha sido acusada de cometer 31 delitos en tres municipios de San Salvador. La teoría de la noticia es que la clica está involucrada en actividades de crimen organizado, incluyendo homicidio agravado, extorsión, agrupaciones ilícitas y feminicidio.
@@ -2101,19 +2089,24 @@
 La noticia sugiere que la clica Altos Crazy Salvatruchos es una organización criminal bien establecida con una amplia red de asociados. La suposición también es que la clica ha causado mucho daño en las comunidades de Mejicanos, Cuscatancingo y Ciudad Delgado, y que su eliminación sería una gran victoria para la lucha contra el crimen organizado.</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo por lo que no se puede proporcionar la información de grupos en riesgo.</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo por lo que no se puede proporcionar la información de grupos en riesgo.</t>
+          <t>La texto no menciona el tipo de arma que utiliza la clica de pandilleros, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma que utiliza la clica de pandilleros, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>La información sobre el nombre del agresor no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2123,7 +2116,8 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -2164,12 +2158,6 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es confiable o no.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio:** La noticia trata sobre un caso de homicidio, donde un hombre asesinó a su expareja y su hijo de tres años.
 * **Violencia contra las mujeres:** La noticia destaca la violencia contra las mujeres, ya que el crimen se ubica en el contexto de un feminicidio.
@@ -2177,12 +2165,12 @@
 * **Legality:** La noticia menciona la legalidad del caso, incluyendo la ubicación del crimen y la fecha en que ocurrió.</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede analizar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede analizar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de asesinato de una expareja y su hijo de tres años por parte de su excompañero, Miguel Antonio Díaz Castro. La teoría de la situación es que Díaz Castro cometió el crimen por causa de una disputa con su expareja.
@@ -2190,22 +2178,27 @@
 La suposición de la noticia es que Díaz Castro premeditadamente asesino a su expareja y su hijo con el fin de eliminarlos de su vida.</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
+          <t>La texto no indica el tipo de arma que utilizó el imputado en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>La texto no indica el tipo de arma que utilizó el imputado en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas en la noticia:**
 La noticia indica que las víctimas del crimen son una expareja de vida y su hijo de tres años.</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>El nombre del agresor en la noticia es Miguel Antonio Díaz Castro. La información sobre su nombre se encuentra en la primera frase de la noticia.</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
@@ -2213,7 +2206,8 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es confiable o no.</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2241,6 @@
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las mismas.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Dispensa de intereses moratorios en San Salvador Centro:** La noticia informa sobre la alista de la alcaldía de San Salvador de una ordenanza municipal para dispensar intereses moratorios a los habitantes del nuevo municipio de San Salvador Centro que no estén al día con el pago de tasas por la prestación de servicios.
@@ -2262,12 +2250,12 @@
 * **Beneficios:** La ordenanza se espera que beneficie a las comunidades de San Salvador Centro con la mejora de los servicios y las obras.</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre la implementación de una ordenanza municipal para dispensar intereses moratorios a los habitantes de San Salvador Centro, recientemente creado como municipio. La suposición es que la ordenanza tiene como objetivo principal promover la recaudación de tasas y contribuir a la mejora de las comunidades.
@@ -2275,19 +2263,24 @@
 La noticia indica que la ordenanza se aplica a los propietarios arrendatarios de inmuebles y busca facilitar la normalización de la situación de mora de los contribuyentes. La suposición es que la ordenanza permitirá a los contribuyentes morosos realizar el pago de sus tasas sin recargo o interés, y también les permitirá solicitar planes de pago.</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no menciona armas, por lo que no se puede determinar el tipo de arma que se especifica en la solicitud, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>La texto no menciona armas, por lo que no se puede determinar el tipo de arma que se especifica en la solicitud, por lo que no se puede proporcionar la información requesteda.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2297,7 +2290,8 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las mismas.</t>
         </is>
       </c>
     </row>
@@ -2330,12 +2324,6 @@
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Feminizicidio:** La noticia trata sobre el juicio por feminicidio de la exdiputada Yanci Urbina, que ocurrió el 29 de mayo de 2022.
@@ -2345,12 +2333,12 @@
 * **Autopsia:** La autopsia demostró la existencia de mano criminal y corroboró la causa de muerte de Urbina como golpes contundentes.</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que la causa del asesinato de la exdiputada Yanci Urbina todavía no se ha aclarado por completo, y que el juicio aún no ha terminado. La información disponible no es suficiente para determinar la verdad, por lo que no se puede establecer una teoría con base en la información actual.
@@ -2358,19 +2346,24 @@
 Basándose en la información disponible, se podría suponer que el asesinato de Yanci Urbina fue premeditado y que el acusado, Peter Wachowsky, pudo haber utilizado una combinación de violencia y falsedad para cometer el delito.</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información de grupos en riesgo mencionados.</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información de grupos en riesgo mencionados.</t>
+          <t>La texto no indica el tipo de arma utilizada en el asesinato de Yanci Urbina, por lo que no se puede determinar el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizada en el asesinato de Yanci Urbina, por lo que no se puede determinar el tipo de arma que se utiliza en la noticia.</t>
+          <t>La noticia identifica a la víctima como Yanci Urbina, exdiputada del FMLN.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>La noticia identifica a la víctima como Yanci Urbina, exdiputada del FMLN.</t>
+          <t>El nombre del agresor en la noticia es **Peter Wachowsky**. La noticia describe el inicio del juicio por feminicidio de la exdiputada Yanci Urbina contra el mismo, por lo que no se menciona si el nombre del agresor se mantiene oculto en el texto.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2380,7 +2373,8 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2407,6 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>**Cita de las fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre la misma.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen de asesinato:** La noticia describe un asesinato de una mujer en Francia por parte de su compañero, motivado por una relación virtual.
@@ -2428,12 +2416,12 @@
 * **Seguridad en internet:** La noticia enfatiza la amenaza de estafas por internet, particularmente desde África occidental.</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa de un hombre que asesinó a su compañera en Francia debido a una relación virtual con una mujer ficticia. La teoría de la situación es que el hombre se enamoró de una mujer ficticia en internet, y para concretar su relación, planearon el asesinato.
@@ -2441,24 +2429,29 @@
 La suposición de la noticia es que la mujer ficticia era un personaje creado por un estafador emocional. Es probable que la mujer ficticia haya sido creada en Costa de Marfil, ya que el estafador es conocido por operar desde ese país.</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indica en la noticia es:
 **Grupos en riesgo:**
 - Numerosas bandas criminales que operan desde África occidental.</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>La texto no menciona el tipo de arma que se utilizó en el asesinato, por lo que no se puede proporcionar la información de la misma.</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
-        <is>
-          <t>La texto no menciona el tipo de arma que se utilizó en el asesinato, por lo que no se puede proporcionar la información de la misma.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia describe el asesinato de una enfermera en una residencia de ancianos, nacida en 1995, y su compañero, empleado técnico de una alcaldía, nacido en 1994.</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
@@ -2466,7 +2459,8 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de las fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre la misma.</t>
         </is>
       </c>
     </row>
@@ -2501,11 +2495,6 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>La información no contiene citas a las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Condiciones laborales y salariales:** La UGT exige mejores salarios y condiciones laborales para los trabajadores de Andalucía.
@@ -2514,12 +2503,12 @@
 * **Solidaria con pueblos en conflicto:** La UGT extiende su solidaridad con los pueblos en conflicto entre ellos.</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre las demandas de las organizaciones laborales y sindicales en Andalucía, con particular énfasis en las condiciones laborales y salariales. La teoría que se asume es que las organizaciones están luchando por mejorar las condiciones laborales y salariales de los trabajadores, ya que estos tienen un impacto directo en la calidad de vida de las personas.
@@ -2527,7 +2516,7 @@
 La noticia asume que las organizaciones están utilizando la concentración para extender su solidaridad ante los pueblos en situaciones de conflicto.</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se menciona en la noticia es:
 * **Pueblo Saharaui:** 51 personas fallecieron por el transporte en un cayuco a las Islas Canarias.
@@ -2535,14 +2524,19 @@
 * **Palestina:** Pueblo de Palestina que lleva décadas sufriendo ante los gobiernos de Israel y de la ceguera de la comunidad internacional.</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>La texto no menciona ningún tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>La texto no menciona ningún tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2552,7 +2546,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información no contiene citas a las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
         </is>
       </c>
     </row>
@@ -2585,6 +2579,55 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>**Temas principales tratados en la noticia:**
+* **Violencia contra las mujeres en El Salvador:** La noticia informa sobre el registro de 10 muertes violentas de mujeres en el año 2024, según el Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA).
+* **Feminicidios:** La noticia indica que ORMUSA ha registrado 8 feminicidios, dos de ellos en niñas menores de 10 años.
+* **Suicidios:** La noticia también reporta dos suicidios, uno de una mujer en Antiguo Cuscatlán y otro de una niña en El Congo.
+* **Defectos en la recopilación de datos:** La noticia destaca la falta de datos oficiales sobre muertes violentas en El Salvador, y cómo el Observatorio Universitario de Derechos Humanos de la UCA (OUDH) ha encontrado que la policía comunicó solo 21 muertes violentas de mujeres en 2023.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>**Teoría:**
+La noticia reporta una tasa de muertes violentas de mujeres en El Salvador en los primeros meses de 2024 que es similar a la de 2023, según el Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA). Sin embargo, la falta de datos oficiales de las instituciones salvadoreñas dificulta la verificación de esta información.
+**Suposición:**
+La tasa de muertes violentas de mujeres en El Salvador en los primeros meses de 2024 podría ser similar a la de 2023, pero es difícil determinar con precisión debido a la falta de datos oficiales.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información para completar la solicitud.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>La texto no describe el tipo de arma utilizado en las muertes violentas, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>La noticia identifica a las víctimas de las 10 muertes violentas de mujeres como:
+* 8 feminicidios, dos de ellas en niñas menores de 10 años
+* 2 suicidios, uno de una mujer en Antiguo Cuscatlán y otro de una niña en El Congo</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>La información sobre el nombre del agresor no se encuentra en la noticia, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 * Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA)
@@ -2593,55 +2636,6 @@
 * Policía Nacional Civil (PNC)</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>**Temas principales tratados en la noticia:**
-* **Violencia contra las mujeres en El Salvador:** La noticia informa sobre el registro de 10 muertes violentas de mujeres en el año 2024, según el Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA).
-* **Feminicidios:** La noticia indica que ORMUSA ha registrado 8 feminicidios, dos de ellos en niñas menores de 10 años.
-* **Suicidios:** La noticia también reporta dos suicidios, uno de una mujer en Antiguo Cuscatlán y otro de una niña en El Congo.
-* **Defectos en la recopilación de datos:** La noticia destaca la falta de datos oficiales sobre muertes violentas en El Salvador, y cómo el Observatorio Universitario de Derechos Humanos de la UCA (OUDH) ha encontrado que la policía comunicó solo 21 muertes violentas de mujeres en 2023.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>**Teoría:**
-La noticia reporta una tasa de muertes violentas de mujeres en El Salvador en los primeros meses de 2024 que es similar a la de 2023, según el Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA). Sin embargo, la falta de datos oficiales de las instituciones salvadoreñas dificulta la verificación de esta información.
-**Suposición:**
-La tasa de muertes violentas de mujeres en El Salvador en los primeros meses de 2024 podría ser similar a la de 2023, pero es difícil determinar con precisión debido a la falta de datos oficiales.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información para completar la solicitud.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>La texto no describe el tipo de arma utilizado en las muertes violentas, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>La noticia identifica a las víctimas de las 10 muertes violentas de mujeres como:
-* 8 feminicidios, dos de ellas en niñas menores de 10 años
-* 2 suicidios, uno de una mujer en Antiguo Cuscatlán y otro de una niña en El Congo</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2672,11 +2666,6 @@
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre las fuentes de información de la noticia.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Protests contra la reforma de pensiones:** La noticia informa sobre una nueva ronda de protestas contra el plan de reforma de pensiones del Gobierno de Francia.
@@ -2685,30 +2674,35 @@
 * **No se encontró el título:** La noticia no tiene un título, lo que dificulta la comprensión del contenido.</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información sobre una teoría o suposición, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se indican en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se indican en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no menciona ninguna arma, por lo que no se puede determinar si el texto indica el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>La texto no menciona ninguna arma, por lo que no se puede determinar si el texto indica el tipo de arma que se utiliza en la noticia.</t>
+          <t>La texto no indica víctimas, por lo que no se puede identificar a las víctimas en la noticia, por lo que no se puede proporcionar la información de la identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>La texto no indica víctimas, por lo que no se puede identificar a las víctimas en la noticia, por lo que no se puede proporcionar la información de la identificación de las víctimas.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2718,7 +2712,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
@@ -2750,11 +2744,6 @@
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>La información no contiene fuentes de información, por lo que no se puede proporcionar la cita de las mismas.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia informa sobre el condena de un hombre por intento de feminicidio de su esposa en San Salvador.
@@ -2764,12 +2753,12 @@
 * **Legislación:** La noticia no indica si la noticia se refiere a una legislación sobre feminicidio en El Salvador.</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre el condena de un sujeto por intento de feminicidio de su esposa en San Salvador. La teoría de la noticia es que el hombre, de nombre Antonio Guadalupe Aquino Reyes, estaba en estado de ebriedad y con un corvo, ingresó en la vivienda familiar con la intención de quitarle la vida a su pareja. La víctima sobrevivió al ataque y el hombre fue condenado a 15 años de prisión por feminicidio agravado.
@@ -2777,19 +2766,24 @@
 La suposición de la noticia es que el hombre, Aquino, era un hombre violento y que, debido a su estado mental, cometió el delito de feminicidio.</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser mencionados, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser mencionados, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La noticia no indica el tipo de arma utilizada en el crimen, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>La noticia no indica el tipo de arma utilizada en el crimen, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>El nombre del agresor en la noticia es **Antonio Guadalupe Aquino Reyes**.</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2799,7 +2793,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información no contiene fuentes de información, por lo que no se puede proporcionar la cita de las mismas.</t>
         </is>
       </c>
     </row>
@@ -2832,12 +2826,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>**Fuentes de información:**
-La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia describe un caso de feminicidio en San Miguel, donde un hombre asesino a su compañera de vida y luego se suicidó.
@@ -2846,12 +2834,12 @@
 * **Registro independiente:** La Organización de Mujeres Salvadoreñas por la Paz (Ormusa) reporta que entre el 1 de enero y el 10 de marzo de 2024 han ocurrido siete feminicidios, de los cuales dos víctimas eran niñas menores de edad.</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se pudo proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se pudo proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia presenta una situación donde un hombre asesinó a su compañera de vida y luego intentaba suicidarse. No se dispone de información sobre las causas o motivaciones del asesinato, por lo que es difícil determinar la verdad o suponer el motivo detrás de los eventos.
@@ -2859,19 +2847,24 @@
 La noticia sugiere que el asesinato podría estar relacionado con la violencia de género, ya que el hombre y la víctima eran pareja. Sin embargo, no se cuenta que el reporte diario de la PNC no sigue el consenso internacional sobre la clasificación de los homicidios por violencia de género.</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre los grupos en riesgo que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La noticia no especifica el tipo de arma que usó el hombre para asesinar a su compañera de vida, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>La noticia no especifica el tipo de arma que usó el hombre para asesinar a su compañera de vida, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>El nombre del agresor en la noticia es **Jorge Castro Cañas**.</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2881,7 +2874,8 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Fuentes de información:**
+La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2911,6 @@
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede determinar si la información es cierta o no.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Suspensión de juicio:** El juicio en contra de Michael Alejandro Castillo Murga por el feminicidio de Fernanda Nájera se suspendió por segunda vez.
@@ -2931,12 +2919,12 @@
 * **Proceso:** Castillo Murgas es procesado en calidad de ausente con una orden de captura internacional.</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el suspensión del juicio contra el acusado de feminicidio de Fernanda Nájera por segunda vez. La causa de la suspensión no se conoce, pero se sabe que la Fiscalía General de la República (FGR) solicitó la reprogramación.
@@ -2944,22 +2932,27 @@
 La suspensión del juicio podría ser causada por una falta de preparación por parte de la FGR, ya que estaban implicadas en el escrutinio final de las elecciones presidenciales y de diputados 2024.</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La texto no indica el tipo de arma utilizada en el feminicidio, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
-        <is>
-          <t>La texto no indica el tipo de arma utilizada en el feminicidio, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia identifica a las víctimas como Melvi Fernanda Nájera Quezada, de 23 años, y su hijo, de un año y siete meses.</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>El texto no menciona el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
@@ -2967,7 +2960,8 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede determinar si la información es cierta o no.</t>
         </is>
       </c>
     </row>
@@ -3002,11 +2996,6 @@
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>La información de la noticia no indica las fuentes de información, por lo que no se puede analizar la información de la misma para determinar si las fuentes de información son confiables.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Femicidio:** La noticia informa sobre el asesinato de la lideresa comunitaria Rosa Elvira Flores Martínez.
@@ -3016,12 +3005,12 @@
 * **Legality:** La noticia destaca la necesidad de justicia y la inclusión de la víctima en las estadísticas de homicidio.</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el asesinato de la lideresa comunitaria Rosa Elvira Flores se produjo como consecuencia de un enfrentamiento entre ella y el principal acusado, Edwin Antonio Cáceres Ramírez. Flores, que era miembro del Movimiento Salvadoreño de Mujeres, fue encontrada muerta en un cañal de San Julián el 27 de marzo, después de que fuera desaparecida el 19 de marzo.
@@ -3030,19 +3019,24 @@
 La suposición de la noticia es que el asesinato de Rosa Elvira Flores fue motivado por su defensa de los derechos humanos.</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no menciona el tipo de arma que se utilizó en el asesinato de la lideresa comunitaria, por lo que no se puede determinar el tipo de arma utilizado en la noticia.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma que se utilizó en el asesinato de la lideresa comunitaria, por lo que no se puede determinar el tipo de arma utilizado en la noticia.</t>
+          <t>La noticia identifica a las víctimas como la defensora de derechos humanos Rosa Elvira Flores Martínez y el supuesto perpetrador Edwin Antonio Cáceres Ramírez.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>La noticia identifica a las víctimas como la defensora de derechos humanos Rosa Elvira Flores Martínez y el supuesto perpetrador Edwin Antonio Cáceres Ramírez.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se pudo proporcionar la información requested.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3052,7 +3046,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información de la noticia no indica las fuentes de información, por lo que no se puede analizar la información de la misma para determinar si las fuentes de información son confiables.</t>
         </is>
       </c>
     </row>
@@ -3091,11 +3085,6 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia describe el caso de feminicidio de Edi Marcela Pérez Girón y el juicio repetido contra el acusado.
 * **Impunidad:** La noticia destaca la reacción de las organizaciones feministas contra la reapertura del caso, que consideran que busca la impunidad.
@@ -3103,12 +3092,12 @@
 * **Derechos de las mujeres:** La noticia destaca la importancia de la justicia para las víctimas de feminicidio.</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre los detalles específicos de la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre los detalles específicos de la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia describe el proceso judicial de un hombre acusado de feminicidio agravado de su expareja en El Salvador. La teoría de la noticia es que el juicio se repitió debido a la anulación de la sentencia original y que las organizaciones feministas están preocupadas por la posibilidad de impunidad.
@@ -3116,19 +3105,24 @@
 La noticia asume que el asesinato de la víctima fue relacionado con el feminicidio y que el acusado es culpable.</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La texto no indica el tipo de arma utilizada en el asesinato de Edi Marcela Pérez Girón, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la texto o no.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizada en el asesinato de Edi Marcela Pérez Girón, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la texto o no.</t>
+          <t>La noticia identifica a la víctima como **Edi Marcela Pérez Girón**. No se identifica la víctima del feminicidio ocurrido en el 2016.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>La noticia identifica a la víctima como **Edi Marcela Pérez Girón**. No se identifica la víctima del feminicidio ocurrido en el 2016.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3138,7 +3132,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
     </row>
@@ -3171,15 +3165,6 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>**Cita de las fuentes de información:**
-* EFE
-* Organización de Mujeres Salvadoreñas por la Paz (Ormusa)
-* Prensa local
-**No se utilizan otras fuentes de información.**</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Femininidios en El Salvador:** La noticia informa sobre los casos de feminicidio en El Salvador entre enero y marzo de 2024.
@@ -3189,12 +3174,12 @@
 * **Lamentación por la falta de acción:** Los representantes de un consorcio feminista lamentaron la falta de acción de las autoridades en respuesta a la violencia contra las mujeres.</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede analizar la información de la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede analizar la información de la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre un aumento de los casos de feminicidio en El Salvador entre enero y marzo de 2024. La organización de mujeres salvadoreñas por la paz (Ormusa) alerta sobre una tendencia de desprotección de las mujeres en el país, y enfatiza que la situación sigue siendo grave.
@@ -3202,19 +3187,24 @@
 La causa de la alta tasa de feminicidio en El Salvador es compleja y requiere una investigación exhaustiva. Sin embargo, la noticia sugiere que la falta de protección de las mujeres, la falta de transparencia y la falta de apoyo para las víctimas de violencia contra las mujeres podrían estar contribuyendo a la situación.</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no indica el tipo de arma utilizado en los asesinatos, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizado en los asesinatos, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia informa sobre el asesinato de al menos 11 mujeres en El Salvador entre enero y marzo de 2024. No se identifican las víctimas en la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>La noticia informa sobre el asesinato de al menos 11 mujeres en El Salvador entre enero y marzo de 2024. No se identifican las víctimas en la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>La información sobre el nombre del agresor no se encuentra en el texto, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3224,7 +3214,11 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de las fuentes de información:**
+* EFE
+* Organización de Mujeres Salvadoreñas por la Paz (Ormusa)
+* Prensa local
+**No se utilizan otras fuentes de información.**</t>
         </is>
       </c>
     </row>
@@ -3257,11 +3251,6 @@
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>La información de la noticia no contiene fuentes de información, por lo que no se puede analizar la información de la misma para determinar su precisión.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Juicio por feminicidio de Yancy Urbina:** El juicio contra el acusado de feminicidio, Peter Wachowski, se suspendió hasta nuevo aviso.
@@ -3271,12 +3260,12 @@
 * **Causa de la muerte:** La Fiscalía sostiene que la muerte de la exdiputada se trata de un acto de violencia de género, no de un accidente.</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el juicio por feminicidio de Yancy Urbina se suspendió hasta nuevo aviso debido a una prueba que requiere ser incorporada. La defensa sostiene que espera obtener una sentencia absolutoria, debido a que la Fiscalía no cuenta con los elementos de prueba para sostener la acusación contra Wachowski.
@@ -3284,19 +3273,24 @@
 Es probable que la prueba que requiere ser incorporada sea una prueba forense, como el análisis de las lesiones en el cuerpo de Urbina, para determinar si la muerte fue causada por violencia de género o por una caída.</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no menciona el tipo de arma que se utilizó en el feminicidio de Yancy Urbina, por lo que no se puede determinar si la información sobre el tipo de arma es completa o no.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma que se utilizó en el feminicidio de Yancy Urbina, por lo que no se puede determinar si la información sobre el tipo de arma es completa o no.</t>
+          <t>La noticia describe el juicio por feminicidio de Yancy Urbina, exdiputado del FMLN, y no identifica a las víctimas. No se puede determinar si la noticia identifica a las víctimas o no.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>La noticia describe el juicio por feminicidio de Yancy Urbina, exdiputado del FMLN, y no identifica a las víctimas. No se puede determinar si la noticia identifica a las víctimas o no.</t>
+          <t>En la noticia, el nombre del agresor es **Peter Wachowski**.</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3306,7 +3300,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información de la noticia no contiene fuentes de información, por lo que no se puede analizar la información de la misma para determinar su precisión.</t>
         </is>
       </c>
     </row>
@@ -3340,11 +3334,6 @@
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Juicio contra acusado de feminicidio:** La noticia informa sobre el juicio programado en contra de un acusado de feminicidio.
@@ -3354,12 +3343,12 @@
 * **Declaración rebelde:** El acusado de feminicidio fue declarado rebelde y sobre él pesa una orden de captura internacional.</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre el programacion del juicio contra el acusado de feminicidio de Fernanda Nájera, Michael Alejandro Castillo Murga. La noticia sigue un orden lógico, presenta la información de manera concisa y clara, y incluye los detalles relevantes del caso.
@@ -3367,22 +3356,27 @@
 La noticia asume que el juicio se llevará a cabo en el fecha y lugar indicados, y que el proceso se desarrollará de acuerdo con la ley. No se hace ninguna suposición sobre la culpabilidad del acusado o el resultado del juicio.</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
+          <t>La noticia no indica el tipo de arma utilizada en el feminicidio, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
-        <is>
-          <t>La noticia no indica el tipo de arma utilizada en el feminicidio, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas en la noticia:**
 La noticia identifica a las víctimas como Melvi Fernanda Nájera Quezada, de 23 años, y su hijo, de un año y siete meses.</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
@@ -3390,7 +3384,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -3425,11 +3419,6 @@
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>La información no contiene citas de fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información de la noticia.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Recounto voto por voto:** La resolución de la Sala de lo Constitucional de la CSJ que declaró improcedente el recurso de cuenta voto por voto de la Alianza Republicana Nacionalista (ARENA)
@@ -3438,30 +3427,35 @@
 * **Legitimidad:** La necesidad de mantener la legitimidad de las instituciones salvadorianas.</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información sobre la teoría o suposición que se presenta, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre los grupos en riesgo que se menciona en la noticia, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo que se menciona en la noticia, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no contiene información sobre armas, por lo que no se puede proporcionar la información de tipo de arma que se solicita.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre armas, por lo que no se puede proporcionar la información de tipo de arma que se solicita.</t>
+          <t>La noticia no contiene información sobre las víctimas, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre las víctimas, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3471,7 +3465,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información no contiene citas de fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3499,6 @@
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>*Cita de fuentes de información:*
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
         <is>
           <t>*Los temas principales tratados en la noticia:
  *Intento de feminicidio:* La noticia describe un intento de feminicidio ocurrido en San Miguel, en el que un hombre de 67 años llamado Pio Antonio González intentó quitarle la vida a su pareja con un corvo.
@@ -3518,12 +3506,12 @@
 * *Legality:* La noticia menciona el procesamiento de González por intento de feminicidio, enfatizando la necesidad de garantizar la justicia y la protección de las víctimas de violencia.</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
         <is>
           <t>*Teoría:
 La noticia reporta el asesinato de una mujer por parte de su pareja, utilizando un corvo como arma. La teoría de la situación es que el hombre, de 67 años, probablemente experimentó un problema de salud mental y en un estado emocional impulsivo, ejecutó el crimen.
@@ -3531,19 +3519,27 @@
 La suposición de la noticia es que el hombre, de 67 años, es responsable de las lesiones sufrididas por su pareja. Es probable que el hombre haya actuado impulsivamente debido a una condición mental o una reacción violenta a una situación percibida.</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La noticia indica que la arma utilizada en el intento de feminicidio fue una macheta.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>La noticia indica que la arma utilizada en el intento de feminicidio fue una macheta.</t>
+          <t>La noticia no identifica a la víctima, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>La noticia no identifica a la víctima, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>El texto indica que el nombre del agresor es Pio Antonio González whyy, pero no se menciona el nombre de la víctima.
+Por lo tanto, la información que se puede proporcionar es:
+*Nombre del agresor:* Pio Antonio González
+*No se indica el nombre de la víctima.*</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3553,7 +3549,8 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>*Cita de fuentes de información:*
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -3585,47 +3582,47 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>** Grupos de crimen, violencia, asesinato.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>** Grupos de crimen, violencia, asesinato.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -3662,42 +3659,42 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>** N/A</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -3729,47 +3726,47 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>** Seguridad, crimen, terrorismo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>** No se menciona el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>** No se indica la fuente de información.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>** Seguridad, crimen, terrorismo</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>** No se menciona el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -3801,47 +3798,47 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>** Seguridad, justicia, violación de los derechos humanos</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>** N/A</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>** Seguridad, justicia, violación de los derechos humanos</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -3873,47 +3870,47 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>** Seguridad, crimen, reducción de homicidios.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>** Seguridad, crimen, reducción de homicidios.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -3945,47 +3942,47 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>** Seguridad, violencia homicida, guerra contra pandillas.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>** Seguridad, violencia homicida, guerra contra pandillas.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4017,47 +4014,47 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4089,47 +4086,47 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma en la noticia.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>** No se indica la fuente de la información.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma en la noticia.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4161,47 +4158,47 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>** Seguridad de los trabajadores migrantes, accidentes de tránsito, víctimas extranjeros.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>** No se especifica la fuente de información.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>** Seguridad de los trabajadores migrantes, accidentes de tránsito, víctimas extranjeros.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4233,47 +4230,47 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>** No se indica en la noticia.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4305,47 +4302,47 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>** No se especifica el tema de la noticia.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>** N/A</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>** No se especifica el tema de la noticia.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4382,42 +4379,42 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>** N/A</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4454,42 +4451,42 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4526,42 +4523,42 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
           <t>** N/A</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4593,47 +4590,47 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>** No se especifican los temas principales.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>** No se indica la fuente de información.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>** No se especifican los temas principales.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4670,42 +4667,42 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4742,42 +4739,42 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>** N/A</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4816,11 +4813,6 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>La información que se ha proporcionado no contiene citas de fuentes de información, por lo que no se puede analizar si la información es cierta o no.</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
           <t>**Temas principales tratados en la noticia:**
 * **Amenazas de bomba en tribunales de Chile:** La noticia informa sobre las amenazas de bomba en varios tribunales de Chile, atribuidas al crimen organizado.
 * **Grupo de Operaciones Policiales Especiales:** El Grupo de Operaciones Policiales Especiales realizó inspecciones en los recintos judiciales sin encontrar explosivo.
@@ -4829,12 +4821,12 @@
 * **Juicio en Arica:** En paralelo al megaoperativo, se desarrolla en Arica un juicio contra 38 detenidos acusados de pertenecer a Los Gallegos.</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>La información sobre la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
-        <is>
-          <t>La información sobre la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta una serie de amenazas de bomba en varios tribunales de Chile, atribuidas al crimen organizado. Las amenazas se dieron en las ciudades de Arica, Linares, Concepción y Temuco. El Grupo de Operaciones Policiales Especiales (GOPES) evacuó preventivamente los recintos judiciales y inspeccionó los sitios sin encontrar explosivo.
@@ -4843,20 +4835,25 @@
 Basándose en la información disponible, se sugiere que las amenazas de bomba en los tribunales de Chile podrían estar relacionadas con la banda de Los Gallegos.</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indica en la noticia es:
 **Los Gallegos:** La banda de Los Gallegos se menciona como responsable de las amenazas de bomba en los tribunales de Arica, Linares, Concepción y Temuco.</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>La noticia no menciona el tipo de arma que se amenaza con utilizar, por lo que no se puede especificar la información sobre el tipo de arma.</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>La noticia no menciona el tipo de arma que se amenaza con utilizar, por lo que no se puede especificar la información sobre el tipo de arma.</t>
+          <t>La noticia no indica a las víctimas, por lo que no se puede identificar a las víctimas en esta información.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>La noticia no indica a las víctimas, por lo que no se puede identificar a las víctimas en esta información.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4866,7 +4863,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información que se ha proporcionado no contiene citas de fuentes de información, por lo que no se puede analizar si la información es cierta o no.</t>
         </is>
       </c>
     </row>
@@ -4903,42 +4900,42 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -4970,47 +4967,47 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>** Seguridad pública, crimen, huida, pandilla.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>** Seguridad pública, crimen, huida, pandilla.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5042,47 +5039,47 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>** Extorsión, agrupaciones ilícitas, crimen organizado.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>** No se indica la fuente de información.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>** Extorsión, agrupaciones ilícitas, crimen organizado.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5114,47 +5111,47 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>** Seguridad, violencia</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>** machete, cuchillo</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>** N/A</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>** Seguridad, violencia</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>** machete, cuchillo</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5186,47 +5183,47 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>** Seguridad, pandillas, cerco militar.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>** AFP</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>** Seguridad, pandillas, cerco militar.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5258,47 +5255,47 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>** Seguridad, crimen, pandillismo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>** FGR</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>** Seguridad, crimen, pandillismo</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5330,47 +5327,47 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>** Seguridad pública, justicia, género.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>** Seguridad pública, justicia, género.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5407,42 +5404,42 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5474,47 +5471,47 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>** No se indican fuentes de información en la noticia.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5546,47 +5543,47 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>** Seguridad pública, crimen organizado, pandillas.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
           <t>** No se indica en la noticia.</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>** Seguridad pública, crimen organizado, pandillas.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
           <t>** No se indica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5618,47 +5615,47 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>** Seguridad, justicia.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>** Seguridad, justicia.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5690,47 +5687,47 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>** Seguridad, violencia, crimen</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>** Seguridad, violencia, crimen</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5762,47 +5759,47 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>** Seguridad, tasa de homicidios, planes de seguridad.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>** Seguridad, tasa de homicidios, planes de seguridad.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5834,47 +5831,47 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>** Seguridad pública, pandillas, crimen</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>** Seguridad pública, pandillas, crimen</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5911,42 +5908,42 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>** No disponible</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>** No disponibles</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>** No disponible</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -5983,42 +5980,42 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>** No disponible</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>** No disponibles</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>** No disponible</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -6050,47 +6047,47 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>** Seguridad, asesinato</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>** No se indica la fuente de información.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>** Seguridad, asesinato</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -6122,47 +6119,47 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -6194,47 +6191,47 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>** Extorsión, homicidio, crimen organizado.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>** No se indica en la noticia.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>** Extorsión, homicidio, crimen organizado.</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -6266,47 +6263,47 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>** subjación, crimen organizado, menores.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>** No se indica la fuente de información.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>** subjación, crimen organizado, menores.</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -6338,47 +6335,47 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>** Seguridad, crimen, pandillas, homicidios.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>** Seguridad, crimen, pandillas, homicidios.</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
       <c r="K78" t="inlineStr">
         <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
         </is>
       </c>
     </row>
@@ -6414,12 +6411,6 @@
         </is>
       </c>
       <c r="F79" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia utiliza como fuente de información a la AFP, un organismo no identificado del Instituto Nacional Penitenciario y Carcelario (INPEC) y el ministro de Justicia, Néstor Osuna.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Traslado de presos en cárcel de Colombia tras asesinato de su director:** La noticia describe el traslado de 15 presos, incluido el principal sospechoso del asesinato del director de la cárcel La Modelo de Bogotá, después de la muerte de su jefe.
@@ -6428,12 +6419,12 @@
 * **Protocolo de protección:** El asesinato ha puesto en luz las falgunas en el protocolo de protección para los funcionarios, y el ministro ha anunciado la necesidad de profundizar en el cuidado de los funcionarios.</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el asesinato de un director de una cárcel de Colombia y el traslado de 15 presos, incluido el principal sospechoso, a otras prisiones. La teoría de la noticia es que el asesinato se pudo deber a las amenazas y las órdenes impartidas por el director al guardia.
@@ -6441,19 +6432,24 @@
 La suposición de la noticia es que el asesinato de un director de cárcel en Colombia es relacionado con el cumplimiento de las órdenes de requisas por parte del director al guardia.</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La noticia no especifica el tipo de arma que utilizaron los sicarios para asesinar al director de la cárcel, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>La noticia no especifica el tipo de arma que utilizaron los sicarios para asesinar al director de la cárcel, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6463,7 +6459,8 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia utiliza como fuente de información a la AFP, un organismo no identificado del Instituto Nacional Penitenciario y Carcelario (INPEC) y el ministro de Justicia, Néstor Osuna.</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6496,6 @@
         </is>
       </c>
       <c r="F80" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de fuentes.</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Extorsión y asesinato de candidatos en Maravatío, Michoacán:** La noticia reporta una serie de asesinatos y amenazas contra candidatos en Maravatío, Michoacán, México.
@@ -6514,12 +6505,12 @@
 * **Las candidatas que no se asustan:** La noticia incluye historias de candidatas que no se asustan por las amenazas, como María Salud Valencia, que afiró que "si me van a matar, que sea por defender a mi gente".</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia describe un ambiente de terror en Maravatío, Michoacán, México, donde la criminalidad ha generado un clima de miedo y inseguridad entre los candidatos. La presencia de cárteles de la droga y la ausencia de un grupo dominante han derivado en una violencia anárquica.
@@ -6527,19 +6518,24 @@
 La violencia en Michoacán es un problema persistente, y la criminalidad en Maravatío es un ejemplo de la gravedad de la situación. La militarización de la lucha antidrogas en 2006 ha generado una tasa de homicidios muy alta, y el número de desaparecidos desde entonces es preocupante.</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>La noticia habla sobre la violencia en Michoacán, México, y no menciona grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados.</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>La noticia habla sobre la violencia en Michoacán, México, y no menciona grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados.</t>
+          <t>La texto no especifica el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información de la especificación de la misma.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>La texto no especifica el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información de la especificación de la misma.</t>
+          <t>La noticia identifica a las víctimas como el médico Miguel Reyes, el transportista Armando Pérez y el candidato Dagoberto García.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>La noticia identifica a las víctimas como el médico Miguel Reyes, el transportista Armando Pérez y el candidato Dagoberto García.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6549,7 +6545,8 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de fuentes.</t>
         </is>
       </c>
     </row>
@@ -6582,12 +6579,6 @@
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t>**Fuentes de información:**
-La noticia no indica las fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Evolución de las normas del Vaticano sobre milagros y apariciones:** El Vaticano actualizó sus normas sobre eventos sobrenaturales, reconociendo que la imaginación desbordante y la "mentira" podían perjudicar a los fieles.
@@ -6597,12 +6588,12 @@
 * **Importancia de la verdad:** La Iglesia debe defender la verdad, incluso en los casos de eventos sobrenaturales.</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre las nuevas normas del Vaticano sobre los eventos sobrenaturales sugiere que la imaginación excesiva y la "mentira" podrían perjudicar a los fieles. La teoría de la noticia es que el Vaticano busca proteger la credibilidad de la Iglesia y evitar la confusión entre eventos sobrenaturales genuinos y fantasías.
@@ -6610,21 +6601,26 @@
 La noticia asume que la mayoría de los grandes sitios de peregrinación de la Iglesia se han desarrollado sin declaración oficial sobre la autenticidad del milagro original.</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>La noticia indica que los grupos en riesgo de ser afectados por las nuevas normas del Vaticano sobre eventos sobrenaturales son:
 * Creyentes engañados por un acontecimiento atribuido a una iniciativa divina pero que no es más que el producto de la imaginación de alguien.
 * Personas inclinadas a la "mentira".</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>La texto no contiene ninguna información sobre armas, por lo que no se puede determinar el tipo de arma que se menciona en la noticia.</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>La texto no contiene ninguna información sobre armas, por lo que no se puede determinar el tipo de arma que se menciona en la noticia.</t>
+          <t>La texto no indica a las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>La texto no indica a las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6634,7 +6630,8 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Fuentes de información:**
+La noticia no indica las fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -6667,14 +6664,6 @@
         </is>
       </c>
       <c r="F82" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.
-**Conclusión:**
-La noticia informa sobre el deport de un pandillero salvadoreño desde Guatemala. La noticia es bien escrita, pero necesita más información sobre las fuentes de información para que sea más completa.</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Deportación de pandillero salvadoreño:** La noticia informa sobre el deport de un pandillero salvadoreño desde Guatemala.
@@ -6684,12 +6673,12 @@
 * **Colaboración entre gobiernos:** La noticia enfatiza la colaboración entre las autoridades salvadoreñas y guatemaltecas en la localización y captura del pandillero.</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el deport de un pandillero salvadoreño llamado Kevin Daniel Flores Portillo, alias Peche, desde Guatemala. El sujeto es acusado de un caso de homicidio y huyó a Guatemala para evadir su captura. La coordinación entre las autoridades salvadoreñas y guatemaltecas permitió la ubicación y arresto de Flores Portillo.
@@ -6697,19 +6686,24 @@
 La noticia sugiere que el deport de Flores Portillo es parte de una operación de eliminación de pandillas en El Salvador. El uso de la palabra "homeboy" en la noticia también indica que el caso podría estar relacionado con la presencia de pandillas en el país.</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no menciona el tipo de arma, por lo que no se puede proporcionar la información sobre el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma, por lo que no se puede proporcionar la información sobre el tipo de arma que se utiliza en la noticia.</t>
+          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6719,7 +6713,10 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.
+**Conclusión:**
+La noticia informa sobre el deport de un pandillero salvadoreño desde Guatemala. La noticia es bien escrita, pero necesita más información sobre las fuentes de información para que sea más completa.</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6760,6 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Homicidio:** La noticia describe un caso de homicidio por asesinato a golpes de un hombre en la colonia Málaga.
 * **Justicia:** La noticia informa sobre el procesamiento judicial de un sospechoso en el caso.
@@ -6777,12 +6768,12 @@
 * **Indagación:** La noticia describe la investigación policial y el montaje de un operativo para capturar al sospechoso.</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el asesinato de Carlos Elías Rodríguez Pineda se produjo como consecuencia de una discusión entre dos hombres que estaban ingiriendo bebidas alcohólicas. La presencia de bebidas alcohólicas en el momento del crimen sugiere que el asesinato pudo estar relacionado con el consumo de alcohol.
@@ -6790,19 +6781,24 @@
 La suposición de la noticia es que el asesinato de Carlos Elías Rodríguez Pineda fue causado por una discusión entre dos hombres que estaban ingiriendo bebidas alcohólicas.</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser afectados por el crimen, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser afectados por el crimen, por lo que no se puede proporcionar la información requested.</t>
+          <t>La noticia no menciona el tipo de arma que se utilizó en el asesinato, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>La noticia no menciona el tipo de arma que se utilizó en el asesinato, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>El texto indica que el nombre del agresor es William Francisco Ayala, por lo que la información sobre el nombre del agresor se incluye en la texto.</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6812,7 +6808,8 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -6846,11 +6843,6 @@
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la solicitud de análisis de la misma.</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
         <is>
           <t>La información sobre los temas principales tratados en la noticia es:
 * **Skinny**
@@ -6865,12 +6857,12 @@
 * **Blue**</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia de la lanzamiento de nuevo álbum y gira de Billie Eilish sugiere que la cantante sigue siendo una de las artistas más populares y en crecimiento en la industria musical. Su capacidad para lanzar música que evoca emociones y su capacidad para conectar con los jóvenes la convierten en una fuerza poderosa en el mercado musical.
@@ -6878,19 +6870,24 @@
 La gira "Hit me hard and soft: The Tour" probablemente será muy exitosa, ya que la popularidad de Eilish en el mundo sigue subiendo.</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no menciona ningún tipo de arma, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>La texto no menciona ningún tipo de arma, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no contiene información sobre víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>La texto no menciona el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6900,7 +6897,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la solicitud de análisis de la misma.</t>
         </is>
       </c>
     </row>
@@ -6934,12 +6931,6 @@
         </is>
       </c>
       <c r="F85" t="inlineStr">
-        <is>
-          <t>**Cita de las fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia describe la captura de un ranflero nacional de la Mara Salvatrucha, Arnulfo Antonio Linares, alias Viejo Pelón.
@@ -6948,12 +6939,12 @@
 * **Justice:** La noticia enfatiza que Linares enfrentará cargos por tenencia, portación o conducción ilegal de armas de fuego, agrupaciones ilícitas y homicidio agravado.</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
-        <is>
-          <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el arresto de Arnulfo Antonio Linares, alias Viejo Pelón, un ranflero nacional de la Mara Salvatrucha que estuvo preso en Guatemala. La teoría es que Linares era un cabecilla del programa Park View de la Mara Salvatrucha y que dirigió cientos de crímenes en todo el país.
@@ -6961,19 +6952,25 @@
 La suposición de la noticia es que Linares es un terrorista que ha utilizado su posición de poder para cometer una amplia gama de delitos, incluido el comercio, tráfico y almacenamiento de drogas, hurto y robo.</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de grupos en riesgo.</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de grupos en riesgo.</t>
+          <t>La noticia no especifica el tipo de arma que usaba el terrorista, por lo que no se puede proporcionar la información de la especie de arma.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>La noticia no especifica el tipo de arma que usaba el terrorista, por lo que no se puede proporcionar la información de la especie de arma.</t>
+          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de la identificación de las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de la identificación de las víctimas en esta noticia.</t>
+          <t>**Nombre del agresor:** Arnulfo Antonio Linares, alias Viejo Pelón
+La noticia no indica si el nombre del agresor se menciona en el texto, por lo que no se puede proporcionar la información de si se menciona o no.</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6983,7 +6980,8 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de las fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -7016,12 +7014,6 @@
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma con precisión.</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * La negación del FMLN de la derrota electoral en las elecciones generales de febrero y marzo pasados.
@@ -7031,12 +7023,12 @@
 * La invalidación de la cantidad de votos que obtuvo el candidato presidencial de la FMLN.</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitado.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un conflicto entre el FMLN y el gobierno salvadoreño, en relación con la derrota electoral del partido de izquierda en las elecciones generales de febrero y marzo pasados. La teoría de la noticia es que la restructuración municipal de los 44 municipios y 262 distritos causó la pérdida de las alcaldías por parte del FMLN.
@@ -7044,19 +7036,24 @@
 La suposición de la noticia es que la pérdida de las alcaldías por parte del FMLN se debe a la restructuración municipal.</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no menciona armas, por lo que no se puede especificar el tipo de arma que se menciona en la noticia.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>La texto no menciona armas, por lo que no se puede especificar el tipo de arma que se menciona en la noticia.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7066,7 +7063,8 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma con precisión.</t>
         </is>
       </c>
     </row>
@@ -7099,11 +7097,6 @@
         </is>
       </c>
       <c r="F87" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
         <is>
           <t>Los temas principales tratados en la noticia son:
 * **La aprobación de $152 millones en Títulos Valores por la Asamblea Legislativa.**
@@ -7111,30 +7104,35 @@
 * **La importancia de la aprobación para el gobierno salvadoreño.**</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no presenta una teoría o suposición, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no describe armas, por lo que no se puede determinar si se menciona o no el tipo de arma en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>La texto no describe armas, por lo que no se puede determinar si se menciona o no el tipo de arma en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La noticia no contiene información sobre las víctimas, por lo que no se puede identificar la información de las víctimas.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>La noticia no contiene información sobre las víctimas, por lo que no se puede identificar la información de las víctimas.</t>
+          <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7144,7 +7142,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
@@ -7178,11 +7176,6 @@
         </is>
       </c>
       <c r="F88" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Inicio del año escolar:** El 20 de enero se inicia el año escolar.
@@ -7190,29 +7183,34 @@
 * **Plan Control Territorial:** El plan Control Territorial ha logrado reducir los principales índices de violencia del país.</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+          <t>La información que se puede extraer de la noticia es que el gobierno mexicano está preparando un plan de seguridad para los contornos de las escuelas. La suposición que se presenta es que el objetivo de este plan es reducir la violencia en las escuelas.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>La información que se puede extraer de la noticia es que el gobierno mexicano está preparando un plan de seguridad para los contornos de las escuelas. La suposición que se presenta es que el objetivo de este plan es reducir la violencia en las escuelas.</t>
+          <t>La texto no contiene información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no contiene información sobre el tipo de arma que se menciona, por lo que no se puede determinar si se incluye la información sobre el tipo de arma en la noticia.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre el tipo de arma que se menciona, por lo que no se puede determinar si se incluye la información sobre el tipo de arma en la noticia.</t>
+          <t>La texto no indica a las víctimas, por lo que no se puede identificar la información sobre las víctimas en la noticia.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>La texto no indica a las víctimas, por lo que no se puede identificar la información sobre las víctimas en la noticia.</t>
+          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -7222,7 +7220,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -7257,12 +7255,6 @@
         </is>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>**Fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Prórroga del régimen de excepción:** La Asamblea Legislativa de El Salvador prorrogó nuevamente el régimen de excepción por 30 días a partir del 11 de mayo.
@@ -7272,12 +7264,12 @@
 * **Detenciones:** El régimen de excepción ha generado un número elevado de detenciones, con más de 80 mil presuntos pandilleros en las cárceles.</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre la prorogación del régimen de excepción en El Salvador por parte de la Asamblea Legislativa. La teoría de la noticia es que el régimen de excepción ha sido implementado como una medida para combater la alta tasa de homicidios en el país, pero que ha generado críticas por las detenciones arbitrarias de personas inocentes.
@@ -7285,19 +7277,24 @@
 La suposición de la noticia es que la prorogación del régimen de excepción es una medida controvertida que no se basó únicamente en las estadísticas de la tasa de homicidios, sino también en el deseo de proteger la seguridad pública.</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La noticia no menciona el tipo de arma que se incautó, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>La noticia no menciona el tipo de arma que se incautó, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no indica a las víctimas, por lo que no se puede identificar a las víctimas en la noticia.</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>La texto no indica a las víctimas, por lo que no se puede identificar a las víctimas en la noticia.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información sobre el nombre del agresor.</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -7307,7 +7304,8 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -7343,12 +7341,6 @@
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>**Fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las mismas.</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Inseguridad electoral en Maravatío:** La noticia reporta un escenario de terror en Maravatío, Michoacán, donde la criminalidad electoral se ha convertido en una amenaza para los candidatos.
@@ -7358,12 +7350,12 @@
 * **Inseguridad en las elecciones:** La criminalidad en las elecciones ha generado un ambiente de miedo y incertidumbre para los candidatos.</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un patrón común en Michoacán, donde la criminalidad está ligada a la selección de candidatos por parte de los cárteles de la droga. Los crímenes en Maravatío se caracterizan por la violencia y la amenaza, como en el caso de las asesinaciones de los candidatos Miguel Reyes y Armando Pérez. La presencia de grupos de WhatsApp donde se amenazan a los candidatos y la inclusión de antenas robadas para cobrar el servicio de internet son ejemplos de la magnitud de la situación.
@@ -7371,19 +7363,24 @@
 La criminalidad en Michoacán es un problema persistente que afecta la seguridad de los candidatos y la confianza en las elecciones. La presencia de grupos de crimen organizados en el escenario electoral es una amenaza seria, y los gobiernos deben tomar medidas para proteger la integridad de las elecciones y la seguridad de los ciudadanos.</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>La noticia habla sobre la criminalidad en Maravatío, Michoacán, México, y no menciona grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados en la noticia.</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>La noticia habla sobre la criminalidad en Maravatío, Michoacán, México, y no menciona grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados en la noticia.</t>
+          <t>La texto no indica el tipo de arma que se utiliza en la noticia, por lo que no se puede determinar si se menciona o no el tipo de arma en la noticia.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma que se utiliza en la noticia, por lo que no se puede determinar si se menciona o no el tipo de arma en la noticia.</t>
+          <t>La noticia identifica a las víctimas como el médico Miguel Reyes, el transportista Armando Pérez y el candidato Dagoberto García.</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>La noticia identifica a las víctimas como el médico Miguel Reyes, el transportista Armando Pérez y el candidato Dagoberto García.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7393,7 +7390,8 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las mismas.</t>
         </is>
       </c>
     </row>
@@ -7427,11 +7425,6 @@
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia destaca el crimen organizado de la Mara Salvatrucha (MS13) y el arrestó de su cabecilla, Arnulfo Antonio Linares, alias “Viejo pelón”.
@@ -7441,7 +7434,7 @@
 * **Consecuencias:** La noticia enfatiza las consecuencias que tendrá el arrestó, que incluye años de cárcel y la eliminación de su capacidad de visión.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>La noticia indica que Arnulfo Antonio Linares alias "Viejo pelón", es acusado de al menos siete delitos, entre los que se encuentran:
 * **Extorsión:** La ley contra la extorsión establece penas de 20 a 25 años de prisión.
@@ -7453,7 +7446,7 @@
 * **Falta a policemen:** La ley de falta a policemen establece penas de 2 a 10 años de prisión.</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre la entrega de un "ranflero" guatemalteco,Arnulfo Antonio Linares, alias "Viejo pelón", a las autoridades salvadoreñas. La teoría de la noticia es que Linares es un cabecilla de la Mara Salvatrucha (MS13) y que ha ordenado cientos de crímenes en todo el país desde 1994.
@@ -7461,19 +7454,24 @@
 La suposición de la noticia es que Linares será encontrado culpable de sus delitos y que podría ser enviado a la cárcel por muchos años.</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de los grupos en riesgo que se mencionan en la noticia.</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de los grupos en riesgo que se mencionan en la noticia.</t>
+          <t>La texto no especifica el tipo de arma que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>La texto no especifica el tipo de arma que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no indica a las víctimas de la noticia, por lo que no se puede identificar la información de las víctimas en esta solicitud.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>La texto no indica a las víctimas de la noticia, por lo que no se puede identificar la información de las víctimas en esta solicitud.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7483,7 +7481,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
     </row>
@@ -7518,11 +7516,6 @@
         </is>
       </c>
       <c r="F92" t="inlineStr">
-        <is>
-          <t>La información no contiene citas de fuentes de información, por lo que no se puede determinar la fuente de la información de la noticia.</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Homicidio culposo:** La noticia describe el homicidio culposo de un motociclista por parte de un conductor de una ambulancia del ISSS.
@@ -7531,12 +7524,12 @@
 * **No comparecencia:** El conductor de la motocicleta donde iba la víctima no compareció a la audiencia inicial.</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>La noticia no indica detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
-        <is>
-          <t>La noticia no indica detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que un motorista de ambulancia del ISSS está siendo procesado por homicidio culposo de un motociclista. La teoría es que el motorista condujo la ambulancia con sirena abierta cuando no trasladaba a ningún paciente en estado crítico o que estuviera en riesgo la vida, sino que se dirigía a una curación.
@@ -7544,19 +7537,24 @@
 La suposición es que el motorista no se encontraba en el contexto de su trabajo como conductor de una ambulancia, ya que no trasladaba a ningún paciente en estado crítico o que estuviera en riesgo la vida.</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
+          <t>La texto no describe el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información de la tipo de arma que se menciona.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>La texto no describe el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información de la tipo de arma que se menciona.</t>
+          <t>La noticia identifica a las víctimas como José Gabriel Pérez Lizama, de 26 años, y Fernando Dagoberto Martínez Guzman.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>La noticia identifica a las víctimas como José Gabriel Pérez Lizama, de 26 años, y Fernando Dagoberto Martínez Guzman.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7566,7 +7564,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información no contiene citas de fuentes de información, por lo que no se puede determinar la fuente de la información de la noticia.</t>
         </is>
       </c>
     </row>
@@ -7599,11 +7597,6 @@
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la Requested información.</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Absuelvo de los acusados del asesinato de Ramón Kury:** La noticia informa sobre el absolución de los tres acusados de cometer el asesinato de Ramón Kury por segunda vez.
@@ -7612,12 +7605,12 @@
 * **Ipelación y sentencia:** La Fiscalía inconforme con la decisión de absoluciónapeló la sentencia, y la Cámara Segunda de lo Penal de San Salvador dio la razón, ordenando un nuevo juicio.</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el absolución por segunda vez de los tres imputados por el asesinato del líder del PCN, Ramón Kury, por lo que se podría suponer que la justicia no se ha hecho esperar.
@@ -7625,19 +7618,24 @@
 La justicia podría no ser completa en este caso, ya que los imputados han sido absueltos dos veces por el mismo delito.</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La texto no indica el tipo de arma que se utilizó en el asesinato de Ramón Kury, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma que se utilizó en el asesinato de Ramón Kury, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -7647,7 +7645,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la Requested información.</t>
         </is>
       </c>
     </row>
@@ -7681,11 +7679,6 @@
         </is>
       </c>
       <c r="F94" t="inlineStr">
-        <is>
-          <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si las fuentes de información son confiables o no.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio:** El artículo describe un caso de homicidio en el Puerto de La Libertad, donde un sobrino mató a su tío y su compañera de vida.
@@ -7694,12 +7687,12 @@
 * **Prueba de ocio:** El cuerpo del exalcalde y su compañera de vida fue encontrado a eso de las 5:00 de la tarde del mismo día que el sobrino había hecho las transacciones.</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia presenta una teoría de que el sobrino mató al exalcalde por motivos económicos.
@@ -7707,19 +7700,24 @@
 La noticia asume que la teoría de la motivación económica del sobrino es cierta.</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no indica el tipo de arma que usó el sobrino para cometer el asesinato, por lo que no se puede determinar el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma que usó el sobrino para cometer el asesinato, por lo que no se puede determinar el tipo de arma que se utiliza en la noticia.</t>
+          <t>La noticia identifica a las víctimas como el exalcalde del Puerto de La Libertad, Miguel Ángel Jiménez Aguilera, y su compañera de vida, Krissia Lorena Muñoz Campos.</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>La noticia identifica a las víctimas como el exalcalde del Puerto de La Libertad, Miguel Ángel Jiménez Aguilera, y su compañera de vida, Krissia Lorena Muñoz Campos.</t>
+          <t>El texto indica que el nombre del agresor es Carlos Gustavo Jiménez Rodríguez, pero no se indica si se menciona el nombre en la noticia, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7729,7 +7727,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si las fuentes de información son confiables o no.</t>
         </is>
       </c>
     </row>
@@ -7764,11 +7762,6 @@
         </is>
       </c>
       <c r="F95" t="inlineStr">
-        <is>
-          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Reagrupar a 1,800 supuestos mareros de la Mara Salvatrucha:** La FGR presenta una solicitud para agrupar a 1,800 supuestos mareros de la Mara Salvatrucha en 11 clicas.
@@ -7777,12 +7770,12 @@
 * **Número total de sospechosos:** El total de 7,486 supuestos pandilleros, incluyendo los 1,800 recién agrupados.</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>La texto no indica detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
-        <is>
-          <t>La texto no indica detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia describe el pedido de la Fiscalía General de la República (FGR) de reagrupar a 1,800 supuestos miembros de la Mara Salvatrucha (MS-13) en 11 clicas. La teoría de la noticia es que la FGR utiliza esta solicitud como parte de su estrategia para luchar contra la delincuencia organizada.
@@ -7790,7 +7783,7 @@
 La FGR utiliza la solicitud de reagrupación como una herramienta para fortalecer su posición contra la Mara Salvatrucha. Es probable que la FGR utilice esta solicitud para presionar a los líderes de la Mara Salvatrucha y reducir su influencia.</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>La noticia informa sobre la solicitud de la Fiscalía General de la República (FGR) para agrupar en un único proceso a 1,828 supuestos miembros de la Mara Salvatrucha (MS-13) que conformanban 11 ciclas delincuenciales. Los grupos en riesgo mencionados en la noticia son:
 * **Bosques Locos Salvatruchos**
@@ -7806,14 +7799,19 @@
 * **Arces Malditos Locos Salvatruchos**</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>La texto no menciona el tipo de arma, por lo que no se puede proporcionar la información de laRequested.</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma, por lo que no se puede proporcionar la información de laRequested.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7823,7 +7821,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
         </is>
       </c>
     </row>
@@ -7858,12 +7856,6 @@
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Promoción de la violencia en las escuelas:** La noticia destaca la creciente problemática de la promoción de la violencia en las escuelas salvadoreñas, con el reciente detención de estudiantes por participar en una pelea en el Centro Escolar República de Corea.
@@ -7872,12 +7864,12 @@
 * **Membresía de pandillas:** La noticia también menciona el caso de un estudiante supuestamente relacionado con la Mara Salvatrucha (MS-13).</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre una serie de incidentes de violencia en el país, relacionados con estudiantes de diferentes escuelas. La teoría que se puede extraer de esta noticia es que la seguridad en las escuelas en El Salvador sigue siendo un problema, y que los estudiantes están siendo afectados por la presencia de grupos delictivos en sus instituciones.
@@ -7885,19 +7877,24 @@
 Es probable que la situación de seguridad en las escuelas de El Salvador sea un problema persistente, y que las autoridades de seguridad deban tomar medidas para proteger a los estudiantes de la violencia.</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>La noticia indica que los grupos en riesgo mencionados en la noticia son la Mara Salvatrucha (MS-13) y las pandillas.</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>La noticia indica que los grupos en riesgo mencionados en la noticia son la Mara Salvatrucha (MS-13) y las pandillas.</t>
+          <t>La texto no indica el tipo de arma utilizada en la pelea, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en el texto.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizada en la pelea, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en el texto.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7907,7 +7904,8 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.</t>
         </is>
       </c>
     </row>
@@ -7943,11 +7941,6 @@
         </is>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de la misma.</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Reprogramación del fallo:** El Tribunal Tercero de Sentencia de San Salvador reprograó por segunda vez el fallo del juicio contra los acusados del asesinato de Ramón Kury, debido a la necesidad de realizar otra audiencia especial de depuración de prueba.
@@ -7956,12 +7949,12 @@
 * **Absueltos:** Los tres acusados ya fueron absueltos una vez en marzo de 2021 por el Tribunal Segundo de Sentencia de San Salvador.</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el juicio contra los acusados del asesinato de Ramón Kury ha sido reprogramado por segunda vez debido a la falta de tiempo de los jueces. La razón de esta reprogramación se debe a la presencia de otra audiencia especial de depuración de prueba y la cantidad de pruebas que se deben considerar.
@@ -7969,19 +7962,24 @@
 La noticia sugiere que el retraso en el fallo del juicio se debe a la complejidad del caso y la necesidad de un exhaustivo análisis de las pruebas.</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>La texto no menciona el tipo de arma que se utilizó en el asesinato de Ramón Kury, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma que se utilizó en el asesinato de Ramón Kury, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>La información sobre el nombre del agresor no se encuentra en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7991,7 +7989,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de la misma.</t>
         </is>
       </c>
     </row>
@@ -8026,12 +8024,6 @@
         </is>
       </c>
       <c r="F98" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes.</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Captura de un asesino en Hato Nuevo, San Miguel:** La noticia describe la captura de un asesino en el cantón de Hato Nuevo, San Miguel, en menos de 24 horas de haber cometido el crimen.
@@ -8039,12 +8031,12 @@
 * **Homeboy de pandilla capturado:** La noticia informa sobre la captura de un homeboy de la pandilla 18 Sureños, alias "Cebolla".</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
-        <is>
-          <t>La noticia no contiene información sobre violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un asesinato en el cantón Hato Nuevo, San Miguel, donde la policía capturó al responsable en menos de 24 horas. No se conoce la identidad de la víctima o si el asesinato está relacionado con algún grupo delincuencial. La reducción de asesinatos en El Salvador se ha asociado con la estrategia de seguridad del presidente Nayib Bukele.
@@ -8052,29 +8044,35 @@
 La rápida intervención de la policía en esta caso es evidencia de la eficacia de la estrategia de seguridad del presidente Bukele, que ha provocado una reducción en las tasas de asesinato. Sin embargo, es importante destacar que no se ha encontrado el móvil del homicidio o si está relacionado con algún grupo delincuencial.</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>La noticia no indica los grupos en riesgo que están mencionados, por lo que no se puede proporcionar la información de grupos en riesgo que están mencionados en la noticia.</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>La noticia no indica los grupos en riesgo que están mencionados, por lo que no se puede proporcionar la información de grupos en riesgo que están mencionados en la noticia.</t>
+          <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
+          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>El nombre del agresor en la noticia es **Óscar Alberto Bonilla Martínez**.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes.</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8105,6 @@
         </is>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Conducir bajo los efectos del alcohol:** La noticia se centra en un accidente vial causado por un conductor en estado de ebriedad.
@@ -8122,12 +8114,12 @@
 * **Normas de tránsito:** La noticia enfatiza la importancia de respetar las normas de tránsito y evitar manejar bajo la influencia del alcohol.</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>La noticia no indica detalles sobre la violación a la ley de tránsito por conducción bajo el influencia del alcohol, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
-        <is>
-          <t>La noticia no indica detalles sobre la violación a la ley de tránsito por conducción bajo el influencia del alcohol, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de conducción peligrosa causado por el alcohol, donde el conductor fue detectado con un alto porcentaje de alcohol en sangre (211 mg/dl) y posteriormente arrestado. La teoría es que la causa del accidente fue la ingestión de alcohol por el conductor, que condujo de manera peligrosa y probablemente contribuyó a la colisión.
@@ -8135,29 +8127,35 @@
 La suposición de la noticia es que la conducción bajo los efectos del alcohol es una causa común de accidentes de tránsito y que las pruebas de alcoholemia son una forma eficaz de identificar a los conductores que están en estado de ebriedad.</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>La información sobre los grupos en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
+          <t>La texto no menciona ninguna arma, por lo que no se puede determinar si el texto contiene información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>La texto no menciona ninguna arma, por lo que no se puede determinar si el texto contiene información sobre el tipo de arma.</t>
+          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>La texto no contiene el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -8192,12 +8190,6 @@
         </is>
       </c>
       <c r="F100" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
-La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **No registro de homicidios en El Salvador el pasado sábado:** La noticia informa sobre el registro de cero homicidios en El Salvador el pasado sábado, lo que marca un avance en el esfuerzo por garantizar la tranquilidad de la población salvadoreña.
@@ -8207,12 +8199,12 @@
 * **Modelo a seguir:** El éxito de El Salvador en la lucha contra las pandillas ha generado interés en otras naciones, que quieren aprender el "modelo Bukele".</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
-        <is>
-          <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre la reducción de homicidios en El Salvador en el pasados fin de semana, donde no se registraron ningún crimen. Esta reducción se atribuye a las políticas de seguridad implementadas por el Ejecutivo salvadoreño, que incluyen la modernización del equipo policial, el despliegue de equipos en las calles y una intensa campaña contra las pandillas.
@@ -8220,29 +8212,35 @@
 La reducción de homicidios en El Salvador es un resultado de la estrategia de seguridad implementada por el Ejecutivo, que ha dado como resultado la captura de miles de pandilleros. Esta estrategia se ha convertido en un modelo a seguir para otras naciones que enfrentan problemas similares.</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de los grupos en riesgo.</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de los grupos en riesgo.</t>
+          <t>La texto no menciona el tipo de arma, por lo que no se puede especificar la información sobre el tipo de arma.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>La texto no menciona el tipo de arma, por lo que no se puede especificar la información sobre el tipo de arma.</t>
+          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Dato no extraído</t>
+          <t>**Cita de fuentes de información:**
+La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
@@ -8278,12 +8276,6 @@
         </is>
       </c>
       <c r="F101" t="inlineStr">
-        <is>
-          <t>**Fuentes de información:**
-La noticia se basa en información de la Agencia Francesa de Prensa (AFP) y no se indica otras fuentes de información.</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Inseguridad en México:** El alto nivel de violencia en el país, con una tasa de homicidios de 23 por cada 100.000 habitantes.
@@ -8293,12 +8285,12 @@
 * **La coordinación entre las instituciones:** Los expertos consideran que la mejora de la coordinación entre jueces, policías, fiscales y agencias de inteligencia es clave para luchar contra la criminalidad.</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
-        <is>
-          <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre la insegura situación en México y el desafío que enfrentan el nuevo presidente, Berta García, en su búsqueda de encontrar a su hijo desaparecido. La tasa de homicidios en el país sigue siendo muy alta, y los cárteles de narcotráfico tienen un control significativo sobre varias regiones.
@@ -8306,7 +8298,7 @@
 La seguridad en México es un problema complejo y desafiante, y las propuestas de las principales aspirantes a la presidencia no parecen ser muy diferentes de las políticas anteriores. El reto para frenar la violencia en el país es enorme, y requiere una coordinación entre las diferentes instituciones de seguridad.</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indica en la noticia es:
 * **Cártel Jalisco Nueva Generación**
@@ -8314,24 +8306,30 @@
 * **Otros grupos delincuenciales**</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>La texto no describe el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>La texto no describe el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
+          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+          <t>Dato no extraído</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>La información no indica el autor de la noticia, por lo que no se puede proporcionar la información de su análisis.</t>
+          <t>**Fuentes de información:**
+La noticia se basa en información de la Agencia Francesa de Prensa (AFP) y no se indica otras fuentes de información.</t>
         </is>
       </c>
     </row>

--- a/app/reporte.xlsx
+++ b/app/reporte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,23 +511,71 @@
           <t>https://www.diariocolatino.com/historia-universal-un-vistazo-al-pasado-desde-la-causa-popular/6el-salvador-feminicido/</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>eer</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>erwrw</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>werwer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>werwr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>wrwer</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>werwer</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>werwer</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>rwrw</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ewrw</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>werwer</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>Dato no extraído</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>ewrw</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -898,32 +946,92 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>https://diarioelsalvador.com/video-nina-conocio-por-primera-vez-el-cuscatlan-y-su-reaccion-conmovio-al-alianza/499525/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://diarioelsalvador.com/plan-de-seguridad-logra-608-dias-sin-violencia-homicida-en-el-salvador/499614/</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No se menciona</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Un asesinato a mano armada</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>https://www.diariocolatino.com/category/nacionales/page/174/</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la clasificación de "describir un homicidio" es correcta.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 No se encontró el título. La noticia no contiene el título, por lo que no se pudo extraer el título solicitado.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el problema de la falta de secretividad del voto electrónico remoto por internet en Salvado. El magistrado del Tribunal Supremo Electoral (TSE), Julio Olivo, ha señalado que se han dado algunas situaciones donde los candidatos están promoviendo que los salvadoreños en el exterior revelen su voto. La secretividad del voto es un derecho constitucional, y su violación podría tener graves consecuencias.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>La noticia no indica el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Secreto de voto:** La noticia destaca la importancia de la secreto de voto como derecho constitucional.
@@ -931,65 +1039,65 @@
 * **Derechos constitucionales:** La noticia enfatiza el derecho a lasecreción de voto como un derecho constitucional.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>La teoría que se presenta en esta noticia es que los candidatos salvadoreños en el exterior podrían estar promoviendo la divulgación de sus votos.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los grupos en riesgo que se podrían mencionar en la noticia, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Algo xd</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/condenan-a-15-anos-de-carcel-a-2-hombres/</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>**Sí, la noticia describe un homicidio.** La noticia describe el homicidio de dos mujeres trans, JDMO y Anahí Miranda Rivas.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Condenan a 15 años de cárcel a 2 hombres por homicidio de mujer trans
 **Extraído:** El título de la noticia es "Condenan a 15 años de cárcel a 2 hombres por homicidio de mujer trans".</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia describe el asesinato de dos mujeres trans en Sacacoyo, La Libertad. La víctima, JDMO, fue asfixiada el 25 de noviembre de 2018, mientras que la víctima, Anahí Miranda Rivas, murió asfixiada el 27 de octubre de 2019. Los dos hombres, RAFO y MEPM, fueron condenados a 15 años de cárcel por el delito de "homicidio simple".
@@ -997,13 +1105,13 @@
 La noticia describe el asesinato de dos mujeres trans en Sacacoyo, La Libertad. La víctima, JDMO, fue asfixiada por la compresión mecánica del cuello por estrangulación. La víctima, Anahí Miranda Rivas, murió por el mismo motivo. Los dos hombres, RAFO y MEPM, fueron condenados a 15 años de cárcel por el delito de "homicidio simple".</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso en la noticia es:
 **Ateos, Sacacoyo, La Libertad.**</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio de una mujer trans:** La noticia describe el homicidio de una mujer trans en Sacacoyo, La Libertad.
@@ -1013,12 +1121,12 @@
 * **Derechos de ciudadanos:** Los dos hombres perderán sus Derechos de ciudadanos por igual período.</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el asesinato de dos mujeres trans en dos casos distintos, en la provincia de La Libertad, Ecuador. En el primero, la víctima, JDMO, fue asfixiada en el cantón Ateos, Sacacoyo, mientras que en el segundo, la víctima, Anahí Miranda Rivas, también fue asfixiada en contra de su agresor, Juan Carlos Hernández Vásquez.
@@ -1027,67 +1135,67 @@
 En conclusión, la noticia presenta una cuenta detallada de los dos asesinatos de mujeres trans, incluyendo la reconstrucción de los hechos, las pruebas forenses y los hallazgos del juicio. No se incluye la opinión del autor sobre la naturaleza de las causas de estos asesinatos o su suposición sobre el comportamiento de los acusados.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia identifica a las víctimas como "JDMO" y "Anahí Miranda Rivas".</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>El texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/tag/homicidio-mujer-tran/</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>**Sí, la noticia describe un homicidio.** La noticia describe el homicidio de una mujer trans en el cantón Ateos, Sacacoyo, La Libertad.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>**Título de la noticia:** No se encontró el título
 La noticia no contiene un título, por lo que no se pudo extraer el título solicitado.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la condena de dos hombres por asesinato de una mujer trans en el cantón Ateos, Sacacoyo, La Libertad. La víctima fue asfixiada el 25 de noviembre de 2018, y el crimen se clasificó como "homicidio simple". Los dos hombres fueron condenados a 15 años de prisión cada uno.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en el cantón Ateos, Sacacoyo, La Libertad.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio:** La noticia trata sobre un caso de homicidio, en el que dos hombres fueron condenados por el delito de "homicidio simple" en perjuicio de una mujer trans.
@@ -1096,66 +1204,150 @@
 * **Identidad:** La víctima es identificada por sus iniciales "JDMO", en el proceso penal.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los detalles específicos de la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información sobre la teoría o suposición que se presenta, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma que se utilizó en el crimen, por lo que no se puede proporcionar la información de la especificación del tipo de arma.</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.diariocolatino.com/hombre-trans-penado-a-30-anos-carcel/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>**Clasificación:** Sí, la noticia describe un homicidio. La noticia habla de un hombre transgénero que fue condenado a 30 años de prisión por el delito de homicidio simple imperfecto o tentado en perjuicio de la vida de tres víctimas.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>**Título:** Hombre trans penado a 30 años cárcel
+**Extraído:**
+El título de la noticia es "Hombre trans penado a 30 años cárcel".</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>**Resumen:**
+La noticia informa sobre la condena de un hombre transgénero, identificado como J A C Á, a 30 años de cárcel por homicidio simple imperfecto en perjuicio de la vida de tres víctimas. El acusado, de 46 años, originario de Teotepeque, departamento de La Libertad, utilizó un machete para atacar a las víctimas. El atentado dejó secuelas permanentes en su brazo izquierdo, con disminución de fuerza muscular y motricidad contra D A R C. La sentencia también establece que el condenado deberá saldar una pena de responsabilidad civil por un monto de $2,500 dólares, distribuido a las tres víctimas.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>**Dónde ocurrió el suceso:**
+La noticia indica que el suceso ocurrió en el barrio San Miguel, caserío San José, municipio de Teotepeque, departamento de La Libertad.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>**Los temas principales tratados en la noticia:**
+* **Homicidio de personas LGBT:** La noticia informa sobre un caso de homicidio de una persona transgénero en Honduras.
+* **Justicia:** La historia destaca la reducción en los homicidios de personas LGBT en Honduras.
+* **Seguridad:** La noticia enfatiza la necesidad de aumentar la seguridad de las personas LGBT.
+* **Legality:** La historia menciona la necesidad de proteger los derechos de las personas LGBT.
+* **Secuelas:** La noticia detalla las secuelas físicas y psicológicas de las víctimas.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>**Teoría:**
+La noticia presenta un caso de homicidio por parte de un hombre transgénero, J A C Á, contra tres víctimas. La teoría de la noticia es que el delito se motivó por la tolerancia hacia las personas LGBT.
+**Suposición:**
+No se puede determinar con certeza si la teoría de la noticia es cierta, ya que no se dispone de información adicional sobre el caso.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto proporcionado, por lo que no se puede analizar la solicitud de análisis.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>La noticia indica que el acusado utilizó un machete para golpear la cabeza, elshoulder, el brazo y el tórax de las víctimas. No se menciona otro tipo de arma en la noticia, por lo que no se puede determinar si la información sobre el tipo de arma es completa.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>La noticia identifica a las víctimas como "D A R C, C E L R y P M".</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>El nombre del agresor en la noticia es J A C Á. La noticia describe el asesinato de tres víctimas por el mismo.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>La información sobre el autor de la noticia no está contenida en el texto, por lo que no se puede proporcionar la solicitud.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>La fuente de la noticia no se ha encontrado en el texto, por lo que no se puede extraer la información para completar la solicitud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/ola-de-suicidios-o-nuevo-metodo-para-encubrir-asesinatos/</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, pero también menciona el posible encubrimiento de asesinatos por medio de suicidios. No se puede determinar si la noticia describe únicamente un homicidio o también incluye el encubrimiento de asesinatos.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **¿Ola de suicidios o nuevo método para encubrir asesinatos?**</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el incremento de suicidios y asesinatos de bebés en El Salvador. El secretario del Movimiento de Trabajadores de la Policía Nacional Civil (MTP), Marvin Reyes, ha expresado su preocupación sobre el tema, destacando que los suicidios reflejan una descomposición social y que podría ser una nueva estrategia para encubrir asesinatos.
@@ -1163,12 +1355,12 @@
 La abogada Ivania Cruz criticó el gobierno por su falta de capacidad para crear políticas públicas. Afirmó que el aumento en los homicidios no se reportaba y que el gobierno es incapaz de proteger a la población.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se incluye en la noticia, por lo que no se puede analizar la información para proporcionar la respuesta.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Suicidios y asesinato de bebés:** La noticia destaca el aumento de los suicidios y asesinatos de bebés en El Salvador, y enfatiza la necesidad de tomar medidas para prevenir estos crímenes.
@@ -1178,12 +1370,12 @@
 * **Loss de valores:** La noticia enfatiza la pérdida de valores que se ha detectado en El Salvador, incluyendo los casos de madres que asesinan a sus hijos.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>La información sobre los detalles específicos de la violación a la ley en esta noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un incremento de suicidios y asesinatos de bebés en El Salvador, y sugiere que podría ser una nueva estrategia de encubrir asesinatos. La teoría se basa en el siguiente razonamiento:
@@ -1194,211 +1386,211 @@
 La suposición es que el incremento de suicidios y asesinatos de bebés en El Salvador podría ser relacionado con la creciente pérdida de valores en la sociedad salvadoreña.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>**Fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la Requested información.</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene el texto de la noticia, por lo que no se puede extraer el título de la noticia.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene ninguna noticia, por lo que no se puede proporcionar el resumen de la noticia.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene información sobre el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene la noticia por lo que no se puede analizar el texto para proporcionar los temas principales tratados.</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>La información que usted ha proporcionado no contiene ninguna información sobre los detalles específicos de la violación a la ley de la noticia, por lo que no se puede proporcionar la información que usted solicita.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene ninguna teoría o suposición sobre la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene la información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información de la solicitud.</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el tipo de arma que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>La información no contiene ninguna información sobre las víctimas, por lo que no se puede proporcionar la identificación de las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>La información que usted ha proporcionado no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>La información que ha proporcionado no contiene ninguna fuente de información, por lo que no se puede analizar la solicitud de análisis.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene el texto de la noticia, por lo que no se pudo extraer el título de la noticia.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>La información que ha proporcionado no contiene la noticia, por lo que no se puede proporcionar el resumen de la noticia.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene información sobre el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene la noticia, por lo que no se puede analizar el texto para proporcionar la información sobre los temas principales tratados.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>La información que usted ha proporcionado no contiene la información sobre los detalles específicos sobre la violación a la ley de la noticia, por lo que no se puede proporcionar la información que usted solicita.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>La información que usted ha proporcionado no contiene ninguna teoría o suposición, por lo que no se puede analizar la solicitud.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene la información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información que se solicita.</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el tipo de arma, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene información sobre las víctimas de la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>La información no contiene ninguna fuente de información, por lo que no se puede analizar la solicitud.</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/eeuu-deporta-a-cuatro-pandilleros-acusados-de-homicidios</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio, pero no indica el número de víctimas o el contexto en el que se dio el homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>EEUU deporta a cuatro pandilleros acusados de homicidios
 El título de la noticia es " EEUU deporta a cuatro pandilleros acusados de homicidios".</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el afforsión de cuatro pandilleros acusados de homicidios en El Salvador. Los cuatro hombres, miembros de pandillas, fueron deportados de los Estados Unidos y capturados por la Policía Nacional Civil (PNC). Dos de los arrestos se asocian a la Mara Salvatrucha (MS13), mientras que los otros dos están ligados al Barrio 18. Los cargos incluyen homicidio agravado, agrupaciones terroristas y feminicidio agravado.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>La noticia no indica el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Deportación de pandilleros:** La noticia informa sobre la deportación de cuatro hombres ligados a pandillas, incluyendo dos miembros de la Mara Salvatrucha (MS13) y dos miembros del Barrio 18.
@@ -1407,12 +1599,12 @@
 * **Seguridad fronteriza:** La noticia enfatiza la participación de la División de Seguridad Fronteriza en el procedimiento de deportación.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>La información sobre la violación a la ley en esta noticia no se encuentra en el texto, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el deport de cuatro hombres ligados a pandillas, incluyendo dos miembros de la Mara Salvatrucha (MS13) y dos miembros de la Barrio 18. La suposición es que la detención de estos individuos es parte de una operación de lucha contra el crimen organizado en El Salvador.
@@ -1420,68 +1612,68 @@
 La noticia sugiere que la detención de estos individuos es parte de una estrategia de lucha contra el crimen organizado en El Salvador.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Los grupos en riesgo mencionados en la noticia son la Mara Salvatrucha (MS13), el Barrio 18 Sureños y el Barrio 18 Revolucionarios.</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma, por lo que no se puede proporcionar la información de la especificación del tipo de arma.</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar la información de las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>La información sobre el agresor no se encuentra en el texto, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si es cierta o no.</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/sujeto-asesino-a-su-companera-de-vida-y-luego-se-suicido-en-san-miguel</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>**Clasificación:** Sí, la noticia describe un homicidio. La noticia informa sobre un homicidio en el que un hombre asesinó a su compañera de vida y luego se suicidó.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Sujeto asesinó a su compañera de vida y luego se suicidó en San Miguel
 La información extraída de la noticia es el título de la noticia.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre un caso de asesinato y suicidio en San Miguel, El Salvador, en el que un hombre asesinó a su compañera de vida y luego se suicidó. El sujeto, identificado como Óscar Napoleón Martínez, atentó contra la vida de su compañera de vida, Teresa de Jesús Medina, y luego de asesinarla se suicidó. La causa del hecho se cree que fue una discusión entre ambos.
 La Organización de Mujeres Salvadoreñas por la Paz (Ormusa) ha registrado 46 muertes violentas de mujeres en El Salvador en 2023, de las cuales 23 fueron mujeres asesinadas por sus parejas. De ese número, 21 muertes fueron feminicidios y otros dos como suicidios feminicidas.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en la colonia El Tesoro en San Miguel, El Salvador.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Homicidio:** La noticia trata sobre un caso de homicidio, en el que un hombre asesinó a su compañera de vida y luego se suicidó.
@@ -1490,12 +1682,12 @@
 * **Seguridad:** La noticia también enfatiza la necesidad de mejorar la seguridad de las mujeres en El Salvador.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de asesinato y suicidio de una pareja en San Miguel, El Salvador. El hombre, Oscar Napoleón Martínez, asesinó a su compañera de vida, Teresa de Jesús Medina, con un machete después de una discusión. Luego de cometer el crimen, Martínez se suicidó.
@@ -1504,60 +1696,60 @@
 La causa del asesinato podría haber sido una discusión entre Martínez y Medina. El texto indica que "una discusión suscitada entre ambos" precedió el asesinato.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>La información sobre el grupo en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>La noticia no especifica el tipo de arma que usó el asesino, por lo que no se puede proporcionar la información de la misma.</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>La noticia indica que una víctima de la muerte es Teresa de Jesús Medina, pero no identifica a la otra víctima, por lo que no se puede proporcionar la información de identificación de la otra víctima.</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>La información de la noticia no incluye citas a fuentes de información, por lo que no se puede analizar el contenido de la misma con precisión.</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/category/nacionales/page/41/</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>**Título de la noticia:** No se encontró el título. La noticia no tiene título.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre las esperadas lluvias sobre la franja costera y cordillera volcánica, con énfasis en la cordillera El Bálsamo, Apaneca-Ilamatepec y sus alrededores. Las lluvias se espera que continuen durante la tarde y se espera también lluvia y tormentas en la franja norte.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>La noticia habla de un evento que ocurrió en la cordillera El Bálsamo, Apaneca-Ilamatepec y la franja norte.
 **Dónde ocurrió el suceso:**
@@ -1566,83 +1758,83 @@
 * Franja norte</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Clima:** Previsión de lluvia sobre la franja costera y cordillera volcánica, con énfasis en la cordillera El Bálsamo, Apaneca-Ilamatepec y sus alrededores.
 * **Ocurrencia de lluvias:** Continuación de las lluvias sobre la cordillera El Bálsamo y Apaneca-Ilamatepec, y se espera más lluvia y tormentas en la franja norte.</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>La información que se deduce de la noticia es que las lluvias se espera que ocurran sobre la cordillera El Bálsamo y Apaneca-Ilamatepec, y también sobre la franja norte del país.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>La texto no indica los grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados en la noticia.</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna información sobre armas, por lo que no se puede determinar el tipo de arma que se menciona en la noticia.</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en la noticia.</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información para la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/arrestan-a-cuatro-peligrosos-pandilleros-deportados-de-estados-unidos/499472/</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio. La noticia habla de "casos de homicidios" y dice que uno de los detenidos, Omar Ulises Pineda Amaya, alias Gato o Mouse, fue identificado por el delito de homicidio.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Arrestan a cuatro peligrosos pandilleros deportados de Estados Unidos
 **Extraído:** El título de la noticia es "Arrestan a cuatro peligrosos pandilleros deportados de Estados Unidos".</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la captura de cuatro peligrosos pandilleros salvadoreños deportados de Estados Unidos. Los cuatro sujetos, identificados como Omar Ulises Pineda Amaya, alias Gato o Mouse, Milton Adonay Medina Salmerón, alias Chuchi o Cuche, David Isaac Castro Merino, alias Deybi, y Fredy Edenilson Hernández Guardado, alias Tambor, fueron detenidos por la Policía Nacional Civil (PNC) en el Aeropuerto Internacional de El Salvador. Los cargos contra ellos incluyen homicidios, feminicidios, agrupaciones ilícitas y asociación a grupos de pandillas y estructuras terroristas.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en el Aeropuerto Internacional de El Salvador.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Detención de peligrosos pandilleros:** La noticia informa sobre la detención de cuatro peligrosos pandilleros deportados de Estados Unidos en el Aeropuerto Internacional de El Salvador.
@@ -1652,12 +1844,12 @@
 * **Seguridad:** La noticia destaca la importancia de la detención de estos criminales para la seguridad pública.</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el arresto de cuatro peligrosos pandilleros salvadoreños deportados de Estados Unidos. Los sospechosos, identificados como Omar Ulises Pineda Amaya, alias Gato o Mouse, Milton Adonay Medina Salmerón, alias Chuchi o Cuche, David Isaac Castro Merino, alias Deybi, y Fredy Edenilson Hernández Guardado, alias Tambor, son miembros de grupos de pandillas y se consideran de alta peligrosidad.
@@ -1667,71 +1859,70 @@
 La noticia indica que la eliminación de estos pandilleros de las calles de El Salvador podría tener un impacto positivo en la reducción de la delincuencia en el país. Sin embargo, es importante destacar que la lucha contra la delincuencia requiere una estrategia integral y una colaboración entre las autoridades y la sociedad.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>La noticia indica que los grupos en riesgo mencionados son la pandilla 18R, la pandilla MS13 y la pandilla 18S.</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>La texto no describe el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>**Cita de fuentes de información:**
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es cierta o no.
-**Conclusión:**
 La noticia informa sobre la captura de cuatro peligrosos pandilleros deportados de Estados Unidos en el Aeropuerto Internacional de El Salvador. La información no incluye fuentes de información, por lo que no se puede verificar la precisión de la misma.</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/criminales-enfrentan-juicio-por-el-asesinato-de-una-mujer-en-teotepeque/494359/</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>**Clasificación:**
 La noticia describe un homicidio. La noticia habla sobre el asesinato de una mujer en Teotepeque, El Salvador, y menciona el hallazgo del cuerpo de la víctima en un predio baldío.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Criminales enfrentan juicio por el asesinato de una mujer en Teotepeque
 La extraída información se encuentra en el título de la noticia.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el juicio de tres pandilleros por el asesinato de una mujer en Teotepeque, La Libertad Costa. La víctima fue encontrada en un predio baldío y el juicio se lleva a cabo en el Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para Las Mujeres de San Salvador. El principal sospechoso, Rudy Alexander Gamez Sandoval, es acusado de homicidio agravado y es considerado como planificador de la muerte de la víctima. Los otros dos acusados, José Heriberto Orellana Lemus y Anival Torres Cruz, enfrentan cargos por feminicidio agravado.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en terreno baldío ubicado al costado sur de la carretera Litoral en el km 73 y medio, en el distrito de Teotepeque, municipio de La Libertad Costa.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen de asesinato:** La noticia informa sobre el juicio de tres pandilleros por el asesinato de una mujer en Teotepeque.
@@ -1741,12 +1932,12 @@
 * **Llocalización del crimen:** El crimen se occuró en un predio baldío ubicado en el distrito de Teotepeque, municipio de La Libertad Costa.</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre el juicio de tres pandilleros por el asesinato de una mujer en Teotepeque, La Libertad Costa. La teoría de la noticia es que los hechos se derivan de un hallazgo realizado en terreno baldío, donde se encontró el cuerpo de la víctima en estado de descomposición. La investigación conducida por la Fiscalía General de la República (FGR) ha encontrado pruebas que respaldan la acusación de los tres sujetos.
@@ -1754,68 +1945,68 @@
 La suposición de la noticia es que los acusados están relacionados con la pandilla 18 y que el asesinato fue premeditado y ejecutado por ellos.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>La noticia no identifica a la víctima, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>El texto indica que el nombre del agresor es Rudy Alexander Gamez Sandoval, pero no se menciona si se indica el nombre del otro agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/feminicidio-mujer-sale-a-cobrar-remesa-se-reune-con-su-pareja-y-es-asesinada/492296/</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>No, la noticia no describe un homicidio. La noticia describe un feminicidio.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Feminicidio: Mujer sale a cobrar remesa, se reúne con su pareja y es asesinada
 **Extraído:**
 El título de la noticia es "Feminicidio: Mujer sale a cobrar remesa, se reúne con su pareja y es asesinada".</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el asesinato de Rosa Elvira Flores, cuya pareja, Edwin Antonio Cáceres, se encuentra prófugo de la justicia. La víctima fue asesinada en el cantón Los Lagartos, San Julián, Sonsonate. Las investigaciones de las autoridades apuntan que Cáceres es el responsable del feminicidio, y que el suceso se desencadenó cuando la víctima informó a Cáceres que se dirigía desde Santa Isabel Ishuatán hacia el centro de San Julián para retirar una remesa de $2,500.
 La familia de Flores reportó la desaparición cuando ella no regresó. Las autoridades han señalado que al menos 3 personas más han sido detenidas y están siendo procesadas por el caso.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso se encuentra en la línea 4 de la noticia: **San Julián, Sonsonate**.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia se centra en un caso de feminicidio en el Salvador, donde una mujer fue asesinada por su pareja.
@@ -1825,12 +2016,12 @@
 * **Código de justicia:** La FGR presentó un requerimiento fiscal por feminicidio contra el asesino.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de feminicidio en el cantón Los Lagartos, San Julián, Sonsonate. La víctima, Rosa Elvira Flores, fue asesinada por su pareja, Edwin Antonio Cáceres. La investigación indica que el asesinato se desencadenó cuando la víctima informó a Cáceres que se dirigía desde Santa Isabel Ishuatán hacia el centro de San Julián para retirar una remesa de $2,500.
@@ -1838,69 +2029,69 @@
 Basándose en la información disponible, la suposición de esta noticia es que el asesinato de Rosa Elvira Flores fue premeditado por parte de su pareja, Edwin Antonio Cáceres. El crimen parece haber sido motivado por el asesinato de la víctima por un motivo de posesión o control.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la texto.</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia identifica a la víctima como Rosa Elvira Flores.</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>**Nombre del agresor:** Edwin Antonio Cáceres
 La noticia indica que el nombre del agresor es Edwin Antonio Cáceres.</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/capturan-en-guatemala-a-pandillero-salvadoreno-acusado-de-dos-homicidios/492319/</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>No, la noticia describe un homicidio. La noticia habla de dos homicidios y la captura de un pandillero salvadoreño acusado de estos delitos.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Capturan en Guatemala a pandillero salvadoreño acusado de dos homicidios
 **Extraído:** El título de la noticia es "Capturan en Guatemala a pandillero salvadoreño acusado de dos homicidios".</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la captura de Eduardo Antonio Vásquez Menéndez, alias Piropo, pandillero de la 18, en Guatemala. El ministro de Seguridad, Gustavo Villatoro, informó de la ubicación y captura de Vásquez Menéndez, quien cuenta con antecedentes vigentes de dos homicidios cometidos. El funcionario mencionó que el antiguo sistema judicial permitió que pandilleros como Vásquez Menéndez continuaran en libertad y lograran escapar a otros países, pero que con las leyes actuales esto no será posible. Villatoro afirmó que los responsables de cada homicidio cometido en el país pagarán con décadas en prisión.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>La noticia no indica el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Captura de pandillero salvadoreño:** La noticia informa sobre la captura de Eduardo Antonio Vásquez Menéndez, alias Piropo, pandillero de la 18, en Guatemala.
@@ -1909,12 +2100,12 @@
 * **Justice:** La noticia enfatiza el compromiso del gobierno de luchar contra la delincuencia y garantizar la justicia para las víctimas.</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>La noticia no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta la captura de un pandillero salvadoreño llamado Eduardo Antonio Vásquez Menéndez, alias Piropo, en Guatemala. La noticia implica que las leyes perversas en el pasado impedían la captura de Criminales como Vásquez Menéndez, ya que no se aplicaban las sentencias.
@@ -1922,69 +2113,69 @@
 La noticia sugiere que las leyes perversas en el pasado permitieron a los pandilleros como Vásquez Menéndez escapar de la justicia.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>La texto no describe el tipo de arma que utiliza el pandillero salvadoreño, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>El texto no menciona el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/enjuician-a-mareros-por-crimen-de-mujer-en-mariona/491510/</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio. La noticia describe el asesinato de Ruth Nohemy S. y el asesinato de su compañero de vida.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Enjuician a mareros por crimen de mujer en Mariona**</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el enjuiciamiento de una estructura de 22 pandilleros de la clica Altos Crazy Locos Salvatruchos por el crimen de mujer de Ruth Nohemy S. en Mariona, Ciudad Delgado. La víctima, que tenía información sobre el asesinato de su pareja, divulgó la información y fue asesinada por los miembros de la clica como resultado. El feminicidio de Ruth Nohemy S. es uno de los 31 delitos que el tribunal está conociendo en contra de la estructura.
 La structs de pandilleros también ha sido acusada de homicidio agravado, extorsión, agrupaciones ilícitas y otros hechos de crimen organizado. Los investigadores de la Policía Nacional Civil (PNC) han vinculado a los terroristas en la serie de delitos por el perfil de los imputados y su función en la estructura.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en Altos de Santa María, de Villa Mariona, Ciudad Delgado.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia describe un caso de crimen organizado en el que una estructura de pandilleros de la clica Altos Crazy Locos Salvatruchos fue enjuiciada por asesinar a una mujer.
@@ -1993,12 +2184,12 @@
 * **Agrupaciones ilícitas:** La noticia enfatiza el delito de agrupaciones ilícitas, que es el delito en común que la Fiscalía General de la República atribuye a todos los miembros de la Mara Salvatrucha.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de feminicidio relacionado con una estructura de pandilleros de la clica "Altos Crazy Locos Salvatruchos". La teoría de la noticia es que el crimen se motivó por la divulgación de la víctima de información sobre el asesinato de su pareja. Los pandilleros se entraron en pánico por la posible exposición de sus actos y decidieron asesinar a la mujer para silenciarla.
@@ -2006,68 +2197,68 @@
 La noticia sugiere que el feminicidio es uno de los 31 delitos que el tribunal está conociendo en contra de la estructura de pandilleros. La suposición es que las agrupaciones ilícitas son el delito en común que la Fiscalía General de la República atribuye a todos los miembros de la Mara Salvatrucha.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de la solicitud.</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el crimen, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas como Ruth Nohemy S. y su hijo de cuatro meses.</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre la misma.</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/clica-de-la-ms-que-delinquia-en-tres-municipios-de-san-salvador-es-enjuiciada-por-31-delitos/490452/</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio. La noticia habla sobre el feminicidio de una mujer embarazada por parte de una clica de pandilleros.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>**Título:** Clica de la MS que delinquía en tres municipios de San Salvador es enjuiciada por 31 delitos
 **Extraído:** El título de la noticia es "Clica de la MS que delinquía en tres municipios de San Salvador es enjuiciada por 31 delitos".</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el juicio de una clica de pandilleros de la Mara Salvatrucha que delinquía en tres municipios de San Salvador. La clica, conocida como Altos Crazy Salvatruchos, consumó 31 delitos en varias colonias, incluyendo homicidio agravado, extorsión, agrupaciones ilícitas y feminicidio. El Ministerio Público ha ofrecido abundante prueba para respaldar cada delito, incluyendo testimonio, pericias, prueba científica y tecnológica.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en varias colonias de Mejicanos, Cuscatancingo y Ciudad Delgado, que están ubicadas a las orillas de la calle a Mariona.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia destaca el crimen organizado relacionado con la clica de pandilleros "Altos Crazy Salvatruchos" y su involucramiento en 31 delitos en tres municipios de San Salvador.
@@ -2076,12 +2267,12 @@
 * **Feminicidio:** Uno de los casos conocidos por el tribunal es el feminicidio de una mujer embarazada, donde la representación fiscal busca una sentencia de 50 años de prisión.</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>La información sobre la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el juicio de una clica de la Mara Salvatrucha conocida como Altos Crazy Salvatruchos, que ha sido acusada de cometer 31 delitos en tres municipios de San Salvador. La teoría de la noticia es que la clica está involucrada en actividades de crimen organizado, incluyendo homicidio agravado, extorsión, agrupaciones ilícitas y feminicidio.
@@ -2089,56 +2280,56 @@
 La noticia sugiere que la clica Altos Crazy Salvatruchos es una organización criminal bien establecida con una amplia red de asociados. La suposición también es que la clica ha causado mucho daño en las comunidades de Mejicanos, Cuscatancingo y Ciudad Delgado, y que su eliminación sería una gran victoria para la lucha contra el crimen organizado.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo por lo que no se puede proporcionar la información de grupos en riesgo.</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma que utiliza la clica de pandilleros, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/hombre-pasara-90-anos-en-prision-por-asesinar-a-expareja-y-su-hijo-de-tres-anos/485775/</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio. La noticia habla de un hombre que asesinó a su expareja y su hijo de tres años, y el delito incluido en la noticia es el homicidio.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 ** hombre pasará 90 años en prisión por asesinar a expareja y su hijo de tres años**</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la condena de 90 años de cárcel a Miguel Antonio Díaz Castro por asesinar a su expareja y su hijo de tres años. El tribunal especializado de sentencia para una Vida Libre de Violencia y Discriminación para las Mujeres de Santa Ana impuso 40 años por el feminicidio agravado de su expareja y 50 años por el homicidio agravado de su hijo de tres años. La fiscalía probó que el imputado cometió el crimen el 1 de noviembre de 2022.
@@ -2150,13 +2341,13 @@
 * **Fecha:** 1 de noviembre de 2022.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en Nahuizalco, departamento de Sonsonate.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio:** La noticia trata sobre un caso de homicidio, donde un hombre asesinó a su expareja y su hijo de tres años.
@@ -2165,12 +2356,12 @@
 * **Legality:** La noticia menciona la legalidad del caso, incluyendo la ubicación del crimen y la fecha en que ocurrió.</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede analizar la información solicitada.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de asesinato de una expareja y su hijo de tres años por parte de su excompañero, Miguel Antonio Díaz Castro. La teoría de la situación es que Díaz Castro cometió el crimen por causa de una disputa con su expareja.
@@ -2178,69 +2369,69 @@
 La suposición de la noticia es que Díaz Castro premeditadamente asesino a su expareja y su hijo con el fin de eliminarlos de su vida.</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma que utilizó el imputado en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas en la noticia:**
 La noticia indica que las víctimas del crimen son una expareja de vida y su hijo de tres años.</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>El nombre del agresor en la noticia es Miguel Antonio Díaz Castro. La información sobre su nombre se encuentra en la primera frase de la noticia.</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es confiable o no.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/san-salvador-centro-tendra-dispensa-de-intereses-por-mora/484880/</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como descripción de un homicidio.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>**Título de la noticia:** San Salvador Centro tendrá dispensa de intereses por mora
 La información extraída de la noticia es el título de la noticia.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la nueva ordenanza municipal de la alcaldía de San Salvador para dispensar intereses moratorios a los habitantes del nuevo municipio de San Salvador Centro. La ordenanza entrará en vigor el 1 de mayo y idleness una dispensa temporal de intereses moratorios sobre las tasas municipales para los propietarios arrendatarios de inmuebles. El objetivo de la ordenanza es promover la contribución y el estado de solvencia de todos los demás municipios que se convertirán en distritos.
 La ordenanza permitirá a los contribuyentes morosos realizar el pago de las tasas sin ningún recargo o interés, y solicitar planes de pago según el monto adeuda[1]do a la municipalidad, para un plazo que no sobrepase los 12 meses calendario.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>La noticia ocurrió en San Salvador, la ciudad capital de El Salvador. El suceso se refiere a la nueva ordenanza municipal que el alcalde Mario Durán está alista para implementar para dispensar intereses moratorios a los habitantes del nuevo municipio de San Salvador Centro.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Dispensa de intereses moratorios en San Salvador Centro:** La noticia informa sobre la alista de la alcaldía de San Salvador de una ordenanza municipal para dispensar intereses moratorios a los habitantes del nuevo municipio de San Salvador Centro que no estén al día con el pago de tasas por la prestación de servicios.
@@ -2250,12 +2441,12 @@
 * **Beneficios:** La ordenanza se espera que beneficie a las comunidades de San Salvador Centro con la mejora de los servicios y las obras.</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre la implementación de una ordenanza municipal para dispensar intereses moratorios a los habitantes de San Salvador Centro, recientemente creado como municipio. La suposición es que la ordenanza tiene como objetivo principal promover la recaudación de tasas y contribuir a la mejora de las comunidades.
@@ -2263,67 +2454,67 @@
 La noticia indica que la ordenanza se aplica a los propietarios arrendatarios de inmuebles y busca facilitar la normalización de la situación de mora de los contribuyentes. La suposición es que la ordenanza permitirá a los contribuyentes morosos realizar el pago de sus tasas sin recargo o interés, y también les permitirá solicitar planes de pago.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>La texto no menciona armas, por lo que no se puede determinar el tipo de arma que se especifica en la solicitud, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las mismas.</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/inicia-juicio-por-feminicidio-de-exdiputada-yanci-urbina/484644/</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio, ya que habla sobre el asesinato de la exdiputada Yanci Urbina.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Inicia juicio por feminicidio de exdiputada Yanci Urbina**</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el inicio del juicio por feminicidio de la exdiputada Yanci Urbina. El juicio se llevó a cabo en el Juzgado Especializado de Sentencia de la Mujer de San Salvador y la Fiscalía General de la República busca impocar la pena máxima de 50 años de prisión por el delito de feminicidio agravado. Urbina fue asesinada el 29 de mayo de 2022 y el imputado aportó información falsa para despistar a las autoridades. Sin embargo, las investigaciones ampliadas llevaron a la identificación de las contradicciones que permitieron perfilar a Wachowsky como el único sospechoso. La autopsia demostró que Urbina había sido asesinada de golpes contundentes y no por un paro cardiaco como inicialmente se dijo.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso en la noticia es: Antiguo Cuscatlán, La Libertad.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Feminizicidio:** La noticia trata sobre el juicio por feminicidio de la exdiputada Yanci Urbina, que ocurrió el 29 de mayo de 2022.
@@ -2333,12 +2524,12 @@
 * **Autopsia:** La autopsia demostró la existencia de mano criminal y corroboró la causa de muerte de Urbina como golpes contundentes.</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que la causa del asesinato de la exdiputada Yanci Urbina todavía no se ha aclarado por completo, y que el juicio aún no ha terminado. La información disponible no es suficiente para determinar la verdad, por lo que no se puede establecer una teoría con base en la información actual.
@@ -2346,67 +2537,67 @@
 Basándose en la información disponible, se podría suponer que el asesinato de Yanci Urbina fue premeditado y que el acusado, Peter Wachowsky, pudo haber utilizado una combinación de violencia y falsedad para cometer el delito.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información de grupos en riesgo mencionados.</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el asesinato de Yanci Urbina, por lo que no se puede determinar el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>La noticia identifica a la víctima como Yanci Urbina, exdiputada del FMLN.</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>El nombre del agresor en la noticia es **Peter Wachowsky**. La noticia describe el inicio del juicio por feminicidio de la exdiputada Yanci Urbina contra el mismo, por lo que no se menciona si el nombre del agresor se mantiene oculto en el texto.</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/hombre-enamorado-de-una-mujer-ficticia-confiesa-el-asesinato-de-su-companera-en-francia/476039/</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, ya que habla de un asesinato. La víctima, una enfermera en una residencia de ancianos, fue hallada muerta con "heridas en el torso".</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>**Título:** Hombre enamorado de una mujer ficticia confiesa el asesinato de su compañera en Francia
 **Extraído:** El título de la noticia es "Hombre enamorado de una mujer ficticia confiesa el asesinato de su compañera en Francia".</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia reporta el asesinato de una enfermera en Francia por parte de su compañero. El hombre, nacido en 1994, reconocía haber planeado el crimen para poder concretar su relación virtual con una supuesta mujer de quien se había enamorado en internet. La víctima, nacida en 1995, fue hallada muerta en su domicilio con «heridas en el torso». La investigación descartó la hipótesis de robo de la alcancía y acusó al hombre de haber mantenido una relación afectiva en internet con una persona de la cual ignoraba su verdadera identidad.</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>La noticia ocurrió en la localidad de Beussent, en Francia. El crimen se occuró en el domicilio de la pareja.</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen de asesinato:** La noticia describe un asesinato de una mujer en Francia por parte de su compañero, motivado por una relación virtual.
@@ -2416,12 +2607,12 @@
 * **Seguridad en internet:** La noticia enfatiza la amenaza de estafas por internet, particularmente desde África occidental.</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa de un hombre que asesinó a su compañera en Francia debido a una relación virtual con una mujer ficticia. La teoría de la situación es que el hombre se enamoró de una mujer ficticia en internet, y para concretar su relación, planearon el asesinato.
@@ -2429,72 +2620,72 @@
 La suposición de la noticia es que la mujer ficticia era un personaje creado por un estafador emocional. Es probable que la mujer ficticia haya sido creada en Costa de Marfil, ya que el estafador es conocido por operar desde ese país.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indica en la noticia es:
 **Grupos en riesgo:**
 - Numerosas bandas criminales que operan desde África occidental.</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma que se utilizó en el asesinato, por lo que no se puede proporcionar la información de la misma.</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia describe el asesinato de una enfermera en una residencia de ancianos, nacida en 1995, y su compañero, empleado técnico de una alcaldía, nacido en 1994.</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>**Cita de las fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre la misma.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/mejores-salarios-y-condiciones-laborales-principales-demandas-de-andaluces/</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como tal.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Mejores salarios y condiciones laborales, principales demandas de andaluces
 **Extraído:**
 El título de la noticia es "Mejores salarios y condiciones laborales, principales demandas de andaluces".</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la concentración de organizaciones laborales y sindicales en Sevilla, donde se presentaron las principales demandas de las organizaciones, incluyendo mejores salarios y condiciones laborales. El líder de la Unión General de Trabajadores (UGT) en Andalucía destacó la necesidad de avanzar en los retos laborales y sociales, y geldt la necesidad de luchar contra la pobreza, la precariedad laboral y la discriminación. La UGT también exigía un alto a los casos de feminicidios, la eliminación de los altos costos de los alimentos y la distribución equitativa de los inspectores de trabajo.
 La concentración también extendió la solidaridad de las organizaciones con los pueblos en conflicto, incluyendo el Pueblo Saharaui, Cuba y Palestina.</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>La noticia se refiere a un evento que ocurrió en Sevilla, España. Por lo tanto, el lugar donde ocurrió el suceso es Sevilla.</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Condiciones laborales y salariales:** La UGT exige mejores salarios y condiciones laborales para los trabajadores de Andalucía.
@@ -2503,12 +2694,12 @@
 * **Solidaria con pueblos en conflicto:** La UGT extiende su solidaridad con los pueblos en conflicto entre ellos.</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre las demandas de las organizaciones laborales y sindicales en Andalucía, con particular énfasis en las condiciones laborales y salariales. La teoría que se asume es que las organizaciones están luchando por mejorar las condiciones laborales y salariales de los trabajadores, ya que estos tienen un impacto directo en la calidad de vida de las personas.
@@ -2516,7 +2707,7 @@
 La noticia asume que las organizaciones están utilizando la concentración para extender su solidaridad ante los pueblos en situaciones de conflicto.</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se menciona en la noticia es:
 * **Pueblo Saharaui:** 51 personas fallecieron por el transporte en un cayuco a las Islas Canarias.
@@ -2524,61 +2715,61 @@
 * **Palestina:** Pueblo de Palestina que lleva décadas sufriendo ante los gobiernos de Israel y de la ceguera de la comunidad internacional.</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>La texto no menciona ningún tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>La información no contiene citas a las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/registran-10-muertes-violentas/</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>No, la noticia no describe un homicidio. La noticia habla sobre la registación de 10 muertes violentas de mujeres en El Salvador en el año 2024.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Registran 10 muertes violentas de mujeres en primeros meses de 2024
 **Extraído:** El título de la noticia es "Registran 10 muertes violentas de mujeres en primeros meses de 2024".</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el registro de 10 muertes violentas de mujeres en El Salvador en los primeros meses de 2024. El Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA) ha detectado estos casos, que incluyen 8 feminicidios, dos de ellos en niñas menores de 10 años, y dos suicidios. ORMUSA afirma que estos números son estimados, ya que los informes oficiales no proporcionan datos sobre muertes violentas. El Observatorio Universitario de Derechos Humanos de la UCA (OUDH) señaló que la policía comunicó solo 21 muertes violentas de mujeres en 2023.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se encuentra en la noticia, por lo que no se puede proporcionar la información para completar la solicitud.</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Violencia contra las mujeres en El Salvador:** La noticia informa sobre el registro de 10 muertes violentas de mujeres en el año 2024, según el Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA).
@@ -2587,12 +2778,12 @@
 * **Defectos en la recopilación de datos:** La noticia destaca la falta de datos oficiales sobre muertes violentas en El Salvador, y cómo el Observatorio Universitario de Derechos Humanos de la UCA (OUDH) ha encontrado que la policía comunicó solo 21 muertes violentas de mujeres en 2023.</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta una tasa de muertes violentas de mujeres en El Salvador en los primeros meses de 2024 que es similar a la de 2023, según el Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA). Sin embargo, la falta de datos oficiales de las instituciones salvadoreñas dificulta la verificación de esta información.
@@ -2600,34 +2791,34 @@
 La tasa de muertes violentas de mujeres en El Salvador en los primeros meses de 2024 podría ser similar a la de 2023, pero es difícil determinar con precisión debido a la falta de datos oficiales.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información para completar la solicitud.</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>La texto no describe el tipo de arma utilizado en las muertes violentas, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas de las 10 muertes violentas de mujeres como:
 * 8 feminicidios, dos de ellas en niñas menores de 10 años
 * 2 suicidios, uno de una mujer en Antiguo Cuscatlán y otro de una niña en El Congo</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor no se encuentra en la noticia, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 * Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA)
@@ -2637,35 +2828,35 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/author/nacionales/page/438/</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 La noticia no tiene título, por lo que no se pudo extraer el título solicitado.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre las protestas contra el plan de reforma de pensiones del Gobierno de Francia, donde miles de trabajadores se pusieron en las calles el fin de expresar su rechazo. El paro de trabajadores en algunos sectores, como las refinerías, el transporte público y la recolección de basura, continuación también se mantiene. Esta es la séptima vez que París y varias ciudades francesas se convierten en escenario de protestas en menos de dos meses.</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en París y varias ciudades francesas.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Protests contra la reforma de pensiones:** La noticia informa sobre una nueva ronda de protestas contra el plan de reforma de pensiones del Gobierno de Francia.
@@ -2674,76 +2865,76 @@
 * **No se encontró el título:** La noticia no tiene un título, lo que dificulta la comprensión del contenido.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información sobre una teoría o suposición, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indican en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>La texto no menciona ninguna arma, por lo que no se puede determinar si el texto indica el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>La texto no indica víctimas, por lo que no se puede identificar a las víctimas en la noticia, por lo que no se puede proporcionar la información de la identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/sujeto-condenado/</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, ya que habla de un caso de feminicidio.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Sujeto es condenado a 16 años de cárcel por intento de feminicidio de su esposa</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el condena de un sujeto a 16 años de cárcel por intento de feminicidio de su esposa en San Salvador. El hombre, de 39 años, fue condenado por el delito de feminicidio agravado tentado en perjuicio de su pareja. Los hechos ocurrieron el 15 de junio de 2020, en una comunidad del municipio de Verapaz. El sujeto llegó a la vivienda familiar en estado de ebriedad y con un corvo con la intención de quitarle la vida a su pareja. La víctima resultó con lesiones en el brazo y uno de sus dedos al defenderse del ataque.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en una comunidad del municipio de Verapaz en San Vicente, por lo que la información sobre el lugar donde ocurrió el suceso no se encuentra en la noticia, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia informa sobre el condena de un hombre por intento de feminicidio de su esposa en San Salvador.
@@ -2753,12 +2944,12 @@
 * **Legislación:** La noticia no indica si la noticia se refiere a una legislación sobre feminicidio en El Salvador.</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre el condena de un sujeto por intento de feminicidio de su esposa en San Salvador. La teoría de la noticia es que el hombre, de nombre Antonio Guadalupe Aquino Reyes, estaba en estado de ebriedad y con un corvo, ingresó en la vivienda familiar con la intención de quitarle la vida a su pareja. La víctima sobrevivió al ataque y el hombre fue condenado a 15 años de prisión por feminicidio agravado.
@@ -2766,66 +2957,66 @@
 La suposición de la noticia es que el hombre, Aquino, era un hombre violento y que, debido a su estado mental, cometió el delito de feminicidio.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser mencionados, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>La noticia no indica el tipo de arma utilizada en el crimen, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>El nombre del agresor en la noticia es **Antonio Guadalupe Aquino Reyes**.</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>La información no contiene fuentes de información, por lo que no se puede proporcionar la cita de las mismas.</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/un-hombre-en-san-miguel-asesina-a-su-companera-de-vida-y-luego-se-suicido</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, pero no se ajusta a la definición de homicidio por el consenso internacional, ya que no se realiza la separación entre asesinato y feminicidio.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Un hombre en San Miguel asesina a su compañera de vida y luego se suicidó
 **Extraído:** El título de la noticia es "Un hombre en San Miguel asesina a su compañera de vida y luego se suicidó".</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia reporta el asesinato de una mujer en San Miguel a manos de su compañero de vida, quien posteriormente se suicidó. El hombre, identificado como Jorge Castro Cañas, disparó a la mujer después de una discusión. El asesinato se incluyó en el reporte diario de la PNC, pero no se sigue el consenso internacional de realizar una separación entre feminicidios y asesinatos por violencia de género. La organización de mujeres salvadoreñas por la paz (Ormusa) reporta que entre el 1 de enero y el 10 de marzo de 2024 han ocurrido siete feminicidios, de los cuales dos víctimas eran niñas menores de edad.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en el cantón El Zamorano de San Miguel.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia describe un caso de feminicidio en San Miguel, donde un hombre asesino a su compañera de vida y luego se suicidó.
@@ -2834,12 +3025,12 @@
 * **Registro independiente:** La Organización de Mujeres Salvadoreñas por la Paz (Ormusa) reporta que entre el 1 de enero y el 10 de marzo de 2024 han ocurrido siete feminicidios, de los cuales dos víctimas eran niñas menores de edad.</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se pudo proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia presenta una situación donde un hombre asesinó a su compañera de vida y luego intentaba suicidarse. No se dispone de información sobre las causas o motivaciones del asesinato, por lo que es difícil determinar la verdad o suponer el motivo detrás de los eventos.
@@ -2847,57 +3038,57 @@
 La noticia sugiere que el asesinato podría estar relacionado con la violencia de género, ya que el hombre y la víctima eran pareja. Sin embargo, no se cuenta que el reporte diario de la PNC no sigue el consenso internacional sobre la clasificación de los homicidios por violencia de género.</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los grupos en riesgo que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>La noticia no especifica el tipo de arma que usó el hombre para asesinar a su compañera de vida, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>El nombre del agresor en la noticia es **Jorge Castro Cañas**.</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>**Fuentes de información:**
 La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/suspenden-juicio-contra-acusado-del-feminicidio-de-fernanda-najera-por-segunda-vez</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, pero no es la descripción del homicidio de la víctima. La noticia describe el feminicidio de una joven y el homicidio tentado de su hijo.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 Suspenden juicio contra acusado del feminicidio de Fernanda Nájera, por segunda vez
 La noticia se ajusta a la estructura de la pregunta, por lo que no se ha eliminado el texto original.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la suspensión por segunda vez del juicio contra el acusado de feminicidio de Fernanda Nájera, Michael Alejandro Castillo Murga. La suspensión se produjo debido a la solicitud de reprogramación de la representación de la Fiscalía General de la República (FGR). No se sabe aún el motivo de la solicitud.
@@ -2905,12 +3096,12 @@
 El acusado, Michael Alejandro Castillo Murgas, es procesado en calidad de ausente. Sobre él pesa una orden de captura internacional.</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>La noticia ocurrió en el kilómetro 99 de la carretera que de Ahuachapán conduce a Sonsonate, en la jurisdicción del cantón El Molino, del municipio de Concepción de Ataco.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Suspensión de juicio:** El juicio en contra de Michael Alejandro Castillo Murga por el feminicidio de Fernanda Nájera se suspendió por segunda vez.
@@ -2919,12 +3110,12 @@
 * **Proceso:** Castillo Murgas es procesado en calidad de ausente con una orden de captura internacional.</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el suspensión del juicio contra el acusado de feminicidio de Fernanda Nájera por segunda vez. La causa de la suspensión no se conoce, pero se sabe que la Fiscalía General de la República (FGR) solicitó la reprogramación.
@@ -2932,57 +3123,57 @@
 La suspensión del juicio podría ser causada por una falta de preparación por parte de la FGR, ya que estaban implicadas en el escrutinio final de las elecciones presidenciales y de diputados 2024.</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el feminicidio, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas:**
 La noticia identifica a las víctimas como Melvi Fernanda Nájera Quezada, de 23 años, y su hijo, de un año y siete meses.</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>El texto no menciona el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede determinar si la información es cierta o no.</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/envian-a-la-carcel-a-cuatro-implicados-en-asesinato-de-lideresa-comunitaria-principal-acusado-sigue-profugo</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio, pero no es la descripción completa del mismo. La noticia describe el asesinato de la lideresa comunitaria Rosa Elvira Flores, pero no incluye la descripción del proceso de la autopsia o el modo en que se encontraron los restos óseos.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>**Título:** Envían a la cárcel a cuatro implicados en asesinato de lideresa comunitaria: principal acusado sigue prófugo
 La información extraída del título de la noticia es: **Envían a la cárcel a cuatro implicados en asesinato de lideresa comunitaria**.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el asesinato de la líder comunitaria Rosa Elvira Flores, que integraba el Movimiento Salvadoreño de Mujeres de Sonsonate. El caso se encuentra en curso de investigación y se han realizado detenciones por el delito de encubrimiento.
@@ -2990,12 +3181,12 @@
 La policía no incluyó el hecho en las estadísticas de homicidios al principio, pero posteriormente lo incluyó después de que se determinó que la muerte fue causada por homicidio.</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>La noticia ocurrió en San Julián, Sonsonate, El Salvador. El crimen ocurrió en un cañal ubicado en San Julián.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Femicidio:** La noticia informa sobre el asesinato de la lideresa comunitaria Rosa Elvira Flores Martínez.
@@ -3005,12 +3196,12 @@
 * **Legality:** La noticia destaca la necesidad de justicia y la inclusión de la víctima en las estadísticas de homicidio.</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>La noticia no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el asesinato de la lideresa comunitaria Rosa Elvira Flores se produjo como consecuencia de un enfrentamiento entre ella y el principal acusado, Edwin Antonio Cáceres Ramírez. Flores, que era miembro del Movimiento Salvadoreño de Mujeres, fue encontrada muerta en un cañal de San Julián el 27 de marzo, después de que fuera desaparecida el 19 de marzo.
@@ -3019,55 +3210,55 @@
 La suposición de la noticia es que el asesinato de Rosa Elvira Flores fue motivado por su defensa de los derechos humanos.</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma que se utilizó en el asesinato de la lideresa comunitaria, por lo que no se puede determinar el tipo de arma utilizado en la noticia.</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas como la defensora de derechos humanos Rosa Elvira Flores Martínez y el supuesto perpetrador Edwin Antonio Cáceres Ramírez.</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se pudo proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>La información de la noticia no indica las fuentes de información, por lo que no se puede analizar la información de la misma para determinar si las fuentes de información son confiables.</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/instalan-juicio-repetido-contra-condenado-por-feminicidio-agravado-de-edi-marcela</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, pero no de forma explícita. La noticia habla sobre el asesinato de una mujer, pero no proporciona detalles sobre el modo en que ocurrió el asesinato o sobre el estado del cuerpo del víctima después de la muerte.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Instalan juicio repetido contra condenado por feminicidio agravado de Edi Marcela**</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el instalación de un juicio repetido contra un hombre acusado de feminicidio agravado de su expareja en San Salvador. El acusado, Rodrigo Alfredo Pérez González, fue condenado a 35 años de cárcel en 2021, pero la sentencia fue anulada por la Sala de lo Penal de la Corte Suprema de Justicia, por lo que se repitió el juicio. La defensa argumenta que no se valoró e incorporó una prueba en el primer juicio. El juicio se inició con la incorporación de los alegatos iniciales y la prueba testimonial de las partes.
@@ -3078,12 +3269,12 @@
 * **Impunidad:** Las organizaciones feministas se concentraron en el Centro Judicial “Isidro Menéndez” para denunciar la reapertura del caso.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en un lugar no especificado en el texto, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Feminicidio:** La noticia describe el caso de feminicidio de Edi Marcela Pérez Girón y el juicio repetido contra el acusado.
@@ -3092,12 +3283,12 @@
 * **Derechos de las mujeres:** La noticia destaca la importancia de la justicia para las víctimas de feminicidio.</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre los detalles específicos de la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia describe el proceso judicial de un hombre acusado de feminicidio agravado de su expareja en El Salvador. La teoría de la noticia es que el juicio se repitió debido a la anulación de la sentencia original y que las organizaciones feministas están preocupadas por la posibilidad de impunidad.
@@ -3105,66 +3296,66 @@
 La noticia asume que el asesinato de la víctima fue relacionado con el feminicidio y que el acusado es culpable.</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el asesinato de Edi Marcela Pérez Girón, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la texto o no.</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>La noticia identifica a la víctima como **Edi Marcela Pérez Girón**. No se identifica la víctima del feminicidio ocurrido en el 2016.</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/al-menos-11-feminicidios-se-registran-en-el-salvador-entre-enero-y-marzo-segun-ong</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>No, la noticia no describe un homicidio. La noticia describe el problema de la violencia contra las mujeres en El Salvador, específicamente el delito de feminicidio.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Al menos 11 feminicidios se registran en El Salvador entre enero y marzo, según ONG**</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el aumento de los casos de feminicidio en El Salvador entre enero y marzo de 2024. Se indica que se registraron al menos 11 casos de feminicidio en el país, según la Organización de Mujeres Salvadoreñas por la Paz (Ormusa). La organización alerta sobre "una tendencia de desprotección" a mujeres en el país, destacando la muerte de una defensora de derechos humanos en la localidad de Sonsonate. El número de asesinatos de mujeres perpetradas por sus parejas y el número de feminicidios se ha elevado en El Salvador, y las instituciones estatales no han proporcionado información sobre la violencia, incluido la información sobre feminicidios.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso en la noticia es: Sonsonate (este), El Salvador.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Femininidios en El Salvador:** La noticia informa sobre los casos de feminicidio en El Salvador entre enero y marzo de 2024.
@@ -3174,12 +3365,12 @@
 * **Lamentación por la falta de acción:** Los representantes de un consorcio feminista lamentaron la falta de acción de las autoridades en respuesta a la violencia contra las mujeres.</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede analizar la información de la violación a la ley.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre un aumento de los casos de feminicidio en El Salvador entre enero y marzo de 2024. La organización de mujeres salvadoreñas por la paz (Ormusa) alerta sobre una tendencia de desprotección de las mujeres en el país, y enfatiza que la situación sigue siendo grave.
@@ -3187,32 +3378,32 @@
 La causa de la alta tasa de feminicidio en El Salvador es compleja y requiere una investigación exhaustiva. Sin embargo, la noticia sugiere que la falta de protección de las mujeres, la falta de transparencia y la falta de apoyo para las víctimas de violencia contra las mujeres podrían estar contribuyendo a la situación.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizado en los asesinatos, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>La noticia informa sobre el asesinato de al menos 11 mujeres en El Salvador entre enero y marzo de 2024. No se identifican las víctimas en la noticia, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor no se encuentra en el texto, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>**Cita de las fuentes de información:**
 * EFE
@@ -3222,35 +3413,35 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/suspenden-hasta-nuevo-aviso-juicio-por-feminicidio-de-yancy-urbina</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, pero no es la muerte de la exdiputada Yancy Urbina. La noticia se centra en el juicio por feminicidio de la exdiputada Yancy Urbina, y no en su muerte.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Suspenden hasta nuevo aviso juicio por feminicidio de Yancy Urbina
 **Extraído:** El título de la noticia es "Suspenden hasta nuevo aviso juicio por feminicidio de Yancy Urbina".</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el suspensión hasta nuevo aviso del juicio por feminicidio de Yancy Urbina, exdiputado del FMLN, contra su expareja, Peter Wachowski. El juicio se suspendió debido a la solicitud de una prueba por parte de la jueza. Una vez que la prueba sea incorporada, el juicio se reanudará y la jueza notificará a las partes de la nueva fecha. La defensa sostiene que espera obtener una sentencia absolutoria, debido a que la Fiscalía no cuenta con los elementos de prueba para sostener la acusación contra Wachowski.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso en la noticia es: Antiguo Cuscatlán, departamento de La Libertad.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Juicio por feminicidio de Yancy Urbina:** El juicio contra el acusado de feminicidio, Peter Wachowski, se suspendió hasta nuevo aviso.
@@ -3260,12 +3451,12 @@
 * **Causa de la muerte:** La Fiscalía sostiene que la muerte de la exdiputada se trata de un acto de violencia de género, no de un accidente.</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el juicio por feminicidio de Yancy Urbina se suspendió hasta nuevo aviso debido a una prueba que requiere ser incorporada. La defensa sostiene que espera obtener una sentencia absolutoria, debido a que la Fiscalía no cuenta con los elementos de prueba para sostener la acusación contra Wachowski.
@@ -3273,67 +3464,67 @@
 Es probable que la prueba que requiere ser incorporada sea una prueba forense, como el análisis de las lesiones en el cuerpo de Urbina, para determinar si la muerte fue causada por violencia de género o por una caída.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma que se utilizó en el feminicidio de Yancy Urbina, por lo que no se puede determinar si la información sobre el tipo de arma es completa o no.</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>La noticia describe el juicio por feminicidio de Yancy Urbina, exdiputado del FMLN, y no identifica a las víctimas. No se puede determinar si la noticia identifica a las víctimas o no.</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>En la noticia, el nombre del agresor es **Peter Wachowski**.</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>La información de la noticia no contiene fuentes de información, por lo que no se puede analizar la información de la misma para determinar su precisión.</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/programan-juicio-contra-acusado-del-feminicidio-de-fernanda-najera</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, ya que incluye la muerte de una mujer por feminicidio y el hallazgo de su hijo en estado de abandono.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 Programan juicio contra acusado del feminicidio de Fernanda Nájera
 **Título:** Programan juicio contra acusado del feminicidio de Fernanda Nájera</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el programacion del juicio contra el acusado de feminicidio de Fernanda Nájera, Michael Alejandro Castillo Murga. El juicio se programaará para el 22 de abril en San Salvador. El caso fue transfuerzado de Santa Ana a San Salvador por una resolución de una Cámara de lo Penal. La acusación de la Fiscalía indica que Nájera fue encontrada muerta con múltiples lesiones causadas con arma blanca. El hijo de la víctima fue encontrado en estado de abandono y deshidratado. Castillo Murgas ha sido declarado rebelde y sobre él pesa una orden de captura internacional.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en el kilómetro 99 de la carretera que de Ahuachapán conduce a Sonsonate, en la jurisdicción del cantón El Molino, del municipio de Concepción de Ataco.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Juicio contra acusado de feminicidio:** La noticia informa sobre el juicio programado en contra de un acusado de feminicidio.
@@ -3343,12 +3534,12 @@
 * **Declaración rebelde:** El acusado de feminicidio fue declarado rebelde y sobre él pesa una orden de captura internacional.</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre el programacion del juicio contra el acusado de feminicidio de Fernanda Nájera, Michael Alejandro Castillo Murga. La noticia sigue un orden lógico, presenta la información de manera concisa y clara, y incluye los detalles relevantes del caso.
@@ -3356,56 +3547,56 @@
 La noticia asume que el juicio se llevará a cabo en el fecha y lugar indicados, y que el proceso se desarrollará de acuerdo con la ley. No se hace ninguna suposición sobre la culpabilidad del acusado o el resultado del juicio.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>La noticia no indica el tipo de arma utilizada en el feminicidio, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>**Identifica a las víctimas en la noticia:**
 La noticia identifica a las víctimas como Melvi Fernanda Nájera Quezada, de 23 años, y su hijo, de un año y siete meses.</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/category/nacionales/page/6283/</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como una noticia sobre un homicidio.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 No se encontró el título de la noticia.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la resolución de la Sala de lo Constitucional de la CSJ que declaró improcedente el recurso de recuento de votos por voto que solicitaba el partido ARENA. El partido expresó su acatamiento de la resolución, afirmando que es una prueba de vocación democrática y pleno respeto a la institucionalidad de El Salvador.
@@ -3413,12 +3604,12 @@
 La resolución de la Sala de lo Constitucional declaró improcedente el recurso de recuento de votos por voto solicitado por el partido ARENA. El partido reaccionó con acatamiento, enfatizando su compromiso con la democracia y el respeto a la institucionalidad.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>La noticia no indica el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Recounto voto por voto:** La resolución de la Sala de lo Constitucional de la CSJ que declaró improcedente el recurso de cuenta voto por voto de la Alianza Republicana Nacionalista (ARENA)
@@ -3427,78 +3618,78 @@
 * **Legitimidad:** La necesidad de mantener la legitimidad de las instituciones salvadorianas.</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no contiene información sobre la teoría o suposición que se presenta, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los grupos en riesgo que se menciona en la noticia, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre armas, por lo que no se puede proporcionar la información de tipo de arma que se solicita.</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre las víctimas, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>La información no contiene citas de fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/arrestan-a-hombre-que-intento-asesinar-a-machetazos-a-su-pareja/501977/</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>No, la noticia no describe un homicidio. La noticia describe un intento de feminicidio, no un homicidio.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>*Título:* Arrestan a hombre que intento asesinar a machetazos a su pareja
 La información extraída es correcta.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>*Resumen:*
 La noticia informa sobre el arresto de Pio Antonio González, de 67 años, por intento de feminicidio en San Miguel. La víctima, aún no identificada, sufriuó lesiones graves en la cabeza, la mandíbula y los brazos. La policía capturó a González en el caserío El Rebalse. Las autoridades indicaron que Gonzáles será procesado por intento de feminicidio.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>*Dónde ocurrió el suceso:*
 La noticia indica que el suceso ocurrió en el caserío El Rebalse, de San Miguel.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>*Los temas principales tratados en la noticia:
  *Intento de feminicidio:* La noticia describe un intento de feminicidio ocurrido en San Miguel, en el que un hombre de 67 años llamado Pio Antonio González intentó quitarle la vida a su pareja con un corvo.
@@ -3506,12 +3697,12 @@
 * *Legality:* La noticia menciona el procesamiento de González por intento de feminicidio, enfatizando la necesidad de garantizar la justicia y la protección de las víctimas de violencia.</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>*Teoría:
 La noticia reporta el asesinato de una mujer por parte de su pareja, utilizando un corvo como arma. La teoría de la situación es que el hombre, de 67 años, probablemente experimentó un problema de salud mental y en un estado emocional impulsivo, ejecutó el crimen.
@@ -3519,22 +3710,22 @@
 La suposición de la noticia es que el hombre, de 67 años, es responsable de las lesiones sufrididas por su pareja. Es probable que el hombre haya actuado impulsivamente debido a una condición mental o una reacción violenta a una situación percibida.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>La noticia indica que la arma utilizada en el intento de feminicidio fue una macheta.</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>La noticia no identifica a la víctima, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>El texto indica que el nombre del agresor es Pio Antonio González whyy, pero no se menciona el nombre de la víctima.
 Por lo tanto, la información que se puede proporcionar es:
@@ -3542,238 +3733,22 @@
 *No se indica el nombre de la víctima.*</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>*Cita de fuentes de información:*
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>https://diarioelsalvador.com/dos-pandilleros-son-condenados-con-hasta-29-anos-de-carcel-por-homicidio/504534/</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>** Dos pandilleros de la MS-13 recibieron condenas de 25 y 29 años de cárcel por delitos de homicidio agravado y agrupaciones ilícitas.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>** Grupos de crimen, violencia, asesinato.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>https://diarioelsalvador.com/capturan-a-homicida-deportado-desde-estados-unidos/504411/</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>** La policía nacional civil (PNC) confirmó la detención de un hombre acusado de un caso de homicidio y quien fue deportado desde Estados Unidos.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>** N/A</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>** N/A</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>** N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>https://diarioelsalvador.com/pandillero-joker-continuara-en-prision/504491/</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>** Un pandillero que se dedicaba a reclutar niños y jóvenes para grupos terroristas, continuará en prisión luego de cumplir una pena por homicidio.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>** Seguridad, crimen, terrorismo</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>** No se menciona el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>** No se indica la fuente de información.</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/mujer-ira-a-juicio-por-crimen-de-dos-jovenes/504577/</t>
+          <t>https://diarioelsalvador.com/dos-pandilleros-son-condenados-con-hasta-29-anos-de-carcel-por-homicidio/504534/</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3788,7 +3763,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>** La mujer será llevada a juicio por la desaparición de dos repartidores de comida del restaurante China Wok.</t>
+          <t>** Dos pandilleros de la MS-13 recibieron condenas de 25 y 29 años de cárcel por delitos de homicidio agravado y agrupaciones ilícitas.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3798,7 +3773,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>** Seguridad, justicia, violación de los derechos humanos</t>
+          <t>** Grupos de crimen, violencia, asesinato.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3818,7 +3793,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3838,14 +3813,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/el-salvador-cierra-sin-homicidios-el-15-de-mayo/504827/</t>
+          <t>https://diarioelsalvador.com/capturan-a-homicida-deportado-desde-estados-unidos/504411/</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3860,7 +3835,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>** La disminución de homicidios en el país se atribuye al Plan Control Territorial (PCT) y al régimen de excepción que fue aprobado por la Asamblea Legislativa.</t>
+          <t>** La policía nacional civil (PNC) confirmó la detención de un hombre acusado de un caso de homicidio y quien fue deportado desde Estados Unidos.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3870,7 +3845,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>** Seguridad, crimen, reducción de homicidios.</t>
+          <t>** N/A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3890,7 +3865,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** N/A</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3910,14 +3885,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** N/A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/500-de-los-614-dias-sin-homicidios-han-sido-bajo-regimen-de-excepcion/505007/</t>
+          <t>https://diarioelsalvador.com/pandillero-joker-continuara-en-prision/504491/</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3932,7 +3907,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>** El régimen de excepción en El Salvador ha generado una reducción de la violencia homicida. Desde que se implementó la guerra contra pandillas, se han registrado 500 días sin homicidios.</t>
+          <t>** Un pandillero que se dedicaba a reclutar niños y jóvenes para grupos terroristas, continuará en prisión luego de cumplir una pena por homicidio.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3942,7 +3917,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>** Seguridad, violencia homicida, guerra contra pandillas.</t>
+          <t>** Seguridad, crimen, terrorismo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3962,7 +3937,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No se menciona el tipo de arma.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3982,14 +3957,14 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No se indica la fuente de información.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/deportan-desde-nicaragua-a-gatillero-de-la-ms/504466/</t>
+          <t>https://diarioelsalvador.com/mujer-ira-a-juicio-por-crimen-de-dos-jovenes/504577/</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4004,7 +3979,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>** La policía nacional civil (PNC) informó sobre la deportación y posterior captura de un pandillero de la MS, quien había huido a Nicaragua.</t>
+          <t>** La mujer será llevada a juicio por la desaparición de dos repartidores de comida del restaurante China Wok.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4014,7 +3989,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** Seguridad, justicia, violación de los derechos humanos</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4034,7 +4009,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** N/A</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4054,14 +4029,14 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** N/A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/inicia-juicio-por-feminicidio-de-agente-carla-ayala-asesinada-en-diciembre-de-2017/504634/</t>
+          <t>https://diarioelsalvador.com/el-salvador-cierra-sin-homicidios-el-15-de-mayo/504827/</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4076,7 +4051,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>** El juicio por feminicidio de la agente Carla Ayala se iniciará este miércoles. El principal acusado, Juan Josué Castillo Arévalo, es procesado como imputado ausente por las reformas al Código Procesal Penal.</t>
+          <t>** La disminución de homicidios en el país se atribuye al Plan Control Territorial (PCT) y al régimen de excepción que fue aprobado por la Asamblea Legislativa.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4086,7 +4061,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** Seguridad, crimen, reducción de homicidios.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4106,7 +4081,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>** No se especifica el tipo de arma en la noticia.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4126,14 +4101,14 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>** No se indica la fuente de la información.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/mueren-ocho-mexicanos-en-accidente-de-transito-en-ee-uu/504527/</t>
+          <t>https://diarioelsalvador.com/500-de-los-614-dias-sin-homicidios-han-sido-bajo-regimen-de-excepcion/505007/</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4148,7 +4123,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>** Al menos ocho mexicanos murieron y nueve resultaron heridos después de que un autobús que trasladaba a trabajadores migrantes chocara con una camioneta en el centro de Florida.</t>
+          <t>** El régimen de excepción en El Salvador ha generado una reducción de la violencia homicida. Desde que se implementó la guerra contra pandillas, se han registrado 500 días sin homicidios.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4158,7 +4133,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>** Seguridad de los trabajadores migrantes, accidentes de tránsito, víctimas extranjeros.</t>
+          <t>** Seguridad, violencia homicida, guerra contra pandillas.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4178,7 +4153,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>** No se especifica el tipo de arma.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4198,14 +4173,14 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>** No se especifica la fuente de información.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/fiscalia-de-peru-interroga-a-boluarte-por-rolexgate-en-medio-de-nuevo-escandalo/504483/</t>
+          <t>https://diarioelsalvador.com/deportan-desde-nicaragua-a-gatillero-de-la-ms/504466/</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4220,7 +4195,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>** La presidenta de Perú, Dina Boluarte, compareció ante los fiscales que la investigan por el "Rolexgate", un caso de presunta corrupción que tiene en la mira a su ya debilitado gobierno.</t>
+          <t>** La policía nacional civil (PNC) informó sobre la deportación y posterior captura de un pandillero de la MS, quien había huido a Nicaragua.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4270,14 +4245,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>** No se indica en la noticia.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/author/fportillo/page/7971/</t>
+          <t>https://diarioelsalvador.com/inicia-juicio-por-feminicidio-de-agente-carla-ayala-asesinada-en-diciembre-de-2017/504634/</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4292,7 +4267,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>** La noticia no contiene información sobre el resumen de la noticia.</t>
+          <t>** El juicio por feminicidio de la agente Carla Ayala se iniciará este miércoles. El principal acusado, Juan Josué Castillo Arévalo, es procesado como imputado ausente por las reformas al Código Procesal Penal.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4302,7 +4277,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>** No se especifica el tema de la noticia.</t>
+          <t>**</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4322,7 +4297,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se especifica el tipo de arma en la noticia.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4342,14 +4317,14 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se indica la fuente de la información.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/author/nacionales/page/1577/</t>
+          <t>https://diarioelsalvador.com/mueren-ocho-mexicanos-en-accidente-de-transito-en-ee-uu/504527/</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4364,7 +4339,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>** La noticia no contiene información sobre el título.</t>
+          <t>** Al menos ocho mexicanos murieron y nueve resultaron heridos después de que un autobús que trasladaba a trabajadores migrantes chocara con una camioneta en el centro de Florida.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4374,7 +4349,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** Seguridad de los trabajadores migrantes, accidentes de tránsito, víctimas extranjeros.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4394,7 +4369,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se especifica el tipo de arma.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4414,14 +4389,14 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se especifica la fuente de información.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/nacionales/page/5204/</t>
+          <t>https://diarioelsalvador.com/fiscalia-de-peru-interroga-a-boluarte-por-rolexgate-en-medio-de-nuevo-escandalo/504483/</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4436,7 +4411,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>** La presidenta de Perú, Dina Boluarte, compareció ante los fiscales que la investigan por el "Rolexgate", un caso de presunta corrupción que tiene en la mira a su ya debilitado gobierno.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4446,7 +4421,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>**</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4466,7 +4441,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>**</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4486,14 +4461,14 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>** No se indica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/nacionales/page/2481/</t>
+          <t>https://www.diariocolatino.com/author/fportillo/page/7971/</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4508,7 +4483,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** La noticia no contiene información sobre el resumen de la noticia.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4518,7 +4493,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>** No se especifica el tema de la noticia.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4565,7 +4540,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/nacionales/page/5640/</t>
+          <t>https://www.diariocolatino.com/author/nacionales/page/1577/</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4580,7 +4555,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>** No se dispone de información sobre el resumen de la noticia.</t>
+          <t>** La noticia no contiene información sobre el título.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4590,7 +4565,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>** No se especifican los temas principales.</t>
+          <t>** N/A</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4610,7 +4585,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>** No se especifica el tipo de arma.</t>
+          <t>** N/A</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4630,14 +4605,14 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>** No se indica la fuente de información.</t>
+          <t>** N/A</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/titular_principal/page/710/</t>
+          <t>https://www.diariocolatino.com/category/nacionales/page/5204/</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4709,7 +4684,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/nacionales/page/3931/</t>
+          <t>https://www.diariocolatino.com/category/nacionales/page/2481/</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4724,7 +4699,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>** La noticia no contiene información sobre el título, por lo que no se pudo extraer la información de este campo.</t>
+          <t>** N/A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4781,27 +4756,243 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>https://www.diariocolatino.com/category/nacionales/page/5640/</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>** No se dispone de información sobre el resumen de la noticia.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>** No se especifican los temas principales.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>** No se indica la fuente de información.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>https://www.diariocolatino.com/category/titular_principal/page/710/</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>https://www.diariocolatino.com/category/nacionales/page/3931/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>** La noticia no contiene información sobre el título, por lo que no se pudo extraer la información de este campo.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>** N/A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>** N/A</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>** N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
           <t>https://www.diariocolatino.com/reportan-amenazas-bomba-varios-tribunales-chile/</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>**Título de la noticia:** #LoUltimo: Reportan amenazas de bomba en varios tribunales de Chile
 **Extraído:** El título de la noticia es "LoUltimo: Reportan amenazas de bomba en varios tribunales de Chile".</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre amenazas de bomba en varios tribunales de Chile, atribuidas al crimen organizado. Las amenazas fueron reportadas en las ciudades de Arica, Linares, Concepción y Temuco. El Grupo de Operaciones Policiales Especiales evacuó preventively los recintos judiciales y inspeccionó los sitios sin encontrar explosivo. La causa de las amenazas se desconoce, pero se las atribuye a la banda de Los Gallegos debido a la detención de varios miembros del grupo en las ciudades citadas.</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>La información de la noticia sobre el suceso de las amenazas de bomba en los tribunales de Chile se ubica en el texto:
 **Dónde ocurrió el suceso:**
@@ -4811,7 +5002,7 @@
 * Temuco</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Amenazas de bomba en tribunales de Chile:** La noticia informa sobre las amenazas de bomba en varios tribunales de Chile, atribuidas al crimen organizado.
@@ -4821,12 +5012,12 @@
 * **Juicio en Arica:** En paralelo al megaoperativo, se desarrolla en Arica un juicio contra 38 detenidos acusados de pertenecer a Los Gallegos.</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>La información sobre la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta una serie de amenazas de bomba en varios tribunales de Chile, atribuidas al crimen organizado. Las amenazas se dieron en las ciudades de Arica, Linares, Concepción y Temuco. El Grupo de Operaciones Policiales Especiales (GOPES) evacuó preventivamente los recintos judiciales y inspeccionó los sitios sin encontrar explosivo.
@@ -4835,258 +5026,42 @@
 Basándose en la información disponible, se sugiere que las amenazas de bomba en los tribunales de Chile podrían estar relacionadas con la banda de Los Gallegos.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indica en la noticia es:
 **Los Gallegos:** La banda de Los Gallegos se menciona como responsable de las amenazas de bomba en los tribunales de Arica, Linares, Concepción y Temuco.</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>La noticia no menciona el tipo de arma que se amenaza con utilizar, por lo que no se puede especificar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>La noticia no indica a las víctimas, por lo que no se puede identificar a las víctimas en esta información.</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>La información que se ha proporcionado no contiene citas de fuentes de información, por lo que no se puede analizar si la información es cierta o no.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.diariocolatino.com/la-mutacion-de-bukele-de-alcalde-de-izquierda-a-presidente-de-derecha/</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>https://diario.elmundo.sv/nacionales/capturan-en-guatemala-a-pandillero-salvadoreno-que-pretendia-huir-a-mexico</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>** El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, informó sobre la captura en Guatemala de Ángel Isaías Hernández Zamora, un miembro de la Pandilla 18 que pretendía huir a México.</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>** Seguridad pública, crimen, huida, pandilla.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>** No se especifica en la noticia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>https://diario.elmundo.sv/nacionales/condenan-a-un-hombre-con-mas-de-100-anos-de-prision-por-extorsion-y-agrupaciones-ilicitas</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>** El Tribunal Segundo Contra El Crimen Organizado condenó a 105 años de prisión a Fabio Bladimir Escobar Arias por cinco casos de extorsión agravada y agrupaciones ilícitas.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>** Extorsión, agrupaciones ilícitas, crimen organizado.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>** No se especifica el tipo de arma.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>** No se indica la fuente de información.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/tres-homicidios-fueron-reportados-este-martes-en-el-salvador</t>
+          <t>https://www.diariocolatino.com/la-mutacion-de-bukele-de-alcalde-de-izquierda-a-presidente-de-derecha/</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5101,7 +5076,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>** Tres salvadoreños murieron este martes debido a hechos violentos en diferentes puntos del país.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5111,7 +5086,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>** Seguridad, violencia</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5131,7 +5106,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>** machete, cuchillo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5151,14 +5126,14 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/cerco-militar-restablece-seguridad-en-chalatenango</t>
+          <t>https://diario.elmundo.sv/nacionales/capturan-en-guatemala-a-pandillero-salvadoreno-que-pretendia-huir-a-mexico</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5173,7 +5148,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>** Un cerco militar impuesto en Chalatenango para combater contra las pandillas ha devuelto la seguridad a las calles de la zona.</t>
+          <t>** El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, informó sobre la captura en Guatemala de Ángel Isaías Hernández Zamora, un miembro de la Pandilla 18 que pretendía huir a México.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5183,7 +5158,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>** Seguridad, pandillas, cerco militar.</t>
+          <t>** Seguridad pública, crimen, huida, pandilla.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5223,14 +5198,14 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>** AFP</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/fiscalia-ordena-detener-a-79-supuestos-pandilleros-de-la-ms-13</t>
+          <t>https://diario.elmundo.sv/nacionales/condenan-a-un-hombre-con-mas-de-100-anos-de-prision-por-extorsion-y-agrupaciones-ilicitas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5245,7 +5220,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>** La Fiscalía General de la República (FGR) ordenó la detención de 79 supuestos pandilleros de la Mara Salvatrucha (MS-13) que operaban en la zona de San Miguel.</t>
+          <t>** El Tribunal Segundo Contra El Crimen Organizado condenó a 105 años de prisión a Fabio Bladimir Escobar Arias por cinco casos de extorsión agravada y agrupaciones ilícitas.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5255,7 +5230,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>** Seguridad, crimen, pandillismo</t>
+          <t>** Extorsión, agrupaciones ilícitas, crimen organizado.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5275,7 +5250,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No se especifica el tipo de arma.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5295,14 +5270,14 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>** FGR</t>
+          <t>** No se indica la fuente de información.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/repiten-juicio-por-asesinato-de-agente-carla-ayala-quienes-son-los-procesados</t>
+          <t>https://diario.elmundo.sv/nacionales/tres-homicidios-fueron-reportados-este-martes-en-el-salvador</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5317,7 +5292,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>** El juicio por asesinato de la agente Carla Ayala se repetirá debido a un recurso de casación interpuesto por la defensa. Los procesados son Josué Antonio Pérez Pineda, Juan Antonio Linares Flores, Wilfredo Deras Hernández, Ovidio Antonio Pacheco Morales y Julio César Flores Castro.</t>
+          <t>** Tres salvadoreños murieron este martes debido a hechos violentos en diferentes puntos del país.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5327,7 +5302,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>** Seguridad pública, justicia, género.</t>
+          <t>** Seguridad, violencia</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5347,7 +5322,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** machete, cuchillo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5367,14 +5342,14 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** N/A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/author/86/javier-maldonado</t>
+          <t>https://diario.elmundo.sv/nacionales/cerco-militar-restablece-seguridad-en-chalatenango</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5389,7 +5364,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>** Un cerco militar impuesto en Chalatenango para combater contra las pandillas ha devuelto la seguridad a las calles de la zona.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5399,7 +5374,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>** Seguridad, pandillas, cerco militar.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5419,7 +5394,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5439,14 +5414,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>** AFP</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/autoridades-investigan-homicidio-de-recien-nacido-en-cuscatlan/484947/</t>
+          <t>https://diario.elmundo.sv/nacionales/fiscalia-ordena-detener-a-79-supuestos-pandilleros-de-la-ms-13</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5461,7 +5436,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>** Una mujer dio a luz y lanzó al recién nacido a una fosa séptica el pasado 30 de marzo, pero fue encontrado hoy.</t>
+          <t>** La Fiscalía General de la República (FGR) ordenó la detención de 79 supuestos pandilleros de la Mara Salvatrucha (MS-13) que operaban en la zona de San Miguel.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5471,7 +5446,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** Seguridad, crimen, pandillismo</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5491,7 +5466,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5511,14 +5486,14 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>** No se indican fuentes de información en la noticia.</t>
+          <t>** FGR</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/pandillero-senalado-por-homicidio-fue-capturado-en-la-libertad/484934/</t>
+          <t>https://diario.elmundo.sv/nacionales/repiten-juicio-por-asesinato-de-agente-carla-ayala-quienes-son-los-procesados</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5533,7 +5508,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>** Un sujeto perteneciente a grupos de pandillas y señalado de casos de homicidio fue puesto bajo arresto por elementos de la Policía Nacional Civil (PNC) en un sector del departamento de La Libertad.</t>
+          <t>** El juicio por asesinato de la agente Carla Ayala se repetirá debido a un recurso de casación interpuesto por la defensa. Los procesados son Josué Antonio Pérez Pineda, Juan Antonio Linares Flores, Wilfredo Deras Hernández, Ovidio Antonio Pacheco Morales y Julio César Flores Castro.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5543,7 +5518,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>** Seguridad pública, crimen organizado, pandillas.</t>
+          <t>** Seguridad pública, justicia, género.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5563,7 +5538,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>** No se indica en la noticia.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5583,14 +5558,14 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>** No se indica en la noticia.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/capturan-a-dominicano-senalado-por-homicidio-que-pretendia-esconderse-en-el-salvador/484930/</t>
+          <t>https://diario.elmundo.sv/author/86/javier-maldonado</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5605,7 +5580,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>** Un ciudadano dominicano fue detenido por la policía nacional civil (PNC) cuando pretendía ingresar al país para esconderse de una acusación por homicidio.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5615,7 +5590,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>** Seguridad, justicia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5635,7 +5610,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5655,14 +5630,14 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/capturan-a-pandillero-salvadoreno-que-huyo-a-guatemala-tras-ser-buscado-por-homicidio/485206/</t>
+          <t>https://diarioelsalvador.com/autoridades-investigan-homicidio-de-recien-nacido-en-cuscatlan/484947/</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5677,7 +5652,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>** El pandillero salvadoreño Wilber Alexander Flores García, alias Blendi o Sompopo, fue capturado en Guatemala después de ser buscado por delitos relacionados a homicidio y agrupaciones ilícitas.</t>
+          <t>** Una mujer dio a luz y lanzó al recién nacido a una fosa séptica el pasado 30 de marzo, pero fue encontrado hoy.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5687,7 +5662,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>** Seguridad, violencia, crimen</t>
+          <t>**</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5707,7 +5682,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>**</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5727,14 +5702,14 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No se indican fuentes de información en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/tasa-de-homicidios-ha-sido-reducida-a-1-5-porcada-100000-habitantes/484365/</t>
+          <t>https://diarioelsalvador.com/pandillero-senalado-por-homicidio-fue-capturado-en-la-libertad/484934/</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5749,7 +5724,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>** La tasa de homicidios en El Salvador ha disminuido a 1.5 homicidios por cada 100,000 habitantes, gracias a los planes de seguridad implementados por el gobierno.</t>
+          <t>** Un sujeto perteneciente a grupos de pandillas y señalado de casos de homicidio fue puesto bajo arresto por elementos de la Policía Nacional Civil (PNC) en un sector del departamento de La Libertad.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5759,7 +5734,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>** Seguridad, tasa de homicidios, planes de seguridad.</t>
+          <t>** Seguridad pública, crimen organizado, pandillas.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5779,7 +5754,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No se indica en la noticia.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5799,14 +5774,14 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No se indica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/detienen-a-pandillero-que-retorno-a-amenazar-a-vecinos-en-soyapango/485000/</t>
+          <t>https://diarioelsalvador.com/capturan-a-dominicano-senalado-por-homicidio-que-pretendia-esconderse-en-el-salvador/484930/</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5821,7 +5796,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>** La denuncia ciudadana fue importante para que la Policía Nacional Civil detuviera a José Emiliano Vásquez Contreras, alias Cumming, un terrorista de la pandilla 18S que fue capturado en los Condominios Victorias de Soyapango.</t>
+          <t>** Un ciudadano dominicano fue detenido por la policía nacional civil (PNC) cuando pretendía ingresar al país para esconderse de una acusación por homicidio.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5831,7 +5806,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>** Seguridad pública, pandillas, crimen</t>
+          <t>** Seguridad, justicia.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5878,7 +5853,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/nacionales/page/132/</t>
+          <t>https://diarioelsalvador.com/capturan-a-pandillero-salvadoreno-que-huyo-a-guatemala-tras-ser-buscado-por-homicidio/485206/</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5893,7 +5868,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>** No disponible</t>
+          <t>** El pandillero salvadoreño Wilber Alexander Flores García, alias Blendi o Sompopo, fue capturado en Guatemala después de ser buscado por delitos relacionados a homicidio y agrupaciones ilícitas.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5903,7 +5878,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>** No disponibles</t>
+          <t>** Seguridad, violencia, crimen</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5923,7 +5898,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>** No disponible</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5943,14 +5918,14 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>** No disponibles</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>https://www.diariocolatino.com/category/nacionales/page/5612/</t>
+          <t>https://diarioelsalvador.com/tasa-de-homicidios-ha-sido-reducida-a-1-5-porcada-100000-habitantes/484365/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5965,7 +5940,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>** No disponible</t>
+          <t>** La tasa de homicidios en El Salvador ha disminuido a 1.5 homicidios por cada 100,000 habitantes, gracias a los planes de seguridad implementados por el gobierno.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5975,7 +5950,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>** No disponibles</t>
+          <t>** Seguridad, tasa de homicidios, planes de seguridad.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5995,7 +5970,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>** No disponible</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6015,14 +5990,14 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>** No disponibles</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/un-hombre-fue-asesinado-este-martes-tras-golpiza-en-quezaltepeque</t>
+          <t>https://diarioelsalvador.com/detienen-a-pandillero-que-retorno-a-amenazar-a-vecinos-en-soyapango/485000/</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6037,7 +6012,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>** Un hombre fue asesinado este martes tras recibir una golpiza de varios sujetos en el municipio de Quezaltepeque, La Libertad.</t>
+          <t>** La denuncia ciudadana fue importante para que la Policía Nacional Civil detuviera a José Emiliano Vásquez Contreras, alias Cumming, un terrorista de la pandilla 18S que fue capturado en los Condominios Victorias de Soyapango.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6047,7 +6022,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>** Seguridad, asesinato</t>
+          <t>** Seguridad pública, pandillas, crimen</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6067,7 +6042,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>** No se especifica el tipo de arma.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6087,14 +6062,14 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>** No se indica la fuente de información.</t>
+          <t>** No se especifica en la noticia.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/villatoro-asegura-que-han-detenido-al-92-de-los-responsables-de-homicidios-de-este-ano</t>
+          <t>https://www.diariocolatino.com/category/nacionales/page/132/</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6109,7 +6084,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>** El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, ha asegurado que han detenido al 92 % de los presuntos responsables de cometer homicidios durante el año 2024.</t>
+          <t>** No disponible</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6119,7 +6094,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** No disponibles</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6139,7 +6114,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** No disponible</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6159,14 +6134,14 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No disponibles</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/operativo-en-san-miguel-deja-la-captura-de-implicados-en-extorsiones-y-homicidios/505259/</t>
+          <t>https://www.diariocolatino.com/category/nacionales/page/5612/</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6181,7 +6156,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>** La Fiscalía General de la República (FGR) ordenó la detención de integrantes de los programas Shulton y Saylor de la pandilla MS-13 que delinquaban en diferentes sectores de San Miguel y Ciudad Barrios.</t>
+          <t>** No disponible</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6191,7 +6166,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>** Extorsión, homicidio, crimen organizado.</t>
+          <t>** No disponibles</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6211,7 +6186,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>** No disponible</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6231,14 +6206,14 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>** No se indica en la noticia.</t>
+          <t>** No disponibles</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>https://diarioelsalvador.com/enviados-a-prision-cinco-acusados-de-asesinar-a-hombre-en-colon/505157/</t>
+          <t>https://diario.elmundo.sv/nacionales/un-hombre-fue-asesinado-este-martes-tras-golpiza-en-quezaltepeque</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6253,7 +6228,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>** El Tribunal Tercero contra el Crimen Organizado de San Salvador resolvió que dos menores de 16 y 17 años sigan en prisión por el homicidio de un hombre de 55 años, en Colón, La Libertad.</t>
+          <t>** Un hombre fue asesinado este martes tras recibir una golpiza de varios sujetos en el municipio de Quezaltepeque, La Libertad.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6263,7 +6238,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>** subjación, crimen organizado, menores.</t>
+          <t>** Seguridad, asesinato</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6310,7 +6285,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>https://diario.elmundo.sv/nacionales/policia-de-nicaragua-entrega-a-pandillero-a-el-salvador</t>
+          <t>https://diario.elmundo.sv/nacionales/villatoro-asegura-que-han-detenido-al-92-de-los-responsables-de-homicidios-de-este-ano</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6325,7 +6300,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>** La policía de Nicaragua entregó a las autoridades de El Salvador a un presunto pandillero de la Mara Salvatrucha que era buscado por homicidio.</t>
+          <t>** El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, ha asegurado que han detenido al 92 % de los presuntos responsables de cometer homicidios durante el año 2024.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6335,7 +6310,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>** Seguridad, crimen, pandillas, homicidios.</t>
+          <t>**</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6355,7 +6330,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>** No se especifica en la noticia.</t>
+          <t>**</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6382,15 +6357,231 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
+          <t>https://diarioelsalvador.com/operativo-en-san-miguel-deja-la-captura-de-implicados-en-extorsiones-y-homicidios/505259/</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>** La Fiscalía General de la República (FGR) ordenó la detención de integrantes de los programas Shulton y Saylor de la pandilla MS-13 que delinquaban en diferentes sectores de San Miguel y Ciudad Barrios.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>** Extorsión, homicidio, crimen organizado.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>** No se indica en la noticia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>https://diarioelsalvador.com/enviados-a-prision-cinco-acusados-de-asesinar-a-hombre-en-colon/505157/</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>** El Tribunal Tercero contra el Crimen Organizado de San Salvador resolvió que dos menores de 16 y 17 años sigan en prisión por el homicidio de un hombre de 55 años, en Colón, La Libertad.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>** subjación, crimen organizado, menores.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>** No se especifica el tipo de arma.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>** No se indica la fuente de información.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>https://diario.elmundo.sv/nacionales/policia-de-nicaragua-entrega-a-pandillero-a-el-salvador</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>** La policía de Nicaragua entregó a las autoridades de El Salvador a un presunto pandillero de la Mara Salvatrucha que era buscado por homicidio.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>** Seguridad, crimen, pandillas, homicidios.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
           <t>https://diarioelsalvador.com/traslado-de-presos-en-carcel-de-colombia-tras-el-asesinato-de-su-director/505819/</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>**No, la noticia no describe un homicidio.** La noticia describe el asesinato de un director de una cárcel en Colombia y el traslado de presos, incluido el principal sospechoso del crimen.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>**Extraído título de la noticia:**
 Traslado de presos en cárcel de Colombia tras el asesinato de su director
@@ -6398,19 +6589,19 @@
 Traslado de presos en cárcel de Colombia tras el asesinato de su director</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el asesinato del director de la cárcel La Modelo de Bogotá, Colombia, y el traslado de 15 presos, incluido el principal sospechoso, a otras prisiones. El director, el coronel retirado Elmer Fernández, fue asesinado por sicarios la víspera. Entre los presos trasladados se encontraba alias "Pedro Pluma", el supuesto encargado de varios negocios ilegales dentro de la prisión. La policía realizó operativos en Bogotá durante la noche del jueves, pero el responsable del asesinato aún no ha sido capturado.</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en la cárcel La Modelo de Bogotá, Colombia.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Traslado de presos en cárcel de Colombia tras asesinato de su director:** La noticia describe el traslado de 15 presos, incluido el principal sospechoso del asesinato del director de la cárcel La Modelo de Bogotá, después de la muerte de su jefe.
@@ -6419,12 +6610,12 @@
 * **Protocolo de protección:** El asesinato ha puesto en luz las falgunas en el protocolo de protección para los funcionarios, y el ministro ha anunciado la necesidad de profundizar en el cuidado de los funcionarios.</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el asesinato de un director de una cárcel de Colombia y el traslado de 15 presos, incluido el principal sospechoso, a otras prisiones. La teoría de la noticia es que el asesinato se pudo deber a las amenazas y las órdenes impartidas por el director al guardia.
@@ -6432,70 +6623,70 @@
 La suposición de la noticia es que el asesinato de un director de cárcel en Colombia es relacionado con el cumplimiento de las órdenes de requisas por parte del director al guardia.</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>La noticia no especifica el tipo de arma que utilizaron los sicarios para asesinar al director de la cárcel, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia utiliza como fuente de información a la AFP, un organismo no identificado del Instituto Nacional Penitenciario y Carcelario (INPEC) y el ministro de Justicia, Néstor Osuna.</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/maravatio-el-pueblo-mexicano-donde-carteles-buscan-votos-con-balas-y-amenazas/505940/</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio, pero no es la única temática de la noticia. La noticia describe una serie de crímenes contra candidatos a la alcaldía en Maravatío, Michoacán, México, que están relacionados con el crimen organizado. El homicidio de los tres candidatos no se describe en detalle en la noticia.
 La noticia también describe la situación de inseguridad en Michoacán, donde la tasa de homicidios es muy alta y el crimen organizado está muy presente. La noticia no describe el impacto de la criminalidad en la población de Maravatío.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 Maravatío, el pueblo mexicano donde cárteles buscan votos con balas y amenazas
 La noticia se ajusta a este título.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia describe la situación en Maravatío, Michoacán, México, donde el crimen organizado utiliza la amenaza y la extorsión para influir en las elecciones. La violencia en el municipio es tan grave que incluso las candidatas a la alcaldía no se sienten seguras. La fiscalía ha detectado un total de 39 denuncias de aspirantes a cargos electorales por amenazas y extorsión. La criminalidad en Michoacán es una de las más violentas de México, con una tasa de homicidios de 23 casos por 100.000 habitantes.</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia ocurrió en Maravatío, Michoacán, México.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Extorsión y asesinato de candidatos en Maravatío, Michoacán:** La noticia reporta una serie de asesinatos y amenazas contra candidatos en Maravatío, Michoacán, México.
@@ -6505,12 +6696,12 @@
 * **Las candidatas que no se asustan:** La noticia incluye historias de candidatas que no se asustan por las amenazas, como María Salud Valencia, que afiró que "si me van a matar, que sea por defender a mi gente".</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>La texto no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia describe un ambiente de terror en Maravatío, Michoacán, México, donde la criminalidad ha generado un clima de miedo y inseguridad entre los candidatos. La presencia de cárteles de la droga y la ausencia de un grupo dominante han derivado en una violencia anárquica.
@@ -6518,67 +6709,67 @@
 La violencia en Michoacán es un problema persistente, y la criminalidad en Maravatío es un ejemplo de la gravedad de la situación. La militarización de la lucha antidrogas en 2006 ha generado una tasa de homicidios muy alta, y el número de desaparecidos desde entonces es preocupante.</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>La noticia habla sobre la violencia en Michoacán, México, y no menciona grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados.</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>La texto no especifica el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información de la especificación de la misma.</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas como el médico Miguel Reyes, el transportista Armando Pérez y el candidato Dagoberto García.</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/el-vaticano-advierte-contra-derivas-de-la-imaginacion-respecto-a-milagros-y-apariciones/505550/</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio. La noticia describe el lanzamiento de nuevas normas del Vaticano sobre la autenticidad de milagros y apariciones.</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>**Título:** El Vaticano advierte contra derivas de la imaginación respecto a milagros y apariciones
 La noticia se resume en el texto, por lo que no se requiere extraer el título.</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>**Resumen:**
 El Vaticano ha actualizado sus normas sobre los eventos sobrenaturales, reconociendo que la imaginación desbordante y la "mentira" podrían perjudicar a los fieles. Las nuevas normas permiten una interpretación más moderada de este tipo de acontecimientos. El Vaticano ha rechazado como falsos los presuntos milagros de una imagen de la Virgen María en la pequeña ciudad de Trevignano Romano. Las nuevas reglas exigen una mayor colaboración entre las diócesis y el Vaticano, y también prohíben la declaración oficial de autenticidad de eventos sobrenaturales.</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso se encuentra en la línea 6 de la noticia: "La historia de la Iglesia católica está llena de fenómenos extraños o inexplicables que implican estatuas religiosas u objetos de todo tipo. Hace dos meses, el Vaticano rechazó como falsos los presuntos milagros de una imagen de la Virgen María en la pequeña ciudad de Trevignano Romano, al noroeste de Roma, que no solo habría llorado sangre sino que habría hecho aumentar el tamaño de las pizzas".</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Evolución de las normas del Vaticano sobre milagros y apariciones:** El Vaticano actualizó sus normas sobre eventos sobrenaturales, reconociendo que la imaginación desbordante y la "mentira" podían perjudicar a los fieles.
@@ -6588,12 +6779,12 @@
 * **Importancia de la verdad:** La Iglesia debe defender la verdad, incluso en los casos de eventos sobrenaturales.</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre las nuevas normas del Vaticano sobre los eventos sobrenaturales sugiere que la imaginación excesiva y la "mentira" podrían perjudicar a los fieles. La teoría de la noticia es que el Vaticano busca proteger la credibilidad de la Iglesia y evitar la confusión entre eventos sobrenaturales genuinos y fantasías.
@@ -6601,69 +6792,69 @@
 La noticia asume que la mayoría de los grandes sitios de peregrinación de la Iglesia se han desarrollado sin declaración oficial sobre la autenticidad del milagro original.</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>La noticia indica que los grupos en riesgo de ser afectados por las nuevas normas del Vaticano sobre eventos sobrenaturales son:
 * Creyentes engañados por un acontecimiento atribuido a una iniciativa divina pero que no es más que el producto de la imaginación de alguien.
 * Personas inclinadas a la "mentira".</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna información sobre armas, por lo que no se puede determinar el tipo de arma que se menciona en la noticia.</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>La texto no indica a las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>**Fuentes de información:**
 La noticia no indica las fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/deportan-a-pandillero-salvadoreno-desde-guatemala/505493/</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>**Clasifica:** Sí, la noticia describe un homicidio. La noticia habla de un caso de homicidio cometido en marzo de 2017 y el arresto de un pandillero salvadoreño por el mismo delito.</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Deportan a pandillero salvadoreño desde Guatemala**</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el deport de un pandillero salvadoreño, Kevin Daniel Flores Portillo, alias Peche, desde Guatemala. El sujeto, miembro activo de la pandilla 18S con grado de homeboy, fue capturado por las autoridades guatemaltecas y entregado a las autoridades salvadoreñas. Flores Portillo se encuentra vinculado a un caso de homicidio cometido en marzo de 2017. La captura se logró gracias a la coordinación entre las autoridades de El Salvador y Guatemala.</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se encuentra en el texto, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Deportación de pandillero salvadoreño:** La noticia informa sobre el deport de un pandillero salvadoreño desde Guatemala.
@@ -6673,12 +6864,12 @@
 * **Colaboración entre gobiernos:** La noticia enfatiza la colaboración entre las autoridades salvadoreñas y guatemaltecas en la localización y captura del pandillero.</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el deport de un pandillero salvadoreño llamado Kevin Daniel Flores Portillo, alias Peche, desde Guatemala. El sujeto es acusado de un caso de homicidio y huyó a Guatemala para evadir su captura. La coordinación entre las autoridades salvadoreñas y guatemaltecas permitió la ubicación y arresto de Flores Portillo.
@@ -6686,32 +6877,32 @@
 La noticia sugiere que el deport de Flores Portillo es parte de una operación de eliminación de pandillas en El Salvador. El uso de la palabra "homeboy" en la noticia también indica que el caso podría estar relacionado con la presencia de pandillas en el país.</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma, por lo que no se puede proporcionar la información sobre el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.
@@ -6720,24 +6911,24 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/envian-a-prision-acusado-de-asesinar-a-golpes-a-un-hombre-en-la-colonia-malaga/505633/</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>**Clasificación:** Sí, la noticia describe un homicidio. La noticia habla de un asesinato a golpes de un hombre en la colonia Málaga.</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Envían a prisión acusado de asesinar a golpes a un hombre en la colonia Málaga**</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la captura de un hombre por el asesinato de otro en la colonia Málaga, al sur de San Salvador. El acusado, William Francisco Ayala, se encuentra en prisión por haber asesinado a golpes a Carlos Elías Rodríguez Pineda la madrugada del 1 de mayo de 2024. La causa del asesinato se encuentra aún bajo investigación.
@@ -6752,13 +6943,13 @@
 * **Discusión:** Tras una discusión, se enfrentaron a golpes.</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 En los condominios de la colonia Málaga, al sur de San Salvador.</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Homicidio:** La noticia describe un caso de homicidio por asesinato a golpes de un hombre en la colonia Málaga.
@@ -6768,12 +6959,12 @@
 * **Indagación:** La noticia describe la investigación policial y el montaje de un operativo para capturar al sospechoso.</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el asesinato de Carlos Elías Rodríguez Pineda se produjo como consecuencia de una discusión entre dos hombres que estaban ingiriendo bebidas alcohólicas. La presencia de bebidas alcohólicas en el momento del crimen sugiere que el asesinato pudo estar relacionado con el consumo de alcohol.
@@ -6781,68 +6972,68 @@
 La suposición de la noticia es que el asesinato de Carlos Elías Rodríguez Pineda fue causado por una discusión entre dos hombres que estaban ingiriendo bebidas alcohólicas.</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre los grupos en riesgo que podrían ser afectados por el crimen, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>La noticia no menciona el tipo de arma que se utilizó en el asesinato, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>El texto indica que el nombre del agresor es William Francisco Ayala, por lo que la información sobre el nombre del agresor se incluye en la texto.</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/billie-eilish-lanza-su-tercer-album-de-estudio-y-anuncia-nueva-gira/505542/</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como una noticia sobre un homicidio.</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Billie Eilish lanza su tercer álbum de estudio y anuncia nueva gira
 **Extraído:**
 El título de la noticia es "Billie Eilish lanza su tercer álbum de estudio y anuncia nueva gira".</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>**Resumen:**
 La cantante Billie Eilish ha lanzado su tercer álbum de estudio, "Hit me hard and soft", y anunciado una nueva gira mundial. El álbum incluye diez temas originales que desafían el género, mientras que la gira se llamará "Hit me hard and soft: The Tour" y empezará en septiembre de 2024 en Norteamérica.</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se encuentra en el texto, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>La información sobre los temas principales tratados en la noticia es:
 * **Skinny**
@@ -6857,12 +7048,12 @@
 * **Blue**</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia de la lanzamiento de nuevo álbum y gira de Billie Eilish sugiere que la cantante sigue siendo una de las artistas más populares y en crecimiento en la industria musical. Su capacidad para lanzar música que evoca emociones y su capacidad para conectar con los jóvenes la convierten en una fuerza poderosa en el mercado musical.
@@ -6870,67 +7061,67 @@
 La gira "Hit me hard and soft: The Tour" probablemente será muy exitosa, ya que la popularidad de Eilish en el mundo sigue subiendo.</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>La texto no menciona ningún tipo de arma, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>La texto no menciona el nombre del agresor, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la solicitud de análisis de la misma.</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/capturan-a-ranflero-nacional-de-la-mara-salvatrucha-que-estuvo-preso-en-guatemala/505648/</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio, pero no es el homicidio del individuo. La noticia describe el arrestó de un ranflero nacional de la Mara Salvatrucha que también se acusó de varios delitos.</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Capturan a ranflero nacional de la Mara Salvatrucha que estuvo preso en Guatemala
 **Extraído:** El título de la noticia es exactamente como se indica en el texto.</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la captura de Arnulfo Antonio Linares, alias Viejo Pelón, un ranflero nacional de la Mara Salvatrucha que fue detenido en Guatemala. Linares era cabecilla del programa Park View de la Mara Salvatrucha y ordenó cientos de crímenes en el país. Fue detenido por el delito de comercio, tráfico y almacenamiento ilícito y tenencia ilegal de municiones para armas de fuego. El oof también usaba una identidad falsa para evadir la justicia. Este día fue devuelto a El Salvador en las próximas horas para responder por los delitos de tenencia, portación o conducción ilegal de armas de fuego, agrupaciones ilícitas, homicidio agravado.</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en Fraijanes, Guatemala.
 Por lo tanto, la respuesta a la pregunta es: **Fraijanes, Guatemala**.</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia describe la captura de un ranflero nacional de la Mara Salvatrucha, Arnulfo Antonio Linares, alias Viejo Pelón.
@@ -6939,12 +7130,12 @@
 * **Justice:** La noticia enfatiza que Linares enfrentará cargos por tenencia, portación o conducción ilegal de armas de fuego, agrupaciones ilícitas y homicidio agravado.</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>La noticia no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el arresto de Arnulfo Antonio Linares, alias Viejo Pelón, un ranflero nacional de la Mara Salvatrucha que estuvo preso en Guatemala. La teoría es que Linares era un cabecilla del programa Park View de la Mara Salvatrucha y que dirigió cientos de crímenes en todo el país.
@@ -6952,68 +7143,68 @@
 La suposición de la noticia es que Linares es un terrorista que ha utilizado su posición de poder para cometer una amplia gama de delitos, incluido el comercio, tráfico y almacenamiento de drogas, hurto y robo.</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de grupos en riesgo.</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>La noticia no especifica el tipo de arma que usaba el terrorista, por lo que no se puede proporcionar la información de la especie de arma.</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de la identificación de las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>**Nombre del agresor:** Arnulfo Antonio Linares, alias Viejo Pelón
 La noticia no indica si el nombre del agresor se menciona en el texto, por lo que no se puede proporcionar la información de si se menciona o no.</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>**Cita de las fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/el-fmln-sigue-sin-reconocer-la-derrota-que-tuvo-en-elecciones/505203/</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como una noticia sobre un homicidio.</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>**Título:** El FMLN sigue sin reconocer la derrota que tuvo en elecciones
 La información extraída del texto es el título de la noticia.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la negación del FMLN de su derrota electoral en las elecciones generales de febrero y marzo pasados. El partido de izquierda se niega aún a reconocer la pérdida de las alcaldías que gobernaba, incluyendo algunos territorios que se consideraban sus bastiones. El ex candidato presidencial, Manuel Flores, argumenta que la restructuración municipal impedió la ganancia de más alcaldías. Sin embargo, la misión de observación electoral de la Organización de los Estados Americanos (OEA) legitimó los resultados de los procesos electorales. El FMLN no tiene representación de diputados en la Asamblea Legislativa, situación inédita en su historia política.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * La negación del FMLN de la derrota electoral en las elecciones generales de febrero y marzo pasados.
@@ -7023,12 +7214,12 @@
 * La invalidación de la cantidad de votos que obtuvo el candidato presidencial de la FMLN.</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un conflicto entre el FMLN y el gobierno salvadoreño, en relación con la derrota electoral del partido de izquierda en las elecciones generales de febrero y marzo pasados. La teoría de la noticia es que la restructuración municipal de los 44 municipios y 262 distritos causó la pérdida de las alcaldías por parte del FMLN.
@@ -7036,67 +7227,67 @@
 La suposición de la noticia es que la pérdida de las alcaldías por parte del FMLN se debe a la restructuración municipal.</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>La texto no menciona armas, por lo que no se puede especificar el tipo de arma que se menciona en la noticia.</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>**Cita de fuentes:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma con precisión.</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/category/titular_principal/page/612/</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como una noticia de homicidio.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>**Título de la noticia:** No se encontró el título
 El texto no contiene el título de la noticia, por lo que no se pudo extraer la información requested.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la aprobación de $152 millones en Títulos Valores por la Asamblea Legislativa salvadoreña. La aprobación ocurrió en medio de negociaciones entre la opositora ARENA y el FMLN. El Vicepresidente expresó su satisfacción por la aprobación, diciendo que es un día importante para el país.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>La noticia no indica el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información de donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Los temas principales tratados en la noticia son:
 * **La aprobación de $152 millones en Títulos Valores por la Asamblea Legislativa.**
@@ -7104,78 +7295,78 @@
 * **La importancia de la aprobación para el gobierno salvadoreño.**</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia no presenta una teoría o suposición, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>La texto no describe armas, por lo que no se puede determinar si se menciona o no el tipo de arma en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre las víctimas, por lo que no se puede identificar la información de las víctimas.</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/category/nacionales/page/2426/</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>**Título de la noticia:** No se encontró el título
 La noticia no contiene un título, por lo que no se pudo extraer el título solicitado.</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>**Resumen de la noticia:**
 La noticia informa sobre la declaración de Carla de Varela, ministra de Educación, de que se preparará un plan de seguridad para los contornos de las escuelas. El plan se sumará al esfuerzo integrado en el plan Control Territorial que ha logrado reducir los principales índices de violencia del país.
 La noticia no contiene el título de la noticia, el cual no se ha encontrado en el texto.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre el lugar donde ocurrió el suceso, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Inicio del año escolar:** El 20 de enero se inicia el año escolar.
@@ -7183,65 +7374,65 @@
 * **Plan Control Territorial:** El plan Control Territorial ha logrado reducir los principales índices de violencia del país.</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>La información que se puede extraer de la noticia es que el gobierno mexicano está preparando un plan de seguridad para los contornos de las escuelas. La suposición que se presenta es que el objetivo de este plan es reducir la violencia en las escuelas.</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los grupos en riesgo mencionados en la noticia, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el tipo de arma que se menciona, por lo que no se puede determinar si se incluye la información sobre el tipo de arma en la noticia.</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>La texto no indica a las víctimas, por lo que no se puede identificar la información sobre las víctimas en la noticia.</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre el nombre del agresor, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>https://www.diariocolatino.com/asamblea-prorroga-nuevamente-el-regimen-de-excepcion/</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>No, la noticia no describe un homicidio. La noticia describe la prorogación del régimen de excepción en El Salvador.</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Asamblea prorroga nuevamente el régimen de excepción**</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>**Resumen:**
 La Asamblea Legislativa de El Salvador prorrogó nuevamente el régimen de excepción por un período de 30 días, a partir del 11 de mayo. La medida, que ha estado vigente desde el 27 de marzo de 2022, se impuso como respuesta a un repunte en los homicidios.
@@ -7249,12 +7440,12 @@
 La noticia informa también sobre el número de días sin homicidio desde el inicio del régimen de excepción, así como el número de presuntos pandilleros y armas que han sido incautados.</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>La información no se indica en la noticia, por lo que no se puede proporcionar la información sobre el lugar donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Prórroga del régimen de excepción:** La Asamblea Legislativa de El Salvador prorrogó nuevamente el régimen de excepción por 30 días a partir del 11 de mayo.
@@ -7264,12 +7455,12 @@
 * **Detenciones:** El régimen de excepción ha generado un número elevado de detenciones, con más de 80 mil presuntos pandilleros en las cárceles.</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre la prorogación del régimen de excepción en El Salvador por parte de la Asamblea Legislativa. La teoría de la noticia es que el régimen de excepción ha sido implementado como una medida para combater la alta tasa de homicidios en el país, pero que ha generado críticas por las detenciones arbitrarias de personas inocentes.
@@ -7277,57 +7468,57 @@
 La suposición de la noticia es que la prorogación del régimen de excepción es una medida controvertida que no se basó únicamente en las estadísticas de la tasa de homicidios, sino también en el deseo de proteger la seguridad pública.</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>La noticia no menciona el tipo de arma que se incautó, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>La texto no indica a las víctimas, por lo que no se puede identificar a las víctimas en la noticia.</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información sobre el nombre del agresor.</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>**Fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/el-mundo/maravatio-el-pueblo-mexicano-donde-los-carteles-escogen-candidatos-con-balas-y-amenazas</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>La noticia describe un homicidio, pero no es la única noticia de crimen que se presenta en el texto. La noticia también describe el crimen organizado en Maravatío, Michoacán, México, y su impacto en la seguridad de las elecciones.
 La noticia describe un homicidio específico en la sección "Régimen de terror". En esta sección, se describe el asesinato de dos candidatos a la alcaldía, el médico Miguel Reyes y el transportista Armando Pérez.</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>**Título:** Maravatío, el pueblo mexicano donde los cárteles escogen candidatos con balas y amenazas
 La información extraída es correcta. El título de la noticia es el mismo que se encuentra en la cabeza de la misma.</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia describe el crimen organizado en Maravatío, Michoacán, México, donde el crimen se utiliza como instrumento para controlar la elección de candidatos. La violencia en el municipio ha generado una tasa de homicidios muy alta, con un número significativo de desaparecidos.
@@ -7335,12 +7526,12 @@
 La criminalidad en Michoacán es un problema grave, y la situación se ha empeorado en las últimas años. La tasa nacional de homicidios en el estado es una de las más altas de México, y el número de desaparecidos desde 2006 supera las 100.000.</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>La noticia se refiere a Maravatío, un municipio mexicano ubicado en el estado de Michoacán.</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Inseguridad electoral en Maravatío:** La noticia reporta un escenario de terror en Maravatío, Michoacán, donde la criminalidad electoral se ha convertido en una amenaza para los candidatos.
@@ -7350,12 +7541,12 @@
 * **Inseguridad en las elecciones:** La criminalidad en las elecciones ha generado un ambiente de miedo y incertidumbre para los candidatos.</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un patrón común en Michoacán, donde la criminalidad está ligada a la selección de candidatos por parte de los cárteles de la droga. Los crímenes en Maravatío se caracterizan por la violencia y la amenaza, como en el caso de las asesinaciones de los candidatos Miguel Reyes y Armando Pérez. La presencia de grupos de WhatsApp donde se amenazan a los candidatos y la inclusión de antenas robadas para cobrar el servicio de internet son ejemplos de la magnitud de la situación.
@@ -7363,68 +7554,68 @@
 La criminalidad en Michoacán es un problema persistente que afecta la seguridad de los candidatos y la confianza en las elecciones. La presencia de grupos de crimen organizados en el escenario electoral es una amenaza seria, y los gobiernos deben tomar medidas para proteger la integridad de las elecciones y la seguridad de los ciudadanos.</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>La noticia habla sobre la criminalidad en Maravatío, Michoacán, México, y no menciona grupos en riesgo por lo que no se puede proporcionar la información de los grupos en riesgo mencionados en la noticia.</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma que se utiliza en la noticia, por lo que no se puede determinar si se menciona o no el tipo de arma en la noticia.</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas como el médico Miguel Reyes, el transportista Armando Pérez y el candidato Dagoberto García.</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>**Fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las mismas.</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/guatemala-entrega-a-el-salvador-a-ranflero-con-antecedentes-criminales-desde-1994</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio. La noticia describe el asesinato de un hombre llamado Arnulfo Antonio Linares, alias “Viejo pelón”, que era cabecilla de la Mara Salvatrucha (MS13) en El Salvador.</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>**Título:** Guatemala entrega a El Salvador a "ranflero" con antecedentes criminales desde 1994
 La información extraída del texto es correcta. El título de la noticia es el mismo que se indica en el texto.</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la entrega de Arnulfo Antonio Linares, alias "Viejo pelón", a las autoridades salvadoreñas. Linares es considerado "cabecilla del programa Park View" de la Mara Salvatrucha (MS13) y posee antecedentes criminales desde 1994. La policía guatemalteca indica que Linares ha ordenado cientos de crímenes en todo el país.
 La PNC también mencionó que "Viejo pelón" enfrentó la ley por al menos siete delitos, incluyendo extorsión, posesión de armas, tráfico de drogas y robo. El ministro de Justicia y Seguridad, Gustavo Villatoro, mencionó que Linares "deberá responder por" todos sus delitos y nunca podrá volver a ver la luz del día.</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en Guatemala, en el penal de Pavoncito, en el municipio de Fraijanes.</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Crimen organizado:** La noticia destaca el crimen organizado de la Mara Salvatrucha (MS13) y el arrestó de su cabecilla, Arnulfo Antonio Linares, alias “Viejo pelón”.
@@ -7434,7 +7625,7 @@
 * **Consecuencias:** La noticia enfatiza las consecuencias que tendrá el arrestó, que incluye años de cárcel y la eliminación de su capacidad de visión.</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>La noticia indica que Arnulfo Antonio Linares alias "Viejo pelón", es acusado de al menos siete delitos, entre los que se encuentran:
 * **Extorsión:** La ley contra la extorsión establece penas de 20 a 25 años de prisión.
@@ -7446,7 +7637,7 @@
 * **Falta a policemen:** La ley de falta a policemen establece penas de 2 a 10 años de prisión.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre la entrega de un "ranflero" guatemalteco,Arnulfo Antonio Linares, alias "Viejo pelón", a las autoridades salvadoreñas. La teoría de la noticia es que Linares es un cabecilla de la Mara Salvatrucha (MS13) y que ha ordenado cientos de crímenes en todo el país desde 1994.
@@ -7454,68 +7645,68 @@
 La suposición de la noticia es que Linares será encontrado culpable de sus delitos y que podría ser enviado a la cárcel por muchos años.</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de los grupos en riesgo que se mencionan en la noticia.</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>La texto no especifica el tipo de arma que se menciona en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>La texto no indica a las víctimas de la noticia, por lo que no se puede identificar la información de las víctimas en esta solicitud.</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/motorista-de-ambulancia-del-isss-seguira-procesado-en-libertad-por-homicidio-de-motociclista</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>**Clasificación:**
 La noticia describe un homicidio. La víctima, José Gabriel Pérez Lizama, murió por el homicidio causado por el conductor de la ambulancia.</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Motorista de ambulancia del ISSS seguirá procesado en libertad por homicidio de motociclista**</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el procesamiento de un motorista de ambulancia del ISSS por homicidio culposo de un motociclista. El conductor, Carlos Antonio C. B., fue procesado en libertad con medidas sustitutivas de la prisión. La víctima, José Gabriel Pérez Lizama, murió mientras recibía atención médica después de ser atropellado por la ambulancia. El juez enfatizó en la irresponsabilidad del procesado al conducir la ambulancia con sirena abierta cuando no trasladaba a ningún paciente en estado crítico o que estuviera en riesgo la vida.</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en el bulevar del Ejército, en Soyapango.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Homicidio culposo:** La noticia describe el homicidio culposo de un motociclista por parte de un conductor de una ambulancia del ISSS.
@@ -7524,12 +7715,12 @@
 * **No comparecencia:** El conductor de la motocicleta donde iba la víctima no compareció a la audiencia inicial.</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>La noticia no indica detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que un motorista de ambulancia del ISSS está siendo procesado por homicidio culposo de un motociclista. La teoría es que el motorista condujo la ambulancia con sirena abierta cuando no trasladaba a ningún paciente en estado crítico o que estuviera en riesgo la vida, sino que se dirigía a una curación.
@@ -7537,66 +7728,66 @@
 La suposición es que el motorista no se encontraba en el contexto de su trabajo como conductor de una ambulancia, ya que no trasladaba a ningún paciente en estado crítico o que estuviera en riesgo la vida.</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre los grupos en riesgo, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>La texto no describe el tipo de arma que se utiliza en la noticia, por lo que no se puede proporcionar la información de la tipo de arma que se menciona.</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas como José Gabriel Pérez Lizama, de 26 años, y Fernando Dagoberto Martínez Guzman.</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>La información no contiene citas de fuentes de información, por lo que no se puede determinar la fuente de la información de la noticia.</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/absuelven-por-segunda-vez-a-los-tres-senalados-del-asesinato-del-lider-del-pcn-ramon-kury</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio, el asesinato del líder del PCN, Ramón Kury. La noticia describe los hechos de asesinato de Ramón Kury en detalle, incluyendo la descripción de la víctima, el perpetrador y los eventos que ocurrieron en el momento del asesinato.</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Absuelven por segunda vez a los tres señalados del asesinato del líder del PCN, Ramón Kury
 **Extraído:** El título de la noticia es "Absuelven por segunda vez a los tres señalados del asesinato del líder del PCN, Ramón Kury".</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre el absuelvo por segunda vez de los tres señalados del asesinato del líder del PCN, Ramón Kury, después de que las pruebas presentadas por la Fiscalía no lograran quebrantar la presunción de inocencia. El Tribunal Tercero de Sentencia emitió un veredicto absolutorio en favor de los imputados Samuel Elías Delgado Navas, Óscar Remberto Delgado Martínez y Santos Beltrán. Esta es la segunda vez que los tres son absueltos, ya que en marzo de 2021 también habían sido enjuiciados y absueltos por el Tribunal Segundo de Sentencia de San Salvador.</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>La noticia indica que el suceso ocurrió en la sede del PCN, en la colonia Las Mercedes.</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Absuelvo de los acusados del asesinato de Ramón Kury:** La noticia informa sobre el absolución de los tres acusados de cometer el asesinato de Ramón Kury por segunda vez.
@@ -7605,12 +7796,12 @@
 * **Ipelación y sentencia:** La Fiscalía inconforme con la decisión de absoluciónapeló la sentencia, y la Cámara Segunda de lo Penal de San Salvador dio la razón, ordenando un nuevo juicio.</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta el absolución por segunda vez de los tres imputados por el asesinato del líder del PCN, Ramón Kury, por lo que se podría suponer que la justicia no se ha hecho esperar.
@@ -7618,67 +7809,67 @@
 La justicia podría no ser completa en este caso, ya que los imputados han sido absueltos dos veces por el mismo delito.</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma que se utilizó en el asesinato de Ramón Kury, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la Requested información.</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/programan-audiencia-contra-sobrino-del-exalcalde-del-puerto-de-la-libertad-por-homicidio</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>**Sí, la noticia describe un homicidio.** La noticia describe el homicidio de un hombre llamado Miguel Ángel Jiménez Aguilera, conocido como el exalcalde del Puerto de La Libertad, y su compañera de vida Krissia Lorena Muñoz Campos, ocurrido el 8 de febrero de 2023.</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>**Extraer el título de la noticia:**
 **Programan audiencia contra sobrino del exalcalde del Puerto de La Libertad por homicidio**</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la programación de una audiencia preliminar en contra de Carlos Gustavo Jiménez Rodríguez, acusado de matar a su tío el exalcalde del Puerto de La Libertad, Miguel Ángel Jiménez Aguilera, y su compañera de vida, Krissia Lorena Muñoz Campos. La audiencia se celebrará el 20 de mayo de 2024, y el juzgado también libró oficio al Centro Penal "La Esperanza" para que haga el traslado del imputado a la sala de audiencia.
 La acusación indica que Jiménez Rodríguez mató al exalcalde por motivos económicos. El cuerpo del exalcalde y su compañera de vida fue encontrado a eso de las 5:00 de la tarde del mismo día que el sobrino había hecho las transacciones.</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso se encuentra en la línea 3 de la noticia: "El asesinato ocurrió en el Puerto de La Libertad".</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Homicidio:** El artículo describe un caso de homicidio en el Puerto de La Libertad, donde un sobrino mató a su tío y su compañera de vida.
@@ -7687,12 +7878,12 @@
 * **Prueba de ocio:** El cuerpo del exalcalde y su compañera de vida fue encontrado a eso de las 5:00 de la tarde del mismo día que el sobrino había hecho las transacciones.</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia presenta una teoría de que el sobrino mató al exalcalde por motivos económicos.
@@ -7700,55 +7891,55 @@
 La noticia asume que la teoría de la motivación económica del sobrino es cierta.</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma que usó el sobrino para cometer el asesinato, por lo que no se puede determinar el tipo de arma que se utiliza en la noticia.</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>La noticia identifica a las víctimas como el exalcalde del Puerto de La Libertad, Miguel Ángel Jiménez Aguilera, y su compañera de vida, Krissia Lorena Muñoz Campos.</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>El texto indica que el nombre del agresor es Carlos Gustavo Jiménez Rodríguez, pero no se indica si se menciona el nombre en la noticia, por lo que no se puede proporcionar la información de nombre del agresor.</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si las fuentes de información son confiables o no.</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/fgr-pide-a-tribunal-que-agrupe-1800-supuestos-mareros-procesados-en-11-clicas</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede clasificar como una noticia sobre un homicidio.</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>**Título de la noticia:** FGR pide a tribunal que agrupe 1,800 supuestos mareros procesados en 11 clicas
 La noticia se ajusta a este título, ya que la noticia habla sobre la solicitud de la Fiscalía General de la República (FGR) de reagrupación de 1,800 supuestos miembros de la Mara Salvatrucha (MS-13) en 11 clicas.</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>**Resumen:**
 La Fiscalía General de la República (FGR) presentó una solicitud de reagrupación contra 1,828 supuestos miembros de la Mara Salvatrucha (MS-13) que conformaban 11 ciclas delincuenciales. La solicitud busca agrupar a los mareros de cada clica en un único proceso judicial, de acuerdo con la estructura organizativa de la Mara Salvatrucha.
@@ -7756,12 +7947,12 @@
 La presentación de la solicitud por los 1,828 mareros aumenta el total de los acusados a 7,486, que ya incluyen los 5,658 miembros de la MS-13 que también se solicitaron la reagrupación.</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se encuentra en la texto, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Reagrupar a 1,800 supuestos mareros de la Mara Salvatrucha:** La FGR presenta una solicitud para agrupar a 1,800 supuestos mareros de la Mara Salvatrucha en 11 clicas.
@@ -7770,12 +7961,12 @@
 * **Número total de sospechosos:** El total de 7,486 supuestos pandilleros, incluyendo los 1,800 recién agrupados.</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>La texto no indica detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia describe el pedido de la Fiscalía General de la República (FGR) de reagrupar a 1,800 supuestos miembros de la Mara Salvatrucha (MS-13) en 11 clicas. La teoría de la noticia es que la FGR utiliza esta solicitud como parte de su estrategia para luchar contra la delincuencia organizada.
@@ -7783,7 +7974,7 @@
 La FGR utiliza la solicitud de reagrupación como una herramienta para fortalecer su posición contra la Mara Salvatrucha. Es probable que la FGR utilice esta solicitud para presionar a los líderes de la Mara Salvatrucha y reducir su influencia.</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>La noticia informa sobre la solicitud de la Fiscalía General de la República (FGR) para agrupar en un único proceso a 1,828 supuestos miembros de la Mara Salvatrucha (MS-13) que conformanban 11 ciclas delincuenciales. Los grupos en riesgo mencionados en la noticia son:
 * **Bosques Locos Salvatruchos**
@@ -7799,63 +7990,63 @@
 * **Arces Malditos Locos Salvatruchos**</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma, por lo que no se puede proporcionar la información de laRequested.</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>La texto no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/detienen-a-seis-estudiantes-de-un-escuela-en-soyapango-por-participar-en-una-pelea</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>**Título:** Detienen a seis estudiantes de un escuela en Soyapango por participar en una pelea
 La información extraída del texto es el título de la noticia.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la detención de seis estudiantes de un escuela en Soyapango por participar en una pelea. La policía nacional civil (PNC) detuvo a los estudiantes por desórdenes públicos. Los estudiantes implicados incluyen a una joven de 18 años, una joven de 19 años y cuatro menores de edad. La Ley Penal Juvenil en El Salvador establece que las personas mayores de 12 años pueden ser juzgadas por delito.
 La noticia también reporta otros casos de estudiantes implicados en delitos, como la detención de una adolescente por intento de homicidio y la captura de otro estudiante por Drawings en un cuaderno alusivos a la Mara Salvatrucha (MS-13).</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en el Centro Escolar República de Corea, en el distrito de Soyapango, municipio de San Salvador Este.</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Promoción de la violencia en las escuelas:** La noticia destaca la creciente problemática de la promoción de la violencia en las escuelas salvadoreñas, con el reciente detención de estudiantes por participar en una pelea en el Centro Escolar República de Corea.
@@ -7864,12 +8055,12 @@
 * **Membresía de pandillas:** La noticia también menciona el caso de un estudiante supuestamente relacionado con la Mara Salvatrucha (MS-13).</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre una serie de incidentes de violencia en el país, relacionados con estudiantes de diferentes escuelas. La teoría que se puede extraer de esta noticia es que la seguridad en las escuelas en El Salvador sigue siendo un problema, y que los estudiantes están siendo afectados por la presencia de grupos delictivos en sus instituciones.
@@ -7877,56 +8068,56 @@
 Es probable que la situación de seguridad en las escuelas de El Salvador sea un problema persistente, y que las autoridades de seguridad deban tomar medidas para proteger a los estudiantes de la violencia.</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>La noticia indica que los grupos en riesgo mencionados en la noticia son la Mara Salvatrucha (MS-13) y las pandillas.</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en la pelea, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en el texto.</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>La noticia no indica el nombre del agresor, por lo que no se puede proporcionar la información de su nombre.</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>https://diario.elmundo.sv/nacionales/reprograman-por-segunda-vez-fallo-contra-acusados-del-asesinato-de-lider-del-pcn-ramon-kury</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>La noticia sí describe un homicidio. La noticia habla sobre el asesinato de un líder de un partido político, Ramón Kury, en el año 2018.</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Reprograman por segunda vez fallo contra acusados del asesinato de líder del PCN, Ramón Kury
 La información extraída es correcta. El título de la noticia es exactamente el que se encuentra en la noticia.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la reprogramación por segunda vez del fallo de juicio contra los acusados del asesinato del líder del PCN, Ramón Kury. El fallo se reprograó debido a la presencia de los jueces en otra audiencia especial de depuración de prueba. Los acusados ya fueron absueltos una vez en marzo de 2021 por el mismo tribunal por diferencias en las pruebas presentadas por la Fiscalía.
@@ -7934,13 +8125,13 @@
 La noticia describe el reprogramación por segunda vez del fallo de juicio contra los acusados del asesinato de Ramón Kury. El fallo se reprograó debido a la presencia de los jueces en otra audiencia. Los acusados ya fueron absueltos una vez por las mismas razones.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso en la noticia es:
 **En la sede nacional del partido PCN.**</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Reprogramación del fallo:** El Tribunal Tercero de Sentencia de San Salvador reprograó por segunda vez el fallo del juicio contra los acusados del asesinato de Ramón Kury, debido a la necesidad de realizar otra audiencia especial de depuración de prueba.
@@ -7949,12 +8140,12 @@
 * **Absueltos:** Los tres acusados ya fueron absueltos una vez en marzo de 2021 por el Tribunal Segundo de Sentencia de San Salvador.</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>La texto no contiene detalles específicos sobre la violación a la ley, por lo que no se puede proporcionar la información requested.</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia indica que el juicio contra los acusados del asesinato de Ramón Kury ha sido reprogramado por segunda vez debido a la falta de tiempo de los jueces. La razón de esta reprogramación se debe a la presencia de otra audiencia especial de depuración de prueba y la cantidad de pruebas que se deben considerar.
@@ -7962,68 +8153,68 @@
 La noticia sugiere que el retraso en el fallo del juicio se debe a la complejidad del caso y la necesidad de un exhaustivo análisis de las pruebas.</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma que se utilizó en el asesinato de Ramón Kury, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>La información sobre el nombre del agresor no se encuentra en la noticia, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de la misma.</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/en-menos-de-24-horas-capturan-a-asesino-en-hato-nuevo-san-miguel/506188/</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>**Clasifica:** Sí, la noticia describe un homicidio. La noticia describe el homicidio de una persona en el cantón Hato Nuevo, de San Miguel.</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **En menos de 24 horas capturan a asesino en Hato Nuevo, San Miguel**</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la captura de un asesino en el cantón Hato Nuevo, San Miguel, en menos de 24 horas de cometer el crimen. La víctima no pudo ser identificada por las autoridades, ya que no portaba ningún documento de identidad y familiares no llegaron a la escena para reconocer el cadáver. La PNC montó un operativo en la zona para capturar rápidamente al responsable, y horas más tarde lo consiguió.
 La noticia también incluye información sobre el histórico criminal de un homeboy de la pandilla 18 Sureños, alias "Cebolla", y la reducción de asesinatos en El Salvador como resultado de la estrategia de seguridad del presidente Nayib Bukele.</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:**
 La noticia indica que el suceso ocurrió en el cantón Hato Nuevo, de San Miguel Centro, en el Salvador.</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>**Los temas principales tratados en la noticia:**
 * **Captura de un asesino en Hato Nuevo, San Miguel:** La noticia describe la captura de un asesino en el cantón de Hato Nuevo, San Miguel, en menos de 24 horas de haber cometido el crimen.
@@ -8031,12 +8222,12 @@
 * **Homeboy de pandilla capturado:** La noticia informa sobre la captura de un homeboy de la pandilla 18 Sureños, alias "Cebolla".</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>La noticia no contiene información sobre violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un asesinato en el cantón Hato Nuevo, San Miguel, donde la policía capturó al responsable en menos de 24 horas. No se conoce la identidad de la víctima o si el asesinato está relacionado con algún grupo delincuencial. La reducción de asesinatos en El Salvador se ha asociado con la estrategia de seguridad del presidente Nayib Bukele.
@@ -8044,67 +8235,67 @@
 La rápida intervención de la policía en esta caso es evidencia de la eficacia de la estrategia de seguridad del presidente Bukele, que ha provocado una reducción en las tasas de asesinato. Sin embargo, es importante destacar que no se ha encontrado el móvil del homicidio o si está relacionado con algún grupo delincuencial.</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>La noticia no indica los grupos en riesgo que están mencionados, por lo que no se puede proporcionar la información de grupos en riesgo que están mencionados en la noticia.</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>La texto no indica el tipo de arma utilizada en el asesinato, por lo que no se puede proporcionar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes.</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/conductor-provoca-accidente-y-es-arrestado-con-211-mg-dl-de-alcohol-espirado/506275/</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si la noticia describe un homicidio o no.</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 **Conductor provoca accidente y es arrestado con 211 mg/dl de alcohol espirado**</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa de un accidente vial causado por un conductor bajo el influencia del alcohol. El conductor, aún desconocido, condujo bajo los efectos de la bebida y protagonizó un siniestro vial en la zona occidental del país. Las autoridades del Viceministerio de Transporte (VMT) realizaron una prueba de alcoholemia al conductor, arrojando como resultado 211 mg/dl de alcohol en aire espirado. El conductor fue detenido por el delito de conducción peligrosa. Las últimas horas, 13 conductores fueron detenidos por el mismo delito. Las autoridades del VMT están llevando a cabo controles antidoping en diferentes puntos del país como parte de las medidas preventivas para garantizar la seguridad vial.</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>**Dónde ocurrió el suceso:** La noticia indica que el suceso ocurrió en la zona occidental del país.</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Conducir bajo los efectos del alcohol:** La noticia se centra en un accidente vial causado por un conductor en estado de ebriedad.
@@ -8114,12 +8305,12 @@
 * **Normas de tránsito:** La noticia enfatiza la importancia de respetar las normas de tránsito y evitar manejar bajo la influencia del alcohol.</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>La noticia no indica detalles sobre la violación a la ley de tránsito por conducción bajo el influencia del alcohol, por lo que no se puede proporcionar la información de los detalles específicos sobre la violación a la ley.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta un caso de conducción peligrosa causado por el alcohol, donde el conductor fue detectado con un alto porcentaje de alcohol en sangre (211 mg/dl) y posteriormente arrestado. La teoría es que la causa del accidente fue la ingestión de alcohol por el conductor, que condujo de manera peligrosa y probablemente contribuyó a la colisión.
@@ -8127,69 +8318,69 @@
 La suposición de la noticia es que la conducción bajo los efectos del alcohol es una causa común de accidentes de tránsito y que las pruebas de alcoholemia son una forma eficaz de identificar a los conductores que están en estado de ebriedad.</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se menciona en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitado.</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>La texto no menciona ninguna arma, por lo que no se puede determinar si el texto contiene información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las víctimas, por lo que no se puede identificar a las víctimas en esta noticia.</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/el-salvador-no-registro-homicidios-este-pasado-sabado/506271/</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, sino que informa sobre la ausencia de homicidios en El Salvador en el pasado sábado.</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>**Extraído el título de la noticia:**
 El Salvador no registró homicidios este pasado sábado
 La noticia se ajusta al título de "El Salvador no registró homicidios este pasado sábado".</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa de la reducción de homicidios en El Salvador a cero el pasado sábado, 18 de mayo. Esto se atribuye a las políticas de seguridad implementadas por el Ejecutivo, que han dado como resultado la captura de miles de pandilleros. La estrategia de seguridad incluye la modernización del equipo policial, el despliegue de los equipos en las calles y una intensa campaña contra las pandillas.
 La reducción de homicidios es una importante mejora en la seguridad de El Salvador, que ha sido históricamente conocido por sus altas tasas de homicidios debido a las pandillas. El Plan Control Territorial y el régimen de excepción han resultado en la captura de estos terroristas.</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>La información sobre el lugar donde ocurrió el suceso no se incluye en el texto, por lo que no se puede proporcionar la información sobre el lugar donde ocurrió el suceso.</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **No registro de homicidios en El Salvador el pasado sábado:** La noticia informa sobre el registro de cero homicidios en El Salvador el pasado sábado, lo que marca un avance en el esfuerzo por garantizar la tranquilidad de la población salvadoreña.
@@ -8199,12 +8390,12 @@
 * **Modelo a seguir:** El éxito de El Salvador en la lucha contra las pandillas ha generado interés en otras naciones, que quieren aprender el "modelo Bukele".</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre la violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia informa sobre la reducción de homicidios en El Salvador en el pasados fin de semana, donde no se registraron ningún crimen. Esta reducción se atribuye a las políticas de seguridad implementadas por el Ejecutivo salvadoreño, que incluyen la modernización del equipo policial, el despliegue de equipos en las calles y una intensa campaña contra las pandillas.
@@ -8212,56 +8403,56 @@
 La reducción de homicidios en El Salvador es un resultado de la estrategia de seguridad implementada por el Ejecutivo, que ha dado como resultado la captura de miles de pandilleros. Esta estrategia se ha convertido en un modelo a seguir para otras naciones que enfrentan problemas similares.</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>La noticia no indica grupos en riesgo, por lo que no se puede proporcionar la información de los grupos en riesgo.</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>La texto no menciona el tipo de arma, por lo que no se puede especificar la información sobre el tipo de arma.</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>La texto no identifica a las víctimas, por lo que no se puede proporcionar la información de su identificación.</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>https://diarioelsalvador.com/inseguridad-el-gran-desafio-para-el-nuevo-presidente-de-mexico/506328/</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>La noticia no describe un homicidio, por lo que no se puede determinar si se trata de un homicidio o no.</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>**Título de la noticia:** Inseguridad: el gran desafío para el nuevo presidente de México
 **Extraído:** El título de la noticia es "Inseguridad: el gran desafío para el nuevo presidente de México".</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>**Resumen:**
 La noticia informa sobre la situación de inseguridad en México y el impacto en el nuevo presidente, Andrés López Obrador. La tasa de homicidios en el país sigue siendo muy alta, con más de 23 asesinatos por cada 100.000 habitantes. Los principales grupos criminales en el país son el Cártel Jalisco Nueva Generación y el Cártel de Sinaloa.
@@ -8270,12 +8461,12 @@
 La noticia también destaca la presión que está sobre México por parte del gobierno de Estados Unidos en el contexto del tráfico de fentanilo. Si Trump regresara a la Casa Blanca, la presión podría aumentar aún más.</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>La información de la noticia sobre el lugar donde ocurrió el suceso se ubica en el estado de Chihuahua (norte) de México.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>**Temas principales tratados en la noticia:**
 * **Inseguridad en México:** El alto nivel de violencia en el país, con una tasa de homicidios de 23 por cada 100.000 habitantes.
@@ -8285,12 +8476,12 @@
 * **La coordinación entre las instituciones:** Los expertos consideran que la mejora de la coordinación entre jueces, policías, fiscales y agencias de inteligencia es clave para luchar contra la criminalidad.</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>La texto no contiene detalles sobre la violación a la ley, por lo que no se puede proporcionar la información requesteda.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>**Teoría:**
 La noticia reporta sobre la insegura situación en México y el desafío que enfrentan el nuevo presidente, Berta García, en su búsqueda de encontrar a su hijo desaparecido. La tasa de homicidios en el país sigue siendo muy alta, y los cárteles de narcotráfico tienen un control significativo sobre varias regiones.
@@ -8298,7 +8489,7 @@
 La seguridad en México es un problema complejo y desafiante, y las propuestas de las principales aspirantes a la presidencia no parecen ser muy diferentes de las políticas anteriores. El reto para frenar la violencia en el país es enorme, y requiere una coordinación entre las diferentes instituciones de seguridad.</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>La información sobre los grupos en riesgo que se indica en la noticia es:
 * **Cártel Jalisco Nueva Generación**
@@ -8306,30 +8497,197 @@
 * **Otros grupos delincuenciales**</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>La texto no describe el tipo de arma, por lo que no se puede determinar si la información sobre el tipo de arma se incluye o no.</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>La noticia no identifica a las víctimas, por lo que no se puede proporcionar la información de identificación de las víctimas.</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Dato no extraído</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Dato no extraído</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>**Fuentes de información:**
 La noticia se basa en información de la Agencia Francesa de Prensa (AFP) y no se indica otras fuentes de información.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>https://diarioelsalvador.com/adolescente-asesina-a-sus-padres-y-su-hermana-por-quitarle-el-telefono-celular-en-brasil/507893/</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>**Clasificación:** Sí, la noticia describe un homicidio. La noticia habla de un adolescente que asesinó a sus padres y hermana por quitarle el teléfono celular.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>**Título de la noticia:** Adolescente asesina a sus padres y hermana por quitarle el teléfono celular en Brasil
+**Extraído:** El título de la noticia es "Adolescente asesina a sus padres y hermana por quitarle el teléfono celular en Brasil".</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>**Resumen:**
+Un adolescente de 16 años de edad en Brasil asesinó a tiros a sus padres y a su hermana por quitarle el teléfono celular. El joven confesó el crimen a las autoridades y dijo que asesinó a su padre por la confiscación de su teléfono celular después de una fuerte discusión. La confesión del joven asegura que el plan original era asesinar únicamente a su padre, pero que su hermana se asustó al escuchar el disparo y, al verla como testigo del hecho, subió las Stairs y le disparó en el rostro. El joven luego se fue al gimnasio y regresó a casa para esperar a su madre. Al verla llegar del trabajo, le disparó por la espalda y, posteriormente, apuñaló el cuerpo inerte de su progenitora.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>**Dónde ocurrió el suceso:**
+La noticia ocurrió en Sao Paulo, Brasil.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>**Los temas principales tratados en la noticia:**
+* **Juventud y crimen:** La noticia describe un caso de asesinato cometido por un adolescente de 16 años de edad en Brasil.
+* **Confiscación de teléfono:** El crimen se motivó por la confiscación de un teléfono celular por parte de sus padres.
+* **Venganza de muerte:** El adolescente asesino a su padre y hermana por el motivo de la confiscación de su teléfono.
+* **Insabidía:** El joven no mostró signos de arrepentimiento durante su confesión y actuó con una aparente insabidía.
+* **Convivio con los muertos:** El adolescente convivió con los tres cadáveres durante el fin de semana.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre violación a la ley, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>**Teoría:**
+La noticia de un adolescente brasileño que asesino a sus padres y hermana por quitarle el teléfono celular parece ser causada por una combinación de factores, incluyendo la tensión familiar, la pérdida de posesión del teléfono celular y la presencia de un arma de fuego.
+**Suposición:**
+Es probable que el adolescente haya planeado el crimen con anticipación, ya que conservó los cuerpos de sus padres durante el fin de semana. El hecho de que el joven no mostró signos de arrepentimiento en su confesión sugiere que el asesinato fue premeditado.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>La noticia no contiene información sobre grupos en riesgo, por lo que no se puede proporcionar la información solicitado.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>La noticia indica que el arma homicida en el crimen fue la arma reglamentaria de su padre, quien es guardia municipal. No se menciona otro tipo de arma en la noticia.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>**Identifica a las víctimas:**
+La noticia identifica a las víctimas como el padre (57 años) y la hermana (16 años) del adolescente.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>La información sobre el nombre del agresor no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>La información que usted ha proporcionado no indica el autor de la noticia, por lo que no se puede proporcionar la información de su análisis.</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>La fuente de la noticia no se indica en el texto, por lo que no se puede extraer la información de la fuente de la noticia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>https://diarioelsalvador.com/imponen-20-anos-de-carcel-a-marero-profugo-por-homicidio/508068/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>**Clasifica:** Sí, la noticia describe un homicidio. La noticia describe el homicidio de Edwin Eduardo Menjívar Ortiz por parte de los miembros de la Mara Salvatrucha.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>**Extraído título de la noticia:**
+Imponen 20 años de cárcel a marero prófugo por homicidio
+La noticia se ajusta a este título, ya que el título es el que se utiliza en la misma.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>**Resumen:**
+La noticia informa sobre la condena de 20 años de cárcel de un marero prófugo por homicidio. El terrorista de la Mara Salvatrucha, Mario Giovanni Melgar Díaz, fue encontrado culpable por el homicidio de Edwin Eduardo Menjívar Ortiz en 2014. El asesinato se llevó a cabo por ocho miembros de la Mara Salvatrucha, quienes exigieron armas de fuego y regresaron a la escena con la víctima. El testigo, clave "Salvador", sobrevivió y brindó declaración sobre el asesinato.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>La información sobre el lugar donde ocurrió el suceso se encuentra en la línea de texto: "La vista pública fue realizada gracias a las reformas del Código Procesal Penal que permiten a los jueces procesar a personas prófugas. Se estableció que Menjívar Ortiz y un testigo con régimen de protección clave «Salvador», fueron privados de libertad en la zona rural de San Pablo Tacachico".
+Por lo tanto, la respuesta a la pregunta es: **San Pablo Tacachico**.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>**Temas principales tratados en la noticia:**
+* **Justicia para víctimas de la Mara Salvatrucha:** La noticia destaca la justicia recibida por la víctima, Edwin Eduardo Menjívar Ortiz, quien fue asesinado por miembros de la Mara Salvatrucha.
+* **Reformas procesales:** La noticia enfatiza la importancia de las reformas del Código Procesal Penal que permiten a los jueces procesar a personas prófugas.
+* **Seguridad en la región:** La noticia también destaca la necesidad de mantener la seguridad en la región, particularmente en las zonas rurales como San Pablo Tacachico, donde ocurrió el homicidio.
+* **Derechos humanos:** La noticia no aborda el aspecto de los derechos humanos, como el derecho a la vida y la protección de testigos.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>La información sobre los detalles específicos de la violación a la ley en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>**Teoría:**
+La noticia reporta el asesinato de Edwin Eduardo Menjívar Ortiz por miembros de la Mara Salvatrucha. La teoría de la noticia es que el asesinato se produjo como resultado de una rivalidad entre pandilleros.
+**Suposición:**
+La suposición de la noticia es que la presencia de las reformas del Código Procesal Penal que permiten a los jueces procesar a personas prófugas facilitó la captura del terrorista.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>La información sobre los grupos en riesgo que se encuentra en la noticia no se incluye en el texto, por lo que no se puede proporcionar la información solicitada.</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>La noticia no indica el tipo de arma que utilizaron los pandilleros para asesinar a Edwin Eduardo Menjívar Ortiz, por lo que no se puede determinar si la información sobre el tipo de arma se incluye en la noticia o no.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>La noticia identifica a las víctimas como Edwin Eduardo Menjívar Ortiz y un testigo clave llamado "Salvador".</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>La información sobre el nombre del agresor en la noticia no se encuentra en el texto, por lo que no se puede proporcionar la información de nombre del agresor.</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>La información que no se ha proporcionado en el texto de la noticia es el autor de la misma. No se indica el autor de la noticia en el texto, por lo que no se puede proporcionar la información de su autoría.</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>La texto no contiene información sobre la fuente de la noticia, por lo que no se puede extraer la información de la fuente de la noticia.</t>
         </is>
       </c>
     </row>

--- a/app/reporte.xlsx
+++ b/app/reporte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>Fuentes</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -574,6 +589,33 @@
       <c r="N2" t="inlineStr">
         <is>
           <t>ewrw</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Artículos relacionados
+Juramentan nueva legislatura 
+1 mayo, 2024
+Desafíos para la izquierda salvadoreña
+1 mayo, 2024
+Sesiona la nueva legislatura 2024-2027 
+1 mayo, 2024
+</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Feminicido</t>
         </is>
       </c>
     </row>
@@ -608,6 +650,21 @@
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Un operativo policial y fiscal desarrollado la madrugada de este jueves permitió la captura de más de 65 criminales vinculados con la Mara Salvatrucha y la pandilla 18 Sureños, así como delincuentes comunes, que mantenían su accionar delictivo en seis municipios situados en el departamento de Santa Ana. Por medio de la operación denominada «Ucrania», las autoridades procedieron a hacer efectivos el arresto de los delincuentes de un total de 214 órdenes de capturas giradas por la Fiscalía General de la República (FGR). En ese sentido, hubo registros y allanamientos en los municipios de El Congo, Chalchuapa, Candelaria de La Frontera, Coatepeque, Metapán y Santa Ana. Los criminales serán procesados en los tribunales contra el crimen organizado donde serán acusados por los siguientes delitos: homicidio agravado, robo agravado, extorsión e intento de feminicidio, desaparición de personas, agrupaciones ilícitas y delitos sexuales. Las autoridades informaron que 45 de los pandilleros sobre los cuales fue emitida una orden de detención ya se encuentran bajo arresto en diferentes centros penitenciarios, pues han sido intervenidos en el marco del régimen de excepción, por lo que será en las cárceles donde se les informe de los nuevos delitos que les imputan. «Gracias a la operación se resolverán 40 casos de diversos delitos, llevando justicia a las víctimas de estos criminales», comunicó la FGR.Fuentes oficiales indicaron que para hacer efectivas las detenciones participaron en este procedimiento 160 agentes policiales que fueron apoyados por 100 soldados. Entre los sospechosos que fueron arrestados están: Eli Lazan, de 49 años, Luis Alonso Chicas, (47), Víctor Manuel García (30), Fernando Cruz (25), Nataly Pérez (35), Jaime Antonio Canjura (39), Berta Aquino (47), Bryan Omar Catota (22), Petrona Isabela Sama (67), Roxana Chávez (36), Reyna Cornejo (51), Evelyn Corado (43), Jeremías Hernández (54), Kevin Sorto (27), Marcos Henríquez (38), Elvira de Los Ángeles (47), Beatriz Morán (27), Daniela Catota (25), Ana Silvia Bojórquez (60), Margarita Peraza (29), María Isabel Gonzales (63), Cecilio Valiente (49), Guadalupe del Carmen (45), Julia Núñez (26), Marcela Estefanía Núñez (24), Katherine Godínez (22), Zoila María Hernández (30), Norma Pérez (36), Alejandro Ibero (18), Samuel Antonio Rodríguez (46), Yesenia Roxana Molina (43), César Eduardo Núñez (32), Sandra de Los Ángeles (39), Norma Griselda Hernández (46), Juan Alfredo Rendón (26), Carlos Antonio González (22), Alexander Bernal (19), Jhonatan Lázaro Cornejo (30), Rosa de Lázaro (43), Leticia Raquel Barrera de Gómez (42), Nora Elizabeth Hernández (46), Patricia del Rosario (37), Delmy Arely Lemus (20) y Ruth López Martínez(40).  #Operativo I De acuerdo a las investigaciones, los delitos por los que serán procesados son:▶️Homicidio agravado.▶️Robo agravado.▶️Extorsión.▶️Feminicido agravado en grado de tentativa. pic.twitter.com/RiLTjA7tfY</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Feminicido</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -695,6 +752,21 @@
           <t>La fuente de información para esta noticia es la información no identificada en el texto. No se indica en el texto ninguna otra fuente de información.</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>El fiscal general de la república, Rodolfo Delgado, confirmó, este miércoles, que Edwin Mauricio Alvarado Lazo, quien actualmente se encuentra detenido por el delito de resistencia, será acusado formalmente por el feminicido de la niña Melissa, el próximo viernes y detalló que, el presunto agresor sexual ha confesado haber cometido el crimen que estremeció a los habitantes de La Campanera.«Durante las entrevistas realizadas por agentes de la Policía se empezó a perfilar a Edwin Alvarado como un posible sospechoso de la muerte de Melissa, y es de esa forma como se logra llegar a la casa 34, del polígono 31 sur, de La Campanera», expresó el fiscal. Detalló que durante la entrevista que realizaron los agentes investigadores, Alvarado Lazo se vio acorralado, y empezó a dar versiones contradictorias, llegando a un punto de la entrevista en que se quiebra y decide confesar los hechos, declarándose el causante de la muerte de Melissa.«Sin embargo, nosotros no solo estamos afirmando la participación de Edwin Alvarado con la confesión de él, ya que se practicaron diferentes inspecciones, en los diferentes escenarios donde Melissa permaneció las últimas horas de su vida, y se fueron recolectando uno a uno diferentes elementos probatorios, incluyendo una cuerda que poseía los mismos tipos de nudo que poseía la cuerda que Edwin Alvarado utilizaba en el interior de su vivienda», dijo Delgado.Añadió «encontramos en el interior de su vivienda un mismo tipo de esponja que se encontró contiguo al cadáver de la víctima, el mismo tipo de alambre que se encontró en el interior del saco donde fue encontrado su cuerpo, se encontraba también en su casa de habitación».Delgado detalló que en el interior de la vivienda del sospechoso también encontraron diferentes objetos que evidencian la presencia de otros niños en anteriores oportunidades, como por ejemplo: colas para el cabello, juguetes y ropa de niña que estaban ocultas bajo la cama en la cual dormía Edwin Alvarado. SEGUIRÁ PRESO Y SERÁ ACUSADO POR OTRO TRES DELITOSAyer, el Juzgado Primero de Paz de San Salvador, ordenó que Alvarado Lazo, acusado de asesinar a Melissa H. de siete años, siga en detención por el delito de resistencia. Este es el primer proceso en contra del imputado, ya que mañana viernes será remitido a otro juzgado por el crimen en perjuicio de la niña.«El día viernes estaremos presentando ante el Tribunal competente el requerimiento fiscal por los delitos de feminicidio, violación y privación de libertad contra Edwin Alvarado Lazo, cometidos en perjuicio de la niña Melissa», indicó el funcionario.El crimen fue cometido por Alvarado Lazo el pasado 9 de octubre en la colonia La Campanera, de Soyapango. Y ayer, el fiscal explicó cómo se dio la captura de Alvarado Lazo por el delito de resistencia. #DePaís | «Durante la entrevista que realizaron los agentes investigadores, el sujeto se vio acorralado, y empezó a dar versiones contradictorias, llega un punto de la entrevista en que el sujeto se quiebra y decide confesar los hechos, la persona confesó que fue él el causante… pic.twitter.com/6VlV2yVnaH «Es importante que quede claro, cómo se da la captura por resistencia de Alvarado Lazo, a quien durante las entrevistas que los agentes investigadores realizaron durante el día 10 de octubre, se empezó a perfilar como un sujeto de interés, al ser una persona que mantenía como costumbre merodear el parque de esa colonia y estar observando a los menores de edad que asistían a jugar, al tiempo que se tocaba su área genital», señaló Delgado.El fiscal explicó que, luego de las entrevistas, la PNC realizó las coordinaciones necesarias para ubicar al sospechoso en las inmediaciones del bulevar Tutunichapa, en San Salvador, lugar donde trabajaba como obrero, dedicado a cargar camiones con arena.«Cuando Edwin Mauricio regresaba de su trabajo fue abordado por elementos de la Policía, la persona desde que observó a los agentes intentó ocultarse de ellos en unos vehículos aparcados en esa zona, cuando los policías se acercan a él, lo ubica y lo requisa, Edwin empieza a insultarlos y forcejear con ellos, desde ese momento estaba cometiendo el delito de resistencia, y eso motivo su detención el día 11 de octubre», apuntó Delgado.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Feminicido</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -777,6 +849,21 @@
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Juan Carlos Ramírez, de 36 años continuará el proceso judicial en su contra en prisión. Ramírez es acusado por la Fiscalía General de la República (FGR) por haber asesinado a su expareja la noche del pasado sábado 10 de julio. «Tras finalizar la audiencia inicial, el juez del Juzgado Séptimo de Paz decretó que el caso continúe con la detención provisional del imputado», señaló la fiscal del caso. Agregó que tras las investigaciones realizadas por la FGR se ha establecido que Ramírez cometió el delito de feminicidio agravado en contra de su excompañera de vida Briana Flores. Según las autoridades el crimen ocurrido en la avenida Los Andes, al costado norte del Colegio García Flamenco, en San Salvador fue realizado con arma blanca. «Cuando el abordó a la víctima en el lugar del crimen, hubo una discusión, él procede a sacar un arma blanca causándole lesiones profundas que le provocaron una muerte inmediata a su expareja», detallaron las autoridades. Por su parte la fiscal señaló que la desigualdad de poder, el machismo, el sexismo, la posesión y la persecución que Ramírez le daba a la víctima derivó en el cometimiento del delito. «Tienen un hijo en común pero no podemos detallar si aún estaban juntos», explicó la fiscal. Añadió que por el momento el caso pasa al Juzgado Especializado para una Vida Libre de Violencia en contra de las Mujeres.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Feminicido</t>
         </is>
       </c>
     </row>
@@ -868,6 +955,21 @@
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma para determinar las fuentes de información.</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Alcaldes de Nuevas Ideas han impulsado y aprobado con sus concejos municipales no realizar incrementos en salarios, dietas y gastos... El Banco Central de Reserva (BCR) avanza en el Censo de Población y Vivienda y ha cubierto territorio en los... El Tribunal de Sentencia de Usulután condenó a 25 años de cárcel a cinco integrantes de la clica Criminal Gánster... El Ministerio de Obras Públicas (MOP) y el Viceministerio de Transporte (VMT) organizan la PedaleadaSV para promover la movilidad alternativa en El Salvador, que se desarrolla en el periférico Claudia Lars, en donde las familias salvadoreñas participan en esta iniciativa. Cientos de ciclistas de diferentes partes... Ahora se espera adelantar el reconocimiento internacional de estas zonas, lo que podría facilitar la apertura de mercados. El objetivo de Brasil es el reconocimiento internacional como país totalmente libre de fiebre aftosa sin vacunación para 2026. Las familias salvadoreñas han llenado de color las iglesias, casas, calles y escuelas con matices que adornan el altar a... La justicia de Nepal intimó al gobierno a limitar los permisos de ascenso del Everest y otras cumbres, confirmó el... La pelea de gallos es el juego de azar más famoso del distrito de Bastar, que alberga densos bosques poblados... Está semana se conoció que Firpo podría no jugar la Copa Centroamericana de Clubes...</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -940,6 +1042,17 @@
       <c r="N7" t="inlineStr">
         <is>
           <t>No se ha proporcionado la información sobre la noticia, por lo que no se puede analizar y proporcionar la información sobre las fuentes de información.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -966,6 +1079,21 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>El partido del pasado miércoles, Alianza-FAS escribió una tierna historia con una pequeña aficionada aliancista, la cual ha conmovido las redes sociales y al propio equipo albo, quien le preparó una sorpresa. Gabriela Contreras es la protagonista de dos videos que se han viralizado en redes sociales. El primero de cuando entra al estadio Cuscatlán, para ver el duelo entre tigrillos y albos y de la cual su reacción ha sido muy especial. 𝗔𝗰𝗼𝗺𝗽𝗮́𝗻̃𝗲𝗻𝗺𝗲 𝗮 𝘃𝗲𝗿 𝗲𝘀𝘁𝗮 𝗹𝗶𝗻𝗱𝗮 𝗵𝗶𝘀𝘁𝗼𝗿𝗶𝗮 🥹𝗔𝗹𝗶𝗮𝗻𝘇𝗮 𝗲𝘀 𝘆 𝘀𝗲𝗿𝗮́ 𝗱𝗲 𝘀𝘂 𝗴𝗲𝗻𝘁𝗲 🤍 Luego de ver la reacción de Gabrielita entrando al estadio, hoy le dimos la sorpresa que conociera a toda la plantilla 🙌🏼#AlianzaFC pic.twitter.com/hgehFSr4Jz Esta publicación la hizo Tito Contreras, padre de la menor y quien acompaña a la niña, cuando esta grita al entrar al escenario y alcanzar a ver la cancha. Esto también fue compartido en las cuentas del Alianza, quien este viernes compartió la sorpresa que el equipo le hizo a la pequeña Gabi. «Alianza es y será de su gente. Luego de ver la reacción de Gabrielita entrando al estadio, hoy dimos la sorpresa que conociera a toda la plantilla», describió el equipo. La pequeña aliancista visitó al equipo en el entrenamiento, compartió con los jugadores y cuerpo técnico, quienes además le entregaron un balón autografiado y una camisa.</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1002,6 +1130,21 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Policía Nacional Civil (PNC) dio a conocer que el jueves 2 de mayo no hubo homicidios en el país, por lo que el acumulado durante la gestión del presidente Nayib Bukele es de 608 días libres de violencia homicida, de los cuales, 89 se han registrado en 2024. Los planes de seguridad gubernamental han reducido al mínimo (0.4 asesinatos diarios) el registro de homicidios durante este año muestra de ello es que abril cerró con 19 jornadas sin muertes violentas. Las estadísticas policiales revelan que desde que se implementó el régimen de excepción (27 de marzo de 2022) hasta el 2 de mayo de este año se reportan 495 días con cero homicidios. Agencias de noticias internacionales también han destacado que en el primer trimestre de 2024 la tasa de homicidios en El Salvador se redujo a 1.5 por cada 100,000 habitantes, por debajo de la tasa registrada al cierre de 2023, que fue de 2.4. Las autoridades del Gabinete de Seguridad han atribuido la reducción histórica de los asesinatos en el país a las más de 80,000 capturas de pandilleros, cuyas estructuras criminales eran las principales autoras de los atentados contra la vida de los salvadoreños. En el marco de los 600 días sin asesinatos en el país, que se cumplieron el 16 de abril de este año, el ministro de Justicia y Seguridad, Gustavo Villatoro, compartió en redes sociales una reflexión sobre lo que ha significado el trabajo ejecutado. «Contabilizamos 600 días sin homicidios, estos datos reflejan todo ese trabajo articulado desde un Estado de derecho, donde hemos puesto al centro de las políticas de seguridad salvaguardar la vida de nuestra gente», expuso. Estos resultados siguen llamando la atención de autoridades de seguridad pública de otras naciones, a las que los funcionarios salvadoreños les han compartido las experiencias en la guerra contra las pandillas. Finalizamos el jueves 02 de mayo, con 0 homicidios en el país. pic.twitter.com/8hhDr7DnNB </t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1077,6 +1220,24 @@
       <c r="N10" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Gabriela Sandoval @Gabriela_Sxndo Colaboradora En el transcurso del último día del año y las primeras horas de las primeras de 2024, diversas zonas del país han sido escenario deaccidentes de tránsito. Entre ellos, se destaca un grave incidente en el Cantón El Roble, ubicado en la calle San José Palo Grande, específicamente en el kilómetro 42 de la carretera hacia …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -1166,6 +1327,39 @@
           <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Alessia Genoves
+Colaboradora
+Dos hombres fueron condenados a 15 años de prisión cada uno por el delito de “homicidio simple” en perjuicio de una mujer trans. La víctima fue asfixiada el 25 de noviembre de 2018, en el cantón Ateos, Sacacoyo, La Libertad. La víctima fue identificada por su iniciales “JDMO”, en el proceso penal que se constata en el expediente 60-U-20-2, del Tribunal Primero de Sentencia de Sonsonate; y cuya resolución se divulgó el 29 de noviembre de 2020.
+Un hecho similar tuvo lugar posteriormente, el 27 de octubre del año 2019, en contra de otra mujer trans identificada como Anahí Miranda Rivas. La víctima murió asfixiada, tras una discusión con su agresor Juan Carlos Hernández Vásquez, quien le sujetó del cuello mientras el vehículo que se conducía “sobre el Bulevar de Los Héroes, a la altura de la Veterinaria de los Héroes, cuando prestaba su servicio sexual”, según indicó la fiscal del caso.
+Reconstrucción de los hechos
+Las versiones expuestas en el juicio narran que la noche del 24 de noviembre de 2018, los condenados RAFO y MEPM, junto con un testigo clave, SELH, estuvieron bebiendo en diferentes bares de Santa Tecla y Lourdes Colón. Según el testimonio de SELH, él había tomado un vehículo Mitsubishi Lancer sin autorización del taller donde trabajaba.
+“El día sábado 24 de 2018, como entre las 5:00 p.m. se dirigió hasta la cancha del cafetalón de Santa Tecla, tenía un partido de fútbol que no se realizó y se quedó en unos bares junto a [otros] y como a eso de las seis de la tarde entraron a un bar, y luego se les incorporaron dos personas, RAFO y MEM”, según se cita del expediente judicial.
+Posteriormente, cerca de las 5:00 a.m. del 25 de noviembre, un video presentado como prueba mostró que la víctima, JDMO, abordó el vehículo en el que se transportaban los acusados en las inmediaciones del bar “Ay Carajo”, en Lourdes Colón.
+Hallazgos forenses y testimonios policiales
+Alrededor de las 7:30 a.m., los agentes policiales JCQH y FJAC fueron alertados de un supuesto accidente de tránsito en el kilómetro 30 de la carretera CA-8, en Ateos, Sacacoyo. Al llegar al lugar, encontraron el vehículo Mitsubishi volcado y a RAFO y MEPM saliendo del mismo.
+Según el testimonio de JCQH, “al acercarse al vehículo observaron en el interior a una persona que al verificar sus signos vitales se encontraba ya sin vida, quien se encontraba semidesnuda con un suéter rosado con franjas blancas, bóxer color blanco y zapatos blancos”.  La autopsia realizada por la Dra. Flor Aracely Blanco Chicas, médico forense, reveló las causas del deceso: “El cadáver presentó un surco en el cuello, único, incompleto, de diecisiete centímetros de longitud por un centímetro en su lado más ancho, desde hemicuello posterior izquierdo hemicuello anterior derecho, con dirección horizontal, duro con fondo eritematoso y apergaminado, con patrón entramado. Siendo la causa de su muerte la “asfixia por compresión mecánica del cuello por estrangulación.”
+Tras valorar las pruebas testimoniales, documentales y periciales, el Tribunal declaró penalmente responsables a RAFO y MEPM por el delito de “homicidio simple” y los condenó a “cumplir la pena principal de 15 años de prisión; y a la pérdida de sus Derechos de ciudadanos por igual período como pena accesoria”, según se establece en la referida sentencia, pero los absolvió de responsabilidad civil.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1243,6 +1437,24 @@
       <c r="N12" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de fuentes.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Alessia Genoves Colaboradora Dos hombres fueron condenados a 15 años de prisión cada uno por el delito de “homicidio simple” en perjuicio de una mujer trans. La víctima fue asfixiada el 25 de noviembre de 2018, en el cantón Ateos, Sacacoyo, La Libertad. La víctima fue identificada por su iniciales “JDMO”, en el proceso penal que se constata en el …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -1327,6 +1539,42 @@
       <c r="N13" t="inlineStr">
         <is>
           <t>La fuente de la noticia no se ha encontrado en el texto, por lo que no se puede extraer la información para completar la solicitud.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Alessia Genoves
+Colaboradora
+Un hombre transgénero, identificado por sus iniciales como J A. C. Á, ha sido condenado a 30 años de prisión por el delito de homicidio simple imperfecto o tentado, en perjuicio de la vida de tres víctimas, según la resolución 244-2-2022-A emitida por el Tribunal Primero de Sentencia de Santa Tecla el 9 de marzo de 2023.
+La sanción también establece que el condenado también deberá saldar una pena de responsabilidad civil, por un monto de $2,500 dólares, distribuido a las tres víctimas, por las acciones dolosas y los perjuicios.
+Pese a lo inadmisible que ha sido el intento de homicidio por el que fue sancionado J A C Á existe una reducción palpable en el registro de homicidios en contra de personas LGBT.
+En 2017, se reportaron 17 homicidios de personas LGBT, mientras que en 2021 y 2022 la cifra fue de 8 víctimas en cada año; cuando en 2023, de acuerdo con los reportes de la organización Comunicando y Capacitando a Mujeres Trans con VIH (Comcavis), los hechos de sangre fueron tan sólo dos.
+Hechos de sangre
+Según la sentencia, el acusado, J A C Á, de 46 años, originario de Teotepeque, departamento de La Libertad, atacó con un machete en perjuicio de la integridad de tres víctimas, identificadas en el acta judicial como “D A R C, C E L R y P M”, el 22 de julio de 2021, en el barrio San Miguel, caserío San José, municipio de Teotepeque. El Tribunal acredita que los eventos tuvieron lugar a las 14:00 de esa fecha.
+De modo que  J A C Á “utilizó un machete para golpear la parte superior de la cabeza de la víctima D A R C, lo cual no logró porque esta última justo cuando se produce este golpe, colocó su antebrazo izquierdo, y con esta extremidad que fue herida de igual manera.
+Además,  golpear el hombro, brazo y tórax, todos del lado izquierdo de la víctima P M y para que con la punta de dicho machete, cortar la piel del antebrazo izquierdo de la víctima C E L R, y perseguirla durante cinco minutos con esta arma blanca, con el fin de poder lesionar cualquier parte su cuerpo.
+En consecuencia, el atentado dejó secuelas permanentes en su brazo izquierdo, con disminución de fuerza muscular y motricidad contra D A R C; así como daños arraigados a una herida de 4 cm en el antebrazo izquierdo contra C E L R. Mientras que P M, un hombre de 88 años que trabajaba como jardinero, fue lesionado en el hombro, brazo y tórax del lado izquierdo.
+“Con esta acta se acredita como miembros de la Policía Nacional Civil, se constituyen a las 18:40 horas del día 22 de julio de 2021 en el lugar mencionado, con el fin de realizar este acto de urgente de comprobación, y al llegar al mismo, se encuentran con una escena custodiada por otros policías, quienes refirieron que su presencia se debía a que les informaron que un señor de avanzada edad, y dos mujeres estaban lesionados”, se detalla en la sentencia.
+El tribunal valoró diversas pruebas, como actas de inspección ocular policial, álbumes fotográficos, expedientes clínicos, reconocimientos médicos forenses y peritajes psicológicos, para determinar la responsabilidad del acusado.
+Entre las pruebas acreditadas, están las pruebas de sangre que relacionan a las víctimas con los agresores, así como los expedientes psicológicos que detallan las secuelas de las mismas ante las agresiones.
+“Con el reconocimiento médico forense de sangre, se prueba de que la víctima D A R C, ha sido lesionada en su integridad física, pues este peritaje refiere que se le encontró una férula posterior en su antebrazo izquierdo, debido a que hay una cicatriz en “L” en esta misma región corporal”, se detalla en el examen de una de las víctimas, valoración que fue concurrente en las otras dos víctimas.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -1417,6 +1665,37 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la Requested información.</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Alma Vilches
+@AlmaCoLatino
+“Estamos ante un panorama bastante delicado y preocupante, donde las autoridades deben dar certeza sobre el incremento de suicidios, descartar o confirmar que se trate de una nueva estrategia de criminales que quieren hacer pasar estos casos como suicidios para encubrir los homicidios”, señaló Marvin Reyes, secretario del Movimiento de Trabajadores de la Policía Nacional Civil (MTP).
+Dijo que en los últimos días El Salvador ha registrado una serie de suicidios y asesinatos de bebés, lo cual denota mayor atención del gobierno a la salud mental de la población, aunque también surge la interrogante, si es una nueva forma de asesinar haciéndolos pasar como suicidios.
+Reyes, enfatizó que los suicidios reflejan una descomposición social donde la persona cae en una depresión por varios factores, entre ellos los económicos, vicios, relaciones sentimentales o padecimiento de enfermedades crónicas.
+“También pudiera entrar una sospecha que pudieran ser una pantalla para cubrir un homicidio, los criminales que todavía se encuentran en los territorios pueden estar acomodando su modus operandi, tratando de disfrazar homicidios con suicidios, hasta el momento todas las evidencias de suicidio denotan que la persona ha decidido por si sola quitarse la vida”, reiteró.
+Asimismo, explicó que hay muchos casos los cuales generan duda, uno de ellos es en la zona de Cinquera, de un salvadoreño que vivía en Estados Unidos y después de 40 años regresó, lo encuentran muerto y sospechan que se suicidó porque aparece cerca del cuerpo un lazo, pero los indicios dan a entender que fue homicidio.
+A criterio del secretario del MTP, los suicidios y el asesinato de recién nacidos es parte de la pérdida de valores que como sociedad salvadoreña se ha acentuado en los últimos años, como el caso de las madres que le dan muerte a los hijos y los dejan abandonados como basura.
+Entre tanto, la abogada Ivania Cruz, manifestó que hay una contradicción del gobierno al hablar de 600 días sin homicidios, cuando hay un incremento de madres que asesinan a sus bebés, el gobierno es incapaz de crear políticas públicas que velen por la protección de la población,
+“Existe un aumento en el caso de homicidios y no se reporta, estamos bajo la misma encrucijada del pasado, sigue la delincuencia, los asaltos, en algunos lugares continúan las extorsiones, que no se haga visible demuestra que el Régimen de Excepción es utilizado como una campaña política y no como un método de seguridad”, enfatizó.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1489,6 +1768,21 @@
           <t>La información que ha proporcionado no contiene ninguna fuente de información, por lo que no se puede analizar la solicitud de análisis.</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No se encontró el texto del articulo</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1559,6 +1853,21 @@
       <c r="N16" t="inlineStr">
         <is>
           <t>La información no contiene ninguna fuente de información, por lo que no se puede analizar la solicitud.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No se encontró el texto del articulo</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -1642,6 +1951,30 @@
           <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si es cierta o no.</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Cuatro hombres integrantes de pandillas fueron deportados de los Estados Unidos y capturados en su llegada a El Salvador por la Policía Nacional Civil (PNC). 
+Dos detenidos pertenecen a la Mara Salvatrucha (MS13) y los otros dos al Barrio 18, uno de ellos a la fracción Sureños y el otro a la fracción Revolucionarios. 
+"El procedimiento se hizo efectivo mediante la División de Seguridad Fronteriza. Estos terroristas van directo al #CECOT", aseguró la corporación policial en su cuenta de X
+Los detenidos
+De acuerdo con las autoridades los hombres ligados a la MS son Milton Adonay Medina Salmerón, alias “Chuchi” o “Cuche”, que cuenta “con orden de captura de un juez de San Francisco Gotera, Morazán”, por los delitos de homicidio agravado y organizaciones terroristas. 
+El otro miembro de la MS es Fredy Edenilson Hernández Guardado, alias “Tambor” y según la PNC fungía como gatillero de la pandilla y es acusado por agrupaciones ilícitas. 
+Por su parte, David Isaac Castro Merino, alias “Deybi”, es “homeboy” de la 18 Sureños y posee orden de captura por agrupaciones ilícitas. 
+Mientras que Omar Ulises Pineda Amaya, alias “Gato” o “Mouse”, señalado de ser gatillero de la 18 Revolucionarios, tiene una orden de captura “girada por un juez de San Salvador en el año 2023” por los delitos de homicidio, feminicidio agravado y agrupaciones ilícitas.
+</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1726,6 +2059,24 @@
           <t>La información de la noticia no incluye citas a fuentes de información, por lo que no se puede analizar el contenido de la misma con precisión.</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Un sujeto habría asesinado a su compañera de vida y después se habría suicidado este sábado en la colonia El Tesoro en San Miguel, de acuerdo a la Policía Nacional Civil (PNC).  La PNC informó que se encuentra procesando la escena del feminicidio, en el que presuntamente Óscar Napoleón Martínez asesinó a su compañera de vida Teresa de Jesús Medina.  De acuerdo a la versión policial, Martínez atentó contra la vida de Teresa y luego de asesinarla se suicidó. La supuesta causa del hecho habría sido una discusión suscitada entre ambos.  Durante 2023, la Organización de Mujeres Salvadoreñas por la Paz (Ormusa) registró 46 muertes violentas de mujeres en El Salvador, 23 de ellas fueron mujeres asesinadas por su parejas. De ese número, 21 muertes fueron feminicidios y otros dos como suicidios feminicidas. De enero a marzo de 2024 se registran al menos siete feminicidios.   Procesamos escena de homicidio en la colonia El Tesoro, San Miguel, un hombre identificado como Óscar Napoleón Martínez asesinó con machete a su compañera de vida Teresa de Jesús Medina, tras una discusión y después se suicidó.
+— PNC El Salvador (@PNCSV) May 4, 2024 
+</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1803,6 +2154,24 @@
       <c r="N19" t="inlineStr">
         <is>
           <t>La texto no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información para la noticia.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samuel Amaya @Samuel Amaya98 El padre Guillermo Palacios presidió la misa de este domingo en la Cripta de Catedral Metropolitana de San Salvador; en ella dijo que lo que el Señor quiere para su iglesia es “llevarlos a la vida eterna”. “Si el señor no nos amara, pues no nos diera todas estas oportunidades que constantemente nos da para acercarnos …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -1891,6 +2260,21 @@
 La noticia informa sobre la captura de cuatro peligrosos pandilleros deportados de Estados Unidos en el Aeropuerto Internacional de El Salvador. La información no incluye fuentes de información, por lo que no se puede verificar la precisión de la misma.</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Un grupo de cuatro sujetos miembro de grupos de pandillas y considerados de alta peligrosidad fueron detenidos por elementos de la Policía Nacional Civil (PNC) tras ser deportados de Estados Unidos y arribar al Aeropuerto Internacional de El Salvador. La institución policial detalló que los detenidos son señalados por casos de homicidios y feminicidios, además de su afiliación a grupos de pandillas y estructuras terroristas que operaban en diversas partes de El Salvador. 4 Peligrosos criminales fueron detenidos en el aeropuerto Óscar Arnulfo Romero, deportados de Estados Unidos:▪️Omar Ulises Pineda Amaya, alias Gato o Mouse, gatillero de la 18R, con orden girada por un juez de San Salvador en el año 2023 por homicidio, feminicidio agravado y… pic.twitter.com/BfrjWm1SDN Uno de los detenidos fue identificado como Omar Ulises Pineda Amaya, alias Gato o Mouse, perfilado como gatillero de la pandilla 18R y quien cuenta con orden de captura emitida por un juzgado de San Salvador el pasado año 2023 por los delitos de homicidio, feminicidio agravado y agrupaciones ilícitas. Otro de los detenidos responde al nombre de Milton Adonay Medina Salmerón, alias Chuchi o Cuche, perfilado como homeboy de la pandilla MS13 y con orden de captura emitida en San Francisco Gotera, Morazán, por homicidio agravado y agrupaciones ilícitas. La Policía también logró la captura de David Isaac Castro Merino, alias Deybi, un homeboy de la pandilla 18S quien es señalado por agrupaciones ilícitas. El último de los detenidos fue identificado como Fredy Edenilson Hernández Guardado, alias Tambor, gatillero de la MS13.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1975,6 +2359,21 @@
           <t>La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tres pandilleros enfrentan juicio por el asesinato de una mujer, cuyo cuerpo fue encontrado en un predio baldío situado en el distrito de Teotepeque, municipio de La Libertad Costa. La audiencia de vista pública se lleva a cabo en el Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para Las Mujeres de San Salvador, donde según la Fiscalía General de la República (FGR) se presentarán todas las pruebas que cómo fue cometido el crimen. En el caso de Rudy Alexander Gamez Sandoval, perfilado como integrante de la pandilla 18, es acusado de homicidio agravado, y según las investigaciones fiscales es señalado de planificar la muerte de la víctima. Los otros implicados son José Heriberto Orellana Lemus y Anival Torres Cruz, quienes enfrentan cargos por feminicidio agravado; ambos son acusados de ejecutar el asesinato. «Los hechos surgen a raíz de un hallazgo realizado el 12 de octubre de 2018 a las 17:00 horas (5:00 pm) en terreno baldío ubicado al costado sur de la carretera Litoral en el km 73 y medio. Es en este lugar donde, ya en estado de descomposición, se da el hallazgo de la víctima y es lo que da pie a iniciar una investigación», explicó el fiscal del caso. Tres sujetos acusados de asesinar a una mujer enfrentan #VistaPública. La @FGR_SV cuenta con suficientes pruebas para demostrar que ellos cometieron este hecho.Rudy Alexander Gamez Sandoval, miembro del Barrio 18, es el principal sospechoso de planificar la muerte de la… pic.twitter.com/PwsTwEDYSA  </t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2062,6 +2461,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Rosa Elvira Flores fue asesinada presuntamente por Edwin Antonio Cáceres, con quien mantenía una relación sentimental. Sus restos fueron encontrados en el cantón Los Lagartos, San Julián, Sonsonate. De acuerdo con información de la Fiscalía General de la República (FGR), fue el pasado 27 de marzo que se encontraron los restos de la víctima. «Tras las diligencias ordenadas por los fiscales del caso y la prueba de ADN los forenses determinaron que fue un hecho violento y se confirmó que los restos corresponden a Rosa Elvira Flores», señaló la FGR, en su cuenta de X. Las investigaciones de las autoridades apuntan que Cáceres, quien se encuentra prófugo de la justicia, es el responsable del feminicidio de Flores. #DePaís | La @FGR_SV presentó ayer requerimiento fiscal por feminicidio contra Edwin Antonio Cáceres Ramírez, en perjuicio de su pareja sentimental, identificada por el ministerio público como Rosa Elvira Flores.La mujer retiró una remesa por $2,500 el 19 de marzo pasado y… pic.twitter.com/bozhy1Bvlg Asimismo, se ha señalado la participación de Walter Daniel Melara como el principal cómplice. «Fue intervenido por nuestros agentes, admitió que él era el encargado de deshacerse del teléfono de la víctima ‘porque tenía clavo’», explicó la FGR. Según lo revelado por las investigaciones, el suceso se desencadenó cuando la víctima informó a Cáceres que se dirigía desde Santa Isabel Ishuatán hacia el centro de San Julián para retirar una remesa de $2,500 que le había enviado uno de sus hijos que reside en Estados Unidos. Flores solicitó un taxi para llevar algunas pertenencias a su madre. Trágicamente, al salir, se encontró con Cáceres, quien, según la investigación, la habría asesinado. Su familia reportó la desaparición de Flores cuando ella no regresó. Las autoridades han señalado que al menos 3 personas más han sido detenidas y están siendo procesadas por este caso.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2144,6 +2558,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>El ministro de Seguridad, Gustavo Villatoro, informó sobre la captura de Eduardo Antonio Vásquez Menéndez, alias Piropo, pandillero de la 18, quien fue ubicado en Guatemala. «Tras la intervención de nuestra Policía, en coordinación con las autoridades de Guatemala, hemos ubicado y capturado a Eduardo Antonio Vásquez Menéndez, alias Piropo, miembro de la pandilla 18, quien intentó refugiarse en dicho país y cuenta con antecedentes vigentes de dos homicidios cometidos», indicó el funcionario. Villatoro señaló que el antiguo sistema judicial permitió que pandilleros como Vásquez Menéndez continuaran en libertad y lograran escapar a otros países, aseguró que con las leyes actuales esto no será posible. En tiempos pasados, en que las leyes perversas nos obligaban a poner en libertad a un criminal condenado porque la sentencia no estaba firme, ciertas organizaciones carroñeras estaban a sus anchas porque el Estado actuaba contra la sociedad.Tras la intervención de nuestra… pic.twitter.com/Nt81YEQjU0 «En tiempos pasados, en que las leyes perversas nos obligaban a poner en libertad a un criminal condenado porque la sentencia no estaba firme, ciertas organizaciones carroñeras estaban a sus anchas porque el Estado actuaba contra la sociedad», apuntó el ministro. Villatoro afirmó que los responsables de cada homicidio cometido en el país pagarán con décadas en prisión. «No vamos a permitir que ningún asesino como este vuelva a nuestras comunidades, nos encargaremos de que pague con décadas en prisión por cada delito cometido», expresó el funcionario.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2228,6 +2657,21 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre la misma.</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Una estructura de 22 pandilleros de la clica Altos Crazy Locos Salvatruchos, que delinquía en Ciudad Delgado, Ayutuxtepeque y Mejicanos, es enjuiciada por asesinar a Ruth Nohemy S. en Altos de Santa María, de Villa Mariona, Ciudad Delgado, el 9 de noviembre de 2020. La víctima, preguntó a miembros de esa clica, qué habían hecho a su pareja, José Alexander Pérez García, alias «Lobo», quien también era miembro de esa pandilla. Ella tenía información que los mismos compinches de pandilla lo habían asesinado y comenzó a divulgar entre la gente de lo ocurrido, cuando los miembros de la clica se enteraron que la mujer los andaba evidenciando decidieron asesinarla para silenciarla. Tras planificar el crimen irrumpieron la casa de Ruth Nohemy S. y cometieron el hecho con lujo de barbarie, la orden era asesinarla junto a su hijo de cuatro meses, pero al final, los pandilleros se fueron del lugar y el bebé de cuatro meses permaneció tres horas encima del cadáver de su madre, hasta que vecinos informaron del hecho a las autoridades. Por no haber hecho lo que le ordenaron, la clica asesinó a Efraín Bolaños, alias «Twister» lo tomaron como una traición a la pandilla. Después de 14 días del feminicidio de Ruth Nohemy S. las autoridades encontraron el cadáver de su compañero de vida en una fosa clandestina. Ese feminicidio es uno de los 31 delitos que el tribunal está conociendo en contra de la estructura que estuvo delinquiendo en Altos de Santa María, Altos de Santa Marta y Altos de Santa Laura, El Laurel y colonia Divino Salvador, que están ubicadas a las orillas de la calle a Mariona. Además del feminicidio agravado, el ministerio público acusa a los pandilleros por homicidio agravado, extorsión, agrupaciones ilícitas y otros hechos de crimen organizado. Testimonios, prueba científica y pericias, vinculan a los terroristas en la serie de delitos que investigadores de la Policía Nacional Civil (PNC) indagaron en los tres municipios ubicados al norte de San Salvador. Agrupaciones ilícitas, es el delito en común que la Fiscalía General de la República atribuye a todos y para acreditar su permanencia a la Mara Salvatrucha, han incorporado un perfil de los imputados y su función en la estructura.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2309,6 +2753,21 @@
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>El Tribunal Quinto contra el Crimen Organizado de San Salvador, ha comenzado hoy el juicio a una estructura de 25 pandilleros de la Mara Salvatrucha que había estado delinquiendo en varias colonias de Mejicanos, Cuscatancingo y Ciudad Delgado. Se trata de la clica Altos Crazy Salvatruchos y según la acusación presentada por la Fiscalía General de la República consumaron 31 delitos en Altos de Santa María, Altos de Santa Marta y Altos de Santa Laura, El Laurel y colonia Divino Salvador, que están ubicadas a las orillas de la calle a Mariona. De los 31 ilícitos atribuidos hay casos de homicidio agravado, extorsión, agrupaciones ilícitas y feminicidio y otros hechos de crimen organizado que el ministerio público investigó con el apoyo de la Policía Nacional Civil (PNC). Uno de los casos conocidos por el tribunal, es el feminicidio de una mujer embarazada que los pandilleros asesinaron y por ese crimen la representación fiscal pretende que seas condenados a 50 años de prisión. El ministerio público ha ofrecido abundante prueba para acreditar cada uno de los delitos que la clica cometió, hay testimonio, pericias, prueba científica y tecnológica.</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
         </is>
       </c>
     </row>
@@ -2401,6 +2860,21 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si la información es confiable o no.</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>El Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para las Mujeres de Santa Ana, condenó a 90 años de cárcel a Miguel Antonio Díaz Castro por haber asesinado a su excompañera de vida y su hijo de tres años. Al finalizar la vista pública el tribunal fallo imponiéndole 40 años por el feminicidio agravado de su expareja y 50 años por el homicidio agravado de su hijo de tres años. En el juicio, la Fiscalía probó que el imputado cometió el doble crimen el 1 de noviembre de 2022 en Nahuizalco, departamento de Sonsonate. El ministerio público estableció que la víctima y su hijo estaban en su casa cuando Díaz Castro llegó a discutir con ella y la disparó en varias ocasiones, luego se dirigió a su hijo para asfixiarlo. Después de consumar el hecho el imputado llamó a la Policía fingiendo que había sido amenazado por pandillas de ese lugar para despistar a las autoridades y desligarse del doble crimen.</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2485,6 +2959,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las mismas.</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>El alcalde Mario Durán alista una ordenanza municipal para dispensar intereses moratorios a los habitantes del nuevo municipio de San Salvador Centro que no estén al día con el pago de tasas por la prestación de servicios. Carlos Palacios, director de Finanzas de la alcaldía de San Salvador, dijo a «Diario El Salvador» que el nuevo concejo municipal conocerá el instrumento jurídico una vez se haya instalado el 1.º de mayo venidero, mes en el que comenzaría a tener efecto. «Esta ordenanza de dispensa temporal de intereses moratorios recae sobre las tasas municipales que se cancelan al municipio», dijo Palacios, sosteniendo que los beneficiarios de la ordenanza serán los propietarios arrendatarios de inmuebles. San Salvador Centro estará conformado por los distritos de San Salvador, Ciudad Delgado, Mejicanos, Cuscatancingo y Ayutuxtepeque, como resultado de la nueva división político-administrativa que tendrá el país desde el 1.º de mayo entrante. «Vamos a elaborar una propuesta que sea integral y que conlleve el acompañamiento de esta estrategia que fomente la contribución y el estado de solvencia también de todos los demás municipios que se convertirán en distritos y que van a conformar San Salvador Centro», adelantó el funcionario. Palacios no descartó que esta ordenanza municipal entre en vigor en los primeros 15 días de mayo próximo; es decir, será una de las primeras medidas de la nueva administración municipal a favor de los contribuyentes. Las tasas municipales se pagan por prestación de servicios que da la comuna en concepto de alumbrado público, ornato, aseo, recolección y disposición final de desechos sólidos y mantenimiento de parques y zonas verdes. Palacios aseguró que la ordenanza permitirá a los contribuyentes morosos realizar el pago de las tasas sin ningún recargo y sin ningún interés, y solicitar planes de pago según el monto adeuda[1]do a la municipalidad, para un plazo que no sobrepase los 12 meses calendario. «Tienen esta oportunidad de normalizar y actualizar su situación de mora, y todo ese pago se traducirá en servicios que recibirán en el día a día y en obras» en las comunidades, sostuvo. San Salvador, la ciudad capital gobernada por Durán, aplica actualmente una ordenanza para dispensar intereses moratorios a quienes no están al día con el pago de las tasas.</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2568,6 +3057,21 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de cita de fuentes.</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>El Juzgado Especializado de Sentencia de la Mujer de San Salvador, comenzó este miércoles el juicio a Peter Wachowsky, acusado de haber asesinado a su exesposa Yanci Urbina, exdiputada del FMLN. En el juicio que tiene reserva total, la Fiscalía General de la República pretende que al culminar la vista pública se le imponga la pena máxima de 50 años de prisión por el delito de feminicidio agravado. Urbina fue asesinada el 29 de mayo de 2022 en Antiguo Cuscatlán, La Libertad, al momento de la inspección y levantamiento de cadáver el imputado aportó información falsa para despistar a las autoridades y desligarse del caso. Pero cuando las investigaciones fueron ampliadas los investigadores hallaron una serie de contradicciones que al final los llevó a perfilar a Peter Wachowsky, como el único sospechoso y el ministerio público ordenó que fuera detenido el 14 de junio de 2022, desde esa fecha se ha mantenido en prisión. Al inicio se dijo que la exdiputada había sufrido un paro cardiaco y un accidente en su casa, pero posteriormente con la autopsia se determinó que había sido asesinada de golpes contundentes. Cuando Wachowsky fue entrevistado por investigadores expuso algunas coartadas, pero una reconstrucción de los hechos arrojó indicios claros de su involucramiento. La autopsia que practicó el Instituto de Medicina Legal evidenció la existencia de mano criminal, se dictaminó hasta el tiempo que Urbina tenía de haber fallecido al momento del reconocimiento de cadáver.</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2654,6 +3158,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre la misma.</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Un joven adulto fue acusado el miércoles en Francia de haber asesinado a su compañera, con el fin de vivir una relación con una supuesta mujer de quien se había enamorado en internet y que resultó ser un estafador sentimental. El individuo nacido en 1994, empleado técnico de una alcaldía, reconoció haber planeado el crimen para poder «concretar» su relación virtual y afirmó que «lamentaba»  su acción, señaló en un comunicado la Fiscalía de Boulogne-sur-Mer (norte). La víctima, enfermera en una residencia de ancianos, nacida en 1995, fue hallada muerta el 28 de enero en el domicilio de la pareja, en la localidad de Beussent, con «heridas en el torso». Fue su propio compañero quien llamó a los gendarmes, asegurando que todo había ocurrido cuando se ausentó para ir a comprar pan, probablemente con fines de robo dada la desaparición de una alcancía. Pero la investigación descartó esa hipótesis y acusó al hombre, que «mantenía una relación afectiva en internet» con una persona de la cual ignoraba su verdadera identidad. Según el diario Le Parisien, que reveló el caso, esa pasión virtual se presentaba con el nombre de Béatrice Leroux, comerciante en la ciudad de Brest. La supuesta amante resultó ser un personaje ficticio creado por un estafador emocional, probablemente basado en Costa de Marfil, que había logrado que su enamorado le enviase 2.200 euros (unos 2.400 dólares). Numerosas bandas criminales que operan desde África occidental se especializan en estafas por internet, muchas veces creando fuertes vínculos afectivos con las personas contactadas. Francia registra en promedio un feminicidio cada tres días. El año pasado se contabilizaron 94.</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2740,6 +3259,43 @@
           <t>La información no contiene citas a las fuentes de información, por lo que no se puede analizar la información de la misma.</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Saúl Martínez
+Corresponsal
+@DiarioCoLatino
+La avenida Constitución fue el punto de encuentro para diversas organizaciones que representan la lucha social, laboral y sindical, en Sevilla, España, durante el primero de mayo, Día Internacional del Trabajo.
+Mejores condiciones laborales y salariales son de las principales demandas que las organizaciones han hecho en un breve recorrido de manera pacífica.
+Juan Bautista Gines, secretario general de UGT, Andalucía, enfatizó que es momento de avanzar en los retos laborales y sociales, donde también es urgente denunciar las situaciones de precariedad y pobreza en la que viven muchas personas, quienes en el pleno siglo XXI no tienen sustento para comer.
+Actualmente, son cerca de 21 millones de trabajadores afiliados a la Seguridad Social en Sevilla, de los cuales más de 10 millones son mujeres.
+“No queremos que las trabajadoras cobren 20% menos por el hecho de ser mujer, no queremos que los jóvenes emigren por no tener oportunidades de empleo, siendo los jóvenes los más preparados en esta década,  también exigimos un alto a los  casos de feminicidios”, acotó Gines.
+La UGT explica que los casos de despidos no se pueden seguir dando a conveniencia de las empresas, ya que este representa un fuerte impacto en las familias, sobre todo, en el tema de la canasta alimenticia.
+El dirigente sindical agregó que los altos costos de los alimentos únicamente benefician a las cadenas de alimentación, a costa de la clase obrera, donde a diario “hunden”, en la miseria a los agricultores, productores, trabajadores y trabajadoras.
+“Tenemos que seguir luchando, porque el salario mínimo es ley para todos y se debe de cumplir al igual que la ley de prevención de Riesgos Laborales, que muchas veces no se cumple, provocando la muerte de nuestros trabajadores”, detalló Juan Bautista Gines.
+La UGT denuncia que hay muchos trabajadores y trabajadoras que van a trabajar y no vuelven vivos, debido a que no les ponen las medidas de seguridad en sus lugares de trabajo.
+La UGT hizo el llamado a las instancias correspondientes para que distribuyan correctamente a los inspectores de trabajo según  las necesidades de cada provincia, esto debido a que no tienen un control del mercado laboral, con el cual se podrían evitar accidentes de trabajo.
+Durante la concentración las organizaciones aprovecharon  para extender su solidaridad ante los pueblos en situaciones de conflicto entre ellos el Pueblo Saharaui, Cuba y Palestina.
+“Ayer 51 personas fallecieron, tras 10 días transportándose en un cayuco, buscando las Islas Canarias con el fin de tener una vida mejor”, informó Carlos Aristu, Secretario General de Comisiones Obreras de la UGT.
+“Al pueblo Saharaui, que después de décadas de exilio, hoy se manifiesta, anhelando volver al lugar de donde nunca tuvo que ser expulsado, asimismo a los millones de hombres y mujeres de Cuba que hoy entrada la madrugada ocupan las principales calles de la ciudad, en un contexto de más de 60 años, de un cruel bloqueo, económico, comercial, financiero y diplomático y al pueblo de Palestina que lleva décadas sufriendo ante los gobiernos de Israel y de la ceguera de la comunidad internacional, donde hoy sufre un genocidio televisado, ¡viva  la lucha del pueblo de Palestina! Reconózcase ya al Estado soberano de Palestina”, concluyó.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2827,6 +3383,34 @@
 * Policía Nacional Civil (PNC)</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Redacción YSUCA
+El Observatorio de Violencia de la Organización Mujeres Salvadoreñas por la Paz (ORMUSA) ha registrado al menos 10 muertes violentas en los que va del año 2024.
+Silvia Juárez, de ORMUSA, dijo que en el monitoreo de medios del Observatorio se han identificado muertes violentas como feminicidios y suicidios.
+ORMUSA ha registrado 8 feminicidios, dos de ellos en niñas menores de 10 años; y dos suicidios, uno de una mujer en Antiguo Cuscatlán y otro de una niña en El Congo.
+En el año 2023, el Observatorio de la Violencia de Género de la Organización de Mujeres Salvadoreñas por la Paz informó que se registró un total de 46 feminicidios.
+Este número lo obtienen únicamente con el monitoreo de medios de comunicación, debido a que desde el año 2019 los informes oficiales de las instituciones de El Salvador no han brindado datos oficiales sobre muertes violentas.
+El Observatorio Universitario de Derechos Humanos de la UCA (OUDH) señaló que la Policía Nacional Civil (PNC) comunicó solo 21 muertes violentas de mujeres en 2023.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2904,6 +3488,24 @@
       <c r="N32" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información sobre las fuentes de información de la noticia.</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TeleSUR Miles de trabajadores salieron este sábado a las calles en una nueva ronda de protestas contra el plan de reforma de pensiones del Gobierno de Francia, mientras continúan los paros el algunos sectores, en particular, refinerías,  transporte público y recolección de basura. Por séptima vez en menos de dos meses, París y varias ciudades francesas son el escenario de …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
         </is>
       </c>
     </row>
@@ -2987,6 +3589,49 @@
           <t>La información no contiene fuentes de información, por lo que no se puede proporcionar la cita de las mismas.</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Artículos relacionados
+Piden investigacion exhaustiva en el caso lideresa del MSM
+20 abril, 2024
+Organizaciones piden justicia en feminicidio de lideresa del MSM
+2 abril, 2024
+Encuentran muerta a lideresa desaparecida
+27 marzo, 2024
+Redacción Nacionales
+@DiarioCoLatino
+El Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para las Mujeres de San Salvador condenó a Antonio Guadalupe Aquino Reyes, de 39 años, a 15 años de prisión por el feminicidio agravado tentado en perjuicio de su pareja.
+Además, Aquino fue condenado a un año de prisión por el delito de desobediencia en caso de medidas cautelares o de protección. La juzgadora consideró que se acreditaron los delitos y la violencia contra la víctima antes del hecho.
+Los hechos ocurrieron el 15 de junio de 2020 en una comunidad del municipio de Verapaz en San Vicente. Aquino llegó a la vivienda familiar en estado de ebriedad y con un corvo con la intención de quitarle la vida a su pareja.
+La víctima resultó con lesiones en el brazo y uno de sus dedos al defenderse del ataque para evitar ser herida en el rostro. Aquino fue neutralizado por familiares, quienes lo despojaron del machete y llamaron a la policía, donde fue detenido en flagrancia.
+Pandilleros a juicio por 8 homicidios
+En otro caso judicial, varios pandilleros enfrentarán juicio por ocho homicidios. También serán acusados por otros delitos como extorsiones y tráfico ilícito.
+Un total de 33 pandilleros de la Mara Salvatrucha (MS) fueron enviados a juicio por su probable participación en una serie de delitos que fueron cometidos entre los años 2015 y 2020, en diferentes puntos del departamento de La Unión.
+Luego de la audiencia preliminar realizada por el Tribunal Contra el Crimen Organizado “A” de San Miguel, el juez que conoció el caso dijo existir suficientes elementos de prueba para que el caso pase a la siguiente etapa del proceso.
+A los imputados se les acusa de su probable participación en ocho homicidios agravados, siete extorsiones agravadas, cuatro casos de tráfico ilícito, cinco casos de proposición y conspiración para cometer delito de homicidio agravado y organizaciones terroristas.
+Condenan a sujeto por asesinato en Chirilagua
+Luis Alonso Chicas González, junto a otros cuatro sujetos, interceptaron a la víctima en abril de 2019, en Chirilagua, San Miguel, y bajo amenazas se lo llevaron y le dispararon en múltiples ocasiones hasta causarle la muerte.
+Posteriormente, Chicas y los otros cuatro sujetos recogieron los casquillos para que no hubiera evidencia y huyeron del lugar, pero un testigo con régimen de protección logró identificar a Chicas González como uno de los que participó en el hecho.
+El Tribunal Segundo de Sentencia de San Miguel, ante la abundante prueba, condenó a Luis Alonso Chicas González a una pena de 25 años de cárcel y giró orden de captura en su contra ya que el imputado, en calidad de rebelde, fue juzgado sin estar presente.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3069,6 +3714,30 @@
 La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        La Policía Nacional Civil (PNC) dio a conocer la noche del sábado el feminicidio de una mujer en San Miguel a manos de su compañero de vida, quien después intentó suicidarse. 
+Según la investigación preliminar, el hombre, identificado como Jorge Castro Cañas, disparó a la mujer, cuya identidad y edad no fueron facilitadas, después de una discusión ocurrida en el cantón El Zamorano. 
+Tras el asesinato, Castro Cañas intentó suicidarse, pero sobrevivió. La PNC informó que fue trasladado al Hospital Nacional "San Juan de Dios" de San Miguel, donde falleció. 
+El Salvador no cuenta con estadísticas oficiales y actualizadas por el Ministerio de Justicia y Seguridad Pública sobre la violencia machista, desde que la PNC declaró en reserva la información en 2021. 
+En el reporte diario de la PNC del sábado 27 de abril se incluyó el caso como homicidio, a pesar de que el consenso internacional señala que se debe realizar una separación pues los feminicidios ocurren, a diferencia de otros asesinatos, como consecuencia de la violencia de género. 
+El registro independiente de la Organización de Mujeres Salvadoreñas por la Paz (Ormusa) reporta que entre el 1 de enero y el 10 de marzo de 2024 han ocurrido siete feminicidios, de los cuales dos víctimas eran niñas menores de edad. 
+A finales de marzo se generó conmoción por la muerte de Rosa Elvira Flores Martínez, cuyos restos fueron encontrados en el cantón Los Lagartos del distrito de San Julián ocho días después de su desaparición. 
+En este caso, la Fiscalía General de la República (FGR) acusa a su supuesta pareja, quien además le robó $2,500.
+</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3153,6 +3822,29 @@
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene ninguna cita de fuentes de información, por lo que no se puede determinar si la información es cierta o no.</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para las Mujeres de San Salvador suspendió este lunes por segunda vez el juicio en contra de Michael Alejandro Castillo Murga, acusado del feminicidio agravado de Melvi Fernanda Nájera Quezada y el homicidio tentado de su hijo. 
+Según confirmaron fuentes ligadas al caso, la suspensión de la audiencia de vista pública fue porque la representación de la Fiscalía General de la República (FGR) solicitó la reprogramación. De momento se desconoce el motivo de la solicitud para reprogramar la diligencia. 
+Esta es la segunda vez que se suspende e la diligencia, ya que el pasado 14 de febrero se aplazó, debido a la incomparecencia de la Fiscalía General de la República, ya que eran parte del escrutinio final de las elecciones presidenciales y de diputados 2024.
+¿Cómo ocurrió el feminicidio?
+Según la acusación de la Fiscalía, Fernanda Nájera, de 23 años, fue encontrada muerta con múltiples lesiones ocasionadas con arma blanca, el 1 de febrero, en el kilómetro 99 de la carretera que de Ahuachapán conduce a Sonsonate, en la jurisdicción del cantón El Molino, del municipio de Concepción de Ataco. El hijo de la víctima, de un año y siete meses, fue encontrado el 4 de febrero en un cafetal en estado de abandono y deshidratado 
+Según el relato de la madre de Nájera, Michael Alejandro Castillo Murgas llegó a su casa el 31 de enero de 2019 a traer a su hija y a su nieto, supuestamente se dirigían a una diligencia para otorgarle su apellido al menor, sin embargo, nunca regresaron. 
+Michael Alejandro Castillo Murgas es procesado en calidad de ausente. Sobre él pesa una orden de captura internacional.
+</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
         </is>
       </c>
     </row>
@@ -3238,6 +3930,33 @@
       <c r="N36" t="inlineStr">
         <is>
           <t>La información de la noticia no indica las fuentes de información, por lo que no se puede analizar la información de la misma para determinar si las fuentes de información son confiables.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado de Paz de San Julián, en Sonsonate, decretó en audiencia inicial la detención provisional contra los implicados en el feminicidio agravado de la defensora de derechos humanos Rosa Elvira Flores Martínez, mientras el caso pasa a la etapa de instrucción. 
+En el caso es acusado Edwin Antonio Cáceres Ramírez (en calidad de ausente), la supuesta pareja de la defensora, contra quien el juzgado le giró orden de detención por estar prófugo de la justicia. 
+Lizeth del Carmen Hernández Coreto, Karla Esmeralda Siguach García, Daniel Adonay García Mauricio y Walter Daniel Melara seguirían en la cárcel por estar implicados en el hecho por el delito de encubrimiento. 
+“En el proceso se determinó que Cáceres le quitó el teléfono celular a la víctima y lo entregó a una tercera persona (Walter Melara) para que se deshiciera de él y también le decomisó el dinero... Los demás imputados procedieron a movilizar a Cáceres hasta un punto ciego de la frontera para encubrirlo y que pudiera huir de la justicia salvadoreña”, indicó la Fiscalía General de la República.  
+Rosa Elvira Flores integró el Movimiento Salvadoreño de Mujeres de Sonsonate.
+La FGR explicó en su acusación que la víctima le informó el 19 de marzo a Edwin Cáceres que se dirigiría a Santa Isabel Ishuatán, hacia el centro de San Julián, a retirar una remesa de $2,500, que le había sido enviada por uno de los hijos de la víctima que vive en Estados Unidos. 
+Rosa Elvira Flores solicitó un taxi para trasladar unas cosas a su madre y, al salir, se reunió con Cáceres, quien procedió a cometer el feminicidio. 
+Las investigaciones arrojan que la líder comunitaria del Movimiento Salvadoreño de Mujeres (MSM) desapareció el 19 de marzo y fue encontrada hasta el 27 de marzo en un cañal de San Julián. 
+“Días después de que la familia interpusiera la denuncia de la desaparición, se encontraron restos óseos al interior de un cañal ubicado en San Julián, los cuales fueron sometidos a pruebas de ADN y ratificaron que pertenecían a la víctima, quien falleció de forma violenta con un golpe en el cráneo”, sostiene la Fiscalía. 
+Cuando se informó de hallazgo del cuerpo de la mujer, la Policía Nacional Civil (PNC) no incluyó el hecho a las estadísticas de homicidios porque dijo que era imposible determinar la causa de la muerte pero, el pasado jueves, la institución reconoció que fue homicidio e incluyó el hecho a las estadísticas diarias en fecha posterior. 
+Rosa Elvira tenía 47 años, era integrante del Movimiento Salvadoreño de Mujeres, que reúne diferentes organizaciones comunitarias que velan por los derechos de niñas, jóvenes y mujeres de Sonsonate.
+</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
         </is>
       </c>
     </row>
@@ -3326,6 +4045,34 @@
           <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para las Mujeres, de San Salvador, instaló ayer por segunda vez un juicio en contra de Rodrigo Alfredo Pérez González, de 39 años, acusado del feminicidio agravado de su expareja Edi Marcela Pérez Girón, un hecho violento ocurrido en 2016. 
+El procesado fue condenado en 2021 a una pena de 35 años de cárcel, pero los defensores apelaron la decisión y la Sala de lo Penal de la Corte Suprema de Justicia anuló la sentencia y ordenó repetir el juicio. 
+Según la defensa, apelaron porque en el primer juicio no se valoró e incorporó una prueba. 
+Ayer, durante la primera jornada de audiencia se incorporaron los alegatos iniciales y se inició con la prueba testimonial de las partes. La audiencia entró en receso y continuará el próximo 26 de abril con la declaración de testigos.  
+Edi Marcela Pérez Girón fue víctima de feminicidio en 2016.
+A la expareja de la víctima, se le procesa por un hecho ocurrido el 19 de noviembre del 2016 ya que, según la relación de hechos de la Fiscalía, el sujeto llegó con su vehículo a la casa de la víctima para llevarla a un compromiso social, sin embargo, luego de llevársela la familia nunca supo nada de la joven. 
+Fue localizada fallecido a causa de “múltiples golpes” cerca de un basurero de la calle a Huizúcar. Las investigaciones revelan que la víctima fue asesinada en otro lugar y, ese mismo día, su cadáver fue lanzado a la orilla de la carretera. 
+Tras el asesinato de Edith Marcela, el principal sospechoso desapareció y no fue sino hasta el 21 de diciembre de 2019, tres años después del hecho, que fue capturado cuando ingresaba al país, procedente de Honduras, por la frontera terrestre de El Amatillo, en La Unión.
+Búsqueda de impunidad
+Previo al inicio del juicio, organizaciones feministas se concentraron a las fuerzas del Centro Judicial “Isidro Menéndez” para denunciar la reapertura del caso, que consideran busca la impunidad al beneficiar al feminicida. 
+“Llama la atención que en este contexto donde hay casos que no han tenido ninguna sentencia y que exista toda una narrativa del gobierno en negar los feminicidios y los homicidios, abran casos que ya tienen sentencia”, aseguró Keyla Cáceres, de la Colectiva Feminista. 
+Aseguraron que en el primer juicio se demostró con pruebas la culpabilidad del acusado y que como resultado se le impuso 35 años de cárcel. Exhortaron al sistema de justicia a mantener en firme la condena y no liberar al acusado.
+</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3412,6 +4159,28 @@
 **No se utilizan otras fuentes de información.**</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Al menos 11 casos de feminicidio se dieron en El Salvador entre enero y marzo de 2024, de acuerdo información proporcionada este martes a EFE por la Organización de Mujeres Salvadoreñas por la Paz (Ormusa) que alerta sobre "una tendencia de desprotección" a mujeres en el país centroamericano. 
+Entre las muertes, indicó Silvia Juárez coordinadora de programas de la organización feminista Ormusa, está la de una defensora de derechos humanos en la localidad de Sonsonate (este), cuyos restos fueron encontrados siete días después de que se reportara su desaparición, según información de la prensa local. 
+Juárez aseguró que "la tendencia en el año sobre la desprotección e inseguridad de las mujeres se mantiene" y alertó que "esto pone en evidencia que la vida de las mujeres aún sigue en alta desprotección y que la tendencia, a pesar de la baja de homicidios, el número de muertes violentas de mujeres y de feminicidios sigue con un saldo en rojo". 
+Actualmente, las instituciones estatales han puesto bajo secreto o niegan el acceso a datos de la violencia, incluida la información sobre feminicidios. 
+Representantes de un consorcio feminista, integrado por cinco organizaciones no gubernamentales de mujeres y una asociación comunal, alertaron en marzo pasado sobre el aumento en El Salvador de los asesinatos de mujeres perpetradas por sus parejas y lamentaron "el silencio" de las autoridades ante esta situación. 
+Unos 38 feminicidios y muertes violentas de mujeres se registraron en El Salvador entre enero y octubre de 2023, de acuerdo con datos del Observatorio de Violencia Contra la Mujer de Ormusa.
+</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3494,6 +4263,32 @@
           <t>La información de la noticia no contiene fuentes de información, por lo que no se puede analizar la información de la misma para determinar su precisión.</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación de San Salvador suspendió hasta nuevo aviso el juicio contra Peter Wachowski, quien es enjuiciado del feminicidio de su exesposa, Yancy Urbina, la exdiputado del FMLN. 
+Según fuentes judiciales, el juicio entró en receso el pasado viernes 12 abril debido a que la jueza solicitó una prueba "para mejor proveer". 
+El juicio se reanudará una vez la prueba sea incorporada, y será hasta ese momento procesal que la jueza notificará a las partes la nueva fecha para reanudar el juicio. 
+La vista pública continuará con la presentación de los alegatos finales, donde la Fiscalía General de la República solicitará la sentencia condenatoria y la defensa solicitará sus argumentos para obtener la sentencia absolutoria. 
+Son alrededor de 26 testigos tanto de cargo como de descargo los que han declarado durante la vista pública, entre ellos, peritos e investigadores. 
+La defensa sostiene que espera obtener una sentencia absolutoria, debido a que la Fiscalía no cuenta con los elementos de prueba para sostener la acusación contra Wachowski. 
+La exdiputada Yanci Urbina murió el pasado 29 de mayo del 2022, en su casa de habitación, en Antiguo Cuscatlán, departamento de La Libertad, aparentemente en un accidente, luego de una caída que posteriormente le habría provocado un paro cardíaco. 
+La Fiscalía sostiene que la muerte de la exdiputada se trató de un acto de violencia de género y no de un accidente por una caída. 
+En el transcurso del proceso, la Fiscalía ha manifestado que el cuerpo de Urbina tenía múltiples moretones, un golpe con objeto contundente y el tabique nasal quebrado. 
+El juicio inició el 3 de abril, inicialmente estaba programado para hacerse en dos días, pero debido a la cantidad de testigos se alargó.
+</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3578,6 +4373,30 @@
           <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de las fuentes de información.</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Especializado de Sentencia para una Vida Libre de Violencia y Discriminación para las Mujeres de San Salvador ha programado para el próximo 22 de abril el juicio en contra de Michael Alejandro Castillo Murga, acusado del feminicidio agravado de Melvi Fernanda Nájera Quezada y el homicidio tentado de su hijo. 
+En un principio el caso era conocido por un juzgado especializado de Santa Ana, sin embargo, por una resolución de una Cámara de lo Penal se trasladó el caso hacia San Salvador. 
+Es la segunda programación del caso, ya que el pasado 14 de febrero se suspendió, debido a la incomparecencia de la Fiscalía General de la República, ya que eran parte del escrutinio final de las elecciones presidenciales y de diputados 2024. 
+Según la acusación de la Fiscalía, Fernanda Nájera de 23 años, fue encontrada muerta con múltiples lesiones ocasionadas con arma blanca, el 1 de febrero, en el kilómetro 99 de la carretera que de Ahuachapán conduce a Sonsonate, en la jurisdicción del cantón El Molino, del municipio de Concepción de Ataco. 
+El hijo de la víctima, de un año y siete meses, fue encontrado el 4 de febrero en un cafetal en estado de abandono y deshidratado. 
+Según el relato de la madre de Nájera, Michael Alejandro Castillo Murgas llegó a su casa el 31 de enero de 2019 a traer a su hija y a su nieto, supuestamente se dirigían a una diligencia para otorgarle su apellido al menor, sin embargo, nunca regresaron. 
+La Fiscalía General de la República acusó inicialmente a cinco personas por este caso, a Castillo Murgas por el delito de feminicidio agravado y homicidio tentado en perjuicio del hijo de la víctima. 
+Castillo Murgas fue declarado rebelde y sobre él pesa una orden de captura internacional. El proceso lo enfrenta en calidad de reo ausente. Sobre el resto de procesados se desconoce en qué etapa avanzan el proceso penal.
+</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3659,6 +4478,24 @@
           <t>La información no contiene citas de fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información de la noticia.</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@AlmaCoLatino El titular del Ministerio de Obras Públicas (MOP), rx Gerson Martínez, illness y representantes de la Agencia de Cooperación Internacional del Japón (JICA), dieron a conocer los avances del Proyecto GENSAI, que viene a fortalecer las capacidades para la mitigación de riesgos en el país. Martínez explicó que el programa GENSAI surgió en enero de 2012 ante la vulnerabilidad …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3744,6 +4581,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Este jueves, las autoridades reportaron la captura de Pio Antonio González, de 67 años de edad, quien según explicaron, trató de quitarle la vida a su pareja utilizando un corvo. La Policía Nacional Civil (PNC) detalló que la mujer, quien no fue identificada, sufrió lesiones y fue trasladada hasta el Hospital Regional San Juan de Dios, en San Miguel. «La víctima fue trasladada al Hospital Regional San Juan de Dios, con heridas graves en la cabeza, mandíbula y brazos», escribió la PNC en su cuenta de X. #DePaís La @PNCSV capturó a Pio Antonio González, de 67 años, por intento de feminicidio, en el caserío El Rebalse, de San Miguel. Según informó la Policía, este sujeto intentó asesinar a machetazos a su compañera de vida. La víctima fue trasladada al Hospital Regional San Juan… pic.twitter.com/yyjBbnYArU En hombre fue ubicado y capturado por agentes policiales en el caserío El Rebalse, de San Miguel, tras cometer las agresiones contra su compañera de vida.   Las autoridades indicaron que Gonzáles será procesado por intento de feminicidio.</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Feminicidio</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3816,6 +4668,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Este miércoles, la Fiscalía General de la República (FGR) notificó que dos pandilleros de la MS-13 recibieron condenas de 25 y 29 años de cárcel por delitos de homicidio agravado y agrupaciones ilícitas. Los criminales fueron identificados como Milton Geovanny Bautista Castillo (29 años de cárcel) y Víctor Alfonso Arias Rodas (25 años de cárcel). #CombateAPandillas | Estos dos pandilleros de la MS-13 fueron condenados a 29 y 25 años de cárcel respectivamente. Esto luego de ser declarados culpables del delito de homicidio agravado y agrupaciones ilícitas. Según las investigaciones, en septiembre de 2016, estos sujetos… pic.twitter.com/LD6kdIus3A La FGR explicó que los hechos ocurrieron en septiembre del año 2016, cuando ambos criminales «privaron de libertad a la víctima y la llevaron a un terreno baldío en donde la estrangularon hasta quitarle la vida». Castillo fue condenado por el delito de agrupaciones ilícitas y homicidio agravado, mientras que Rodas únicamente por homicidio agravado.</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3888,6 +4755,21 @@
           <t>** N/A</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>La Policía Nacional Civil (PNC) confirmó este miércoles la detención de un hombre acusado de un caso de homicidio y quien fue deportado desde Estados Unidos. El detenido responde al nombre de Juan Alexander Sandoval Flores, quien cuenta con una orden de captura por el delito de homicidio agravado. Juan Alexander Sandoval Flores, cuenta con orden de captura por el delito de homicidio agravado. Fue deportado desde los Estados Unidos hoy, donde había huido para no pagar por su crimen. Será puesto a la orden del Juzgado Quinto de Instrucción de San Salvador.… pic.twitter.com/8yg8MTVPgb La institución policial señaló que el sujeto fue deportado desde territorio estadounidense, donde había huido en un intento por escapar de las autoridades. De igual forma, la Policía aseguró que Sandoval Flores será puesto a disposición del Juzgado Quinto de Instrucción de San Salvador para que enfrente el proceso en su contra.</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3960,6 +4842,21 @@
           <t>** No se indica la fuente de información.</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Un pandillero que se dedicaba a reclutar niños y jóvenes para grupos terroristas continuará en prisión luego de cumplir una pena por homicidio en el centro penal de Cuidad Barrios, en San Miguel, según señaló la Policía Nacional Civil (PNC). El detenido responde al nombre de Gerson Josué Guidos Escobar, alias Joker, perfilado como miembro activo de la pandilla MS13, con grado de gatillero y quien se encargaba de reclutar a niños y jóvenes para la padilla, en la colonia La Coruña, en Soyapango, San Salvador. Gerson Josué Guidos Escobar, alias Joker, es un gatillero de la MS13, quien hoy finalizó una condena por homicidio en el penal de Ciudad Barrios de San Miguel. Este terrorista, se encargaba de reclutar a niñas, niños y jóvenes para la pandilla en la colonia La Coruña de… pic.twitter.com/dL2SOJ7Yuo Este pandillero se encargaba también de enseñarle a los menores de edad el manejo de armas de fuego. Además, era el delegado para cuidar el armamento de la pandilla y entregarlo a otros terroristas, así como también de cobrar extorsiones. Este sujeto, según la institución policial, cumplió una pena por un caso de homicidio, pero será procesado nuevamente por el delito de agrupaciones ilícitas, por lo que será enviado al Centro de Confinamiento del Terrorismo (CECOT).</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -4032,6 +4929,21 @@
           <t>** N/A</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Por orden de la Cámara Cuarta de lo Penal de Santa Tecla, La Libertad, Mónica Michelle Carranza Muñoz, enfrentará juicio por la desaparición de dos repartidores de comida del restaurante China Wok. El tribunal superior emitió la resolución tras una apelación de la Fiscalía General de la República en la cual mostró su inconformidad por el sobreseimiento definitivo dictado a favor de la acusada. La Cámara ordenó una audiencia especial para que se decretara el auto de apertura a juicio por el delito de encubrimiento de homicidio de Diego Miguel Deleón Sabrían y Wilmer Vladimir Escalante. Los dos repartidores del restaurante de comida china fueron desaparecidos y posteriormente sus osamentas halladas en una fosa clandestina en el cantón El Limón, en enero del 2022. Tras las investigaciones, las autoridades descubrieron en la casa de la procesada, la motocicleta, el casco y la mochila de una de las víctimas, así como un arma de fuego y cuatro cajas de municiones. Todos esos elementos la vinculan al hecho y la Cámara consideró que su caso sea conocido en vista pública.</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4104,6 +5016,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>La disminución de homicidios en el país es atribuido al Plan Control Territorial (PCT), puesto en marcha el 20 de junio de 2019, y al régimen de excepción que fue aprobado por la Asamblea Legislativa.«Finalizamos el miércoles 15 de mayo, con 0 homicidios en el país», reiteró la policía desde sus redes sociales. Finalizamos el miércoles 15 de mayo, con 0 homicidios en el país. pic.twitter.com/2t87oP2rPI Cabe mencionar que el 2023 cerró como el año más seguro en la historia salvadoreña, luego de terminar con una tasa de 2.4 homicidios por cada 100,000 habitantes, una cifra muy distante con la que finalizó en 2015 cuando fue de 106.82 por cada 100,000 habitantes.Dichas estrategias de seguridad, en su primera fase, mostró buenos resultados al bajar el promedio de homicidios a diarios. El año pasado fue de 0.4 cada día.Según las estadísticas de la Fiscalía General de la República (FGR), las extorsiones se redujeron en un 57 % entre el 2022 y el 2023, con la implementación del régimen de excepción.</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4176,6 +5103,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Que las pandillas hayan sido desarticuladas es uno de los logros más destacables del régimen de excepción, esto se ha reflejado con la disminución de violencia homicida registrada en El Salvador y es que desde que se implementó la guerra contra pandillas, en marzo del 2022 a la fecha, se registran 500 días sin homicidios, y en toda la gestión del presidente Bukele suman 614. El último día en que no hubo homicidios al país fue el pasado 15 de mayo, con este nuevo registro se suman 7 jornadas sin crímenes contra la vida en este mes. En lo que va del año se acumulan 95 días libres de violencia homicida para sumar los 614 de toda la gestión Bukele. La población salvadoreña vive un ambiente de seguridad, desde que entró en vigor el régimen de excepción las autoridades han logrado combatir la ola de violencia en El Salvador a través diversas acciones. Esta medida, que fue solicitada por el presidente Bukele para reestablecer el orden y control territorial, se instauró tras un alza de homicidios cometidos entre el 25 y 26 de marzo de 2022, que ascendió a 76 crímenes contra la vida. El régimen sirvió para contrarrestar el accionar de las pandillas y salvaguardar la vida de la población. 17 diputados de oposición no apoyaron el decreto. Con estas disposiciones legales, las autoridades reforzaron acciones en busca de pandilleros, como patrullajes terrestres, marítimos y aéreos, además de controles vehiculares. De igual forma en ciertas zonas se mantiene presencia permanente de soldados y policías. La captura y el temor que sintieron las pandillas provocó una disminución de violencia que hasta ahora se mantiene. Por ejemplo, al finalizar el 2022, las autoridades registraron una baja considerable de homicidios, el promedio diario fue reducido a 1.35; de igual forma desde el 1.º de enero hasta el 31 de diciembre de 2022, las autoridades reportaron un total de 176 días con cero homicidios a escala nacional y se cerró con tasa anual de 7.8 por cada 100,000 habitantes. Bajo la guerra contra pandillas también se lograron semanas completas sin registro de homicidios. Por ejemplo, entre mayo y diciembre de 2022 hubo ocho periodos de al menos siete días consecutivos sin crímenes contra la vida. Finalizamos el miércoles 15 de mayo, con 0 homicidios en el país. pic.twitter.com/2t87oP2rPI Dichos efectivos resultados de seguridad se mantuvieron para el año pasado cuando se sumaron 247 días sin homicidios. La tasa anual de homicidios pasó de 53.31 por cada 100,000 habitantes en 2018 a reducirse a 2.4 en 2023 y 0.8 en este momento, la más baja en décadas. De igual forma, el 2023 sumó solo 154 homicidios, caso contrario con los Gobiernos del FMLN y ARENA que permitieron que las pandillas se hicieran de poder durante sus administraciones, con escaladas de violencia que contabilizaban miles de homicidios cada año. El ministro de Seguridad, Gustavo Villatoro ha dicho que con el régimen de excepción por primera vez en la historia las autoridades de Seguridad se pusieron un paso por delante de la criminalidad y se ha logrado frenar su accionar delictivo a nivel nacional. Desde que se inició el régimen, policías y soldados han aprehendido a más de 80,000 personas perfiladas como pandilleros y colaboradores, quienes son acusados de diversos delitos. Bajo esta medida también varios cabecillas y fundadores de clicas de pandillas han sido capturados lo que ha debilitado a esas estructuras criminales. Además de la baja de violencia homicida en el país durante el régimen, se ha atenuado a las maras con la incautación de $28 millones en efectivo, 4,088 armas de fuego de diferentes tipos, más de 8,000 vehículos y más de 20,000 celulares. Solo a la MS le han decomisado drogas por un valor equivalente a $157 millones, según lo ha judicializado la Fiscalía ante los diversos tribunales de Crimen Organizado. De igual forma, aproximadamente 14 toneladas de droga, que ascienden a un valor de $344 millones es lo que se ha decomisado a estas estructuras terroristas.</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4248,6 +5190,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>La Policía Nacional Civil (PNC) informó sobre la deportación y posterior captura de un pandillero de la MS, quien había huido a Nicaragua. «Carlos Roberto Delcid Cruz, alias Phantom, terrorista de la MS13, fue localizado en Nicaragua, donde huyó de forma ilegal para no ser capturado por la Guerra Contra Pandillas», indicó la corporación policial. Las autoridades informaron que Delcid Cruz tenía el rango de gatillero en la pandilla, es decir, era encargado de cometer los crímenes y delinquía en la zona oriente del país. Carlos Roberto Delcid Cruz, alias Phantom, terrorista de la MS13, fue localizado en Nicaragua, donde huyó de forma ilegal para no ser capturado por la #GuerraContraPandillas Era el gatillero, es decir, encargado de cometer los crímenes y delinquía en la zona oriente del país.… pic.twitter.com/zGbr0RXhlt «Fue entregado a nuestros agentes en la Frontera El Amatillo, La Unión y será procesado inicialmente por agrupaciones ilícitas, el CECOT espera», detalló la Policía. RECLAMADO POR HOMICIDIO ES DEPORTADO DE EE.UU.  La corporación policial también confirmó la detención de un hombre acusado de un caso de homicidio y quien fue deportado desde Estados Unidos. El detenido responde al nombre de Juan Alexander Sandoval Flores, quien cuenta con una orden de captura por el delito de homicidio agravado. La Policía informó que Sandoval Flores fue deportado desde territorio estadounidense, donde había huido en un intento por escapar de las autoridades. De igual forma, la Policía aseguró que el pandillero será puesto a disposición del Juzgado Quinto de Instrucción de San Salvador para que enfrente el proceso en su contra. Según las estadísticas de la Policía y la Fiscalía, entre el 27 de marzo de 2022 y el 28 de abril de 2024, en dos años de régimen de excepción, El Salvador ha recibido un total de 1,652 pandilleros deportados de países como Estados Unidos, México, Guatemala, Honduras, Costa Rica, Panamá, Nicaragua y Belice. «De acuerdo con datos de la Policía, el consolidado de pandilleros retornados y detenidos durante el régimen de excepción del 27 de marzo de 2022 al 28 de abril de 2024 son 1,652», indicó el fiscal general de la República, Rodolfo Delgado. El funcionario detalló que, de estos, 833 han sido catalogados como homeboy, 167 como colaboradores o chequeros y 652 todavía se investiga que posición ocupaban dentro de la estructura terrorista. «Los países de donde más han venido repatriados son de Estados Unidos 934, seguido de México con 151. De Guatemala se han recibido 75, de Honduras 33, de Panamá 14, de Costa Rica 13, de Nicaragua 2, y de Belice 2», explicó Delgado. El fiscal general indicó que las estadísticas dan cuentan que en el 2022 se recibieron 668 pandilleros deportados, en el 2023 un total de 725 y en el 2024 van 259.</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4320,6 +5277,21 @@
           <t>** No se indica la fuente de la información.</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Juzgado Especializado de Sentencia de la Mujer de Santa Ana, inició este miércoles la vista pública en contra de seis exmiembros del extinto Grupo de Reacción Policial (GRP), vinculados al feminicidio agravado de la agente Carla Ayala. El principal acusado es Juan Josué Castillo Arévalo, de indicativo «Samurai», autor directo del crimen cometido el 29 de diciembre del 2017, junto a él son enjuiciados otros cinco exagentes. Wilfredo Deras Hernández y Ovidio Antonio Pacheco, enfrentan la vista pública por el delito de feminicidio agravado en comisión por omisión, mientras que Julio César Flores Castro, Pablo Antonio Estrada Villalobos y Alex Obdulio López Martínez por incumplimiento de deberes. En el caso de «Samurai», es procesado como imputado ausente ante las reformas al Código Procesal Penal que permite a los jueces enjuiciar a prófugos. Los otros cinco habían sido exonerados pero la Fiscalía General de la República apeló ante la Cámara Especializada y presentó casación en la Sala de lo Penal para que se les hiciera un nuevo juicio. «Fiscalía cuenta con un elenco probatorio que consta de prueba pericial, documental y testimonial que va desfilar en esta vista pública para oportunamente establecer la responsabilidad civil de estas personas. La expectativa es obtener una sentencia condenatoria para cada uno de ellos», dijo uno fiscal de la Unidad Especializada Antipandillas y delitos de Homicidio. En las próximas dos semanas el ministerio público presentará testimonios documentos y pericias, la pretensión es que sean condenados hasta con penas de 50 años de cárcel. Según el expediente, la agente Carla Ayala, llegó la noche del 28 de diciembre de 2017, a una fiesta navideña en la base del entonces Grupo de Reacción Policial (GRP) y la madrugada del 29 del mismo mes murió tras recibir un disparo en la cabeza, supuestamente ejecutado por Juan Josué Castillo Arévalo. Cuando la Fiscalía presentó el dictamen de acusación dijo que la policía fue asesinada por un arrebato o enojo de «Samurai». Además de Arévalo Castillo, otros 13 imputados entre ellos policías que estaban asignados al extinto Grupo de Reacción Policial (GRP) han sido vinculados al caso, cinco de ellos y «Samurai», son enjuiciados desde este miércoles.</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4392,6 +5364,21 @@
           <t>** No se especifica la fuente de información.</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al menos ocho mexicanos murieron y nueve resultaron heridos después de que un autobús que trasladaba a trabajadores migrantes chocara el martes con una camioneta en el centro de Florida, confirmaron este miércoles autoridades de México y de Estados Unidos.  «Seis (de los heridos) están en estado grave y tres en estado crítico», informó la secretaría mexicana de Relaciones Exteriores en un comunicado. Las víctimas contaban con visas H-2A, que permiten a empresarios estadounidenses traer a ciudadanos extranjeros para cubrir puestos temporales de trabajo agrícola. La Patrulla de Carreteras de Florida detuvo al conductor de la camioneta, Bryan Maclean Howard, que ha sido imputado por ocho cargos de homicidio involuntario al conducir en estado de embriaguez, unos delitos que éste niega haber cometido. El accidente ocurrió en Ocala, unos 130 km al norte de Orlando, cuando Howard invadió el carril donde circulaba el autobús con 44 personas a bordo.   Las víctimas se dirigían a cosechar fruta para la granja Cannon Farms, un negocio familiar que cultiva sandías, melones y cacahuetes para el mercado norteamericano. El detenido declaró a la policía que no recordaba nada del accidente salvo que iba conduciendo con cuidado porque, tres días antes, había estrellado el auto de su madre contra un árbol al intentar evitar un animal en la calzada. La noche anterior al suceso, Howard, de 41 años, consumió marihuana con un amigo y tomó tres medicamentos recetados, incluido el ansiolítico clonazepam, añadió.   Según documentos judiciales, había sido detenido más de 20 veces antes del martes por delitos como conducir sin licencia, abandonar la escena de un accidente o posesión de marihuana. «Por favor, recen con nosotros por las familias y los seres queridos implicados en este trágico accidente», escribió Cannon Farms en la red social Facebook. </t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4464,6 +5451,21 @@
           <t>** No se indica en la noticia.</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La presidenta de Perú, Dina Boluarte, compareció este miércoles ante los fiscales que la investigan por el «Rolexgate», un caso de presunta corrupción que tiene en la mira a su ya debilitado gobierno. Es la segunda vez que Boluarte es citada a declarar desde que en marzo estalló el escándalo de los relojes de lujo Rolex y joyas que no consignó en su lista de bienes. Al término de una hora de indagatoria, la mandataria abandonó la sede de la fiscalía, en el centro de Lima, sin dar declaraciones. A las afueras del edificio custodiado por la policía, una docena de manifestantes exigió entre gritos su renuncia. «Esta sinvergüenza no se puede quedar hasta el 2026 (…) No podemos soportar este gobierno», dijo a la AFP María Maldonado, de 52 años. La fiscalía investiga a Boluarte por presunto enriquecimiento ilícito y omisión de consignar bienes en documentos. También indaga si incurrió en «cohecho pasivo impropio», un delito que implica recibir beneficios indebidos por parte de funcionarios públicos. En su primera declaración ante la fiscalía el pasado 5 de abril, Boluarte indicó que los relojes Rolex le fueron entregados en préstamo por su amigo y gobernador regional de Ayacucho, Wilfredo Oscorima. Si finalmente la fiscalía decide acusarla, Boluarte solo puede ser llevada a juicio al final de su mandato, en julio de 2026, según fija la Constitución. Desde el viernes la presidenta enfrenta un nuevo escándalo por presunta corrupción que involucra a su hermano mayor, Nicanor Boluarte, quien fue detenido ese día de manera preliminar por un plazo de hasta 10 días por orden de un juez.   Nicanor Boluarte está bajo sospecha de comandar una red de corrupción que nombraba funcionarios a cambio de sobornos, aprovechando el «poder de facto» que recibió de su hermana, según el poder judicial. Al tiempo que responde ante la justicia, Dina Boluarte encara el intento de la minoritaria oposición de izquierda de someterla a un juicio de destitución en el Congreso, dominado por la derecha. Es el tercer intento en sus 17 meses en el poder.  La mandataria, cuya desaprobación alcanza el 88% según una reciente encuesta de Iapsos, carece de bancada propia y partido, por lo que el apoyo de las fuerzas conservadoras es clave para que pueda terminar su mandato en julio de 2026.  «¡Vamos a seguir caminando hasta el 28 de julio del 2026! Porque aquí el pueblo escogió una fórmula presidencial y conforme a la Constitución eso se debe de respetar», dijo la mandataria el martes en un acto público. En apenas ocho años, Perú ha tenido seis mandatarios, en medio de la peor ola de inestabilidad política de su historia moderna. Ante las acciones de la fiscalía, el gobierno ordenó sorpresivamente la disolución de la unidad policial que apoyaba al equipo de fiscales anticorrupción que allanó en marzo la vivienda de Boluarte y el despacho presidencial, en busca de las joyas. Ese mismo equipo estuvo al frente del operativo de captura de Nicanor Boluarte. La mandataria asumió el poder en diciembre de 2022 en reemplazo del izquierdista Pedro Castillo, quien fue destituido y encarcelado por su fallido intento de disolver el Congreso. Bolaurte era su vicepresidenta. Tras su juramentación, estallaron protestas duramente reprimidas por la fuerza pública, en las que murieron 50 personas presuntamente por disparos de policías y militares. A raíz de ello, Boluarte enfrenta desde enero de 2023 una investigación por presunto «genocidio, homicidio calificado y lesiones graves». «He entrado a Palacio de Gobierno con las manos limpias y saldré con las manos limpias, como lo he prometido al pueblo peruano», dijo en abril la primera presidenta mujer de Perú. </t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4536,6 +5538,24 @@
           <t>** N/A</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2015-01-23</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@GloriaCoLatino Mayor presupuesto a la educación superior, capsule becas y empleo joven, treatment fueron las promesas presentadas por los aspirantes a las diputaciones Cecy Elías (PDC), Héctor Peñate (GANA) y Martha Evelyn Batres (ARENA). Con la participación de estos jóvenes candidatos por el departamento de San Salvador, la Facultad de Ciencias Sociales de la  Universidad Tecnológica de El Salvador (UTEC), …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4608,6 +5628,24 @@
           <t>** N/A</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2020-03-14</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Joaquín Salazar @JoakinSalazar «El centro de enlace ya nos ha brindado la información sobre estos cinco pasajeros  que mencionan, y se está dando el seguimiento para poder realizar las pruebas  necesarias», manifestó el viceministro de Operaciones de Salud Francisco Alabí, ante los cinco salvadoreños que viajaron junto a un guatemalteco que ha sido diagnosticado con COVID19. Alabí agregó que existe …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4680,6 +5718,24 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2015-10-29</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@davidmar2105 Para el alcalde de Mejicanos, remedy Simón Paz, solucionar los problemas de los municipios con la organización de las comunidades, es un trabajo que hasta el momento está dando resultados en cinco meses de gestión del edil. Una de las principales preocupaciones es el combate de la violencia, la cual, con este ejercicio, según el alcalde, comienzan a controlar …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4752,6 +5808,24 @@
           <t>** N/A</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Joaquín Salazar @JoakinSalazar «Gracias a todos los que lucharon, desde todas las trincheras, para aprobar nuestro primer presupuesto, esto, ¡apenas empieza», dijo el presidente de la República, Nayib Bukele por la aprobación del Presupuesto General de la Nación 2020, que fuera aprobado con los votos de la derecha legislativa esta noche. El mandatario resaltó que con este presupuesto se genera …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4824,6 +5898,24 @@
           <t>** No se indica la fuente de información.</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2015-03-13</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@JoakinSalazar El Fiscal General de la República Luis Martínez, cure lamentó esta mañana, sildenafil que el director del Instituto de Medicina Legal (IML) Marco Fortín atribuya el repunte de homicidios al traslado de los cabecillas de las principales pandillas del país. En referencia a las declaraciones del Director de Medicina Legal, cialis sale en las que aseguraba que “el traslado …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4896,6 +5988,24 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2014-12-27</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+David Martínez. @davidmar2105 Las autoridades de tránsito de la Policía Nacional Civil (PNC) reportó 30 conductores que manejaban bajo los efectos de bebidas embriagantes, seek por lo que indicaron que redoblarán los controles de dopaje en los puntos turísticos. Hasta el momento se tienen registrados 259 controles desde el 23 al 26 de diciembre, viagra de los cuales han realizado …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4966,6 +6076,24 @@
       <c r="N59" t="inlineStr">
         <is>
           <t>** N/A</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2017-11-14</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Jackeline Rivera, diputada y candidata a alcaldesa por San Salvador dio una entrevista a Diario Co Latino y nos habla sobre su historia personal, vivencias y el reto de gobernar la capital del país. Rivera asegura que de ganar la silla edilicia del municipio más importante del país, uno de sus principales ejes será en de gobernar con transparencia e …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -5057,6 +6185,40 @@
           <t>La información que se ha proporcionado no contiene citas de fuentes de información, por lo que no se puede analizar si la información es cierta o no.</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Artículos relacionados
+Estiman en más de 20 mil los niños chilenos robados en dictadura
+2 marzo, 2024
+Derecha chilena reconoce derrota en el plebiscito constitucional
+18 diciembre, 2023
+Presidente chileno condena intento de golpe de Estado en Guatemala
+12 diciembre, 2023
+Santiago de Chile/Prensa Latina
+Autoridades chilenas reportaron hoy amenazas de bomba en tribunales de las ciudades de Arica, Linares, Concepción y Temuco, atribuidas al crimen organizado.
+Tras evacuar de manera preventiva los recintos judiciales, el Grupo de Operaciones Policiales Especiales realizó inspecciones en esos sitios sin detectar explosivo alguno.
+Aunque se desconoce el origen de las amenazas, diversas fuentes se las atribuyen a la banda de Los Gallegos, porque varios miembros del grupo transnacional fueron detenidos en las citadas ciudades.
+Un megaoperativo contra esa organización criminal tuvo lugar en la norteña ciudad de Arica, específicamente en el sitio conocido como Cerro Chuño.
+En paralelo, se desarrolla en esa urbe un juicio contra 38 detenidos que están acusados de pertenecer a Los Gallegos, responsabilizados con tráfico de drogas y de migrantes, homicidios y otros delitos.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5129,6 +6291,132 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Artículos relacionados
+Población expresa bajo interés en la política, según FUNDAUNGO
+15 mayo, 2024
+El Salvador observa formación ciclónica frente a costa de México
+13 mayo, 2024
+Pronostican lluvias en zonas altas y costera oriental
+13 mayo, 2024
+Por Colectivo Tetzáhuitl* 
+Promesas incumplidas en 5 años de gobierno…
+Son por lo menos una veintena de promesas incumplidas por Bukele en estos cinco años de su primer mandato.
+La mayoría de ellas tienen que ver con el área económica y, sobre todo, con lo social.
+Por cuestiones de espacio no vamos a señalar todas las promesas que hizo Bukele siendo candidato y que no cumplió.
+Nos vamos a centrar en las ofertas electorales más emblemáticas y que le permitieron venderse como un político diferente a todos los anteriores, con las que conquistó el voto de la izquierda.
+En lo económico Bukele dijo que acabaría con los privilegios de los grupos oligárquicos del país.
+Sin embargo, como ya hemos sostenido en otras publicaciones, no solo no acabó con estos privilegios sino que los fortaleció y aumentó, al punto que en todos estos años se ha ganado la confianza y el respaldo político y financiero de estos grupos empresariales a los que llamó en una ocasión: “Los dueños de la finca”
+Grupos económicos como los Kriete, los Calleja, los Dueñas, los Regalado, los Murray Meza, los Poma, entre otros, dejaron de ser los financistas de ARENA para hacer de Nuevas Ideas su partido orgánico, su instrumento de acceso y control del poder del Estado.
+Históricamente y desde que nacieron como grupos oligárquicos en la segunda mitad del siglo XIX, las familias empresariales de origen cafetalero utilizaron el Estado para acumular riqueza y controlar la economía del país.
+Desde entonces recurrieron al control del aparato público para asegurar la acumulación originaria de capital que comenzó con la producción y comercialización del café, primero, y luego del algodón y la Caña de Azúcar.
+Familias adineradas de la época, en su mayoría comerciantes e inversionistas, usaron los resortes del Estado para enriquecerse.
+Fue bajo los gobiernos de Francisco Dueñas, Rafael Zaldívar, de la dinastía de los Meléndez-Quiñónez, de la breve presidencia de Manuel Enrique Araujo y luego del gobierno de Pío Romero Bosque que las tierras fértiles de indígenas y campesinos fueron expropiadas para ser destinadas al cultivo del café y otros productos agrícolas de gran rentabilidad.
+Se aprobaron leyes que facilitaron esta expropiación y concentración de la propiedad de la tierra.
+Se crearon además los mecanismos comerciales y financieros necesarios para fomentar y expandir la producción, comercialización y exportación del café a finales del Siglo XIX y de la caña de azúcar y el algodón en la primera mitad del Siglo XX.
+Con los años estos grupos fueron creciendo no solo en poder, sino también en número, al tiempo que fueron diversificando sus negocios.
+Fue desde ese momento que se generó el fenómeno conocido como el de “las 14 familias” en alusión a las familias adineradas que controlaban la actividad económica del país y que detentaban el poder político real .
+En realidad fueron más de 40 familias o grupos económicos empresariales.
+Sin embargo, los analistas e historiadores solo hablan y destacan a 14 familias, entre ellas la familia Dueñas, la de los Regalado, los Wright, los Meza-Ayau, la familia Meardi, el grupo Guirola, los Álvarez de Santa Ana, la dinastía de los Meléndez- Quiñónez, la familia Salaverría, los Hill, los De Sola, el grupo Sol Millet , los Freund y el grupo empresarial cafetalero y comercial de origen judío  Goldtree-Liebes.
+La apropiación de las tierras más fértiles del país, la obtención de bienes públicos a bajos precios, la creación de instrumentos legales y financieros para conservar e incrementar su poder económico y político fue la forma como todas estas familias o grupos empresariales acabaron convirtiéndose en una Oligarquía que decidía y sigue decidiendo los destinos del país y que pone y quita Presidentes, en alianza con Estados Unidos.
+Nada de eso ha cambiado con el gobierno de Bukele.
+Bukele ofreció en la campaña electoral del 2019 acabar con el poder y los privilegios de estos grupos empresariales que centraron sus inversiones y negocios en el sector financiero, comercial y los servicios, además de las inversiones inmobiliarias (Hoteles, Centros Comerciales, Residenciales de lujo y Edificios de Apartamentos) y la producción industrial, sobre todo textil y farmacéutica.
+En cinco años Bukele no hizo nada para acabar con sus privilegios y disminuir su poder.
+Lejos de ello, los fortaleció.
+Tampoco les cobró más impuestos en función de sus altos y exhorbitantes ingresos.
+Teniendo el control de las decisiones legislativas Bukele nunca promovió una reforma tributaria progresiva como lo prometió.
+Con mayoría calificada en la Asamblea Legislativa pudo promover sin resistencia de los Diputados la aprobación de un impuesto al patrimonio que se cobraría al 10% más rico del país,  o bien, un aumento del impuesto a las ganancias de capital que hasta ahora se ha cobrado solo a las empresas que obtienen utilidades anuales por arriba de los 150 mil dólares o incluso un aumento al impuesto que hasta ahora se viene cobrando a las viviendas con un valor arriba de los 350 mil dólares.
+Estos impuestos le habrían dejado al fisco una importante cantidad de recursos que algunos economistas calculan en unos  mil millones de dólares, adicionales a lo que ya Hacienda recauda cada año.
+Con la reducción de ingresos y la crisis de las finanzas públicas que enfrenta el gobierno, Bukele optó por recortar el gasto social en lugar de otros gastos que representan un verdadero despilfarro como Propaganda y Defensa.
+El gobierno de Bukele cerró una docena de Programas Sociales y desfinanció otros diez más, entre ellos programas emblemáticos como “Ciudad Mujer”, la “Pensión Básica Universal para Adultos Mayores”, el vaso de leche, la merienda escolar así como la entrega gratuita de Uniformes, Zapatos y Útiles Escolares.
+La prioridad de Bukele siempre ha sido proteger los intereses de los Grupos Oligárquicos sobre quienes debería recaer el mayor peso de la fiscalidad.
+Para enfrentar el problema de los bajos ingresos fiscales, Bukele hace pagar los platos rotos a las familias más pobres del país que se han visto afectadas con la decisión de cerrar algunos Programas Sociales y los recortes al Presupuesto de Salud y Educación en lugar de reducir los privilegios fiscales de los más ricos.
+Para el caso, en estos cinco años de su primer mandato, Bukele ordenó cerrar varios Equipos Comunitarios de Salud Familiar del área rural, conocidos como ECOSF.
+Dejó de abastecer de medicamentos a las farmacias de los Hospitales Públicos.
+Prefirió construir por razones propagandísticas un Hospital para Mascotas en lugar del nuevo edificio del Hospital Rosales y el Hospital de Nejapa, que ya enfrentan ambos un atraso de casi 5 años desde que se aprobó su financiamiento por el BID a finales del Gobierno de Sánchez Cerén.
+No ha reconstruido ni remodelado las 5 mil escuelas que prometió ni tampoco las 4 sedes regionales de la UES que dijo que iba a construir.
+Este incumplimiento de sus promesas sociales ha provocado un aumento de la pobreza y una mayor concentración de la riqueza.
+Se apropió de los recursos del FODES, lo que ha repercutido en una baja inversión territorial en municipios que requerían de obras de infraestructura social.
+Esta decisión contaría su promesa de fortalecer la autonomía y la capacidad ejecutiva de los gobiernos municipales.
+255 mil nuevos pobres surgieron en estos cinco años del gobierno de Bukele, con lo que la pobreza extrema volvió a los niveles como los había dejado el último gobierno de ARENA en el 2008.
+En contraste, ya para finales del 2023 y según un informe de Oxfam Internacional, 160 millonarios del país concentraban el 90% del ingreso nacional.
+La mayoría de promesas  del área económica tampoco han sido cumplidas.
+No existe un plan de reactivación y desarrollo económico como dijo que lo presentaría a la Nación.
+La mayoría de las ofertas de infraestructura no fueron cumplidas.
+No hay “Tren del Pacífico”, tampoco “Aeropuerto de Oriente” y menos la tan cacareada “Ciudad Bitcoin” en Conchagua, La Unión.
+Nunca se presentó el proyecto y menos se licitó el lanzamiento al espacio del Satélite “Cuscatlán”.
+La innovación tecnológica no pasó de la entrega gratuita de Tablets y Laptops a estudiantes de Primaria y Secundaria.
+Hace unos días fueron inauguradas las instalaciones de Google en un edificio propiedad de la familia Safie, las que han sido presentadas por el gobierno como el inicio de la informatización del país.
+La verdad que no se trata de una nueva inversión extranjera, sino de la compra de servicios informáticos por unos $500 millones de dólares, de los que no se tiene ni idea de dónde van a salir.
+El crecimiento económico del país es en promedio el más bajo de la región.
+El sector agrícola fue descuidado al extremo de no contar con Seguridad Alimentaria.
+El programa de entrega de paquetes agrícolas fue recientemente suspendido y en su lugar a los pequeños agricultores se les entrega una tarjeta de 75 dólares con la que pueden adquirir insumos que en el fondo son menos que los que venía entregando el gobierno al inicio de cada cosecha.
+Este incumplimiento de ofertas también puede observarse en el manejo de las finanzas públicas y en el combate de la corrupción.
+Bukele ganó la Presidencia en el 2019 con la bandera de la anti corrupción bajo el lema: “El dinero alcanza cuando nadie roba”
+Sin embargo, ya en la Presidencia ha hecho todo lo contrario.
+No hubo más transparencia en los gastos del gobierno como lo prometió.
+Información sensible que debía ser del dominio público ha sido declarada en reserva por varios años.
+Nadie sabe por ejemplo cuánto es el salario de un Ministro o de un Asesor Presidencial. Ni siquiera se conoce la identidad de los asesores de CAPRES.
+Tampoco se sabe cuánto se gastó en vacunas en la recién pasada Pandemia del COVID o cómo se maneja el Presupuesto del gobierno en general.
+Hay compras y licitaciones que ya no son del conocimiento público.
+Se derogó la LACAP y en su lugar se aprobó una nueva Ley que promueve el secretismo y la falta de transparencia.
+Los casos de corrupción de este gobierno y que había comenzado a investigar la Fiscalía de Raúl Melara fueron archivados por el nuevo Fiscal General Rodolfo Delgado, elegido en forma ilegal e inconstitucional.
+De ser ciertas las denuncias que enfrentan más de una docena de sus funcionarios, Bukele podría pasar a la historia como el Presidente más corrupto de los últimos 30 años después de la firma de los Acuerdos de Paz.
+Funcionarios como la Jefa de Gabinete, Carolina Recinos de Bernal, el Director de Centros Penales, Osiris Luna Meza, el Director de Reconstrucción del Tejido Social, Carlos “Sliptone” Marroquín, el ex Ministro de Agricultura, Pablo Salvador Anliker, el Ministro de Salud, Frank Alabí, el Ministro de Trabajo, Rolando Castro, el Secretario Jurídico de la Presidencia, Conan Castro, la Ministra de Vivienda, Michelle Sol, el Presidente de la Asamblea, Ernesto Castro, el Secretario de Prensa de CAPRES, Ernesto Sanabria, entre otros, en lugar de estar en la cárcel por los delitos cometidos, circulan libremente y se mantienen en sus cargos sin mayores reservas por parte de Bukele y el Fiscal General.
+Hay casos escandalosos como el llamado “Catedral” que revela la existencia de una estructura criminal dedicada a delinquir y que es dirigida por Karim, uno de los hermanos de Bukele, la Jefa de Gabinete, Carolina Recinos, y el Presidente de Nuevas Ideas y primo de Nayib, Xavier Zablah Bukele.
+También esta investigación del ex Fiscal Raúl Melara documenta el proceso de negociación que mantiene Bukele desde el inicio de su gobierno, incluso antes, con las principales pandillas del país y que le ha reportado beneficios tangibles como es la drástica reducción de homicidios a cambio de beneficios procesales y económicos para el liderazgo pandilleril.
+Las transformaciones de Bukele…
+Si algo define el estilo de gobierno de Bukele es su constante mutación de imagen y de concepción, según conveniencia.
+Se vendió como un candidato de izquierda y al final ha terminado siendo un Presidente de derecha de corte neoliberal, más derechista incluso que los Presidentes que tuvo ARENA durante 20 años.
+Pero ese cambio de rostro no inició con su llegada al poder. Se venía gestando desde antes.
+Sus viejos vínculos, a través de su padre, con el capital árabe y algunos sectores de la Oligarquía, así como con José Luis Merino, jefe de las empresas del Grupo Alba, contribuyeron a esta mutación.
+El programa de gobierno que presentó Bukele durante la campaña del 2019 fue todo un fiasco, fríamente calculado, para disputar el voto de la izquierda y conquistarlo rápidamente aprovechando el desencanto de muchos electores hacia el FMLN y su segundo gobierno.
+Del “Plan Cuscatlán” no cumplió ninguna de las promesas hechas luego que gana la Presidencia de la República.
+Al contrario, en la práctica contradijo casi todas.
+Lo primero que hizo como Presidente electo fue visitar el más importante tanque de pensamiento de la derecha conservadora de EEUU, la fundación Heritage.
+Fue en ese escenario que criticó la apertura de relaciones con China en el gobierno de Sánchez Cerén y llegó a calificar su política exterior como manipuladora e injerencista.
+En ese momento la posición crítica de Bukele hacia el gigante asiático resultaba música agradable para los oídos de la derecha conservadora estadounidense, incluso, para los inversionistas de Wall Street a los que visitó días después.
+Lo curioso es que ya como Presidente, en su primer año de gobierno, realizó una gira por Asia que comenzó precisamente en China, país con el que el gobierno de Bukele firmó varios convenios de cooperación y al que elogió después que meses antes lo había defenestrado.
+Fue un cambio de posición por pura conveniencia.
+A lo largo de todos los años de su primer mandato, Bukele hizo todo lo contrario de lo que había ofrecido sin importarle lo más mínimo cómo estaba siendo percibido por aquellos a los que prometió beneficiar y proteger.
+De defensor de los pobres pasó a defender a los neoliberales oligárquicos con claros nexos con el capital financiero sionista estadounidense.
+Recortó el gasto social y aumentó los privilegios que venían gozando los grupos empresariales oligárquicos desde el primer gobierno de ARENA.
+Por ejemplo, les ha otorgado varios proyectos urbanísticos aún cuando violan disposiciones medio ambientales.
+A  la empresa “Urbánica”, propiedad del grupo Dueñas, el Ministerio de Medio Ambiente y Recursos Naturales (MARN) le autorizó un megaproyecto urbanístico en las faldas del volcán de San Salvador conocido como “Ciudad Valle El ángel” que afectará la flora y la fauna del lugar, incluyendo una de las pocas zonas de recarga acuífera que aún quedan en el norte del Departamento.
+Bukele privilegió en este caso al grupo empresarial Dueñas por encima de los intereses de las comunidades de Apopa, Nejapa, Mejicanos y Ayutuxtepeque que se verán seriamente afectadas por el impacto ambiental del Proyecto.
+Lo mismo ha ocurrido con la montaña que bordea el Lago de Coatepeque donde varias empresas constructoras han sido autorizadas por el gobierno para construir complejos habitacionales y edificios de apartamentos que están deforestando la montaña y contaminando el Lago.
+Una de estas empresas constructoras está vinculada a la familia de Bukele, sobre todo, a su esposa y a su suegra.
+Esta misma empresa desarrolla varios proyectos habitacionales en Nuevo Cuscatlán en áreas consideradas como protegidas y que la Alcaldía en manos de Nuevas Ideas y el Ministerio de Medio Ambiente han autorizado violando la Ley.
+Bukele ofreció fortalecer la autonomía municipal y los territorios.
+Incluso dijo que aumentaría los recursos disponibles para el FODES.
+Con el tiempo no solo redujo este Fondo sino que decidió centralizarlo y manejarlo mediante una instancia que controla desde Casa Presidencial denominada Dirección de Obras Municipales (DOM) y que destina los recursos por afinidades ideológicas y políticas.
+También podemos ver una mutación de Bukele a nivel político.
+Siendo Alcalde Bukele expresaba con frecuencia su rechazo a la reelección presidencial continua e inmediata.
+La alternabilidad en la Presidencia, decía, es fundamental para garantizar que nadie abusará de su poder presidencial para perpetuarse en el cargo.
+Ahora tiene un discurso diferente: No solo promovió una resolución habilitante de la Sala de lo Constitucional para buscar la reelección en Febrero del 2024, sino que ha promovido una reforma constitucional que se aprobaría antes que termine este segundo mandato para asegurar la reelección Presidencial indefinida.
+Bukele mutó desde un supuesto compromiso con la democracia que exhibió siendo Alcalde y candidato presidencial a una posición autocrática en la que el control del poder se ha convertido en la característica más destacada de su estilo de gobierno.
+Bukele es ahora un Presidente con prácticas autoritarias que basado en una fuerte campaña propagandística y en el hábil manejo de un discurso populista y demagógico detenta el poder absoluto del Estado con el apoyo de la Oligarquía y los Estados Unidos, aunque para ello deba violar la Constitución las veces que sea necesario.
+*El Colectivo Tetzáhuitl está integrado por un grupo de periodistas y analistas de la realidad nacional sin vinculaciones partidarias ni ataduras ideológicas. 
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5201,6 +6489,30 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, informó sobre la captura en Guatemala de Ángel Isaías Hernández Zamora, un miembro de la Pandilla 18 que pretendía huir a México. 
+Vilaltoro aseguró que la captura se realizó con la colaboración con las autoridades de seguridad de los países vecinos.
+ “Tras la intervención de nuestra PNC, en coordinación con las autoridades de México, hemos ubicado y capturado a Ángel Isaías Hernández Zamora”.  Gustavo Villatoro Ministro de Justicia y Seguridad Pública.  
+El funcionario dijo que el detenido tiene antecedentes por homicidio agravado, a los que se suman los delitos de lesión, y fabricación, portación, tenencia o comercio ilegal de armas de fuego, por los que será procesado. 
+En la expulsión de Hernández Zamora también participó la Policía Nacional Civil (PNC) de Guatemala. 
+La Policía guatemalteca explicó en sus redes sociales que la expulsión de alias Ángel o Diablo se realizó luego de que este fuera interceptado en el municipio de Malacatán, San Marcos, en Guatemala, y uno de los corredores para los migrantes irregulares que pretenden cruzar a México. 
+“Esta persona escapaba de la justicia salvadoreña, por la orden de captura vigente y por sus cuatro antecedentes criminales”, añadió la PNC de Guatemala. 
+Según las autoridades guatemaltecas, en lo que va de 2024, al menos 30 salvadoreños han sido expulsados y unos 14 cumplen condenas en dicho país.
+</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5273,6 +6585,31 @@
           <t>** No se indica la fuente de información.</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Tribunal Segundo Contra El Crimen Organizado condenó a 105 años de prisión a Fabio Bladimir Escobar Arias, por cinco casos de extorsión agravada y agrupaciones ilícitas. 
+La Fiscalía General de la República (FGR) informó en su cuenta de X que, entre junio de 2019 y enero de 2020, el condeno exigía entre $12 y $1,400 a transportistas, taxistas o comerciantes ubicados en la ciudad de San Miguel. 
+“Estas acciones las cometía de forma diaria, semanal o mensual”, indicó la FGR. 
+En el mismo proceso, Geovanni Flores Ascencio y Lilian Verenice Garay Garay también recibieron 25 años de condena cada uno, por un caso de extorsión agravada y organizaciones terroristas.
+ Más condenas
+La FGR reveló este martes que 41 pandilleros de la Mara Salvatrucha (MS-13) recibieron condenas de hasta 395 años de prisión, por nueve homicidios agravados, 12 extorsiones agravados y dos casos de provisión y conspiración por cometer el delito de homicidio agravado y organizaciones terroristas. 
+Los crímenes ocurrieron entre 2017 y 2019 en Usulután, en donde se perjudicaba a buseros, taxistas y comerciantes. 
+La FGR señaló que las víctimas pagaban entre $15 y $1,600 de extorsión para no ser asesinados por los pandilleros. 
+La condena fue dictada por el Tribunal Segundo Contra El Crimen Organizado B de San Miguel. Según la Fiscalía, Bladimir Alexander Amaya Cálix recibió la pena más alta al sumar 395 años de prisión por extorsión agravada, homicidio agravado, y proposición y conspiración para cometer el delito de homicidio agravado.
+</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5345,6 +6682,35 @@
           <t>** N/A</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Tres salvadoreños murieron este martes debido a hechos violentos en diferentes puntos del país, la Policía Nacional Civil (PNC) señaló que una de las víctimas es un delincuente. 
+Dos de las víctimas corresponden a personas que fueron atacadas en días previos y que murieron en hospitales este 14 de mayo. 
+La PNC dijo que el primero de los casos ocurrió en el distrito de San Salvador, el 11 de mayo pasado. Según las investigaciones, un hombre recibió una golpiza y fue trasladado al Hospital Rosales, donde murió este martes. 
+El segundo hecho violento se registró el 13 de mayo en el cantón Santa Fé, en la ciudad de Olocuilta, departamento de La Paz. La Policía señaló que Ernesto Edgardo Hernández Hurtado hirió a machetazos a su hermano con el objetivo de asesinarlo, sin embargo, la víctima fue trasladada a un centro asistencial en donde falleció. 
+“Reportamos la captura de Ernesto Edgardo Hernández Hurtado por atacar a machetazos a su hermano en Olocuilta, La Paz. El lesionado murió en el hospital hoy (martes) a las 2:00 a.m. Por lo que Hernández Hurtado será procesado por homicidio”, indicó la PNC en una publicación en redes sociales. 
+La PNC confirmó que los homicidas de ambos casos ya fueron capturados. 
+Una víctima más se registró en la ciudad de La Palma, Chalatenango. En este lugar, un miembro de la Mara Salvatrucha (MS-13) fue asesinado por soldados.  
+La Policía dijo que una de las víctimas de este martes es un pandillero que fue asesinado por la Fuerza Armada en La Palma. /PNC
+La Fuerza Armada explicó en su cuenta de X que una tropa de la Cuarta Brigada de Infantería fue atacada por un grupo de pandilleros, como resultado, el enfrentamiento dejó un delincuente fallecido. 
+Los militares resultaron ilesos y, en la escena, se encontró el arma de fuego que usó el pandillero. La Fuerza Armada dijo que el resto de pandilleros huyó del lugar. 
+Entre el 1 y el 14 de mayo, 11 personas han muerto en hechos violentos en El Salvador, estas muertes ya se asemejan a las registradas en abril. 
+De forma detallada, nueve personas fueron asesinadas en enero, seis víctimas más perecieron en febrero y en marzo se contabilizaron 12 homicidios. 
+A nivel general, en lo que va del año 49 salvadoreños y extranjeros, así como menores de edad, mujeres y hombres, han sido asesinados en el país.
+</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5417,6 +6783,42 @@
           <t>** AFP</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Un cerco militar impuesto hace casi dos meses para combatir a las pandillas en Chalatenango, región del norte de El Salvador, ha devuelto la seguridad a las calles de la zona, dijeron este miércoles pobladores. 
+"Para mí lo que se ha visto es un éxito, para mí está bien, nos sentimos confiados, y podemos dormir en el corredor (de la casa), no hay ningún temor", declaró la AFP María Portillo, una vendedora de 56 años en la comunidad de Guarjila, Chalatenango.  
+AFP
+El presidente de El Salvador, Nayib Bukele, en el marco de su "guerra" antipandillas, ordenó el 24 de marzo el despliegue de 6.000 militares y policías para desmantelar remanentes de las bandas tras dos homicidios en Chalatenango, unos 90 km al norte de San Salvador. 
+Las autoridades capturaron a los dos sospechosos del doble crimen, que son supuestamente miembros de la facción Sureños de la pandilla Barrio 18.  
+AFP
+En las calles, pobladores dijeron a la AFP que ahora un ambiente de tranquilidad prevalece en Chalatenango, una región principalmente agrícola y ganadera. 
+Provistos de fusiles M-16, chalecos y cascos, los soldados con uniformes se desplazan por calles y bosques.  
+AFP
+"Ahora salimos con libertad, y antes hasta aquí me daba miedo salir", declaró por su parte María Hernández, un ama de casa de 63 años, en el pueblo de San Isidro Labrador. 
+Bukele declaró la "guerra" a las pandillas el 27 de marzo de 2022, tras una escalada de 87 homicidios en un fin de semana, al amparo de un cuestionado régimen de excepción que permite hacer arrestos sin orden judicial.  
+AFP
+Las maras o pandillas se financiaban cobrando extorsiones a miles de salvadoreños, principalmente comerciantes y transportistas. 
+La cruzada de Bukele devolvió la tranquilidad a las calles y elevó su popularidad, lo que permitió que en febrero fuera reelegido para un segundo mandato de cinco años. 
+En el marco del cerco militar que prevalece, el martes un presunto miembro de la Mara Salvatrucha (MS-13) murió luego que tropa de la Cuarta Brigada de Infantería de Chalatenango, "repelió" a un grupo de pandilleros en el poblado de La Palma, informó la Fuerza Armada en la red social X.  
+AFP
+Desde que comenzó la "guerra" se han arrestado a un poco más de 80,000 presuntos pandilleros, según las autoridades. 
+Sin embargo, grupos de derechos humanos sostienen que entre los detenidos hay muchos inocentes y que la "crisis" de derechos humanos puede "perpetuarse" en el país. 
+"Los que están pagando las consecuencias es la población detenida injustamente", resume a la AFP el coordinador de la Comisión de Derechos Humanos, Miguel Montenegro.  
+AFP
+</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5489,6 +6891,33 @@
           <t>** FGR</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        La Fiscalía General de la República (FGR) ordenó la detención de 79 supuestos pandilleros de la Mara Salvatrucha (MS-13) que operaban en la zona de San Miguel. 
+Durante el operativo se capturó a una mujer de la cual no se brindó el nombre a través de redes sociales, ni su vinculación con la estructura. 
+El fiscal del caso explicó que los detenidos pertenecían a los programas Shulton y Sailor, que opera en los sectores del distrito de Ciudad Barrios y de la ciudad de San Miguel.
+ “Se han emitido 79 órdenes de detención administrativa que culmina una investigación duró aproximadamente un año con diferentes herramientas tecnológicas”. FGR,
+Publicación en redes sociales.  
+La Fiscalía explicó que los sujetos exigían a las víctimas, principalmente negocios y farmacias, entre $50 y $200 mensuales a cambio de no atentar contra ellos. 
+A los delincuentes se les procesará por los delitos de homicidio agravado, tráfico ilícito, extorsión agravada y agrupaciones ilícitas. 
+La FGR señaló que 52 de los supuestos pandilleros a los que se les ha girado orden de detención ya se encuentran recluidos en los centros penitenciarios, por lo cual, serán notificados de los nuevos delitos por los que se les imputan. 
+La institución dijo que la captura de los implicados es parte del trabajo realizado durante el régimen de excepción, vigente en el país desde el 27 de marzo de 2022. 
+Esta semana, el ministro de Defensa, René Francis Merino Monroy, aseguró que más de 80,000 pandilleros han sido capturados durante el régimen. 
+A esto se suma el decomiso de $4.4 millones en efectivo y 4,046 armas de diferentes calibres, más de 14 toneladas de droga, 8,300 vehículos y 20,326 celulares.
+</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5561,6 +6990,33 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Especializado para una Vida Libre de Violencia para las Mujeres de Santa Ana instaló el juicio repetido en contra de seis personas acusadas del feminicidio agravado, en perjuicio de la agente de la Policía Nacional Civil, Carla Mayarí Ayala Palacios. 
+El juicio es repetido debido a que la Sala de Penal resolvió a favor un recurso de casación interpuesto por la defensa, que anuló la condena que les fue impuesta en octubre del 2020 por la jueza especializada para una Vida Libre de Violencia y Discriminación contra las Mujeres de San Salvador. 
+Los procesados son Josué Antonio Pérez Pineda, Juan Antonio Linares Flores, a quienes fue anulada la condena de cuatro años de cárcel por el delito de incumplimiento de deberes, así mismo, son enjuiciados Wilfredo Deras Hernández y Ovidio Antonio Pacheco Morales, que habían sido condenados a siete años de cárcel por incumplimiento de deberes. Así como el exjefe del Grupo de Reacción Policial (GRP), Julio César Flores Castro, quien había sido absuelto. 
+El fiscal de la Unidad Especialidad y de delitos de Homicidio también confirmó que será enjuiciado el expediente judicial de Juan Josué Castillo Arévalo, alias "Samurái", quién está en calidad de prófugo. A "Samurái" se le procesa como autor directo del hecho.
+ "Se les está atribuyendo del delito de feminicidio agravado en el caso de Castillo Arévalo de autor directo de los hechos, también por feminicidio agravado para los señores Deras Hernández y Ovidio Pacheco, en su calidad de comisión por omisión, y para el resto de incumplimiento de deberes". Fiscal del caso.  
+Agregó que durante la vista pública se presentará la prueba con la que probaron los hechos acusados, siendo documental, pericial y testimonial. "La expectativa es obtener una sentencia condenatoria para cada uno de ellos", aseguró el fiscal. 
+La Sala de lo Penal confirmó la absolución en favor de Salvador Enrique Chávez, policía, acusado de incumplimiento de deberes, Víctor David Castillo Campos, particular, cómplice necesario de feminicidio y Joel Isaac Castillo Arévalo, hermano de "Samurái", por encubrimiento.
+ Los hechos 
+Los hechos que terminaron con la vida de la agente Ayala Palacios ocurrieron la madrugada del 29 de diciembre de 2017, luego de una fiesta navideña en las instalaciones del extinto Grupo de Reacción Policial (GRP), en la colonia La Cima de San Salvador. 
+La acusación de la Fiscalía General de la República en un inicio era contra 14 exagentes, en 2019, y constaba que Carla Ayala fue asesinada por un arrebato o enojo de Juan Josué Castillo Arévalo. 
+El día de los hechos, Ayala fue llevada aparentemente en un carro patrulla policial a una montaña de San Francisco Javier donde fue semienterrada y 266 días, en septiembre del 2018, después de intensas investigaciones, las autoridades encontraron los restos del cuerpo de la agente en caserío Los Ríos del cantón Los Hornos, en ese municipio usuluteco.
+</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5633,6 +7089,21 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>No se encontro fecha</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>No se encontró el texto del articulo</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5705,6 +7176,21 @@
           <t>** No se indican fuentes de información en la noticia.</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Las autoridades de la Policía Nacional Civil (PNC) han iniciado una investigación por el caso de un homicidio contra un recién nacido en una localidad de Cuscatlán. Según la institución policial, el hecho criminal se produjo en el sector de Monte San Juan, cuando una mujer dio a luz y lanzó al recién nacido a una fosa séptica. Reportamos una escena de homicidio en Monte San Juan, Cuscatlán.Una mujer dio a luz y lanzó al recién nacido a una fosa séptica el pasado 30 de marzo, pero fue encontrado hoy. Este hecho habría ocurrido el pasado 30 de marzo de 2024, pero los restos del recién nacido fueron encontrados ayer miércoles. Las autoridades se mantienen investigando el caso para localizar a la responsable y llevarla ante los tribunales para ser procesada por este caso.</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5777,6 +7263,21 @@
           <t>** No se indica en la noticia.</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Un sujeto perteneciente a grupos de pandillas y señalado de casos de homicidio fue puesto bajo arresto por elementos de la Policía Nacional Civil (PNC) en un sector del departamento de La Libertad. El detenido responde al nombre de José Antonio Cerna Alvarado, alias Espanta o Zurdo, perfilado como miembro activo de las estructuras criminales de la pandilla MS13 con grado de homeboy. José Antonio Cerna Alvarado, alias Espanta o Zurdo es un homeboy de la MS13, investigado por un homicidio ocurrido en 2021 en las orillas del Río Sucio, en La Libertad.Alias Espanta era el encargado de vigilar la colonia Las Palmas, de Quezaltepeque y avisar sobre la presencia… pic.twitter.com/letbtfDi4f La institución policial detalló que Cerna Alvarado es señalado como responsable de un homicidio cometido el pasado año 2021 en las orillas del Río Sucio, en el sector de La Libertad. Además, las autoridades policiales lo perfilan como el encargado de vigilar los movimientos policiales en la colonia Las Palmas, en Quezaltepeque, mismo lugar donde fue interceptado y capturado.</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5849,6 +7350,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Un ciudadano dominicano fue detenido por la Policía Nacional Civil (PNC) cuando pretendía ingresar al país para esconderse de una acusación que enfrenta por un caso de homicidio, según confirmaron ayer las autoridades. El detenido fue identificado como Julio Antonio Feliz o Juniel Ostin, alias Julito Maraña, de nacionalidad dominicana y quien cuenta con una notificación roja de búsqueda internacional de INTERPOL por un caso de homicidio. Este sujeto pretendía ingresar al país para esconderse de las autoridades internacionales y evitar responder por el crimen que se le imputa, pero la Policía procedió con su captura en el Aeropuerto Internacional de El Salvador. Julio Antonio Feliz Feliz o Juniel Ostin, alias “Julito Maraña”, de nacionalidad dominicano, cuenta con notificación roja de búsqueda internacional de INTERPOL, por el delito de homicidio. Intentaba ingresar a nuestro país para esconderse por su crimen, pero fue capturado por… pic.twitter.com/ktb7Pi69i1</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5921,6 +7437,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Este jueves fue entregado a El Salvador Wilber Alexander Flores García, alias Blendi o Sompopo, quien es pandillero de la clica Stoner Locos Salvatruchos de la MS-13. El criminal trataba la manera de ocultarse en Guatemala tras ser buscado por las autoridades de seguridad salvadoreña por delitos relacionados a homicidio y agrupaciones ilícitas. La Policía Nacional Civil (PNC) explicó que Flores García fue capturado en el departamento de Jutiapa, al sur de Guatemala, gracias al trabajo en conjunto de las unidades del Centro Antipandillas Transnacional (CAT) de ambas naciones. #ElSalvador Wilber Alexander Flores García, alias Blendi o Sompopo, palabrero de la MS13, quien había huido de la #GuerraContraPandillas hacia Jutiapa, Guatemala, fue capturado gracias al trabajo conjunto a las autoridades de dicho país, informa la @PNCSV. pic.twitter.com/NX0MBjAr7D «Este terrorista cuenta con orden judicial por el delito de homicidio agravado en grado de coautoría, es decir, él ordenó el asesinato de una mujer en Candelaria de la Frontera, Santa Ana, en junio 2022», detalló la policía en su cuenta de X. El Gobierno salvadoreño mantiene lazos en estrategias de seguridad conjunta con Guatemala, lo cual permite que pandilleros que traten la manera de escapar del país por los delitos que son buscados en El Salvador, sean localizados, capturados y entregados a las autoridades salvadoreñas.</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -5993,6 +7524,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gracias a los planes de seguridad que se han implementado en El Salvador, la tasa de homicidios ha sido reducida en lo que va del año a 1.5 homicidios por cada 100,000 habitantes, esto con base en el promedio diario de muertes violentas que de enero a marzo ronda los 0.3, informó ayer el ministro de Seguridad, Gustavo Villatoro. De continuar esta tendencia de baja criminalidad, el país cerraría 2024 con la tasa de homicidios más baja en toda su historia. El funcionario detalló que «con los primeros 91 días del primer trimestre de 2024 se puede generar una especie de proyección de cómo rondaría la tasa al cierre del año, y es precisamente lo que tenemos al momento». El titular de Seguridad dijo que los resultados del plan de seguridad impulsado por el presidente Nayib Bukele son irrefutables, pues El Salvador pasó de una tasa de homicidios de 105 por cada 100,000 habitantes en 2015 a 2.4 en 2023. Los datos oficiales dan cuenta de que, desde junio de 2019 hasta el pasado 1.º de abril, la administración Bukele acumuló 589 jornadas sin crímenes contra la vida. Villatoro mencionó que esos logros han causado asombro e interés en la comunidad internacional, y muchos se han interesado en conocer el modelo de seguridad del presidente Bukele. «A diferencia de lo que puede ser un evento académico o doctrinario, y no estoy hablando de toda esa retahíla de charlatanes que vinieron por los últimos 30 años a este país a decir cómo teníamos que salir del problema de inseguridad para someternos más, para cavarnos más grande ese hoyo y tenernos secuestrados», mencionó el funcionario Villatoro. El titular de Seguridad destacó que, a dos años del régimen de excepción, como Gabinete de Seguridad siempre recuerdan el 26 de marzo de 2022, cuando ocurrió un incremento desmedido de los homicidios que mostraba las intenciones de un Estado criminal y que al final motivó la última herramienta constitucional para rescatar el Estado de derecho. «Son dos años de estar al lado de la población, de estar siguiendo día con día los anhelos que tenían más de 6.3 millones de salvadoreños. Hemos rescatado el país y también la esperanza. Estamos viviendo esa libertad, ese transitar dentro del territorio sin fronteras imaginarias. Estamos viviendo una democracia que te lleva a escuchar y hacer lo que la gente demanda», reiteró. Villatoro mencionó que fue en 2012 cuando se instaló un Estado criminal que convivía con lo que llamaban Estado de Derecho, que no era más que un Estado fallido con incapacidad completa de seis gobiernos para resolver el problema principal de la población. «Haber hecho una revisión histórica de El Salvador posguerra nos permite tomar las medidas necesarias y hacer ajustes a la ley para lo que necesitamos en este momento. Se han hecho reformas con las que tenemos claro que hay una ruta procesal y judicial para acusar a estas organizaciones», puntualizó. </t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6065,6 +7611,21 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>La denuncia ciudadana fue importante para que la Policía Nacional Civil detuviera a José Emiliano Vásquez Contreras, alias Cumming, un terrorista de la pandilla 18S que fue capturado en los Condominios Victorias de Soyapango. El reporte detalla que el marero que había vivido usurpado en esos condominios, huyó por un tiempo de la guerra contra las pandillas, pero retorno recientemente. Pero esta vez, los equipos policiales fueron alertados que regresó a los condominios, intimidando a los habitantes, una práctica que utilizaba junto a otros terroristas contra los vecinos del lugar. El Cumming se encargaba de vender droga, trasladar y esconder los ilícitos, como armas de la pandilla. Al momento del arresto le decomisaron un vehículo del cual, no proporcionó la documentación que acredite que sea de su propiedad. También un celular, con fotografías donde aparece junto a otros pandilleros, quienes ya guardan prisión y sólo el Cumming faltaba por capturar. «Este terrorista pagará por sus crímenes y no volverá a amedrentar a los salvadoreños», afirmó la PNC en su cuenta de X. En los condominios Victoria durante el último gobierno del FMLN los pandilleros controlaban la venta de agua potable y vigilancia. El agua la robaban de una escuela aledaña. Mientras que en el distrito de Quezaltepeque, departamento de La Libertad detuvieron a  José Antonio Cerna Alvarado, alias Espanta o Zurdo, quien es un homeboy de la MS investigado por un homicidio ocurrido en 2021 en las orillas del Río Sucio, en La Libertad. Alias Espanta era el encargado de vigilar la colonia Las Palmas, de Quezaltepeque y avisar sobre la presencia policial. Residencia en la cuál fue aprehendido. «Todo el que causó daño a la población honrada pagará por sus hechos», escribió la Policía en la red X.</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6137,6 +7698,24 @@
           <t>** No disponibles</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@DiarioCoLatino El cielo estará entre despejado y poco nublado, no se esperan precipitaciones. El viento por la mañana y noche será del este y noreste de 10 a 22 km/h y en la tarde del sureste de 8 a 18 kilómetros por hora. Continuará el ambiente bastante fresco la madrugada y primeras horas de la mañana de este día, principalmente …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -6209,6 +7788,24 @@
           <t>** No disponibles</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2015-03-30</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@OscarCoLatino Antonio Hernández, mind coordinador  del Sistema Básico de Salud Integrado (SIBASI) La Libertad y miembro de la Comisión Departamental de Protección Civil, comentó que hasta la fecha se reporta un incremento de enfermedades gastrointestinales, por lo que recomienda a los veraneantes tomar las precauciones necesarias para evitar este tipo de padecimiento. “Hasta el momento tenemos un incremento en el número …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6281,6 +7878,30 @@
           <t>** No se indica la fuente de información.</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Un hombre fue asesinado este martes tras recibir una golpiza de varios sujetos, en el municipio de Quezaltepeque, La Libertad, reportó la Policía Nacional Civil, quien informó del hecho en la tarde del 2 de abril, y aseguró que los agentes de la institución ya investigaban este caso para ubicar a los asesinos. 
+Hasta las 6:40 a.m. de este miércoles, el cuerpo de seguridad no informó en redes sociales sobre la aprehensión de los implicados en el caso. 
+Este sería el primer homicidio que se registra en abril, pues el lunes la Policía aseguró que hubo cero muertes violentas, y sumarían 26 las familias que han perdido a un integrante en lo que va de 2024, según el reporte diario de la PNC. 
+A este informe se suman dos delincuentes que la Policía no registra en sus consolidado mensual, pero que sí reportó diariamente. 
+De forma detallada, en enero unas nueve personas perecieron en hecho violentos en el país, para febrero otros seis salvadoreños fueron asesinados, mientras que en marzo las víctimas confirmadas por la PNC rondaron los 12 casos. 
+El caso de Quezaltepeque no ha sido el único hecho que implica agresiones que se ha registrado en las últimas 24 horas. Este martes fue detenido Gerson Tomás García Ramírez quien, tras una discusión, atacó con un corvo a otro hombre en el cantón Obraje Nuevo, en San Pablo Tacachico, La Libertad. La PNC informó que la víctima fue trasladada a un hospital por lesiones en la espalda. 
+“Nuestros equipos montaron un operativo y capturaron a García, quien se encontraba en estado de ebriedad. Será puesto a disposición de la justicia por lesiones graves”, indicó la institución. 
+Ayer, el ministro de Justicia y Seguridad Pública, Gustavo Villatoro, aseguró que habían arrestado al 92 % de los responsables de los asesinatos cometidos durante este año.
+</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6353,6 +7974,29 @@
           <t>** No se especifica en la noticia.</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, aseguró que han detenido al 92 % de los presuntos responsables de cometer homicidios durante el año 2024, que según él, ocurrieron 24 asesinatos. 
+"De los 24 homicidios que tenemos nosotros, hemos hecho justicia y tenemos responsables en 22, quiere decir que el 92 % somos efectivos, a diferencia del país que recibimos", manifestó Villatoro ayer en la entrevista de Frente a Frente. 
+El funcionario también señaló que hasta el momento ya registran 588 días sin homicidios, que el promedio diario de los asesinatos en el país es de 0.3 y que la tasa de homicidios por cada 100,000 habitantes es de 1.5. 
+En su cuenta de red social X, la Policía Nacional Civil registró 25 asesinatos durante el año al cierre de marzo, sin contar dos reportados como delincuentes. 
+De los homicidios registrados día a día, la PNC reportó 9 en los 31 días de enero, 6 en los 29 días de febrero y 12 en los 31 días de marzo. 
+Los más recientes reportados fueron: el 30 de marzo, el cadáver de un hombre que la organización Desaparecidos SOS identifica como Marcos Gil en Quezaltepeque, La Libertad; y el 31 de marzo, un recién nacido asesinado por su madre en Santa Tecla, La Libertad. 
+La estadística no cuenta a la activista de derechos humanos Rosa Elvira Flores Martínez, de 47 años, que sí fue reportada como asesinada, el 27 de marzo, según la información del Movimiento de Víctimas del Régimen de El Salvador (Movir).
+</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6425,6 +8069,21 @@
           <t>** No se indica en la noticia.</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>La Fiscalía General de la República (FGR) ordenó la detención de integrantes de los programas Shulton y Saylor de la pandilla MS-13 que delinquían en diferentes sectores de San Miguel y Ciudad Barrios. «Se han emitido 79 órdenes de detención administrativa que culminan una investigación que duró aproximadamente un año con diferentes herramientas tecnológicas», dijo un fiscal de la Unidad Especializada de Delitos de Extorsión y Crimen Organizado. La FGR les atribuye los delitos de agrupaciones ilícitas, extorsión agravada, homicidio agravado y tráfico ilícito. «Ellos afectaban diferentes negocios, como farmacias, otros tenían cuotas que oscilaban entre $50, $100 y $200», agregó la fuente fiscal. Entre los detenidos están María René Nobelo, Estela de Jesús Henríquez Chicas, José Fernández Cedillo, Carlos Antonio Ruiz Lazo, Wendy Velásquez, Osiris Cortez López y José Martín Membreño. De las órdenes de captura emitidas por la FGR, 52 son de incriminados que están detenidos en diferentes centros penales del país gracias al régimen de excepción y se les notificarán las nuevas acusaciones. En el operativo se decomisaron $3,250, seis celulares y un pick-up, señaló la Fiscalía.</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6497,6 +8156,21 @@
           <t>** No se indica la fuente de información.</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>El Tribunal Tercero contra el Crimen Organizado de San Salvador, resolvió que dos menores de 16 y 17 años sigan en prisión por el homicidio de un hombre de 55 años, en Colón, La Libertad. El hecho ocurrió el 20 de abril de 2024, cuando los dos menores junto a tres adultos vapulearon a la víctima al momento que pasó frente a ellos, así lo señala la acusación que presentó la Fiscalía General de la República. En la audiencia de imposición de medidas el tribunal ordenó que los adolescentes de 16 y 17 años, sigan presos por los delitos de homicidio agravado en perjuicio de una víctima y agrupaciones ilícitas. En las indagaciones realizadas por las autoridades se determinó que los menores forman parte de la clica Demonios Locos Salvatruchos del programa Libertad, de la Mara Salvatrucha y habían estado delinquiendo en Colón y sus alrededores. Tras analizar la prueba indiciaria que acredita la probable participación de los menores de edad en el cometimiento del delito, el Tribunal ordenó la medida del internamiento provisional y un plazo de 60 días para la investigación. Por este mismo caso, René Ismael Flores Mesquita, Carlos Alfredo Rivas Reyes, Fátima del Carmen Pérez, fueron enviados a prisión. Todos fueron detenidos horas después del crimen. El hecho fue captado por cámaras de videovigilancia instaladas en la colonia Jardines de Colón, en la grabación se observa cuando los imputados atacaron a la víctima.</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -6567,6 +8241,30 @@
       <c r="N81" t="inlineStr">
         <is>
           <t>** No se especifica en la noticia.</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        La policía de Nicaragua entregó a las autoridades de El Salvador a un presunto pandillero de la Mara Salvatrucha que era buscado por homicidio, informó este miércoles la institución. 
+Un comunicado de la policía indicó que en la mañana del miércoles, una patrulla detuvo en las cercanías de un mercado de la capital nicaragüense "al sujeto de nacionalidad salvadoreña Carlos Roberto Del Cid Cruz y/o Daniel Antonio del Cid Cruz, miembro de la mara MS-13, con antecedentes y circulado por homicidio tentado y homicidio agravado". 
+Posterior a su captura, la policía de Nicaragua coordinó con la Oficina de Interpol para América Central, que tiene su sede en San Salvador, la entrega del detenido a la Policía Nacional Civil de El Salvador, añadió la nota. 
+El gobierno del presidente salvadoreño, Nayib Bukele, impulsa una "guerra" contra las pandillas o maras desde el 27 de marzo de 2022, tras una escalada de 87 homicidios en un fin de semana, al amparo de un cuestionado régimen de excepción que permite hacer arrestos sin orden judicial. 
+Las pandillas se financiaban cobrando extorsiones a miles de salvadoreños, principalmente comerciantes y transportistas, y algunos de los miembros de esos grupos han huido a países vecinos para intentar evitar su detención. 
+La cruzada de Bukele devolvió la tranquilidad a las calles y elevó su popularidad, lo que permitió que en febrero fuera reelegido para un segundo mandato de cinco años en El Salvador. 
+Desde el inicio de la "guerra" de Bukele, la policía y el ejército salvadoreño han arrestado a un poco más de 80,000 presuntos pandilleros, según las autoridades. 
+Sin embargo, grupos de derechos humanos sostienen que entre los detenidos hay muchos inocentes y que la "crisis" de derechos humanos puede "perpetuarse" en el país.
+</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -6652,6 +8350,21 @@
         <is>
           <t>**Cita de fuentes de información:**
 La noticia utiliza como fuente de información a la AFP, un organismo no identificado del Instituto Nacional Penitenciario y Carcelario (INPEC) y el ministro de Justicia, Néstor Osuna.</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Guardias de la cárcel La Modelo de Bogotá, cuyo director fue asesinado por sicarios la víspera, trasladaron este viernes a 15 presos hacia otras prisiones, entre ellos el principal sospechoso del crimen. Los reos salieron desde el centro penitenciario en un autobús tras varias horas de operativos, dijo a la AFP una fuente del Instituto Nacional Penitenciario y Carcelario (INPEC) que no quiso revelar su identidad.  En la tarde del jueves, el coronel retirado Elmer Fernández fue asesinado de un disparo en una avenida de la capital cuando se trasladaba en un automóvil sin blindaje de la autoridad penitenciaria.  Entre los presos trasladados está alias «Pedro Pluma», el supuesto encargado de varios negocios ilegales dentro de la prisión que había amenazado al director con notas intimidatorias escritas a mano.  Desde el 4 de abril, Fernández estaba encargado por el gobierno de realizar requisas dentro de las celdas de La Modelo. Por impartir esas órdenes a los guardias, «había recibido una amenaza en un panfleto», aseguró el ministro de Justicia, Néstor Osuna, en rueda de prensa.  La policía realizó operativos en Bogotá durante la noche del jueves, pero el responsable del asesinato no ha sido capturado. Osuna reconoció fallas en el protocolo para proteger al director Fernández, que esta semana había pedido un esquema de seguridad por parte del Estado. El homicidio «nos alerta de que hay que profundizar» en el cuidado de los funcionarios penitenciarios, aseguró. Según el ministro, en los últimos dos años se han registrado 506 amenazas a funcionarios del INPEC. Durante el viernes, los alrededores de la cárcel La Modelo permanecieron con un fuerte contingente policial de fuerzas especiales con armas automáticas y escudos blindados que custodiaban la prisión, donde se encuentran unos 3.000 presos.</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -6740,6 +8453,21 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la cita de fuentes.</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>«Te bajas o te bajas», ordenaron a Margarita Galán, quien no tuvo más remedio que abandonar su candidatura a la alcaldía de Maravatío para no correr la suerte de otros tres aspirantes asesinados en ese municipio mexicano. Como en varias poblaciones del país, en Maravatío (Michoacán, oeste) el crimen organizado depura listas de candidatos a bala o con amenazas para asegurarse el control de cargos locales que serán elegidos el 2 de junio simultáneamente con el nuevo presidente de México. «No puedes participar», advirtieron con insultos los hombres que telefonearon a esta chef de 27 años, según cuenta en su modesta casa de Las Joyas, comunidad rural que se vacía de jóvenes porque migran a Estados Unidos por la violencia y la pobreza. El 26 de febrero, con tres horas de diferencia, fueron asesinados el médico Miguel Reyes y el transportista Armando Pérez, ambos de 58 años, que disputaban la alcaldía. En noviembre fue hallado muerto Dagoberto García, quien también buscaba ser alcalde. Reyes y García pertenecían a Morena, partido del presidente izquierdista Andrés Manuel López Obrador; Pérez, al conservador PAN, y Margarita contendía por Movimiento Ciudadano (centro). Cinco siguen en contienda. Régimen de terror  Los crímenes hundieron a Maravatío en el miedo. Dos hombres en un auto rondan desde hace horas los mítines del nuevo candidato de Morena, Mario Pérez. Ya de noche se detienen, bajan la ventanilla y observan fijamente la reunión, sin un solo policía. «Ese carro no es normal», suspira un miembro de campaña. «Esas son las cosas que nos ponen nerviosos. Nunca nos había pasado», añade pálido. El mitin finaliza y Pérez se rodea de simpatizantes para tomarse fotos. Los sospechosos desaparecen en la penumbra. El candidato, un dentista de 34 años que busca derrotar un cacicazgo de casi un cuarto de siglo del PRD (socialdemócrata) en Maravatío, elude el tema de la inseguridad en público. Tampoco ha pedido protección de autoridades, como sí lo han hecho 96 candidatos en Michoacán. Durante una asamblea en una calle polvorienta, una de sus seguidoras, la profesora Liz Monroy, de 45 años, reconoce que le «da miedo participar» pues para ella la política es sinónimo de «inseguridad». No exagera. El 10 de mayo, cerca de la casa de Margarita, escoltas de dos aspirantes a la alcaldía del vecino Senguio se enfrentaron a tiros al cruzarse en el camino, al parecer debido a una confusión. «No hay condiciones para hablar», dice un integrante de la campaña de Óscar Vidal, candidato a la alcaldía que busca prolongar la hegemonía del PRD en el pueblo.  «¡Ay donde no gane!»   Maravatío está en medio de la guerra que libran cárteles de la droga como Jalisco Nueva Generación o Los Correa. Sin un grupo dominante, la violencia tiene derivas anárquicas en Michoacán, pujante estado agroindustrial donde unas 14 bandas se pelean el tráfico de metanfetaminas y la extorsión. Pero «no se conformaron» con eso y cada vez más buscan «imponer candidatos», señala el fiscal de delitos electorales, Víctor Serrato, quien refiere 39 denuncias de aspirantes a cargos electorales, en su mayoría por amenazas y extorsión. El modus operandi es similar: «Los criminales eligen un candidato» y dicen a los otros «no tienes permiso». «En un municipio la célula delictiva convocó a todos los partidos, menos a uno, y les hizo saber: aquí va a ganar tal. ¡Ay de ustedes donde no gane!», cuenta Antonio Plaza, de 47 años y aspirante a diputado estatal por Michoacán Primero, que retiró diez candidaturas a alcaldías.  Solo en ese estado han sido sustituidos 500 aspirantes, según el Instituto Electoral regional. Michoacán es una de las regiones más violentas de México. Desde 2006, cuando se militarizó la lucha antidrogas, la tasa nacional de homicidios casi se triplicó hasta 23 casos por 100.000 habitantes, y los desaparecidos desde entonces suman más de 100.000. Aunque me maten La criminalidad roza lo insólito. En la subregión michoacana de Tierra Caliente, adonde han sido enviados cientos de soldados para vigilar las elecciones, el cartel Los Viagras montó antenas con equipos robados para cobrar el servicio de internet, según la fiscalía. Además, existen grupos de WhatsApp donde supuestos criminales alardean y cruzan amenazas. La AFP constató que autoridades integran también estos grupos, pero no interactúan.  «Ya no les falta mucho para su día perros», dice un usuario, a lo que otro responde: «sigan soñando jajaja», observó la AFP. Videos de jovencitos armados hasta los dientes se suman a los textos. Pese a las amenazas, candidatas como María Salud Valencia no renuncian.  «Si me van a matar, que sea por defender a mi gente», afirma durante una visita a Morelia, capital de Michoacán, donde esa mañana asesinaron a tiros a cinco hombres.</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -6825,6 +8553,21 @@
 La noticia no indica las fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Desde la multiplicación de las pizzas hasta las lágrimas de las imágenes religiosas, el Vaticano actualizó el viernes sus normas relativas a los acontecimientos sobrenaturales, reconociendo que la imaginación desbordante y la «mentira» podían perjudicar a los fieles. Las nuevas normas, publicadas por el Dicasterio para la Doctrina de la Fe y aprobadas por el papa Francisco, permiten una interpretación más moderada de este tipo de acontecimientos. «En determinadas circunstancias, no todo es blanco o negro», dijo en una rueda de prensa el cardenal argentino Víctor Manuel Fernández, responsable del Dicasterio. «A veces se mezcla una posible reacción divina (…) con pensamientos y fantasías humanas», afirmó. La historia de la Iglesia católica está llena de fenómenos extraños o inexplicables que implican estatuas religiosas u objetos de todo tipo. Hace dos meses, el Vaticano rechazó como falsos los presuntos milagros de una imagen de la Virgen María en la pequeña ciudad de Trevignano Romano, al noroeste de Roma, que no solo habría llorado sangre sino que habría hecho aumentar el tamaño de las pizzas. Las nuevas reglas actualizan las que existían desde 1978 y orientan a los obispos, que hasta ahora tenían libertad para determinar la autenticidad de las visiones y apariciones.  Según el documento, el Vaticano solo ha «resuelto» seis casos de este tipo desde 1950. «Hoy hemos llegado a la convicción de que estas situaciones complicadas, que producen confusión en los fieles, deben evitarse siempre», indica el cardenal Fernández en el documento. Mayor colaboración entre diócesis y el Vaticano Las nuevas reglas exigen una mayor colaboración entre las diócesis y el Vaticano en caso de eventos de este tipo. Además, la decisión final para reconocerlos tendrá que ser aprobada por el Dicasterio, un paso crucial para evitar «delitos, manipulación de personas, daños a la unidad de la Iglesia, beneficios económicos indebidos, errores doctrinales graves, etc. que podrían provocar escándalos y minar la credibilidad de la Iglesia». En el caso de que el fenómeno sea reconocido con un ‘Nihil obstat’ («nada obstaculiza») «esto no implica una declaración de autenticidad de eventuales fenómenos sobrenaturales», apunta el documento. Los fieles pueden «adherirse» a la idea de que se trata de un fenómeno sobrenatural, pero no se trata de una declaración oficial de autenticidad, que por lo general debe evitarse en virtud de las nuevas normas, a menos que el papa lo autorice. Para el cardenal argentino, la mayoría de los grandes sitios de peregrinación de la Iglesia se han desarrollado a lo largo de los años sin declaración oficial sobre la autenticidad del milagro original. En los casos más graves, para evitar cualquier confusión o escándalo, el Dicasterio pedirá al obispo local que declare públicamente que la creencia en el fenómeno no está permitida, y que explique las razones de esta decisión. La Iglesia, subraya el Dicasterio, debe reaccionar más rápidamente, porque estos fenómenos «adquieren proporciones nacionales e incluso mundiales» debido a su difusión en las redes sociales. Los factores a tener en cuenta son «la posibilidad de errores doctrinales, una simplificación excesiva del mensaje del Evangelio o la propagación de una mentalidad sectaria». Otros factores incluyen a los creyentes « »engañados por un acontecimiento atribuido a una iniciativa divina pero que no es más que el producto de la imaginación de alguien» o de personas inclinadas a la «mentira». Según el cardenal Fernández, es imposible conocer el número de acontecimientos sobrenaturales que se producirían cada año, ya que la mayoría son gestionados por las diócesis.</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -6908,6 +8651,21 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.
 **Conclusión:**
 La noticia informa sobre el deport de un pandillero salvadoreño desde Guatemala. La noticia es bien escrita, pero necesita más información sobre las fuentes de información para que sea más completa.</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Un sujeto perteneciente a grupos de pandillas y acusado de un caso de homicidio fue deportado desde Guatemala, país al que había huido en un intento por evadir a las autoridades, según confirmó la Policía Nacional Civil (PNC) El pandillero deportado responde al nombre de Kevin Daniel Flores Portillo, alias Peche, perfilado como miembro activo de las estructuras delincuenciales de la pandilla 18S con grado de homeboy y quien es reclamado por tribunales salvadoreños. Kevin Daniel Flores Portillo, alias Peche, es un homeboy de la 18S, quien cuenta con orden de captura por un juzgado de Apopa, por los delitos de:-Organizaciones terroristas.-Homicidio agravado, hecho registrado en marzo del año 2017.Este sujeto huyó hacia Guatemala de la… pic.twitter.com/kTxIwhuz6k El sujeto es señalado de un caso de homicidio cometido en marzo de 2017. Flores Portillo había huido a Guatemala para evadir su captura, pero el trabajo coordinado entre las autoridades policiales de El Salvador y las guatemaltecas permitieron su ubicación y arresto. La institución policial detalló que el sujeto fue entregado por la Policía de Guatemala y será puesto a disposición de los tribunales correspondientes para que enfrente el proceso por el crimen que se le imputa.</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -7003,6 +8761,21 @@
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes de información.</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>El Juzgado Décimo Segundo de Paz de San Salvador, resolvió que William Francisco Ayala, siga en prisión por haber asesinado a golpes a Carlos Elías Rodríguez Pineda, la madrugada del 1 de mayo de 2024, en los condominios de la colonia Málaga, al sur de San Salvador. Según la acusación presentada por la Fiscalía General de la República, en el Sistema de Emergencia 911 de la Policía Nacional Civil (PNC), ingresó una llamada sobre una pelea entre dos hombres. Cuando los agentes policiales se desplazaron al lugar para verificar la denuncia encontraron el cuerpo de un hombre a quien identificaron como Carlos Elías Rodríguez Pineda. Los policías comenzaron a indagar lo ocurrió y recibieron información de que ambos habían estado ingiriendo bebidas alcohólicas y que tras una discusión se enfrentaron a golpes. Testigos que presenciaron el hecho proporcionaron datos del responsable del crimen y la PNC montó un operativo en la zona para capturarlo por el delito de homicidio. En la audiencia inicial, el juez de la causa accedió a la pretensión del ministerio público y ordenó que Ayala siga en la cárcel mientras dure el proceso en un juzgado de instrucción de San Salvador.</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -7091,6 +8864,21 @@
           <t>La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la solicitud de análisis de la misma.</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Billie Eilish es, sin lugar a duda, una de las estrellas más brillantes de la industria musical, quien ha sorprendido nuevamente a sus seguidores con dos grandes noticias: la primera es el lanzamiento de su tercer álbum de estudio y la segunda es una gira mundial. El álbum fue titulado «Hit me hard and soft», en el que se incluyen diez temas originales que desafían el género. «Hit me hard and soft viaja a través de un vasto y expansivo panorama sonoro, sumergiendo a los oyentes en un espectro completo de emociones», indicó un comunicado de prensa emitido por Universal Music Group. Este álbum fue escrito por Eilish junto con su hermano y colaborador Finneas. Universal Music Group informó que los temas están ya disponibles en todas las plataformas digitales. Estas son las nuevas canciones de la estadounidense: «Skinny», «Lunch, «Chihiro», «Birds of a Feather», «Wildflower», «The Greatest», «L’amour De Ma Vie», «The Diner», «Bittersuite» y «Blue». En cuanto a la gira, llamada «Hit me hard and soft: The Tour», se ha informado que iniciará en el mes de septiembre en Norteamérica y continuará en Europa, Reino Unido, Irlanda y Australia en 2025. Aún no se han brindado mayores detalles al respecto.</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7173,6 +8961,21 @@
         <is>
           <t>**Cita de las fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las fuentes de información.</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>La Policía Nacional Civil (PNC) en colaboración con las autoridades de Guatemala detuvo a Arnulfo Antonio Linares, alias Viejo Pelón, quien era ranflero a nivel nacional y cabecilla del programa Park View, de la Mara Salvatrucha. La Corporación detalló que al ser un ranflero nacional ordenó cientos de crímenes en todo el país. El Viejo Pelón estuvo detenido en el penal de Pavoncito, en Fraijanes, Guatemala, por el delito de comercio, tráfico y almacenamiento ilícito y tenencia ilegal de municiones para armas de fuego. También usaba una identidad falsa para evadir a la justicia. En El Salvador, este terrorista cuenta con antecedentes desde 1994 por: extorsión, tenencia, portación o conducción de armas; posesión y tenencia de droga; comercio, tráfico y almacenamiento de drogas; hurto y hurto calificado, robo y robo agravado; falta a policías, resistencia y desórdenes públicos. Este día fue devuelto a El Salvador en las próximas horas y deberá responder por: tenencia, portación o conducción ilegal de armas de fuego, agrupaciones ilícitas, homicidio agravado. «Alias Viejo pelón, nunca volverá a las calles le espera toda una vida en la cárcel», enfatizó la PNC.</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -7258,6 +9061,21 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede analizar la información de la misma con precisión.</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>El FMLN, a través de su excandidato presidencial, Manuel Flores, se niega aún a reconocer la derrota electoral que tuvo en las elecciones generales de febrero y marzo pasados.Durante su participación en la entrevista Las Cosas como Son, Flores argumentó ayer que su partido perdió las alcaldías que gobernaba -incluidos algunos territorios considerados sus bastiones- a causa de la restructuración municipal que aprobó la Asamblea Legislativa a petición del presidente Nayib Bukele.Con dicha restructuración el territorio salvadoreño quedó conformado por 44 municipios, 262 distritos, en los 14 departamentos. Ningún municipio es gobernado por los efemelenistas, mientras que Nuevas Ideas ganó la mayoría. «Si las elecciones hubieran sido de manera lógica, con los 262 municipios, hubiéramos ganado más de 30 alcaldías», consideró el excandidato.A escala municipal el FMLN solo tiene 22 concejales, según declaró Flores, quien también intentó poner en duda todo el proceso electoral y la cantidad de votos que obtuvo como candidato presidencial, a pesar de que observadores internacionales, como la Misión de Observación Electoral de la Organización de los Estados Americanos (OEA), legitimó los resultados de los procesos electorales del 4 de febrero -en que se eligió presidente y diputados de la Asamblea- y del 3 de marzo, de alcaldes y diputados ante el Parlamento Centroamericano. Esa misión de observación electoral no puso en duda los resultados finales que fueron brindados a la población. Además de no poder gobernar ningún municipio para el periodo 2024-2027, el partido de izquierda tampoco tiene representación de diputados en la Asamblea Legislativa, situación inédita en su historia política.En los comicios de febrero anterior el partido rojo perdió los cuatro escaños que tenía en el congreso. Flores atribuyó también esta pérdida a la restructuración municipal. «Hubiéramos metido ocho o nueve [legisladores en la Asamblea Legislativa», afirmó.</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7336,6 +9154,24 @@
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la información sobre las fuentes de información de la noticia.</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2016-05-27</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+@elder_gomez_2 El gobierno salvadoreño aplaudió la aprobación unánime de $152 millones en Títulos Valores que realizó el jueves la Asamblea Legislativa, viagra sale en medio de intensas negociaciones entre la opositora ARENA y el FMLN, sales por la contraloría en el manejo de los recursos. “Este día el mérito más importante, cialis sale es de la Asamblea”, exclamó el Vicepresidente …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7412,6 +9248,24 @@
       <c r="N91" t="inlineStr">
         <is>
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes de información.</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Joaquín Salazar @JoakinSalazar El 20 de enero inicia el año escolar, ante esto Carla de Varela, ministra de Educación anunció que prepara un plan de seguridad para los contornos de las escuelas, el cual será anunciado próximamente y se sumará al esfuerzo integrado en el plan Control Territorial que ha logrado reducir los principales índices de violencia del país. “El …
+Leer artículo completo 
+</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -7499,6 +9353,43 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Compartir
+ Facebook
+ Twitter
+ Google +
+Artículos relacionados
+Decreto que impone régimen de excepción estará vigente hasta este 10 de mayo
+9 mayo, 2024
+Centros Penales no acata la medida sustitutiva para Levi Morales
+29 abril, 2024
+Las cartas de libertad
+16 abril, 2024
+Samuel Amaya
+@SamuelAmaya98
+La Asamblea Legislativa prorrogó el régimen de excepción a través de una sesión plenaria extraordinaria, la primera de la legislatura. La medida estatal estará vigente por 30 días a partir del 11 de mayo. Los diputados de ARENA votaron en abstención y en contra.
+Desde el 27 de marzo de 2022, la medida estatal ha estado vigente, prórroga tras prórroga pedida desde Casa Presidencial. Esta medida se impuso luego de un repunte en los homicidios, hoy por hoy, se ha convertido en el instrumento para suspender garantías constitucionales de los salvadoreños como la libertad de asociación, inviolabilidad de la correspondencia, derecho a defensa técnica y el plazo de la detención administrativa.
+“Los resultados del Régimen de Excepción, independientemente de las estadísticas de la PNC, no se pueden medir con exactitud, ya que salvar una vida no tiene precio. Muchos salvadoreños se han librado de ser asesinados por las pandillas, sufrir extorsiones y secuestros. Se ha evitado luto y dolor a miles de familias y esto es algo que nunca vamos a poder contabilizar”, comentó el presidente de la Asamblea Legislativa, Ernesto Castro.
+En el contexto del régimen de excepción, según las autoridades, van 497 días sin homicidio. En enero y en febrero se registraron 24 días sin asesinatos; marzo cerró con 21 días sin muertes violentas; mientras que abril, con 19 días sin este tipo de percances. En este mes de mayo ha habido un total de cuatro días sin homicidios.
+Según el ministro de la Defensa, René Francis Merino Monroy, el régimen de excepción ha dejado a 80 mil presuntos pandilleros en las cárceles; se han incautado a más de 4 mil armas de fuego, más de 8,200 vehículos, más de $4 millones en efectivo, más de 14 toneladas de droga y 20,326 celulares decomisados.
+El diputado por Alianza Republicana Nacionalista (ARENA), Francisco Lira, quien votó en abstención, dijo que “en honor a todos esos inocentes, madres, padres, trabajadores, jóvenes, que no tienen vínculos con grupos delincuenciales, debemos proponer una herramienta que no coarte la libertad y que sea efectivo contra la violencia”.
+Lira hizo referencia a las múltiples detenciones arbitrarias de personas que nada tenían que ver con las pandillas; “¿Qué pasa con esas personas que salen libres después de 7, 8 o 10 meses? ¿Quién le devolverá la imagen positiva a esa persona? ¿Y los que perdieron sus trabajos? En eso es que debemos de trabajar y solo juntos podremos lograrlo”, manifestó el legislador.
+Relacionado
+</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -7583,6 +9474,48 @@
         <is>
           <t>**Fuentes de información:**
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información de las mismas.</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        "Te bajas o te bajas", ordenaron a Margarita Galán, quien no tuvo más remedio que abandonar su candidatura a la alcaldía de Maravatío para no correr la suerte de otros tres aspirantes asesinados en ese municipio mexicano. 
+Como en varias poblaciones del país, en Maravatío (Michoacán, oeste) el crimen organizado depura listas de candidatos a bala o con amenazas para asegurarse el control de cargos locales que serán elegidos el 2 de junio simultáneamente con el nuevo presidente de México. 
+"No puedes participar", advirtieron con insultos los hombres que telefonearon a esta chef de 27 años, según cuenta en su modesta casa de Las Joyas, comunidad rural que se vacía de jóvenes porque migran a Estados Unidos por la violencia y la pobreza. 
+Desde el 23 de septiembre, cuando comenzó el proceso electoral, fueron asesinados 28 políticos que aspiraban a cargos electivos en México, según la oenegé Data Cívica. Maravatío, poblado agrícola de 80.000 habitantes, ha puesto la mayor cuota. 
+El 26 de febrero, con tres horas de diferencia, fueron asesinados el médico Miguel Reyes y el transportista Armando Pérez, ambos de 58 años, que disputaban la alcaldía. En noviembre fue hallado muerto Dagoberto García, quien también buscaba ser alcalde. 
+Reyes y García pertenecían a Morena, partido del presidente izquierdista Andrés Manuel López Obrador; Pérez, al conservador PAN, y Margarita contendía por Movimiento Ciudadano (centro). Cinco siguen en contienda.
+Régimen de terror
+Los crímenes hundieron a Maravatío en el miedo. Dos hombres en un auto rondan desde hace horas los mítines del nuevo candidato de Morena, Mario Pérez. Ya de noche se detienen, bajan la ventanilla y observan fijamente la reunión, sin un solo policía. 
+"Ese carro no es normal", suspira un miembro de campaña. "Esas son las cosas que nos ponen nerviosos. Nunca nos había pasado", añade pálido. 
+El mitin finaliza y Pérez se rodea de simpatizantes para tomarse fotos. Los sospechosos desaparecen en la penumbra. 
+El candidato, un dentista de 34 años que busca derrotar un cacicazgo de casi un cuarto de siglo del PRD (socialdemócrata) en Maravatío, elude el tema de la inseguridad en público. Tampoco ha pedido protección de autoridades, como sí lo han hecho 96 candidatos en Michoacán. Comenta a la AFP que su objetivo es ofrecer oportunidades a los jóvenes "para que no anden en otra cosa". 
+Durante una asamblea en una calle polvorienta, una de sus seguidoras, la profesora Liz Monroy, de 45 años, reconoce que le "da miedo participar" pues para ella la política es sinónimo de "inseguridad". 
+No exagera. El 10 de mayo, cerca de la casa de Margarita, escoltas de dos aspirantes a la alcaldía del vecino Senguio se enfrentaron a tiros al cruzarse en el camino, al parecer debido a una confusión. 
+"No hay condiciones para hablar", dice un integrante de la campaña de Óscar Vidal, candidato a la alcaldía que busca prolongar la hegemonía del PRD en el pueblo.
+"¡Ay donde no gane!"
+Maravatío está en medio de la guerra que libran cárteles de la droga como Jalisco Nueva Generación o Los Correa. Sin un grupo dominante, la violencia tiene derivas anárquicas en Michoacán, pujante estado agroindustrial donde unas 14 bandas se pelean el tráfico de metanfetaminas y la extorsión. 
+Pero "no se conformaron" con eso y cada vez más buscan "imponer candidatos", señala el fiscal de delitos electorales, Víctor Serrato, quien refiere 39 denuncias de aspirantes a cargos electorales, en su mayoría por amenazas y extorsión. 
+El modus operandi es similar: "Los criminales eligen un candidato" y dicen a los otros "no tienes permiso". "En un municipio la célula delictiva convocó a todos los partidos, menos a uno, y les hizo saber: aquí va a ganar tal. ¡Ay de ustedes donde no gane!", cuenta Antonio Plaza, de 47 años y aspirante a diputado estatal por Michoacán Primero, que retiró diez candidaturas a alcaldías. 
+Solo en ese estado han sido sustituidos 500 aspirantes, según el Instituto Electoral regional. Michoacán es una de las regiones más violentas de México. Desde 2006, cuando se militarizó la lucha antidrogas, la tasa nacional de homicidios casi se triplicó hasta 23 casos por 100.000 habitantes, y los desaparecidos desde entonces suman más de 100.000. 
+En ese estado el crimen se lucra además de la tala de bosques que albergan a las mariposas Monarca, fijan precios de alimentos y hasta fechas de corte de frutas, denuncian dirigentes locales.
+Aunque me maten
+La criminalidad roza lo insólito. En la subregión michoacana de Tierra Caliente, adonde han sido enviados cientos de soldados para vigilar las elecciones, el cartel Los Viagras montó antenas con equipos robados para cobrar el servicio de internet, según la fiscalía. Además, existen grupos de WhatsApp donde supuestos criminales alardean y cruzan amenazas. La AFP constató que autoridades integran también estos grupos, pero no interactúan. 
+"Ya no les falta mucho para su día perros", dice un usuario, a lo que otro responde: "sigan soñando jajaja", observó la AFP. Videos de jovencitos armados hasta los dientes se suman a los textos. 
+Pese a las amenazas, candidatas como María Salud Valencia no renuncian. 
+Maestra de 60 años y con protección oficial, reconoce que tiene "miedo, pero también valor" para disputar la alcaldía de Nuevo Urecho. 
+"Si me van a matar, que sea por defender a mi gente", afirma durante una visita a Morelia, capital de Michoacán, donde esa mañana asesinaron a tiros a cinco hombres.
+</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -7675,6 +9608,31 @@
           <t>La noticia no contiene ninguna fuente de información, por lo que no se puede proporcionar la solicitud de análisis.</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        La policía guatemalteca entregó a las autoridades salvadoreñas a Arnulfo Antonio Linares, alias “Viejo pelón”, señalado de ser “cabecilla del programa Park View” de la Mara Salvatrucha (MS13). 
+Según la Policía Nacional Civil (PNC), Linares posee antecedentes con la justicia desde 1994 y “al ser un ranflero nacional, ordenó cientos de crímenes en todo el país”. 
+La PNC detalló que “Viejo pelón” habría enfrentado la ley por al menos siete delitos, entre los que contabilizaron:
+ Extorsión Tenencia, portación o conducción de armas Posesión y tenencia de droga Comercio, tráfico y almacenamiento de drogas Hurto y hurto calificado Robo y robo agravado Falta a policías Resistencia Desórdenes públicos   Arnulfo Antonio Linares, alias Viejo pelón, era ranflero a nivel nacional y cabecilla del programa Park View, de la MS13. 
+Al ser un ranflero nacional, ordenó cientos de crímenes en todo el país. 
+Estuvo detenido en el penal de Pavoncito, en Fraijanes, Guatemala, por el delito... pic.twitter.com/B86ePgW0dL
+— PNC El Salvador (@PNCSV) May 17, 2024   Este “angelito” ya se encuentra en nuestro país y será trasladado directamente al #CECOT, donde pagará con años de cárcel y nunca más podrá ver la luz del día. Gustavo Villatoro, ministro de Justicia y Seguridad  
+En su regreso a El Salvador, las autoridades manifestaron que el cabecilla de la MS “deberá responder por” Tenencia, portación o conducción ilegal de armas de fuego; agrupaciones ilícitas y homicidio agravado 
+En su estancia en Guatemala Arnulfo Antonio Linares utilizaba una identidad falsa y estuvo en prisión en el penal de Pavoncito, en el municipio de Fraijanes.
+</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -7758,6 +9716,28 @@
           <t>La información no contiene citas de fuentes de información, por lo que no se puede determinar la fuente de la información de la noticia.</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Cuarto de Paz de Soyapango resolvió en audiencia inicial que Carlos Antonio C. B., un conductor de una ambulancia del Instituto Salvadoreño del Seguro Social (ISSS) continúe en libertad el proceso penal donde es acusado del homicidio culposo de un motociclista que atropelló el 15 de febrero en el bulevar del Ejército, en Soyapango. 
+El juzgado le decretó la instrucción formal bajo medidas sustitutivas de la prisión como no abandonar el país. Durante los seis meses que durará la investigación, servirá para que la Fiscalía pruebe los hechos acusados. 
+Al imputado se le procesa por haber atropellado a José Gabriel Pérez Lizama, de 26 años, un motociclista que al intentar darle paso a la ambulancia con sirena abierta chocó con los separadores y, tras la caída, la ambulancia le pasó le pasó encima. 
+El juez enfatizó en la irresponsabilidad del procesado al conducir la ambulancia con sirena abierta cuando no trasladaba a ningún paciente en estado crítico o que estuviera en riesgo la vida, sino que se dirigía a una curación. 
+En el caso de Fernando Dagoberto Martínez Guzman, el conductor de la motocicleta donde iba la víctima, se le decretó la instrucción formal por no comparecer a la audiencia inicial. 
+El hecho se registró la tarde del 15 de febrero. La víctima murió mientras recibía atención médica.
+</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -7839,6 +9819,26 @@
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede proporcionar la Requested información.</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Las pruebas presentadas por la Fiscalía General de la República no lograron quebrantar la presunción de inocencia de Samuel Elías Delgado Navas, Óscar Remberto Delgado Martínez y Santos Beltrán, quienes fueron acusados de cometer el asesinato del líder del PCN, Ramón Kury Kury.  
+"El Tribunal Tercero de Sentencia emitió un veredicto absolutorio en favor de los imputados Samuel Elías Delgado Navas, Óscar Remberto Delgado Martínez así como también del señor Santos Beltrán, a quienes se les imputaba el delito de homicidio agravado en contra del señor Ramón Kury Kury", confirmó el abogado defensor de los imputados, Carlos Murillo.  Esta es la segunda vez que los tres son absueltos, porque en marzo de 2021 ya habían sido enjuiciados y absueltos por el Tribunal Segundo de Sentencia de San Salvador. Esa vez, el juez concluyó que había diferencias en las pruebas que la Fiscalía presentó. 
+Sin embaro, la Fiscalía - inconforme con la decisión- apeló la sentencia asegurando que estaba "fuera de los parámetros de la legalidad" y la Cámara Segunda de lo Penal de San Salvador le dio la razón, ordenando un nuevo juicio. 
+El 26 de abril de 2018, cerca de las 7:11 de la noche, una persona vestida de negro se acercó a Ramón Kury Kury en la sede del PCN, en la colonia Las Mercedes y le disparó en dos ocasiones, mientras un segundo vigilaba en la sede nacional del partido, y un tercero brindaba transporte de entrada y salida del lugar, según la acusación de Fiscalía.
+</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -7919,6 +9919,31 @@
       <c r="N97" t="inlineStr">
         <is>
           <t>La información no contiene citas a fuentes de información, por lo que no se puede analizar la información para determinar si las fuentes de información son confiables o no.</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Juzgado Segundo de Instrucción de Santa Tecla programó para el próximo 20 de mayo la audiencia preliminar en contra de Carlos Gustavo Jiménez Rodríguez, quien es acusado de matar a su tío el exalcalde del Puerto de la Libertad, Miguel Ángel Jiménez Aguilera, así como a la compañera de vida del exalcalde, Krissia Lorena Muñoz Campos, un hecho del 8 de febrero del 2023. 
+"Señalase la celebración de la audiencia preliminar a las 10:30 de la amaban del 20 de mayo del 2024", dice la notificación del Juzgado Segundo de Instrucción de Santa Tecla. 
+El juzgado también libró oficio al Centro Penal "La Esperanza" para que haga el traslado del imputado a la sala de audiencia. Jiménez Rodríguez es procesado por el delito de homicidio agravado, tenencia y portación y conducción irresponsable de arma de fuego. 
+Según la relación de los hechos de la Fiscalía, Jiménez Rodríguez fue captado en cámaras de video del día de los hechos, el 8 de febrero del 2023, a esto de las 9:10 de la mañana, una vez dentro hizo una llamada hacia un banco, pero la conversación la tuvo el tío donde dio indicaciones que su sobrino llegaría a la agencia bancaria a retirar $10,000. 
+Posterior a la llamada, la acusación dice que el sobrino tomó un arma propiedad del tío y le hizo un disparo a la altura del ojo derecho que le provocó de manera inmediata la muerte, seguido le disparó en dos ocasiones a Krissia Lorena Muñoz, la compañera de vida del exalcalde, un disparo a la altura del pómulo izquierdo y otro a la altura de los labios de lado izquierdo. 
+La acusación dice que una vez cometió el hecho, manipuló la escena para que pareciera que su tío había matado a su compañera de vida y que aparentara que luego se quitó la vida. La tesis principal de la Fiscalía es que el sobrino mató al exalcalde por motivos económicos. 
+En la misma relación de los hechos que presenta la Fiscalía cita a un testigo con régimen de protección, quien aseguró que era normal que el sobrino llegará "como de costumbre" a la casa de su tío, ya que era el encargado de administrar las cuentas bancarias, negocios, y bienes de exalcalde, debido a un poder "para realizar actuaciones bancarias a su nombre, por lo que "frecuentaba" la casa para "rendirle cuentas”. 
+El cuerpo del exalcalde y su compañera de vida fue encontrado a eso de las 5:00 de la tarde del mismo día que el sobrino había hecho las transacciones, y que según el reconocimiento de cadáver teñían de ocho a diez horas de fallecidos. 
+En el dictamen de acusación, la Fiscalía pidió al juzgado que en la audiencia preliminar Jiménez Rodríguez sea enviado a juicio. El imputado permanece en detención desde el 8 del 2023 cuando fue capturado por la Policía Nacional Civil (PNC).
+</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -8015,6 +10040,29 @@
           <t>La texto no contiene ninguna fuente de información, por lo que no se puede analizar la información de la cita de las fuentes.</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        La Fiscalía General de la República (FGR) presentó este jueves ante el Tribunal Primero Contra Crimen Organizado de San Salvador la solicitud de reagrupamiento en contra de 1,828 supuestos miembros de la Mara Salvatrucha (MS-13), que conformaban 11 ciclas delincuenciales. 
+La solicitud busca que una vez agrupados sean judicializados de acuerdo a la estructura organizativa, así mismo, por los rangos que estos ostentaban dentro de la Mara Salvatrucha. 
+La solicitud busca agrupar a 215 mareros de la cicla Bosques Locos Salvatruchos, 135 de la cicla Cangrejeras Locos Salvatruchos, 301 de la cicla Chiltiupanes Locos Salvatruchos, 103 de la clica Melaras Locos Salvatruchos, 42 de la clica Bad Boys Locos Salvatruchos, 77 de la clica City Vagos Locos Salvatruchos, 167 de la clica Ganster Locos Salvatruchos, 82 de la clica Jayaque Locos Salvatruchos, 244 de la clica Joyas de Cerén Locos Salvatruchos, 47 de la clica Sureños Locos Salvatruchos y 416 supuestos mareros de la clica Arces Malditos Locos Salvatruchos. 
+De las 11 clicas, cuatro son del Programa Porteños y siete del Programa Libertad de la Mara Salvatrucha.  Según la solicitud de la Fiscalía, todos los supuestos mareros fueron capturados bajo el régimen de excepción, algunos con rangos de "corredores de ciclas y de programas", otros con rangos de "paros", "observaciones", "encargados de base", "homeboys", "chequeos y "colaboradores". 
+Las solicitudes de la Fiscalía a los tribunales para procesar en grupo a los supuestos pandilleros es justificado a las reformas al Código Procesal aprobadas en julio por la Asamblea Legislativa que permite realizar procesos masivos de miembros de estructuras terroristas sin que sea necesario individualizar las responsabilidades y hechos cometidos por los acusados. 
+"Estas solicitudes atienden al decreto legislativo Número 803 en el cual manda a representación fiscal a agrupar a estas personas según su territorio, a donde ellos tenían su mayor incidencia...vamos a procesar de acuerdo a cada función que ellos tenían dentro de la misma", aseguró el fiscal del caso.  La presentación de la solicitud por los 1,828, se suman a los 5,658 supuestos miembros de la MS-13 a los cuales también ya pidió reagrupar, haciendo un total de 7,486 supuestos pandilleros. Actualmente, la Fiscalía solo ha presentado solicitudes de reagrupación contra la Mara Salvatrucha, no así para las dos facciones de El Barrio 18. 
+El 26 de julio de 2023, la Asamblea Legislativa aprobó un decreto para procesar en grupos a los capturados bajo el régimen de excepción; y un conjunto de reformas a la Ley de Crimen Organizado para aumentar penas a los autores mediatos de 45 a 60 años, así como facilitar la judicialización de algunas pruebas.
+</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -8099,6 +10147,32 @@
 La noticia no contiene ninguna fuente de información, por lo que no se puede determinar si las fuentes de información son confiables o no.</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        La Policía Nacional Civil (PNC) detuvo este jueves a seis estudiantes del Centro Escolar República de Corea, en el distrito de Soyapango, municipio de San Salvador Este, que participaron en una pelea. 
+El ministro de Justicia y Seguridad Pública, Gustavo Villatoro, aseguró que la pelea ocurrió en la institución y que los detenidos serán procesados por desórdenes públicos. 
+Entre los implicados se encuentran Nayeli Naomi Carranza Aragón, de 18 años, y Kimberly Abigail Rosales Sosa, de 19 años. 
+El resto son menores de edad identificados como: A. E. R., de 15 años; J. A. V. R., de 14 años.; H. E. H. G., de 17 años; y B. S. G. S., de 13 años. 
+“En este estado de derecho, tenemos el compromiso de poner a todos estos individuos donde deben de estar: tras la rejas. No queremos más generaciones perdidas”, dijo Villatoro en su cuenta de X.  La Ley Penal Juvenil establece en su segundo artículo que las personas mayores de 12 años pueden ser juzgadas en El Salvador. Más estudiantes implicados
+Esta no es la primera vez que las autoridades de seguridad detienen a estudiantes implicados en algún delito. 
+A inicios de este mes, se conoció el caso de una adolescente de 17 años que, presuntamente, agredió a una compañera de clases, en el Complejo Educativo David J. Guzmán de Chirilagua, San Miguel, dejándola en coma. La detenida fue identificada por la PNC como Emilia A. M.Z. y se le acusa de intento de homicidio. 
+En Soyapango, a la PNC capturó también a Anthony C., estudiante de primer año del Centro Escolar Reino de Dinamarca, a quien se le encontraron dibujos en un cuaderno alusivos a la Mara Salvatrucha (MS-13) y se le acusó de ser miembro de la estructura delictiva. La PNC dijo que este último estudiante sería procesado por agrupaciones ilícitas. 
+A la lista se suman otros dos menores capturados en el distrito de Ilopango, San Salvador Este, identificados como Bryan G., de 16 años y Moisés C., de 17 años. a quienes se les acusó de herir con arma blanca a otro estudiante y pertenecer a la MS-13. 
+Mientras que en marzo pasado, al menos 10 adolescentes fueron capturados en Chalatenango por hacer señales alusivas a las pandillas, de estos siete fueron liberados. 
+</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -8183,6 +10257,31 @@
           <t>La información de la noticia no contiene citas de fuentes de información, por lo que no se puede proporcionar la solicitud de la misma.</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        El Tribunal Tercero de Sentencia de San Salvador reprogramó este jueves por segunda vez el fallo del juicio contra los tres acusados del asesinato del líder del Partido de Concertación Nacional (PCN), Ramón Kury, un hecho que data desde abril del 2018. 
+El tribunal argumentó que dejar sin efecto el señalamiento de fecha de las 2:00 de la tarde de este jueves 16 de mayo fue porque los jueces se encontraban en otra audiencia especial de depuración de prueba, y debido a la abundante prueba era imposible dar el fallo. 
+Es la segunda vez que se reprograma, el pasado 8 de mayo también se suspendió porque los jueces no habían terminado de deliberar, y requerían más tiempo. 
+En el caso son enjuiciados Samuel Elías Delgado Navas, Óscar Remberto Delgado Martínez y Santos Hernández Beltrán, acusados del delito de homicidio agravado. Para los tres acusados, la Fiscalía ha solicitado una pena de 30 años de cárcel para cada uno. 
+Durante el juicio, que inició el pasado 20 de marzo y finalizó el 17 de abril, el tribunal colegiado conoció la prueba documental, pericial y testimonial tanto de la defensa como de la Fiscalía. 
+En total, fueron ocho los testigos que declararon sobre el asesinato del dirigente del PCN, entre ellos, dos con régimen de protección, peritos que se encargaron de hacer los análisis de las cámaras de seguridad que captaron el hecho.
+Absueltos
+Los tres acusados ya fueron absueltos una vez en marzo del 2021 por el Tribunal Segundo de Sentencia de San Salvador, porque el juez concluyó que había diferencias en las pruebas presentadas por la Fiscalía, que no lograron romper el principio de inocencia. 
+El hecho por los cuales son acusador ocurrieron cerca de las 7:11 de la noche del 26 de abril de 2018, una persona vestida de negro se acercó a Ramón Kury y le disparó dos veces, mientras un segundo vigilaba en la sede nacional del partido, y un tercero brindaba transporte de entrada y salida del lugar, según la acusación de Fiscalía.
+</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -8264,6 +10363,21 @@
         <is>
           <t>**Cita de fuentes de información:**
 La noticia no contiene información sobre las fuentes de información, por lo que no se puede proporcionar la cita de fuentes.</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>La Policía Nacional Civil (PNC) capturó ayer en cantón Hato Nuevo, de San Miguel Centro, a un asesino. De acuerdo con las autoridades, la detención se hizo en período de flagrancia, es decir, a menos de 24 horas de haber cometido el crimen. El delito se reportó la mañana del viernes. El cuerpo de la víctima fue localizado a la orilla de la carretera Ruta Militar, en el referido cantón.Asimismo, detallaron que tenía múltiples lesiones provocadas con arma blanca. La PNC montó un operativo en la zona, con el fin de capturar rápidamente al responsable. Horas más tarde, lo consiguió. «Esta mañana informamos sobre el homicidio de una persona en el cantón Hato Nuevo, de San Miguel, sobre la ruta Militar. El responsable ya fue capturado e identificado como Óscar Alberto Bonilla Martínez», informó la PNC. Todavía no se conocen detalles sobre el móvil del homicidio, o si está relacionado con algún grupo delincuencial. La víctima no pudo ser identificada por las autoridades, ya que no portaba ningún documento de identidad y familiares no llegaron a la escena a reconocer el cadáver. En lo que va de mayo, la PNC no reportó muertes violentas en ocho días. Sin embargo, en las jornadas con homicidios, los culpables han sido detenidos en pocas horas, gracias a la rápida intervención de las autoridades. En Ciudad Barrios, de San Miguel Norte, la Fuerza Armada de El Salvador (FAES) entregó a la PNC a Pedro Antonio Segovia Gaitán, alias «Cebolla», un homeboy de la pandilla 18 Sureños, con un amplio historial criminal. «Este gatillero posee antecedentes por homicidio, homicidio agravado y tenencia, portación o conducción ilegal o irresponsable de arma de fuego», declaró el ministro de Defensa, Francis Merino Monroy. Desde junio de 2019, los salvadoreños experimentan una reducción de asesinatos como resultado de la estrategia de seguridad del presidente de la república, Nayib Bukele. Recientemente, el funcionario indicó que en 2018 la tasa de homicidios era de aproximadamente 50 por cada 100,000 habitantes y que a medida fue implementado el Plan Control Territorial (PCT), en sus diferentes fases, han logrado reducir esa tasa en 2. 4 en 2023.</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
         </is>
       </c>
     </row>
@@ -8349,6 +10463,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Ayer, en horas de la noche, un conductor protagonizó un siniestro vial debido a conducir bajo los efectos del alcohol. El hecho ocurrió en la zona occidental el país. Las autoridades del Viceministerio de Transporte (VMT) le realizaron una prueba de alcoholemia al conductor implicado, arrojando como resultado 211 mg/dl de alcohol en aire espirado. Por el momento, la identidad del conductor en estado de ebriedad se desconoce, pero fue detenido por el delito de conducción peligrosa. En las últimas horas, 13 fueron detenidas por este delito, según el VMT. «En las últimas horas, sacamos de circulación a 13 conductores peligrosos en diferentes puntos de control antidoping en todo el país», detalló el VMT en su cuenta de X. Como parte de las medidas preventivas para garantizar la seguridad vial, el VMT ejecuta controles antidoping en diferentes puntos del país. Estos controles han resultado en la detención de conductores peligrosos que ponían en riesgo a las demás personas en la vía. Según el director de Tránsito, Alfredo Alvayero, hasta el 4 de mayo de este año se habían realizado más de 30,000 pruebas de alcoholemia en lo que va del 2024, lo que representa el doble que el año pasado. Además, explicó que en ese mismo periodo de tiempo habían sido detenidos 803 conductores peligrosos, un 46 % más que en 2023. Ante este escenario, las autoridades hicieron el llamado de respetar las normas de tránsito y evitar manejar bajo la influencia del alcohol.</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -8434,6 +10563,21 @@
 La noticia no indica fuentes de información, por lo que no se puede proporcionar la información sobre las fuentes de información.</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Ayer, sábado 18 de mayo, El Salvador registró cero homicidios en el territorio, lo que marca un avance en el esfuerzo continuo del gobierno y las fuerzas de seguridad por garantizar la tranquilidad de la población salvadoreña. «Finalizamos el sábado 18 de mayo, con 0 homicidios en el país», detalló la Policía Nacional Civil en su cuenta oficial de X (antes Twitter). El Ejecutivo ha implementado una serie de políticas de seguridad que han dado como resultado la captura de miles de pandilleros. La estrategia incluye la modernización del equipo policial, el despliegue de los equipos en las calles y, entre otras, una intensa campaña contra las pandillas. #ElSalvador | La @PNCSV informó que el sábado 18 de mayo se finalizó con 0 homicidios en el país. https://t.co/cz6Afcj16g En el pasado, El Salvador fue conocido por sus altas tasas de homicidios debido a las pandillas. Sin embargo, el Plan Control Territorial y el régimen de excepción han dado como resultado la captura de estos terroristas. Gracias a estos avances en materia de seguridad, el país se ha convertido en un modelo a seguir para otras naciones, quienes se han mostrado interesadas en conocer el «modelo Bukele» para combatir a las pandillas.</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -8523,6 +10667,21 @@
 La noticia se basa en información de la Agencia Francesa de Prensa (AFP) y no se indica otras fuentes de información.</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Berta García se siente cansada y enferma tras buscar durante ocho años a su hijo Manuel, uno de los más de 100.000 desaparecidos en un México asolado por la violencia del narcotráfico. No está de ánimo para escuchar las propuestas de los candidatos a las elecciones presidenciales y legislativas del 2 de junio, y tiene poca esperanza de encontrar con vida a su hijo desaparecido en 2016 en el estado de Chihuahua (norte).  «Ofrecen y ofrecen, pero a la mera hora no nos cumplen», dice la mujer a la AFP.  La violencia del crimen organizado deja más de 450.000 asesinatos desde que el presidente conservador Felipe Calderón (2006-2012) lanzó una ofensiva militar contra el narcotráfico en 2006. ¿Cómo deja la seguridad el presidente saliente? López Obrador priorizó atender las causas de la violencia, como la pobreza y la desigualdad, antes que el ataque a las mafias, una política que denomina «abrazos, no balazos». Sin embargo, la tasa de homicidios se mantiene arriba de 23 por cada 100.000 habitantes, superior al promedio latinoamericano, según el centro de análisis Insight Crime. Poderosos cárteles ejercen control en varias regiones y están involucrados en otros delitos como tráfico de migrantes, extorsión, secuestro o robo de combustible. Las principales organizaciones son el Cártel Jalisco Nueva Generación y el Cártel de Sinaloa, con ramificaciones en varios países. También operan otras bandas que disputan a sangre y fuego sus cuotas en la actividad criminal. Grupos delincuenciales «se están dando cuenta que es posible crecer más porque no hay ninguna estrategia para frenar» su accionar, dijo a la AFP Falko Ernst, analista de Crisis Group.   ¿Qué proponen las candidatas favoritas?   Sheinbaum, amplia favorita en la intención de voto, promete mantener la estrategia de López Obrador de atacar la criminalidad desde las raíces. La exalcaldesa de Ciudad de México argumenta que frenar la violencia no es cuestión de «mano dura» y niega que López Obrador se haya cruzado de brazos. Por ello plantea nuevos programas sociales para jóvenes.   Por su parte Gálvez, segunda en las encuestas, ha puesto la inseguridad en el centro de su campaña bajo el lema «se acabaron los abrazos a los delincuentes».  Plantea además atrapar a los criminales más buscados con apoyo del ejército, construir una cárcel para los más peligrosos y mejorar los salarios de los policías para que no se corrompan.  ¿Qué dicen los expertos? Para analistas como Raúl Benítez, experto en seguridad y crimen organizado, las propuestas de las principales aspirantes apenas si varían con respecto a políticas anteriores. Benítez considera clave mejorar la coordinación entre jueces, policías, fiscales y agencias de inteligencia, algo que a su juicio logró Sheinbaum como jefa de gobierno de la capital (2018-2023). El reto es aplicar esa coordinación en un país de 129 millones de habitantes, lo que demanda recursos cuantiosos para reparar una «cadena de justicia rota», señala Carlos Rodríguez, consultor en seguridad e inteligencia. No en vano Berta García se siente desesperada de lidiar con la fiscalía estatal para encontrar al menos los restos de su hijo. «No nos dicen nada nuevo». Falko Ernst sugiere crear enclaves dentro del mismo Estado con el personal más capaz y confiable, pues a menudo las instituciones de seguridad son señaladas de desidia y corrupción.  «Si no luchamos contra la corrupción y la impunidad, no se van a resolver las cosas», estimó Guadalupe Correa Cabrera, profesora de la Universidad estadounidense George Mason, en una mesa redonda en el Wilson Center. ¿Qué implicaría el regreso de Trump? México ya está bajo fuerte presión del gobierno del presidente demócrata Joe Biden para frenar el tráfico de fentanilo, opioide sintético al que se atribuyen decenas de miles de muertes por sobredosis cada año en Estados Unidos.  Ante la posibilidad de que Donald Trump regrese a la Casa Blanca, los expertos vislumbran una presión aún mayor en temas como narcotráfico y migración. México debe «tener listo un plan B de replanteamiento integral de la relación bilateral de cara a este escenario», advierte Arturo Sarukhán, exembajador mexicano en Estados Unidos.</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -8607,6 +10766,21 @@
           <t>La fuente de la noticia no se indica en el texto, por lo que no se puede extraer la información de la fuente de la noticia.</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Un adolescente en Brasil asesinó a tiros a sus padres y a su hermana luego que le quitaran el teléfono celular. El propio joven fue quien confesó el crimen a las autoridades policiales y narró con detalles lo acontecido, según señalan medios internacionales. El adolescente, de 16 años de edad, se entregó a la Policía Militar en la madrugada del pasado lunes y confesó haber atacado con arma de fuego a sus padres y a su hermana, de la misma edad, porque le confiscaron su teléfono celular, lo que le impidió hacer una presentación escolar. El hecho ocurrió en Sao Paulo. Los padres, de 57 y 50 años de edad, habían tomado el teléfono celular tras una fuerte discusión ocurrida el día jueves, cuando sus padres señalaron que procederían con la confiscación del teléfono del joven a manera de castigo. Esto provocó que el viernes el adolescente cometiera el crimen y mantuviera los cadáveres en la vivienda durante el fin de semana, hasta la madrugada del lunes, cuando confesó el crimen. El triple homicidio fue cometido con el arma reglamentaria de su padre, quien es guardia municipal. Medios internacionales señalan que las autoridades ya remitieron al joven a un centro de detención y que será procesado por los delitos de homicidio, feminicidio, portación ilegal de un arma y de vilipendiar un cadáver. Durante su confesión, aseguran las autoridades, el joven no mostró signos de arrepentimiento. Las autoridades han señalaron que el joven asesinó a su padre de un disparo en el cuello mientras estaba en la cocina. La confesión del joven asegura que el plan original era asesinar únicamente a su padre, pero que su hermana se asustó al escuchar el disparo y, al verla como testigo del hecho, subió las escaleras y le disparó en el rostro. Tras esto, el joven fue al gimnasio a ejercitarse y, luego, volvió a casa a esperar a su madre. Al verla llegar del trabajo, le disparó por la espalda y, posteriormente, apuñaló el cuerpo inerte de su progenitora. Durante el fin de semana, el joven convivió con los tres cadáveres hasta que, el lunes por la madrugada y ante el inminente estado de descomposición, llamó a la Policía, quienes encontraron el arma homicida en la mesa de la sala junto a los cuerpos.</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -8690,6 +10864,21 @@
           <t>La texto no contiene información sobre la fuente de la noticia, por lo que no se puede extraer la información de la fuente de la noticia.</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>A 20 años de cárcel fue condenado el terrorista de la Mara Salvatrucha, Mario Giovanni Melgar Díaz, por el homicidio de Edwin Eduardo Menjívar Ortiz, el 10 de septiembre de 2014. El pandillero fue enjuiciado como imputado ausente en el Tribunal Primero de Sentencia de Santa Tecla, La Libertad, la vista pública fue realizada gracias a las reformas del Código Procesal Penal que permiten a los jueces procesar a personas prófugas. Se estableció que Menjívar Ortiz y un testigo con régimen de protección clave «Salvador», fueron privados de libertad en la zona rural de San Pablo Tacachico por ocho miembros de la Mara Salvatrucha, quienes los acusaron de ser de la pandilla 18 y les exigían armas de fuego, que según ellos, tenían escondidas. Clave «Salvador», quien logró sobrevivir, dijo en su declaración que «los detuvieron y exigieron que caminaran en dirección al río, les pegaban con corvos y cachas de pistolas y además los quemaban con cigarrillos de marihuana». El testigo manifestó que en un descuido de los pandilleros logró escapar y esconderse, que su amigo, Edwin Eduardo, corrió por una vereda, pero fue alcanzado y posteriormente escuchó unos disparos.</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
